--- a/EE/generated/referenceTable.xlsx
+++ b/EE/generated/referenceTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\rbg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\generated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD5D676-DC28-4645-A3C7-E1AC1FC334FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED561B3-4B66-4F86-B3BC-B49BE06E47BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7785" activeTab="3" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
+    <workbookView minimized="1" xWindow="705" yWindow="0" windowWidth="17745" windowHeight="10905" activeTab="3" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Block A" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Block E" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Block D'!$A$1:$C$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Block D'!$A$1:$C$199</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Block E'!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5422" uniqueCount="5206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5430" uniqueCount="5214">
   <si>
     <t>aasim.cre</t>
   </si>
@@ -14677,9 +14677,6 @@
     <t>bdsleep3.cre</t>
   </si>
   <si>
-    <t>xad113.cre</t>
-  </si>
-  <si>
     <t>bdrefgf2.cre</t>
   </si>
   <si>
@@ -14722,9 +14719,6 @@
     <t>bdthug07.cre</t>
   </si>
   <si>
-    <t>xad133.cre</t>
-  </si>
-  <si>
     <t>bdrefgm3.cre</t>
   </si>
   <si>
@@ -14737,15 +14731,9 @@
     <t>bdsail04.cre</t>
   </si>
   <si>
-    <t>xad150.cre</t>
-  </si>
-  <si>
     <t>bdrat.cre</t>
   </si>
   <si>
-    <t>xad153.cre</t>
-  </si>
-  <si>
     <t>bd0103.are</t>
   </si>
   <si>
@@ -14785,21 +14773,12 @@
     <t>imoen09.wav</t>
   </si>
   <si>
-    <t>xad10015.wav</t>
-  </si>
-  <si>
     <t>imoen19.wav</t>
   </si>
   <si>
-    <t>xad10014.wav</t>
-  </si>
-  <si>
     <t>imoen17.wav</t>
   </si>
   <si>
-    <t>xad10013.wav</t>
-  </si>
-  <si>
     <t>imoen10.wav</t>
   </si>
   <si>
@@ -14896,9 +14875,6 @@
     <t>imoen14.wav</t>
   </si>
   <si>
-    <t>xad10034.wav</t>
-  </si>
-  <si>
     <t>tiaxx01.wav</t>
   </si>
   <si>
@@ -14917,9 +14893,6 @@
     <t>tiaxx05.wav</t>
   </si>
   <si>
-    <t>xad10038.wav</t>
-  </si>
-  <si>
     <t>tiaxx06.wav</t>
   </si>
   <si>
@@ -15064,9 +15037,6 @@
     <t>tiaxx31.wav</t>
   </si>
   <si>
-    <t>xad10064.wav</t>
-  </si>
-  <si>
     <t>tiaxx35.wav</t>
   </si>
   <si>
@@ -15103,9 +15073,6 @@
     <t>tiaxx41.wav</t>
   </si>
   <si>
-    <t>xad10072.wav</t>
-  </si>
-  <si>
     <t>tiaxx32.wav</t>
   </si>
   <si>
@@ -15166,12 +15133,6 @@
     <t>xad10087.wav</t>
   </si>
   <si>
-    <t>xad10091.wav</t>
-  </si>
-  <si>
-    <t>xad10093.wav</t>
-  </si>
-  <si>
     <t>xad10094.wav</t>
   </si>
   <si>
@@ -15199,15 +15160,6 @@
     <t>bd68983.wav</t>
   </si>
   <si>
-    <t>xad10108.wav</t>
-  </si>
-  <si>
-    <t>xad10109.wav</t>
-  </si>
-  <si>
-    <t>xad10110.wav</t>
-  </si>
-  <si>
     <t>ggmal03.wav</t>
   </si>
   <si>
@@ -15220,9 +15172,6 @@
     <t>ggmal02.wav</t>
   </si>
   <si>
-    <t>xad10125.wav</t>
-  </si>
-  <si>
     <t>malsal05.wav</t>
   </si>
   <si>
@@ -15235,15 +15184,9 @@
     <t>malsal02.wav</t>
   </si>
   <si>
-    <t>xad10135.wav</t>
-  </si>
-  <si>
     <t>malsal03.wav</t>
   </si>
   <si>
-    <t>xad10136.wav</t>
-  </si>
-  <si>
     <t>xad101.baf</t>
   </si>
   <si>
@@ -15307,15 +15250,9 @@
     <t>xad125.baf</t>
   </si>
   <si>
-    <t>xad135.baf</t>
-  </si>
-  <si>
     <t>bdsailor.baf</t>
   </si>
   <si>
-    <t>xad151.baf</t>
-  </si>
-  <si>
     <t>bdimoenm.bmp</t>
   </si>
   <si>
@@ -15325,9 +15262,6 @@
     <t>tiaxs.bmp</t>
   </si>
   <si>
-    <t>xad110.bmp</t>
-  </si>
-  <si>
     <t>tiaxl.bmp</t>
   </si>
   <si>
@@ -15505,24 +15439,9 @@
     <t>xad119.cre</t>
   </si>
   <si>
-    <t>xad121.cre</t>
-  </si>
-  <si>
-    <t>xad126.cre</t>
-  </si>
-  <si>
-    <t>xad129.cre</t>
-  </si>
-  <si>
     <t>xad134.cre</t>
   </si>
   <si>
-    <t>xad144.cre</t>
-  </si>
-  <si>
-    <t>xad147.cre</t>
-  </si>
-  <si>
     <t>xad151.cre</t>
   </si>
   <si>
@@ -15541,9 +15460,6 @@
     <t>xad10022.wav</t>
   </si>
   <si>
-    <t>xad10028.wav</t>
-  </si>
-  <si>
     <t>xad10032.wav</t>
   </si>
   <si>
@@ -15553,24 +15469,12 @@
     <t>xad10066.wav</t>
   </si>
   <si>
-    <t>xad10092.wav</t>
-  </si>
-  <si>
     <t>xad10097.wav</t>
   </si>
   <si>
-    <t>xad10098.wav</t>
-  </si>
-  <si>
     <t>xad10102.wav</t>
   </si>
   <si>
-    <t>xad10103.wav</t>
-  </si>
-  <si>
-    <t>xad10104.wav</t>
-  </si>
-  <si>
     <t>xad10111.wav</t>
   </si>
   <si>
@@ -15580,48 +15484,21 @@
     <t>xad10113.wav</t>
   </si>
   <si>
-    <t>xad10126.wav</t>
-  </si>
-  <si>
-    <t>xad10127.wav</t>
-  </si>
-  <si>
     <t>xad10128.wav</t>
   </si>
   <si>
-    <t>xad10137.wav</t>
-  </si>
-  <si>
     <t>xad10138.wav</t>
   </si>
   <si>
     <t>xad10139.wav</t>
   </si>
   <si>
-    <t>xad10145.wav</t>
-  </si>
-  <si>
-    <t>xad10146.wav</t>
-  </si>
-  <si>
     <t>xad123.baf</t>
   </si>
   <si>
     <t>xad124.baf</t>
   </si>
   <si>
-    <t>xad128.baf</t>
-  </si>
-  <si>
-    <t>xad138.baf</t>
-  </si>
-  <si>
-    <t>xad154.baf</t>
-  </si>
-  <si>
-    <t>xad158.baf</t>
-  </si>
-  <si>
     <t>xad159.baf</t>
   </si>
   <si>
@@ -15643,12 +15520,6 @@
     <t>xad101.itm</t>
   </si>
   <si>
-    <t>xad105.itm</t>
-  </si>
-  <si>
-    <t>xad109.itm</t>
-  </si>
-  <si>
     <t>xac111.baf</t>
   </si>
   <si>
@@ -15662,6 +15533,159 @@
   </si>
   <si>
     <t>xac105.itm</t>
+  </si>
+  <si>
+    <t>bdffwiz.cre</t>
+  </si>
+  <si>
+    <t>xad111.cre</t>
+  </si>
+  <si>
+    <t>xad120.cre</t>
+  </si>
+  <si>
+    <t>xad122.cre</t>
+  </si>
+  <si>
+    <t>xad127.cre</t>
+  </si>
+  <si>
+    <t>xad130.cre</t>
+  </si>
+  <si>
+    <t>xad135.cre</t>
+  </si>
+  <si>
+    <t>xad145.cre</t>
+  </si>
+  <si>
+    <t>xad148.cre</t>
+  </si>
+  <si>
+    <t>xad152.cre</t>
+  </si>
+  <si>
+    <t>xad155.cre</t>
+  </si>
+  <si>
+    <t>schaell.bmp</t>
+  </si>
+  <si>
+    <t>xad100.bmp</t>
+  </si>
+  <si>
+    <t>xad116.bmp</t>
+  </si>
+  <si>
+    <t>xad10025.wav</t>
+  </si>
+  <si>
+    <t>xad10031.wav</t>
+  </si>
+  <si>
+    <t>xad10035.wav</t>
+  </si>
+  <si>
+    <t>xad10061.wav</t>
+  </si>
+  <si>
+    <t>xad10069.wav</t>
+  </si>
+  <si>
+    <t>xad10088.wav</t>
+  </si>
+  <si>
+    <t>xad10089.wav</t>
+  </si>
+  <si>
+    <t>xad10090.wav</t>
+  </si>
+  <si>
+    <t>xad10095.wav</t>
+  </si>
+  <si>
+    <t>xad10100.wav</t>
+  </si>
+  <si>
+    <t>xad10101.wav</t>
+  </si>
+  <si>
+    <t>xad10105.wav</t>
+  </si>
+  <si>
+    <t>xad10106.wav</t>
+  </si>
+  <si>
+    <t>xad10107.wav</t>
+  </si>
+  <si>
+    <t>xad10114.wav</t>
+  </si>
+  <si>
+    <t>xad10115.wav</t>
+  </si>
+  <si>
+    <t>xad10116.wav</t>
+  </si>
+  <si>
+    <t>xad10129.wav</t>
+  </si>
+  <si>
+    <t>xad10130.wav</t>
+  </si>
+  <si>
+    <t>xad10131.wav</t>
+  </si>
+  <si>
+    <t>xad10140.wav</t>
+  </si>
+  <si>
+    <t>xad10141.wav</t>
+  </si>
+  <si>
+    <t>xad10142.wav</t>
+  </si>
+  <si>
+    <t>xad10148.wav</t>
+  </si>
+  <si>
+    <t>xad10149.wav</t>
+  </si>
+  <si>
+    <t>bdangath.baf</t>
+  </si>
+  <si>
+    <t>xad126.baf</t>
+  </si>
+  <si>
+    <t>xad129.baf</t>
+  </si>
+  <si>
+    <t>xad136.baf</t>
+  </si>
+  <si>
+    <t>xad139.baf</t>
+  </si>
+  <si>
+    <t>xad152.baf</t>
+  </si>
+  <si>
+    <t>xad155.baf</t>
+  </si>
+  <si>
+    <t>xad160.baf</t>
+  </si>
+  <si>
+    <t>bdring07.itm</t>
+  </si>
+  <si>
+    <t>xad106.itm</t>
+  </si>
+  <si>
+    <t>xad107.itm</t>
+  </si>
+  <si>
+    <t>xad111.itm</t>
   </si>
 </sst>
 </file>
@@ -54956,7 +54980,7 @@
         <v>4026</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>5201</v>
+        <v>5158</v>
       </c>
       <c r="C84" s="1" t="str">
         <f t="shared" si="2"/>
@@ -54968,7 +54992,7 @@
         <v>3802</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>5202</v>
+        <v>5159</v>
       </c>
       <c r="C85" s="1" t="str">
         <f t="shared" si="2"/>
@@ -55004,7 +55028,7 @@
         <v>3102</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>5203</v>
+        <v>5160</v>
       </c>
       <c r="C88" s="1" t="str">
         <f t="shared" si="2"/>
@@ -55040,7 +55064,7 @@
         <v>4851</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>5204</v>
+        <v>5161</v>
       </c>
       <c r="C91" s="1" t="str">
         <f t="shared" si="2"/>
@@ -55100,7 +55124,7 @@
         <v>4741</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>5205</v>
+        <v>5162</v>
       </c>
       <c r="C96" s="1" t="str">
         <f t="shared" si="2"/>
@@ -55503,10 +55527,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F845C5-1DFB-4DB9-9EFF-7FD24A274361}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55527,7 +55551,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4844</v>
       </c>
@@ -55539,7 +55563,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4845</v>
       </c>
@@ -55551,7 +55575,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4846</v>
       </c>
@@ -55563,7 +55587,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4847</v>
       </c>
@@ -55575,7 +55599,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3995</v>
       </c>
@@ -55587,9 +55611,9 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4863</v>
+        <v>5163</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4866</v>
@@ -55599,9 +55623,9 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4865</v>
+        <v>4863</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4868</v>
@@ -55611,9 +55635,9 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4867</v>
+        <v>4865</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4870</v>
@@ -55623,9 +55647,9 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4869</v>
+        <v>4867</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4872</v>
@@ -55635,9 +55659,9 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>4871</v>
+        <v>4869</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4874</v>
@@ -55647,360 +55671,360 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4873</v>
+        <v>4871</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5151</v>
+        <v>5129</v>
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>4875</v>
+        <v>4873</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4877</v>
+        <v>5164</v>
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>4876</v>
+        <v>4875</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4879</v>
+        <v>4878</v>
       </c>
       <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>4878</v>
+        <v>4876</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4881</v>
+        <v>4880</v>
       </c>
       <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>4880</v>
+        <v>4877</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4883</v>
+        <v>4882</v>
       </c>
       <c r="C16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>4882</v>
+        <v>4879</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4885</v>
+        <v>4884</v>
       </c>
       <c r="C17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>4884</v>
+        <v>4881</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4887</v>
+        <v>4886</v>
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>4886</v>
+        <v>4883</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5152</v>
+        <v>5130</v>
       </c>
       <c r="C19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>4201</v>
+        <v>4885</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5153</v>
+        <v>5165</v>
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>4888</v>
+        <v>4201</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5154</v>
+        <v>5166</v>
       </c>
       <c r="C21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>4889</v>
+        <v>4887</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5155</v>
+        <v>5167</v>
       </c>
       <c r="C22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>4890</v>
+        <v>4888</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>4892</v>
+        <v>5168</v>
       </c>
       <c r="C23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>4891</v>
+        <v>4889</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5156</v>
+        <v>5131</v>
       </c>
       <c r="C24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>4893</v>
+        <v>4890</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5157</v>
+        <v>5169</v>
       </c>
       <c r="C25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>4894</v>
+        <v>4891</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5158</v>
+        <v>5170</v>
       </c>
       <c r="C26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>4895</v>
+        <v>4892</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>4897</v>
+        <v>5171</v>
       </c>
       <c r="C27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>4896</v>
+        <v>4893</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5159</v>
+        <v>5132</v>
       </c>
       <c r="C28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>3524</v>
+        <v>4894</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4899</v>
+        <v>5172</v>
       </c>
       <c r="C29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>4898</v>
+        <v>3524</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5160</v>
+        <v>5133</v>
       </c>
       <c r="C30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>4900</v>
+        <v>4895</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4901</v>
+        <v>5173</v>
       </c>
       <c r="C31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>are</v>
+        <v>cre</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>4902</v>
+        <v>4896</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4903</v>
+        <v>4897</v>
       </c>
       <c r="C32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>are</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>1308</v>
+        <v>4898</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>4904</v>
+        <v>4899</v>
       </c>
       <c r="C33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
+        <v>are</v>
       </c>
     </row>
     <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>1310</v>
+        <v>5070</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>4905</v>
+        <v>5075</v>
       </c>
       <c r="C34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
+        <f>RIGHT(B34,3)</f>
+        <v>bmp</v>
       </c>
     </row>
     <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>1652</v>
+        <v>5069</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>4906</v>
+        <v>5073</v>
       </c>
       <c r="C35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
+        <f>RIGHT(B35,3)</f>
+        <v>bmp</v>
       </c>
     </row>
     <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>1654</v>
+        <v>5174</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>4907</v>
+        <v>5175</v>
       </c>
       <c r="C36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
+        <f>RIGHT(B36,3)</f>
+        <v>bmp</v>
       </c>
     </row>
     <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>3999</v>
+        <v>5076</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>4908</v>
+        <v>5176</v>
       </c>
       <c r="C37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
+        <f>RIGHT(B37,3)</f>
+        <v>bmp</v>
       </c>
     </row>
     <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>4001</v>
+        <v>5074</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>4910</v>
+        <v>5153</v>
       </c>
       <c r="C38" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
+        <f>RIGHT(B38,3)</f>
+        <v>bmp</v>
       </c>
     </row>
     <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>4003</v>
+        <v>5072</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>4911</v>
+        <v>5152</v>
       </c>
       <c r="C39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
+        <f>RIGHT(B39,3)</f>
+        <v>bmp</v>
       </c>
     </row>
     <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>5071</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>5161</v>
+        <v>5077</v>
       </c>
       <c r="C40" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
+        <f>RIGHT(B40,3)</f>
+        <v>bmp</v>
       </c>
     </row>
     <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>4909</v>
+        <v>1308</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>5162</v>
+        <v>4900</v>
       </c>
       <c r="C41" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56009,10 +56033,10 @@
     </row>
     <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>1310</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5163</v>
+        <v>4901</v>
       </c>
       <c r="C42" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56021,10 +56045,10 @@
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>4921</v>
+        <v>1652</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>4928</v>
+        <v>4902</v>
       </c>
       <c r="C43" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56033,10 +56057,10 @@
     </row>
     <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>4912</v>
+        <v>1654</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>4926</v>
+        <v>4903</v>
       </c>
       <c r="C44" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56045,10 +56069,10 @@
     </row>
     <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>4914</v>
+        <v>3999</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>4924</v>
+        <v>4904</v>
       </c>
       <c r="C45" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56057,10 +56081,10 @@
     </row>
     <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>4916</v>
+        <v>4001</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>4922</v>
+        <v>4906</v>
       </c>
       <c r="C46" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56069,10 +56093,10 @@
     </row>
     <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>4918</v>
+        <v>4003</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>4913</v>
+        <v>4907</v>
       </c>
       <c r="C47" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56081,10 +56105,10 @@
     </row>
     <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>4919</v>
+        <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>4915</v>
+        <v>5134</v>
       </c>
       <c r="C48" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56093,10 +56117,10 @@
     </row>
     <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>4920</v>
+        <v>4905</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>4917</v>
+        <v>5135</v>
       </c>
       <c r="C49" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56105,10 +56129,10 @@
     </row>
     <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>4923</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>4930</v>
+        <v>5136</v>
       </c>
       <c r="C50" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56117,10 +56141,10 @@
     </row>
     <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>4925</v>
+        <v>4918</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>4932</v>
+        <v>4929</v>
       </c>
       <c r="C51" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56129,10 +56153,10 @@
     </row>
     <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>4916</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>4927</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>5164</v>
       </c>
       <c r="C52" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56141,10 +56165,10 @@
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>4929</v>
+        <v>4914</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>4934</v>
+        <v>5137</v>
       </c>
       <c r="C53" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56153,10 +56177,10 @@
     </row>
     <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>4931</v>
+        <v>4908</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>4936</v>
+        <v>4925</v>
       </c>
       <c r="C54" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56165,10 +56189,10 @@
     </row>
     <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>4933</v>
+        <v>4909</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>4939</v>
+        <v>4923</v>
       </c>
       <c r="C55" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56177,10 +56201,10 @@
     </row>
     <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>4935</v>
+        <v>4910</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>4941</v>
+        <v>4921</v>
       </c>
       <c r="C56" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56189,10 +56213,10 @@
     </row>
     <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>4937</v>
+        <v>4911</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>5165</v>
+        <v>4919</v>
       </c>
       <c r="C57" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56201,10 +56225,10 @@
     </row>
     <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>4938</v>
+        <v>4912</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>4943</v>
+        <v>4917</v>
       </c>
       <c r="C58" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56213,10 +56237,10 @@
     </row>
     <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>4940</v>
+        <v>4913</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>4945</v>
+        <v>4915</v>
       </c>
       <c r="C59" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56225,10 +56249,10 @@
     </row>
     <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>4942</v>
+        <v>4920</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>5166</v>
+        <v>5177</v>
       </c>
       <c r="C60" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56237,10 +56261,10 @@
     </row>
     <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>4944</v>
+        <v>4922</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>4948</v>
+        <v>4932</v>
       </c>
       <c r="C61" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56249,10 +56273,10 @@
     </row>
     <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>4946</v>
+        <v>4924</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>4950</v>
+        <v>4934</v>
       </c>
       <c r="C62" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56261,10 +56285,10 @@
     </row>
     <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>4947</v>
+        <v>4926</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>4953</v>
+        <v>4936</v>
       </c>
       <c r="C63" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56273,10 +56297,10 @@
     </row>
     <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>4949</v>
+        <v>4928</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>4955</v>
+        <v>4938</v>
       </c>
       <c r="C64" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56285,10 +56309,10 @@
     </row>
     <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>4951</v>
+        <v>4930</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>4957</v>
+        <v>5178</v>
       </c>
       <c r="C65" s="3" t="str">
         <f t="shared" si="0"/>
@@ -56297,10 +56321,10 @@
     </row>
     <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>4952</v>
+        <v>4931</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>4959</v>
+        <v>5138</v>
       </c>
       <c r="C66" s="3" t="str">
         <f t="shared" ref="C66:C129" si="1">RIGHT(B66,3)</f>
@@ -56309,10 +56333,10 @@
     </row>
     <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>4954</v>
+        <v>4933</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>4961</v>
+        <v>4941</v>
       </c>
       <c r="C67" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56321,10 +56345,10 @@
     </row>
     <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>4956</v>
+        <v>4935</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>4963</v>
+        <v>5179</v>
       </c>
       <c r="C68" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56333,10 +56357,10 @@
     </row>
     <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>4958</v>
+        <v>4937</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>4965</v>
+        <v>4945</v>
       </c>
       <c r="C69" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56345,10 +56369,10 @@
     </row>
     <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>4960</v>
+        <v>4939</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>4967</v>
+        <v>4947</v>
       </c>
       <c r="C70" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56357,10 +56381,10 @@
     </row>
     <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>4962</v>
+        <v>4940</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>4969</v>
+        <v>4950</v>
       </c>
       <c r="C71" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56369,10 +56393,10 @@
     </row>
     <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>4964</v>
+        <v>4942</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>4971</v>
+        <v>4952</v>
       </c>
       <c r="C72" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56381,10 +56405,10 @@
     </row>
     <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>4966</v>
+        <v>4943</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>4973</v>
+        <v>4954</v>
       </c>
       <c r="C73" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56393,10 +56417,10 @@
     </row>
     <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>4968</v>
+        <v>4944</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>4975</v>
+        <v>4956</v>
       </c>
       <c r="C74" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56405,10 +56429,10 @@
     </row>
     <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>4970</v>
+        <v>4946</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>4977</v>
+        <v>4958</v>
       </c>
       <c r="C75" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56417,10 +56441,10 @@
     </row>
     <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>4972</v>
+        <v>4948</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>4979</v>
+        <v>4960</v>
       </c>
       <c r="C76" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56429,10 +56453,10 @@
     </row>
     <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>4974</v>
+        <v>4949</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>4981</v>
+        <v>4962</v>
       </c>
       <c r="C77" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56441,10 +56465,10 @@
     </row>
     <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>4976</v>
+        <v>4951</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>4983</v>
+        <v>4964</v>
       </c>
       <c r="C78" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56453,10 +56477,10 @@
     </row>
     <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>4978</v>
+        <v>4953</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>4985</v>
+        <v>4966</v>
       </c>
       <c r="C79" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56465,10 +56489,10 @@
     </row>
     <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>4980</v>
+        <v>4955</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>4987</v>
+        <v>4968</v>
       </c>
       <c r="C80" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56477,10 +56501,10 @@
     </row>
     <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>4982</v>
+        <v>4957</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>4989</v>
+        <v>4970</v>
       </c>
       <c r="C81" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56489,10 +56513,10 @@
     </row>
     <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>4984</v>
+        <v>4959</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>4991</v>
+        <v>4972</v>
       </c>
       <c r="C82" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56501,10 +56525,10 @@
     </row>
     <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>4986</v>
+        <v>4961</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>4993</v>
+        <v>4974</v>
       </c>
       <c r="C83" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56513,10 +56537,10 @@
     </row>
     <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>4988</v>
+        <v>4963</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>4995</v>
+        <v>4976</v>
       </c>
       <c r="C84" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56525,10 +56549,10 @@
     </row>
     <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>4990</v>
+        <v>4965</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>5167</v>
+        <v>4978</v>
       </c>
       <c r="C85" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56537,10 +56561,10 @@
     </row>
     <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>4992</v>
+        <v>4967</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>4997</v>
+        <v>4980</v>
       </c>
       <c r="C86" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56549,10 +56573,10 @@
     </row>
     <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>4994</v>
+        <v>4969</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>4999</v>
+        <v>4982</v>
       </c>
       <c r="C87" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56561,10 +56585,10 @@
     </row>
     <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>4996</v>
+        <v>4971</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>5002</v>
+        <v>4984</v>
       </c>
       <c r="C88" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56573,10 +56597,10 @@
     </row>
     <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>4998</v>
+        <v>4973</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>5004</v>
+        <v>4986</v>
       </c>
       <c r="C89" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56585,10 +56609,10 @@
     </row>
     <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>5000</v>
+        <v>4975</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>5006</v>
+        <v>5139</v>
       </c>
       <c r="C90" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56597,10 +56621,10 @@
     </row>
     <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>5001</v>
+        <v>4977</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>5008</v>
+        <v>4988</v>
       </c>
       <c r="C91" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56609,10 +56633,10 @@
     </row>
     <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>5003</v>
+        <v>4979</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>5168</v>
+        <v>4990</v>
       </c>
       <c r="C92" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56621,10 +56645,10 @@
     </row>
     <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>5005</v>
+        <v>4981</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>5010</v>
+        <v>5180</v>
       </c>
       <c r="C93" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56633,10 +56657,10 @@
     </row>
     <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>5007</v>
+        <v>4983</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>5012</v>
+        <v>4993</v>
       </c>
       <c r="C94" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56645,10 +56669,10 @@
     </row>
     <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>5009</v>
+        <v>4985</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>5015</v>
+        <v>4995</v>
       </c>
       <c r="C95" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56657,10 +56681,10 @@
     </row>
     <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>5011</v>
+        <v>4987</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>5017</v>
+        <v>4998</v>
       </c>
       <c r="C96" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56669,10 +56693,10 @@
     </row>
     <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>5013</v>
+        <v>4989</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>5019</v>
+        <v>5140</v>
       </c>
       <c r="C97" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56681,10 +56705,10 @@
     </row>
     <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>5014</v>
+        <v>4991</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>5021</v>
+        <v>5000</v>
       </c>
       <c r="C98" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56693,10 +56717,10 @@
     </row>
     <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>5016</v>
+        <v>4992</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>5023</v>
+        <v>5002</v>
       </c>
       <c r="C99" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56705,10 +56729,10 @@
     </row>
     <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>5018</v>
+        <v>4994</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>5025</v>
+        <v>5181</v>
       </c>
       <c r="C100" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56717,10 +56741,10 @@
     </row>
     <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>5020</v>
+        <v>4996</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>5027</v>
+        <v>5005</v>
       </c>
       <c r="C101" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56729,10 +56753,10 @@
     </row>
     <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>5022</v>
+        <v>4997</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>5029</v>
+        <v>5007</v>
       </c>
       <c r="C102" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56741,10 +56765,10 @@
     </row>
     <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>5024</v>
+        <v>4999</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>5030</v>
+        <v>5010</v>
       </c>
       <c r="C103" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56753,10 +56777,10 @@
     </row>
     <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>5026</v>
+        <v>5001</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>5031</v>
+        <v>5012</v>
       </c>
       <c r="C104" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56765,10 +56789,10 @@
     </row>
     <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>5028</v>
+        <v>5003</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>5032</v>
+        <v>5014</v>
       </c>
       <c r="C105" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56777,10 +56801,10 @@
     </row>
     <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>4415</v>
+        <v>5004</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>5033</v>
+        <v>5016</v>
       </c>
       <c r="C106" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56789,10 +56813,10 @@
     </row>
     <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>4417</v>
+        <v>5006</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>5034</v>
+        <v>5018</v>
       </c>
       <c r="C107" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56801,10 +56825,10 @@
     </row>
     <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>4419</v>
+        <v>5008</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>5035</v>
+        <v>5019</v>
       </c>
       <c r="C108" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56813,10 +56837,10 @@
     </row>
     <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>4421</v>
+        <v>5009</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>5036</v>
+        <v>5020</v>
       </c>
       <c r="C109" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56825,10 +56849,10 @@
     </row>
     <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>4423</v>
+        <v>5011</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>5037</v>
+        <v>5021</v>
       </c>
       <c r="C110" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56837,10 +56861,10 @@
     </row>
     <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>4425</v>
+        <v>5013</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>5038</v>
+        <v>5022</v>
       </c>
       <c r="C111" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56849,10 +56873,10 @@
     </row>
     <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>4427</v>
+        <v>5015</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>5039</v>
+        <v>5023</v>
       </c>
       <c r="C112" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56861,10 +56885,10 @@
     </row>
     <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>1780</v>
+        <v>5017</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>5040</v>
+        <v>5024</v>
       </c>
       <c r="C113" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56873,10 +56897,10 @@
     </row>
     <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>1782</v>
+        <v>4415</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>5169</v>
+        <v>5025</v>
       </c>
       <c r="C114" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56885,10 +56909,10 @@
     </row>
     <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>1788</v>
+        <v>4417</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>5041</v>
+        <v>5026</v>
       </c>
       <c r="C115" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56897,10 +56921,10 @@
     </row>
     <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>1790</v>
+        <v>4419</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>5042</v>
+        <v>5027</v>
       </c>
       <c r="C116" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56909,10 +56933,10 @@
     </row>
     <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>1784</v>
+        <v>4421</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>5043</v>
+        <v>5028</v>
       </c>
       <c r="C117" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56921,10 +56945,10 @@
     </row>
     <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>1786</v>
+        <v>4423</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>5170</v>
+        <v>5182</v>
       </c>
       <c r="C118" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56933,10 +56957,10 @@
     </row>
     <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>2678</v>
+        <v>4425</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>5171</v>
+        <v>5183</v>
       </c>
       <c r="C119" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56945,10 +56969,10 @@
     </row>
     <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>2680</v>
+        <v>4427</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>5045</v>
+        <v>5184</v>
       </c>
       <c r="C120" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56957,10 +56981,10 @@
     </row>
     <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>5044</v>
+        <v>1780</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>5172</v>
+        <v>5029</v>
       </c>
       <c r="C121" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56969,10 +56993,10 @@
     </row>
     <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>5046</v>
+        <v>1782</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>5173</v>
+        <v>5185</v>
       </c>
       <c r="C122" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56981,10 +57005,10 @@
     </row>
     <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>5047</v>
+        <v>1788</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>5174</v>
+        <v>5030</v>
       </c>
       <c r="C123" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56993,10 +57017,10 @@
     </row>
     <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>5048</v>
+        <v>1790</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>5051</v>
+        <v>5141</v>
       </c>
       <c r="C124" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57005,10 +57029,10 @@
     </row>
     <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>5049</v>
+        <v>1784</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>5052</v>
+        <v>5032</v>
       </c>
       <c r="C125" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57017,10 +57041,10 @@
     </row>
     <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>5050</v>
+        <v>1786</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>5053</v>
+        <v>5186</v>
       </c>
       <c r="C126" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57029,10 +57053,10 @@
     </row>
     <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>4601</v>
+        <v>2678</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>5175</v>
+        <v>5187</v>
       </c>
       <c r="C127" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57041,10 +57065,10 @@
     </row>
     <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>4599</v>
+        <v>2680</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>5176</v>
+        <v>5142</v>
       </c>
       <c r="C128" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57053,10 +57077,10 @@
     </row>
     <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>4597</v>
+        <v>5031</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>5177</v>
+        <v>5188</v>
       </c>
       <c r="C129" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57065,10 +57089,10 @@
     </row>
     <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>5054</v>
+        <v>5033</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>5058</v>
+        <v>5189</v>
       </c>
       <c r="C130" s="3" t="str">
         <f t="shared" ref="C130:C193" si="2">RIGHT(B130,3)</f>
@@ -57077,10 +57101,10 @@
     </row>
     <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>5055</v>
+        <v>5034</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>5178</v>
+        <v>5190</v>
       </c>
       <c r="C131" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57089,10 +57113,10 @@
     </row>
     <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>5056</v>
+        <v>5035</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>5179</v>
+        <v>5143</v>
       </c>
       <c r="C132" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57101,10 +57125,10 @@
     </row>
     <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>5057</v>
+        <v>5036</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>5180</v>
+        <v>5144</v>
       </c>
       <c r="C133" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57113,10 +57137,10 @@
     </row>
     <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>5059</v>
+        <v>5037</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>5063</v>
+        <v>5145</v>
       </c>
       <c r="C134" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57125,10 +57149,10 @@
     </row>
     <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>5060</v>
+        <v>4601</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>5065</v>
+        <v>5191</v>
       </c>
       <c r="C135" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57137,10 +57161,10 @@
     </row>
     <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>5061</v>
+        <v>4599</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>5181</v>
+        <v>5192</v>
       </c>
       <c r="C136" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57149,10 +57173,10 @@
     </row>
     <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>5062</v>
+        <v>4597</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>5182</v>
+        <v>5193</v>
       </c>
       <c r="C137" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57161,10 +57185,10 @@
     </row>
     <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>5064</v>
+        <v>5038</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>5183</v>
+        <v>5146</v>
       </c>
       <c r="C138" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57173,10 +57197,10 @@
     </row>
     <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>2576</v>
+        <v>5039</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>5184</v>
+        <v>5194</v>
       </c>
       <c r="C139" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57185,10 +57209,10 @@
     </row>
     <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>2584</v>
+        <v>5040</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>5185</v>
+        <v>5195</v>
       </c>
       <c r="C140" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57197,106 +57221,106 @@
     </row>
     <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>3968</v>
+        <v>5041</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>5066</v>
+        <v>5196</v>
       </c>
       <c r="C141" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>3970</v>
+        <v>5042</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>5067</v>
+        <v>5147</v>
       </c>
       <c r="C142" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>4849</v>
+        <v>5043</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>5068</v>
+        <v>5148</v>
       </c>
       <c r="C143" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>4263</v>
+        <v>5044</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>5069</v>
+        <v>5197</v>
       </c>
       <c r="C144" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>4023</v>
+        <v>5045</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>5073</v>
+        <v>5198</v>
       </c>
       <c r="C145" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>5070</v>
+        <v>5046</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>5071</v>
+        <v>5199</v>
       </c>
       <c r="C146" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>5072</v>
+        <v>2576</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>5078</v>
+        <v>5200</v>
       </c>
       <c r="C147" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>5074</v>
+        <v>2584</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>5080</v>
+        <v>5201</v>
       </c>
       <c r="C148" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>5075</v>
+        <v>3968</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>5081</v>
+        <v>5047</v>
       </c>
       <c r="C149" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57305,10 +57329,10 @@
     </row>
     <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>5076</v>
+        <v>3970</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>5066</v>
+        <v>5048</v>
       </c>
       <c r="C150" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57317,10 +57341,10 @@
     </row>
     <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>5077</v>
+        <v>4849</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>5082</v>
+        <v>5049</v>
       </c>
       <c r="C151" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57329,10 +57353,10 @@
     </row>
     <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>5079</v>
+        <v>4263</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>5084</v>
+        <v>5050</v>
       </c>
       <c r="C152" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57341,10 +57365,10 @@
     </row>
     <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>3102</v>
+        <v>4023</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>5186</v>
+        <v>5054</v>
       </c>
       <c r="C153" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57353,10 +57377,10 @@
     </row>
     <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>3802</v>
+        <v>5051</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>5187</v>
+        <v>5052</v>
       </c>
       <c r="C154" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57365,10 +57389,10 @@
     </row>
     <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>5083</v>
+        <v>5053</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>5086</v>
+        <v>5059</v>
       </c>
       <c r="C155" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57377,10 +57401,10 @@
     </row>
     <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>5085</v>
+        <v>5055</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>5188</v>
+        <v>5061</v>
       </c>
       <c r="C156" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57389,10 +57413,10 @@
     </row>
     <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>4310</v>
+        <v>5056</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>5087</v>
+        <v>5062</v>
       </c>
       <c r="C157" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57401,10 +57425,10 @@
     </row>
     <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>4306</v>
+        <v>5057</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>5189</v>
+        <v>5047</v>
       </c>
       <c r="C158" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57413,10 +57437,10 @@
     </row>
     <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>3764</v>
+        <v>5202</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>5089</v>
+        <v>5063</v>
       </c>
       <c r="C159" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57425,10 +57449,10 @@
     </row>
     <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>5088</v>
+        <v>5058</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>5190</v>
+        <v>5065</v>
       </c>
       <c r="C160" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57437,10 +57461,10 @@
     </row>
     <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>3422</v>
+        <v>5060</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>5191</v>
+        <v>5149</v>
       </c>
       <c r="C161" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57449,10 +57473,10 @@
     </row>
     <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>3770</v>
+        <v>3102</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>5192</v>
+        <v>5150</v>
       </c>
       <c r="C162" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57461,118 +57485,118 @@
     </row>
     <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>5090</v>
+        <v>3802</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>5093</v>
+        <v>5067</v>
       </c>
       <c r="C163" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>bmp</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>5091</v>
+        <v>5064</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>5095</v>
+        <v>5203</v>
       </c>
       <c r="C164" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>bmp</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>5092</v>
+        <v>5066</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>5097</v>
+        <v>5204</v>
       </c>
       <c r="C165" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>bmp</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>5094</v>
+        <v>4310</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>5099</v>
+        <v>5205</v>
       </c>
       <c r="C166" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>bmp</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>5096</v>
+        <v>4306</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>5193</v>
+        <v>5206</v>
       </c>
       <c r="C167" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>bmp</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>5098</v>
+        <v>3764</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>5194</v>
+        <v>5207</v>
       </c>
       <c r="C168" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>bmp</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>4854</v>
+        <v>5068</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>5100</v>
+        <v>5208</v>
       </c>
       <c r="C169" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>dlg</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>4855</v>
+        <v>3422</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>5101</v>
+        <v>5151</v>
       </c>
       <c r="C170" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>dlg</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>4856</v>
+        <v>3770</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>5102</v>
+        <v>5209</v>
       </c>
       <c r="C171" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>dlg</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>4857</v>
+        <v>4854</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>5103</v>
+        <v>5078</v>
       </c>
       <c r="C172" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57581,10 +57605,10 @@
     </row>
     <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>4033</v>
+        <v>4855</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>5105</v>
+        <v>5079</v>
       </c>
       <c r="C173" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57593,10 +57617,10 @@
     </row>
     <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>5104</v>
+        <v>4856</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>5195</v>
+        <v>5080</v>
       </c>
       <c r="C174" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57605,10 +57629,10 @@
     </row>
     <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>5106</v>
+        <v>4857</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>5196</v>
+        <v>5081</v>
       </c>
       <c r="C175" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57617,10 +57641,10 @@
     </row>
     <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>5107</v>
+        <v>4033</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>5109</v>
+        <v>5083</v>
       </c>
       <c r="C176" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57629,10 +57653,10 @@
     </row>
     <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>5108</v>
+        <v>5082</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>5111</v>
+        <v>5154</v>
       </c>
       <c r="C177" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57641,10 +57665,10 @@
     </row>
     <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>5110</v>
+        <v>5084</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>5113</v>
+        <v>5155</v>
       </c>
       <c r="C178" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57653,10 +57677,10 @@
     </row>
     <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>5112</v>
+        <v>5085</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>5115</v>
+        <v>5087</v>
       </c>
       <c r="C179" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57665,10 +57689,10 @@
     </row>
     <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>5114</v>
+        <v>5086</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>5117</v>
+        <v>5089</v>
       </c>
       <c r="C180" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57677,10 +57701,10 @@
     </row>
     <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>5116</v>
+        <v>5088</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>5197</v>
+        <v>5091</v>
       </c>
       <c r="C181" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57689,46 +57713,46 @@
     </row>
     <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>3094</v>
+        <v>5090</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>5118</v>
+        <v>5093</v>
       </c>
       <c r="C182" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>itm</v>
+        <v>dlg</v>
       </c>
     </row>
     <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>3980</v>
+        <v>5092</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>5198</v>
+        <v>5095</v>
       </c>
       <c r="C183" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>itm</v>
+        <v>dlg</v>
       </c>
     </row>
     <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>3728</v>
+        <v>5094</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>5120</v>
+        <v>5156</v>
       </c>
       <c r="C184" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>itm</v>
+        <v>dlg</v>
       </c>
     </row>
     <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>5119</v>
+        <v>3094</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>5122</v>
+        <v>5096</v>
       </c>
       <c r="C185" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57737,10 +57761,10 @@
     </row>
     <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>5121</v>
+        <v>3980</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>5199</v>
+        <v>5157</v>
       </c>
       <c r="C186" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57749,10 +57773,10 @@
     </row>
     <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>4790</v>
+        <v>3728</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>5200</v>
+        <v>5098</v>
       </c>
       <c r="C187" s="3" t="str">
         <f t="shared" si="2"/>
@@ -57761,108 +57785,158 @@
     </row>
     <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>5123</v>
+        <v>5210</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>5124</v>
+        <v>5100</v>
       </c>
       <c r="C188" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>wed</v>
+        <v>itm</v>
       </c>
     </row>
     <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>5125</v>
+        <v>5097</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>5126</v>
+        <v>5211</v>
       </c>
       <c r="C189" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>wed</v>
+        <v>itm</v>
       </c>
     </row>
     <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>5127</v>
+        <v>5099</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>5128</v>
+        <v>5212</v>
       </c>
       <c r="C190" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>tis</v>
+        <v>itm</v>
       </c>
     </row>
     <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>5129</v>
+        <v>4790</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>5130</v>
+        <v>5213</v>
       </c>
       <c r="C191" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>tis</v>
+        <v>itm</v>
       </c>
     </row>
     <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>5131</v>
+        <v>5101</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>5132</v>
+        <v>5102</v>
       </c>
       <c r="C192" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>bam</v>
+        <v>wed</v>
       </c>
     </row>
     <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>5133</v>
+        <v>5103</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>5134</v>
+        <v>5104</v>
       </c>
       <c r="C193" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>bam</v>
+        <v>wed</v>
       </c>
     </row>
     <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>5135</v>
+        <v>5105</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>5136</v>
+        <v>5106</v>
       </c>
       <c r="C194" s="3" t="str">
         <f t="shared" ref="C194:C195" si="3">RIGHT(B194,3)</f>
-        <v>bam</v>
+        <v>tis</v>
       </c>
     </row>
     <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>5137</v>
+        <v>5107</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>5138</v>
+        <v>5108</v>
       </c>
       <c r="C195" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f>RIGHT(B195,3)</f>
+        <v>tis</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>5109</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>5110</v>
+      </c>
+      <c r="C196" s="3" t="str">
+        <f t="shared" ref="C196:C199" si="4">RIGHT(B196,3)</f>
         <v>bam</v>
       </c>
     </row>
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>5111</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>5112</v>
+      </c>
+      <c r="C197" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>5113</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>5114</v>
+      </c>
+      <c r="C198" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>5115</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>5116</v>
+      </c>
+      <c r="C199" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>bam</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C195" xr:uid="{A8F845C5-1DFB-4DB9-9EFF-7FD24A274361}">
+  <autoFilter ref="A1:C199" xr:uid="{A8F845C5-1DFB-4DB9-9EFF-7FD24A274361}">
     <filterColumn colId="2">
       <filters>
         <filter val="are"/>
-        <filter val="cre"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:C40">
+      <sortCondition ref="A1:A199"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57893,10 +57967,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5139</v>
+        <v>5117</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5140</v>
+        <v>5118</v>
       </c>
       <c r="C2" s="3" t="str">
         <f t="shared" ref="C2:C7" si="0">RIGHT(B2,3)</f>
@@ -57905,10 +57979,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5141</v>
+        <v>5119</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5142</v>
+        <v>5120</v>
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -57917,10 +57991,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5143</v>
+        <v>5121</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5144</v>
+        <v>5122</v>
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -57929,10 +58003,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5145</v>
+        <v>5123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5146</v>
+        <v>5124</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -57941,10 +58015,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5147</v>
+        <v>5125</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5148</v>
+        <v>5126</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -57953,10 +58027,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5149</v>
+        <v>5127</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5150</v>
+        <v>5128</v>
       </c>
       <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>

--- a/EE/generated/referenceTable.xlsx
+++ b/EE/generated/referenceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\generated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED561B3-4B66-4F86-B3BC-B49BE06E47BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B40D92-A535-4175-877E-A259F748B4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="705" yWindow="0" windowWidth="17745" windowHeight="10905" activeTab="3" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
+    <workbookView xWindow="-16770" yWindow="2535" windowWidth="14205" windowHeight="11295" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Block A" sheetId="4" r:id="rId1"/>
@@ -16179,7 +16179,13 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}" name="Table1" displayName="Table1" ref="A1:C128" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C128" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}"/>
+  <autoFilter ref="A1:C128" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="bmp"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C128">
     <sortCondition ref="A1:A128"/>
   </sortState>
@@ -16513,8 +16519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB79911A-7560-43EB-97A7-E09735CAF03B}">
   <dimension ref="A1:C1928"/>
   <sheetViews>
-    <sheetView topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="C268" sqref="C268"/>
+    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
+      <selection activeCell="A423" sqref="A423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53970,7 +53976,7 @@
   <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53991,7 +53997,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3855</v>
       </c>
@@ -54003,7 +54009,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3857</v>
       </c>
@@ -54015,7 +54021,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3859</v>
       </c>
@@ -54027,7 +54033,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3861</v>
       </c>
@@ -54039,7 +54045,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3997</v>
       </c>
@@ -54051,7 +54057,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4830</v>
       </c>
@@ -54063,7 +54069,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4848</v>
       </c>
@@ -54075,7 +54081,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3863</v>
       </c>
@@ -54087,7 +54093,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3865</v>
       </c>
@@ -54099,7 +54105,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3867</v>
       </c>
@@ -54111,7 +54117,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3869</v>
       </c>
@@ -54123,7 +54129,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3871</v>
       </c>
@@ -54135,7 +54141,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3873</v>
       </c>
@@ -54147,7 +54153,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3875</v>
       </c>
@@ -54159,7 +54165,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3877</v>
       </c>
@@ -54171,7 +54177,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3879</v>
       </c>
@@ -54183,7 +54189,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3881</v>
       </c>
@@ -54195,7 +54201,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>3883</v>
       </c>
@@ -54207,7 +54213,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3885</v>
       </c>
@@ -54219,7 +54225,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3887</v>
       </c>
@@ -54231,7 +54237,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>3889</v>
       </c>
@@ -54243,7 +54249,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>3891</v>
       </c>
@@ -54255,7 +54261,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3893</v>
       </c>
@@ -54267,7 +54273,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>3895</v>
       </c>
@@ -54279,7 +54285,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3897</v>
       </c>
@@ -54291,7 +54297,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>3899</v>
       </c>
@@ -54303,7 +54309,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>3901</v>
       </c>
@@ -54315,7 +54321,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>3903</v>
       </c>
@@ -54327,7 +54333,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3905</v>
       </c>
@@ -54339,7 +54345,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>3907</v>
       </c>
@@ -54351,7 +54357,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>3909</v>
       </c>
@@ -54363,7 +54369,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>3911</v>
       </c>
@@ -54375,7 +54381,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>3913</v>
       </c>
@@ -54387,7 +54393,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>3915</v>
       </c>
@@ -54399,7 +54405,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>3917</v>
       </c>
@@ -54411,7 +54417,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>3919</v>
       </c>
@@ -54423,7 +54429,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>3921</v>
       </c>
@@ -54435,7 +54441,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>3923</v>
       </c>
@@ -54447,7 +54453,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>3925</v>
       </c>
@@ -54459,7 +54465,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>3927</v>
       </c>
@@ -54471,7 +54477,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>3929</v>
       </c>
@@ -54483,7 +54489,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>3931</v>
       </c>
@@ -54495,7 +54501,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>3933</v>
       </c>
@@ -54507,7 +54513,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>3935</v>
       </c>
@@ -54519,7 +54525,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>3937</v>
       </c>
@@ -54531,7 +54537,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>3939</v>
       </c>
@@ -54543,7 +54549,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>3941</v>
       </c>
@@ -54555,7 +54561,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>3943</v>
       </c>
@@ -54567,7 +54573,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>3945</v>
       </c>
@@ -54579,7 +54585,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>3947</v>
       </c>
@@ -54591,7 +54597,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>3949</v>
       </c>
@@ -54603,7 +54609,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1684</v>
       </c>
@@ -54615,7 +54621,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>1686</v>
       </c>
@@ -54627,7 +54633,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>1688</v>
       </c>
@@ -54639,7 +54645,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>1678</v>
       </c>
@@ -54651,7 +54657,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>1680</v>
       </c>
@@ -54663,7 +54669,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>3956</v>
       </c>
@@ -54675,7 +54681,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>3958</v>
       </c>
@@ -54687,7 +54693,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>3960</v>
       </c>
@@ -54699,7 +54705,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>4005</v>
       </c>
@@ -54711,7 +54717,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>4007</v>
       </c>
@@ -54723,7 +54729,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>4009</v>
       </c>
@@ -54735,7 +54741,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>4011</v>
       </c>
@@ -54747,7 +54753,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>4013</v>
       </c>
@@ -54759,7 +54765,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>4015</v>
       </c>
@@ -54771,7 +54777,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>4017</v>
       </c>
@@ -54783,7 +54789,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>4019</v>
       </c>
@@ -54795,7 +54801,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>4021</v>
       </c>
@@ -54807,7 +54813,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>1784</v>
       </c>
@@ -54819,7 +54825,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>1782</v>
       </c>
@@ -54831,7 +54837,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>1788</v>
       </c>
@@ -54843,7 +54849,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>1790</v>
       </c>
@@ -54855,7 +54861,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>1780</v>
       </c>
@@ -54867,7 +54873,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>1786</v>
       </c>
@@ -54879,7 +54885,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>3962</v>
       </c>
@@ -54891,7 +54897,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>3964</v>
       </c>
@@ -54903,7 +54909,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>3966</v>
       </c>
@@ -54915,7 +54921,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>3968</v>
       </c>
@@ -54927,7 +54933,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>3970</v>
       </c>
@@ -54939,7 +54945,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>3972</v>
       </c>
@@ -54951,7 +54957,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>3974</v>
       </c>
@@ -54963,7 +54969,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>3422</v>
       </c>
@@ -54975,7 +54981,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>4026</v>
       </c>
@@ -54987,7 +54993,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>3802</v>
       </c>
@@ -54999,7 +55005,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>2354</v>
       </c>
@@ -55011,7 +55017,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>3336</v>
       </c>
@@ -55023,7 +55029,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>3102</v>
       </c>
@@ -55035,7 +55041,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>4850</v>
       </c>
@@ -55047,7 +55053,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>4290</v>
       </c>
@@ -55059,7 +55065,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>4851</v>
       </c>
@@ -55071,7 +55077,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>3976</v>
       </c>
@@ -55083,7 +55089,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>3978</v>
       </c>
@@ -55095,7 +55101,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>3980</v>
       </c>
@@ -55107,7 +55113,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>3728</v>
       </c>
@@ -55119,7 +55125,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>4741</v>
       </c>
@@ -55155,7 +55161,7 @@
         <v>bmp</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>3983</v>
       </c>
@@ -55167,7 +55173,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>3985</v>
       </c>
@@ -55179,7 +55185,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>3987</v>
       </c>
@@ -55191,7 +55197,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>3989</v>
       </c>
@@ -55203,7 +55209,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>4035</v>
       </c>
@@ -55215,7 +55221,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>4841</v>
       </c>
@@ -55227,7 +55233,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>4858</v>
       </c>
@@ -55239,7 +55245,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>3991</v>
       </c>
@@ -55251,7 +55257,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>3993</v>
       </c>
@@ -55263,7 +55269,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>1780</v>
       </c>
@@ -55275,7 +55281,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>1782</v>
       </c>
@@ -55287,7 +55293,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1784</v>
       </c>
@@ -55299,7 +55305,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1786</v>
       </c>
@@ -55311,7 +55317,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>1788</v>
       </c>
@@ -55323,7 +55329,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>1790</v>
       </c>
@@ -55335,7 +55341,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>3855</v>
       </c>
@@ -55371,7 +55377,7 @@
         <v>bmp</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>3993</v>
       </c>
@@ -55383,7 +55389,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>3991</v>
       </c>
@@ -55395,7 +55401,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>2354</v>
       </c>
@@ -55407,7 +55413,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>4830</v>
       </c>
@@ -55419,7 +55425,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>4841</v>
       </c>
@@ -55431,7 +55437,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>3094</v>
       </c>
@@ -55443,7 +55449,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>3102</v>
       </c>
@@ -55455,7 +55461,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>3336</v>
       </c>
@@ -55467,7 +55473,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>3422</v>
       </c>
@@ -55479,7 +55485,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>4741</v>
       </c>
@@ -55491,7 +55497,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>3728</v>
       </c>
@@ -55503,7 +55509,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>3802</v>
       </c>
@@ -55526,11 +55532,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F845C5-1DFB-4DB9-9EFF-7FD24A274361}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55551,7 +55556,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4844</v>
       </c>
@@ -55563,7 +55568,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4845</v>
       </c>
@@ -55575,7 +55580,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4846</v>
       </c>
@@ -55587,7 +55592,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4847</v>
       </c>
@@ -55599,7 +55604,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3995</v>
       </c>
@@ -55611,7 +55616,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5163</v>
       </c>
@@ -55623,7 +55628,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4863</v>
       </c>
@@ -55635,7 +55640,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4865</v>
       </c>
@@ -55647,7 +55652,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4867</v>
       </c>
@@ -55659,7 +55664,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4869</v>
       </c>
@@ -55671,7 +55676,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4871</v>
       </c>
@@ -55683,7 +55688,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4873</v>
       </c>
@@ -55695,7 +55700,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4875</v>
       </c>
@@ -55707,7 +55712,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4876</v>
       </c>
@@ -55719,7 +55724,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4877</v>
       </c>
@@ -55731,7 +55736,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4879</v>
       </c>
@@ -55743,7 +55748,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4881</v>
       </c>
@@ -55755,7 +55760,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4883</v>
       </c>
@@ -55767,7 +55772,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4885</v>
       </c>
@@ -55779,7 +55784,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4201</v>
       </c>
@@ -55791,7 +55796,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4887</v>
       </c>
@@ -55803,7 +55808,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4888</v>
       </c>
@@ -55815,7 +55820,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4889</v>
       </c>
@@ -55827,7 +55832,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4890</v>
       </c>
@@ -55839,7 +55844,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4891</v>
       </c>
@@ -55851,7 +55856,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4892</v>
       </c>
@@ -55863,7 +55868,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>4893</v>
       </c>
@@ -55875,7 +55880,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4894</v>
       </c>
@@ -55887,7 +55892,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3524</v>
       </c>
@@ -55899,7 +55904,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>4895</v>
       </c>
@@ -55935,7 +55940,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5070</v>
       </c>
@@ -55943,11 +55948,11 @@
         <v>5075</v>
       </c>
       <c r="C34" s="3" t="str">
-        <f>RIGHT(B34,3)</f>
+        <f t="shared" ref="C34:C40" si="1">RIGHT(B34,3)</f>
         <v>bmp</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>5069</v>
       </c>
@@ -55955,11 +55960,11 @@
         <v>5073</v>
       </c>
       <c r="C35" s="3" t="str">
-        <f>RIGHT(B35,3)</f>
+        <f t="shared" si="1"/>
         <v>bmp</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>5174</v>
       </c>
@@ -55967,11 +55972,11 @@
         <v>5175</v>
       </c>
       <c r="C36" s="3" t="str">
-        <f>RIGHT(B36,3)</f>
+        <f t="shared" si="1"/>
         <v>bmp</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5076</v>
       </c>
@@ -55979,11 +55984,11 @@
         <v>5176</v>
       </c>
       <c r="C37" s="3" t="str">
-        <f>RIGHT(B37,3)</f>
+        <f t="shared" si="1"/>
         <v>bmp</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5074</v>
       </c>
@@ -55991,11 +55996,11 @@
         <v>5153</v>
       </c>
       <c r="C38" s="3" t="str">
-        <f>RIGHT(B38,3)</f>
+        <f t="shared" si="1"/>
         <v>bmp</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>5072</v>
       </c>
@@ -56003,11 +56008,11 @@
         <v>5152</v>
       </c>
       <c r="C39" s="3" t="str">
-        <f>RIGHT(B39,3)</f>
+        <f t="shared" si="1"/>
         <v>bmp</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>5071</v>
       </c>
@@ -56015,11 +56020,11 @@
         <v>5077</v>
       </c>
       <c r="C40" s="3" t="str">
-        <f>RIGHT(B40,3)</f>
+        <f t="shared" si="1"/>
         <v>bmp</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>1308</v>
       </c>
@@ -56031,7 +56036,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1310</v>
       </c>
@@ -56043,7 +56048,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1652</v>
       </c>
@@ -56055,7 +56060,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1654</v>
       </c>
@@ -56067,7 +56072,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>3999</v>
       </c>
@@ -56079,7 +56084,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>4001</v>
       </c>
@@ -56091,7 +56096,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>4003</v>
       </c>
@@ -56103,7 +56108,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -56115,7 +56120,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>4905</v>
       </c>
@@ -56127,7 +56132,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>68</v>
       </c>
@@ -56139,7 +56144,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4918</v>
       </c>
@@ -56151,7 +56156,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>4916</v>
       </c>
@@ -56163,7 +56168,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>4914</v>
       </c>
@@ -56175,7 +56180,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>4908</v>
       </c>
@@ -56187,7 +56192,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>4909</v>
       </c>
@@ -56199,7 +56204,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>4910</v>
       </c>
@@ -56211,7 +56216,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>4911</v>
       </c>
@@ -56223,7 +56228,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>4912</v>
       </c>
@@ -56235,7 +56240,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>4913</v>
       </c>
@@ -56247,7 +56252,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>4920</v>
       </c>
@@ -56259,7 +56264,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>4922</v>
       </c>
@@ -56271,7 +56276,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>4924</v>
       </c>
@@ -56283,7 +56288,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>4926</v>
       </c>
@@ -56295,7 +56300,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>4928</v>
       </c>
@@ -56307,7 +56312,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>4930</v>
       </c>
@@ -56319,7 +56324,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>4931</v>
       </c>
@@ -56327,11 +56332,11 @@
         <v>5138</v>
       </c>
       <c r="C66" s="3" t="str">
-        <f t="shared" ref="C66:C129" si="1">RIGHT(B66,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C66:C129" si="2">RIGHT(B66,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>4933</v>
       </c>
@@ -56339,11 +56344,11 @@
         <v>4941</v>
       </c>
       <c r="C67" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>4935</v>
       </c>
@@ -56351,11 +56356,11 @@
         <v>5179</v>
       </c>
       <c r="C68" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>4937</v>
       </c>
@@ -56363,11 +56368,11 @@
         <v>4945</v>
       </c>
       <c r="C69" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>4939</v>
       </c>
@@ -56375,11 +56380,11 @@
         <v>4947</v>
       </c>
       <c r="C70" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>4940</v>
       </c>
@@ -56387,11 +56392,11 @@
         <v>4950</v>
       </c>
       <c r="C71" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>4942</v>
       </c>
@@ -56399,11 +56404,11 @@
         <v>4952</v>
       </c>
       <c r="C72" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>4943</v>
       </c>
@@ -56411,11 +56416,11 @@
         <v>4954</v>
       </c>
       <c r="C73" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>4944</v>
       </c>
@@ -56423,11 +56428,11 @@
         <v>4956</v>
       </c>
       <c r="C74" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>4946</v>
       </c>
@@ -56435,11 +56440,11 @@
         <v>4958</v>
       </c>
       <c r="C75" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>4948</v>
       </c>
@@ -56447,11 +56452,11 @@
         <v>4960</v>
       </c>
       <c r="C76" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>4949</v>
       </c>
@@ -56459,11 +56464,11 @@
         <v>4962</v>
       </c>
       <c r="C77" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>4951</v>
       </c>
@@ -56471,11 +56476,11 @@
         <v>4964</v>
       </c>
       <c r="C78" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>4953</v>
       </c>
@@ -56483,11 +56488,11 @@
         <v>4966</v>
       </c>
       <c r="C79" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>4955</v>
       </c>
@@ -56495,11 +56500,11 @@
         <v>4968</v>
       </c>
       <c r="C80" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>4957</v>
       </c>
@@ -56507,11 +56512,11 @@
         <v>4970</v>
       </c>
       <c r="C81" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>4959</v>
       </c>
@@ -56519,11 +56524,11 @@
         <v>4972</v>
       </c>
       <c r="C82" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>4961</v>
       </c>
@@ -56531,11 +56536,11 @@
         <v>4974</v>
       </c>
       <c r="C83" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>4963</v>
       </c>
@@ -56543,11 +56548,11 @@
         <v>4976</v>
       </c>
       <c r="C84" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>4965</v>
       </c>
@@ -56555,11 +56560,11 @@
         <v>4978</v>
       </c>
       <c r="C85" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>4967</v>
       </c>
@@ -56567,11 +56572,11 @@
         <v>4980</v>
       </c>
       <c r="C86" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>4969</v>
       </c>
@@ -56579,11 +56584,11 @@
         <v>4982</v>
       </c>
       <c r="C87" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>4971</v>
       </c>
@@ -56591,11 +56596,11 @@
         <v>4984</v>
       </c>
       <c r="C88" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>4973</v>
       </c>
@@ -56603,11 +56608,11 @@
         <v>4986</v>
       </c>
       <c r="C89" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>4975</v>
       </c>
@@ -56615,11 +56620,11 @@
         <v>5139</v>
       </c>
       <c r="C90" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>4977</v>
       </c>
@@ -56627,11 +56632,11 @@
         <v>4988</v>
       </c>
       <c r="C91" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>4979</v>
       </c>
@@ -56639,11 +56644,11 @@
         <v>4990</v>
       </c>
       <c r="C92" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>4981</v>
       </c>
@@ -56651,11 +56656,11 @@
         <v>5180</v>
       </c>
       <c r="C93" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>4983</v>
       </c>
@@ -56663,11 +56668,11 @@
         <v>4993</v>
       </c>
       <c r="C94" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>4985</v>
       </c>
@@ -56675,11 +56680,11 @@
         <v>4995</v>
       </c>
       <c r="C95" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>4987</v>
       </c>
@@ -56687,11 +56692,11 @@
         <v>4998</v>
       </c>
       <c r="C96" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>4989</v>
       </c>
@@ -56699,11 +56704,11 @@
         <v>5140</v>
       </c>
       <c r="C97" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>4991</v>
       </c>
@@ -56711,11 +56716,11 @@
         <v>5000</v>
       </c>
       <c r="C98" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>4992</v>
       </c>
@@ -56723,11 +56728,11 @@
         <v>5002</v>
       </c>
       <c r="C99" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>4994</v>
       </c>
@@ -56735,11 +56740,11 @@
         <v>5181</v>
       </c>
       <c r="C100" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>4996</v>
       </c>
@@ -56747,11 +56752,11 @@
         <v>5005</v>
       </c>
       <c r="C101" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>4997</v>
       </c>
@@ -56759,11 +56764,11 @@
         <v>5007</v>
       </c>
       <c r="C102" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>4999</v>
       </c>
@@ -56771,11 +56776,11 @@
         <v>5010</v>
       </c>
       <c r="C103" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>5001</v>
       </c>
@@ -56783,11 +56788,11 @@
         <v>5012</v>
       </c>
       <c r="C104" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>5003</v>
       </c>
@@ -56795,11 +56800,11 @@
         <v>5014</v>
       </c>
       <c r="C105" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>5004</v>
       </c>
@@ -56807,11 +56812,11 @@
         <v>5016</v>
       </c>
       <c r="C106" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>5006</v>
       </c>
@@ -56819,11 +56824,11 @@
         <v>5018</v>
       </c>
       <c r="C107" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>5008</v>
       </c>
@@ -56831,11 +56836,11 @@
         <v>5019</v>
       </c>
       <c r="C108" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>5009</v>
       </c>
@@ -56843,11 +56848,11 @@
         <v>5020</v>
       </c>
       <c r="C109" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>5011</v>
       </c>
@@ -56855,11 +56860,11 @@
         <v>5021</v>
       </c>
       <c r="C110" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>5013</v>
       </c>
@@ -56867,11 +56872,11 @@
         <v>5022</v>
       </c>
       <c r="C111" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>5015</v>
       </c>
@@ -56879,11 +56884,11 @@
         <v>5023</v>
       </c>
       <c r="C112" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>5017</v>
       </c>
@@ -56891,11 +56896,11 @@
         <v>5024</v>
       </c>
       <c r="C113" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>4415</v>
       </c>
@@ -56903,11 +56908,11 @@
         <v>5025</v>
       </c>
       <c r="C114" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>4417</v>
       </c>
@@ -56915,11 +56920,11 @@
         <v>5026</v>
       </c>
       <c r="C115" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>4419</v>
       </c>
@@ -56927,11 +56932,11 @@
         <v>5027</v>
       </c>
       <c r="C116" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>4421</v>
       </c>
@@ -56939,11 +56944,11 @@
         <v>5028</v>
       </c>
       <c r="C117" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>4423</v>
       </c>
@@ -56951,11 +56956,11 @@
         <v>5182</v>
       </c>
       <c r="C118" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>4425</v>
       </c>
@@ -56963,11 +56968,11 @@
         <v>5183</v>
       </c>
       <c r="C119" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>4427</v>
       </c>
@@ -56975,11 +56980,11 @@
         <v>5184</v>
       </c>
       <c r="C120" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>1780</v>
       </c>
@@ -56987,11 +56992,11 @@
         <v>5029</v>
       </c>
       <c r="C121" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>1782</v>
       </c>
@@ -56999,11 +57004,11 @@
         <v>5185</v>
       </c>
       <c r="C122" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>1788</v>
       </c>
@@ -57011,11 +57016,11 @@
         <v>5030</v>
       </c>
       <c r="C123" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>1790</v>
       </c>
@@ -57023,11 +57028,11 @@
         <v>5141</v>
       </c>
       <c r="C124" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>1784</v>
       </c>
@@ -57035,11 +57040,11 @@
         <v>5032</v>
       </c>
       <c r="C125" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>1786</v>
       </c>
@@ -57047,11 +57052,11 @@
         <v>5186</v>
       </c>
       <c r="C126" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>2678</v>
       </c>
@@ -57059,11 +57064,11 @@
         <v>5187</v>
       </c>
       <c r="C127" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>2680</v>
       </c>
@@ -57071,11 +57076,11 @@
         <v>5142</v>
       </c>
       <c r="C128" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>5031</v>
       </c>
@@ -57083,11 +57088,11 @@
         <v>5188</v>
       </c>
       <c r="C129" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>5033</v>
       </c>
@@ -57095,11 +57100,11 @@
         <v>5189</v>
       </c>
       <c r="C130" s="3" t="str">
-        <f t="shared" ref="C130:C193" si="2">RIGHT(B130,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C130:C193" si="3">RIGHT(B130,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>5034</v>
       </c>
@@ -57107,11 +57112,11 @@
         <v>5190</v>
       </c>
       <c r="C131" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>5035</v>
       </c>
@@ -57119,11 +57124,11 @@
         <v>5143</v>
       </c>
       <c r="C132" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>5036</v>
       </c>
@@ -57131,11 +57136,11 @@
         <v>5144</v>
       </c>
       <c r="C133" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>5037</v>
       </c>
@@ -57143,11 +57148,11 @@
         <v>5145</v>
       </c>
       <c r="C134" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>4601</v>
       </c>
@@ -57155,11 +57160,11 @@
         <v>5191</v>
       </c>
       <c r="C135" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>4599</v>
       </c>
@@ -57167,11 +57172,11 @@
         <v>5192</v>
       </c>
       <c r="C136" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>4597</v>
       </c>
@@ -57179,11 +57184,11 @@
         <v>5193</v>
       </c>
       <c r="C137" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>5038</v>
       </c>
@@ -57191,11 +57196,11 @@
         <v>5146</v>
       </c>
       <c r="C138" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>5039</v>
       </c>
@@ -57203,11 +57208,11 @@
         <v>5194</v>
       </c>
       <c r="C139" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>5040</v>
       </c>
@@ -57215,11 +57220,11 @@
         <v>5195</v>
       </c>
       <c r="C140" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>5041</v>
       </c>
@@ -57227,11 +57232,11 @@
         <v>5196</v>
       </c>
       <c r="C141" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>5042</v>
       </c>
@@ -57239,11 +57244,11 @@
         <v>5147</v>
       </c>
       <c r="C142" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>5043</v>
       </c>
@@ -57251,11 +57256,11 @@
         <v>5148</v>
       </c>
       <c r="C143" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>5044</v>
       </c>
@@ -57263,11 +57268,11 @@
         <v>5197</v>
       </c>
       <c r="C144" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>5045</v>
       </c>
@@ -57275,11 +57280,11 @@
         <v>5198</v>
       </c>
       <c r="C145" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>5046</v>
       </c>
@@ -57287,11 +57292,11 @@
         <v>5199</v>
       </c>
       <c r="C146" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>2576</v>
       </c>
@@ -57299,11 +57304,11 @@
         <v>5200</v>
       </c>
       <c r="C147" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>2584</v>
       </c>
@@ -57311,11 +57316,11 @@
         <v>5201</v>
       </c>
       <c r="C148" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>3968</v>
       </c>
@@ -57323,11 +57328,11 @@
         <v>5047</v>
       </c>
       <c r="C149" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>3970</v>
       </c>
@@ -57335,11 +57340,11 @@
         <v>5048</v>
       </c>
       <c r="C150" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>4849</v>
       </c>
@@ -57347,11 +57352,11 @@
         <v>5049</v>
       </c>
       <c r="C151" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>4263</v>
       </c>
@@ -57359,11 +57364,11 @@
         <v>5050</v>
       </c>
       <c r="C152" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>4023</v>
       </c>
@@ -57371,11 +57376,11 @@
         <v>5054</v>
       </c>
       <c r="C153" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>5051</v>
       </c>
@@ -57383,11 +57388,11 @@
         <v>5052</v>
       </c>
       <c r="C154" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>5053</v>
       </c>
@@ -57395,11 +57400,11 @@
         <v>5059</v>
       </c>
       <c r="C155" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>5055</v>
       </c>
@@ -57407,11 +57412,11 @@
         <v>5061</v>
       </c>
       <c r="C156" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>5056</v>
       </c>
@@ -57419,11 +57424,11 @@
         <v>5062</v>
       </c>
       <c r="C157" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>5057</v>
       </c>
@@ -57431,11 +57436,11 @@
         <v>5047</v>
       </c>
       <c r="C158" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>5202</v>
       </c>
@@ -57443,11 +57448,11 @@
         <v>5063</v>
       </c>
       <c r="C159" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>5058</v>
       </c>
@@ -57455,11 +57460,11 @@
         <v>5065</v>
       </c>
       <c r="C160" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>5060</v>
       </c>
@@ -57467,11 +57472,11 @@
         <v>5149</v>
       </c>
       <c r="C161" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>3102</v>
       </c>
@@ -57479,11 +57484,11 @@
         <v>5150</v>
       </c>
       <c r="C162" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>3802</v>
       </c>
@@ -57491,11 +57496,11 @@
         <v>5067</v>
       </c>
       <c r="C163" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>5064</v>
       </c>
@@ -57503,11 +57508,11 @@
         <v>5203</v>
       </c>
       <c r="C164" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>5066</v>
       </c>
@@ -57515,11 +57520,11 @@
         <v>5204</v>
       </c>
       <c r="C165" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>4310</v>
       </c>
@@ -57527,11 +57532,11 @@
         <v>5205</v>
       </c>
       <c r="C166" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>4306</v>
       </c>
@@ -57539,11 +57544,11 @@
         <v>5206</v>
       </c>
       <c r="C167" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>3764</v>
       </c>
@@ -57551,11 +57556,11 @@
         <v>5207</v>
       </c>
       <c r="C168" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>5068</v>
       </c>
@@ -57563,11 +57568,11 @@
         <v>5208</v>
       </c>
       <c r="C169" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>3422</v>
       </c>
@@ -57575,11 +57580,11 @@
         <v>5151</v>
       </c>
       <c r="C170" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>3770</v>
       </c>
@@ -57587,11 +57592,11 @@
         <v>5209</v>
       </c>
       <c r="C171" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>4854</v>
       </c>
@@ -57599,11 +57604,11 @@
         <v>5078</v>
       </c>
       <c r="C172" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>dlg</v>
       </c>
     </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>4855</v>
       </c>
@@ -57611,11 +57616,11 @@
         <v>5079</v>
       </c>
       <c r="C173" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>dlg</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>4856</v>
       </c>
@@ -57623,11 +57628,11 @@
         <v>5080</v>
       </c>
       <c r="C174" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>dlg</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>4857</v>
       </c>
@@ -57635,11 +57640,11 @@
         <v>5081</v>
       </c>
       <c r="C175" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>dlg</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>4033</v>
       </c>
@@ -57647,11 +57652,11 @@
         <v>5083</v>
       </c>
       <c r="C176" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>dlg</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>5082</v>
       </c>
@@ -57659,11 +57664,11 @@
         <v>5154</v>
       </c>
       <c r="C177" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>dlg</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>5084</v>
       </c>
@@ -57671,11 +57676,11 @@
         <v>5155</v>
       </c>
       <c r="C178" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>dlg</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>5085</v>
       </c>
@@ -57683,11 +57688,11 @@
         <v>5087</v>
       </c>
       <c r="C179" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>dlg</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>5086</v>
       </c>
@@ -57695,11 +57700,11 @@
         <v>5089</v>
       </c>
       <c r="C180" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>dlg</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>5088</v>
       </c>
@@ -57707,11 +57712,11 @@
         <v>5091</v>
       </c>
       <c r="C181" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>dlg</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>5090</v>
       </c>
@@ -57719,11 +57724,11 @@
         <v>5093</v>
       </c>
       <c r="C182" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>dlg</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>5092</v>
       </c>
@@ -57731,11 +57736,11 @@
         <v>5095</v>
       </c>
       <c r="C183" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>dlg</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>5094</v>
       </c>
@@ -57743,11 +57748,11 @@
         <v>5156</v>
       </c>
       <c r="C184" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>dlg</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>3094</v>
       </c>
@@ -57755,11 +57760,11 @@
         <v>5096</v>
       </c>
       <c r="C185" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>3980</v>
       </c>
@@ -57767,11 +57772,11 @@
         <v>5157</v>
       </c>
       <c r="C186" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>3728</v>
       </c>
@@ -57779,11 +57784,11 @@
         <v>5098</v>
       </c>
       <c r="C187" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>5210</v>
       </c>
@@ -57791,11 +57796,11 @@
         <v>5100</v>
       </c>
       <c r="C188" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>5097</v>
       </c>
@@ -57803,11 +57808,11 @@
         <v>5211</v>
       </c>
       <c r="C189" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>5099</v>
       </c>
@@ -57815,11 +57820,11 @@
         <v>5212</v>
       </c>
       <c r="C190" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>4790</v>
       </c>
@@ -57827,11 +57832,11 @@
         <v>5213</v>
       </c>
       <c r="C191" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>5101</v>
       </c>
@@ -57839,11 +57844,11 @@
         <v>5102</v>
       </c>
       <c r="C192" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>wed</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>5103</v>
       </c>
@@ -57851,11 +57856,11 @@
         <v>5104</v>
       </c>
       <c r="C193" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>wed</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>5105</v>
       </c>
@@ -57863,11 +57868,11 @@
         <v>5106</v>
       </c>
       <c r="C194" s="3" t="str">
-        <f t="shared" ref="C194:C195" si="3">RIGHT(B194,3)</f>
+        <f t="shared" ref="C194" si="4">RIGHT(B194,3)</f>
         <v>tis</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>5107</v>
       </c>
@@ -57879,7 +57884,7 @@
         <v>tis</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>5109</v>
       </c>
@@ -57887,11 +57892,11 @@
         <v>5110</v>
       </c>
       <c r="C196" s="3" t="str">
-        <f t="shared" ref="C196:C199" si="4">RIGHT(B196,3)</f>
+        <f t="shared" ref="C196:C199" si="5">RIGHT(B196,3)</f>
         <v>bam</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>5111</v>
       </c>
@@ -57899,11 +57904,11 @@
         <v>5112</v>
       </c>
       <c r="C197" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>bam</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>5113</v>
       </c>
@@ -57911,11 +57916,11 @@
         <v>5114</v>
       </c>
       <c r="C198" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>bam</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>5115</v>
       </c>
@@ -57923,17 +57928,12 @@
         <v>5116</v>
       </c>
       <c r="C199" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>bam</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C199" xr:uid="{A8F845C5-1DFB-4DB9-9EFF-7FD24A274361}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="are"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:C40">
       <sortCondition ref="A1:A199"/>
     </sortState>

--- a/EE/generated/referenceTable.xlsx
+++ b/EE/generated/referenceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\generated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B40D92-A535-4175-877E-A259F748B4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8AF224-180D-43A1-A2FD-ECC49DB58D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16770" yWindow="2535" windowWidth="14205" windowHeight="11295" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Block A" sheetId="4" r:id="rId1"/>
@@ -16179,13 +16179,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}" name="Table1" displayName="Table1" ref="A1:C128" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C128" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="bmp"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C128" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C128">
     <sortCondition ref="A1:A128"/>
   </sortState>
@@ -16519,8 +16513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB79911A-7560-43EB-97A7-E09735CAF03B}">
   <dimension ref="A1:C1928"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423"/>
+    <sheetView topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="A423" sqref="A1:C1928"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53975,8 +53969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB835E14-5A69-4171-BEB0-A92EAC97E39C}">
   <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53997,7 +53991,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3855</v>
       </c>
@@ -54009,7 +54003,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3857</v>
       </c>
@@ -54021,7 +54015,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3859</v>
       </c>
@@ -54033,7 +54027,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3861</v>
       </c>
@@ -54045,7 +54039,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3997</v>
       </c>
@@ -54057,7 +54051,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4830</v>
       </c>
@@ -54069,7 +54063,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4848</v>
       </c>
@@ -54081,7 +54075,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3863</v>
       </c>
@@ -54093,7 +54087,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3865</v>
       </c>
@@ -54105,7 +54099,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3867</v>
       </c>
@@ -54117,7 +54111,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3869</v>
       </c>
@@ -54129,7 +54123,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3871</v>
       </c>
@@ -54141,7 +54135,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3873</v>
       </c>
@@ -54153,7 +54147,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3875</v>
       </c>
@@ -54165,7 +54159,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3877</v>
       </c>
@@ -54177,7 +54171,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3879</v>
       </c>
@@ -54189,7 +54183,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3881</v>
       </c>
@@ -54201,7 +54195,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>3883</v>
       </c>
@@ -54213,7 +54207,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3885</v>
       </c>
@@ -54225,7 +54219,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3887</v>
       </c>
@@ -54237,7 +54231,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>3889</v>
       </c>
@@ -54249,7 +54243,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>3891</v>
       </c>
@@ -54261,7 +54255,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3893</v>
       </c>
@@ -54273,7 +54267,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>3895</v>
       </c>
@@ -54285,7 +54279,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3897</v>
       </c>
@@ -54297,7 +54291,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>3899</v>
       </c>
@@ -54309,7 +54303,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>3901</v>
       </c>
@@ -54321,7 +54315,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>3903</v>
       </c>
@@ -54333,7 +54327,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3905</v>
       </c>
@@ -54345,7 +54339,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>3907</v>
       </c>
@@ -54357,7 +54351,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>3909</v>
       </c>
@@ -54369,7 +54363,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>3911</v>
       </c>
@@ -54381,7 +54375,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>3913</v>
       </c>
@@ -54393,7 +54387,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>3915</v>
       </c>
@@ -54405,7 +54399,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>3917</v>
       </c>
@@ -54417,7 +54411,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>3919</v>
       </c>
@@ -54429,7 +54423,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>3921</v>
       </c>
@@ -54441,7 +54435,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>3923</v>
       </c>
@@ -54453,7 +54447,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>3925</v>
       </c>
@@ -54465,7 +54459,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>3927</v>
       </c>
@@ -54477,7 +54471,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>3929</v>
       </c>
@@ -54489,7 +54483,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>3931</v>
       </c>
@@ -54501,7 +54495,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>3933</v>
       </c>
@@ -54513,7 +54507,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>3935</v>
       </c>
@@ -54525,7 +54519,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>3937</v>
       </c>
@@ -54537,7 +54531,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>3939</v>
       </c>
@@ -54549,7 +54543,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>3941</v>
       </c>
@@ -54561,7 +54555,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>3943</v>
       </c>
@@ -54573,7 +54567,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>3945</v>
       </c>
@@ -54585,7 +54579,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>3947</v>
       </c>
@@ -54597,7 +54591,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>3949</v>
       </c>
@@ -54609,7 +54603,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1684</v>
       </c>
@@ -54621,7 +54615,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>1686</v>
       </c>
@@ -54633,7 +54627,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>1688</v>
       </c>
@@ -54645,7 +54639,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>1678</v>
       </c>
@@ -54657,7 +54651,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>1680</v>
       </c>
@@ -54669,7 +54663,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>3956</v>
       </c>
@@ -54681,7 +54675,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>3958</v>
       </c>
@@ -54693,7 +54687,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>3960</v>
       </c>
@@ -54705,7 +54699,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>4005</v>
       </c>
@@ -54717,7 +54711,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>4007</v>
       </c>
@@ -54729,7 +54723,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>4009</v>
       </c>
@@ -54741,7 +54735,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>4011</v>
       </c>
@@ -54753,7 +54747,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>4013</v>
       </c>
@@ -54765,7 +54759,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>4015</v>
       </c>
@@ -54777,7 +54771,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>4017</v>
       </c>
@@ -54789,7 +54783,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>4019</v>
       </c>
@@ -54801,7 +54795,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>4021</v>
       </c>
@@ -54813,7 +54807,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>1784</v>
       </c>
@@ -54825,7 +54819,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>1782</v>
       </c>
@@ -54837,7 +54831,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>1788</v>
       </c>
@@ -54849,7 +54843,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>1790</v>
       </c>
@@ -54861,7 +54855,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>1780</v>
       </c>
@@ -54873,7 +54867,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>1786</v>
       </c>
@@ -54885,7 +54879,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>3962</v>
       </c>
@@ -54897,7 +54891,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>3964</v>
       </c>
@@ -54909,7 +54903,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>3966</v>
       </c>
@@ -54921,7 +54915,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>3968</v>
       </c>
@@ -54933,7 +54927,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>3970</v>
       </c>
@@ -54945,7 +54939,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>3972</v>
       </c>
@@ -54957,7 +54951,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>3974</v>
       </c>
@@ -54969,7 +54963,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>3422</v>
       </c>
@@ -54981,7 +54975,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>4026</v>
       </c>
@@ -54993,7 +54987,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>3802</v>
       </c>
@@ -55005,7 +54999,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>2354</v>
       </c>
@@ -55017,7 +55011,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>3336</v>
       </c>
@@ -55029,7 +55023,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>3102</v>
       </c>
@@ -55041,7 +55035,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>4850</v>
       </c>
@@ -55053,7 +55047,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>4290</v>
       </c>
@@ -55065,7 +55059,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>4851</v>
       </c>
@@ -55077,7 +55071,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>3976</v>
       </c>
@@ -55089,7 +55083,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>3978</v>
       </c>
@@ -55101,7 +55095,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>3980</v>
       </c>
@@ -55113,7 +55107,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>3728</v>
       </c>
@@ -55125,7 +55119,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>4741</v>
       </c>
@@ -55161,7 +55155,7 @@
         <v>bmp</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>3983</v>
       </c>
@@ -55173,7 +55167,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>3985</v>
       </c>
@@ -55185,7 +55179,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>3987</v>
       </c>
@@ -55197,7 +55191,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>3989</v>
       </c>
@@ -55209,7 +55203,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>4035</v>
       </c>
@@ -55221,7 +55215,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>4841</v>
       </c>
@@ -55233,7 +55227,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>4858</v>
       </c>
@@ -55245,7 +55239,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>3991</v>
       </c>
@@ -55257,7 +55251,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>3993</v>
       </c>
@@ -55269,7 +55263,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>1780</v>
       </c>
@@ -55281,7 +55275,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>1782</v>
       </c>
@@ -55293,7 +55287,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1784</v>
       </c>
@@ -55305,7 +55299,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1786</v>
       </c>
@@ -55317,7 +55311,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>1788</v>
       </c>
@@ -55329,7 +55323,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>1790</v>
       </c>
@@ -55341,7 +55335,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>3855</v>
       </c>
@@ -55377,7 +55371,7 @@
         <v>bmp</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>3993</v>
       </c>
@@ -55389,7 +55383,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>3991</v>
       </c>
@@ -55401,7 +55395,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>2354</v>
       </c>
@@ -55413,7 +55407,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>4830</v>
       </c>
@@ -55425,7 +55419,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>4841</v>
       </c>
@@ -55437,7 +55431,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>3094</v>
       </c>
@@ -55449,7 +55443,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>3102</v>
       </c>
@@ -55461,7 +55455,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>3336</v>
       </c>
@@ -55473,7 +55467,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>3422</v>
       </c>
@@ -55485,7 +55479,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>4741</v>
       </c>
@@ -55497,7 +55491,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>3728</v>
       </c>
@@ -55509,7 +55503,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>3802</v>
       </c>
@@ -55534,8 +55528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F845C5-1DFB-4DB9-9EFF-7FD24A274361}">
   <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57947,7 +57941,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EE/generated/referenceTable.xlsx
+++ b/EE/generated/referenceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\generated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCA3B25-FE60-43B3-97CC-E48AA81FEC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EAD2BC-2986-40C1-9982-350BB4F42FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24225" yWindow="1410" windowWidth="21600" windowHeight="11295" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7785" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Block A" sheetId="4" r:id="rId1"/>
@@ -16402,12 +16402,12 @@
   <autoFilter ref="A1:C1940" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}">
     <filterColumn colId="2">
       <filters>
-        <filter val="dlg"/>
+        <filter val="are"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:C1617">
-    <sortCondition ref="B1:B1940"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C1816">
+    <sortCondition ref="A1:A1940"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3B54FA44-AFAB-4FFF-863D-B73F4C831CF8}" name="Old" dataDxfId="12"/>
@@ -16770,8 +16770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB79911A-7560-43EB-97A7-E09735CAF03B}">
   <dimension ref="A1:C1940"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1005" workbookViewId="0">
-      <selection activeCell="B1108" sqref="B1108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1079" sqref="A1079"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16792,12 +16792,12 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>900</v>
+        <v>212</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>901</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>RIGHT(B2,3)</f>
@@ -16840,7 +16840,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5259</v>
       </c>
@@ -17728,7 +17728,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>1549</v>
       </c>
@@ -18352,7 +18352,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>2936</v>
       </c>
@@ -18880,12 +18880,12 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>854</v>
+        <v>218</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>855</v>
+        <v>219</v>
       </c>
       <c r="C176" s="1" t="str">
         <f>RIGHT(B176,3)</f>
@@ -18928,7 +18928,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>1542</v>
       </c>
@@ -19348,12 +19348,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>906</v>
+        <v>220</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>907</v>
+        <v>224</v>
       </c>
       <c r="C215" s="1" t="str">
         <f>RIGHT(B215,3)</f>
@@ -19384,7 +19384,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>2226</v>
       </c>
@@ -19756,12 +19756,12 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>640</v>
+        <v>221</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>641</v>
+        <v>222</v>
       </c>
       <c r="C249" s="1" t="str">
         <f>RIGHT(B249,3)</f>
@@ -20068,12 +20068,12 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>960</v>
+        <v>223</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>961</v>
+        <v>4520</v>
       </c>
       <c r="C275" s="1" t="str">
         <f>RIGHT(B275,3)</f>
@@ -20380,12 +20380,12 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>762</v>
+        <v>225</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>763</v>
+        <v>226</v>
       </c>
       <c r="C301" s="1" t="str">
         <f>RIGHT(B301,3)</f>
@@ -20428,7 +20428,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>1581</v>
       </c>
@@ -20788,12 +20788,12 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>514</v>
+        <v>227</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>515</v>
+        <v>313</v>
       </c>
       <c r="C335" s="1" t="str">
         <f>RIGHT(B335,3)</f>
@@ -21304,12 +21304,12 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>520</v>
+        <v>228</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>521</v>
+        <v>229</v>
       </c>
       <c r="C378" s="1" t="str">
         <f>RIGHT(B378,3)</f>
@@ -21544,12 +21544,12 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>526</v>
+        <v>230</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>527</v>
+        <v>234</v>
       </c>
       <c r="C398" s="1" t="str">
         <f>RIGHT(B398,3)</f>
@@ -21796,12 +21796,12 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>502</v>
+        <v>231</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>503</v>
+        <v>232</v>
       </c>
       <c r="C419" s="1" t="str">
         <f>RIGHT(B419,3)</f>
@@ -22264,12 +22264,12 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>538</v>
+        <v>233</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>539</v>
+        <v>238</v>
       </c>
       <c r="C458" s="1" t="str">
         <f>RIGHT(B458,3)</f>
@@ -22948,12 +22948,12 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>774</v>
+        <v>235</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>775</v>
+        <v>236</v>
       </c>
       <c r="C515" s="1" t="str">
         <f>RIGHT(B515,3)</f>
@@ -23356,12 +23356,12 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
-        <v>860</v>
+        <v>237</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>861</v>
+        <v>242</v>
       </c>
       <c r="C549" s="1" t="str">
         <f>RIGHT(B549,3)</f>
@@ -24052,12 +24052,12 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="607" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
-        <v>864</v>
+        <v>239</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>865</v>
+        <v>240</v>
       </c>
       <c r="C607" s="1" t="str">
         <f>RIGHT(B607,3)</f>
@@ -24304,12 +24304,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="628" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
-        <v>868</v>
+        <v>241</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>869</v>
+        <v>246</v>
       </c>
       <c r="C628" s="1" t="str">
         <f>RIGHT(B628,3)</f>
@@ -24340,7 +24340,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>2521</v>
       </c>
@@ -25036,12 +25036,12 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="689" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
-        <v>786</v>
+        <v>243</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>787</v>
+        <v>244</v>
       </c>
       <c r="C689" s="1" t="str">
         <f>RIGHT(B689,3)</f>
@@ -25240,12 +25240,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="706" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
-        <v>884</v>
+        <v>245</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>885</v>
+        <v>457</v>
       </c>
       <c r="C706" s="1" t="str">
         <f>RIGHT(B706,3)</f>
@@ -25564,12 +25564,12 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="733" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
-        <v>890</v>
+        <v>247</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>891</v>
+        <v>248</v>
       </c>
       <c r="C733" s="1" t="str">
         <f>RIGHT(B733,3)</f>
@@ -25792,12 +25792,12 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="752" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
-        <v>892</v>
+        <v>249</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>893</v>
+        <v>357</v>
       </c>
       <c r="C752" s="1" t="str">
         <f>RIGHT(B752,3)</f>
@@ -26308,12 +26308,12 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="795" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
-        <v>634</v>
+        <v>251</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>635</v>
+        <v>252</v>
       </c>
       <c r="C795" s="1" t="str">
         <f>RIGHT(B795,3)</f>
@@ -27928,7 +27928,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="s">
         <v>1214</v>
       </c>
@@ -27952,12 +27952,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="932" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="s">
-        <v>872</v>
+        <v>257</v>
       </c>
       <c r="B932" s="1" t="s">
-        <v>873</v>
+        <v>4518</v>
       </c>
       <c r="C932" s="1" t="str">
         <f>RIGHT(B932,3)</f>
@@ -28096,7 +28096,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="944" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
         <v>1160</v>
       </c>
@@ -28156,12 +28156,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="949" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
-        <v>616</v>
+        <v>261</v>
       </c>
       <c r="B949" s="1" t="s">
-        <v>617</v>
+        <v>262</v>
       </c>
       <c r="C949" s="1" t="str">
         <f>RIGHT(B949,3)</f>
@@ -28288,12 +28288,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="960" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
-        <v>646</v>
+        <v>267</v>
       </c>
       <c r="B960" s="1" t="s">
-        <v>647</v>
+        <v>268</v>
       </c>
       <c r="C960" s="1" t="str">
         <f>RIGHT(B960,3)</f>
@@ -28396,12 +28396,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="969" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
-        <v>508</v>
+        <v>273</v>
       </c>
       <c r="B969" s="1" t="s">
-        <v>509</v>
+        <v>274</v>
       </c>
       <c r="C969" s="1" t="str">
         <f>RIGHT(B969,3)</f>
@@ -28516,19 +28516,19 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="979" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="B979" s="1" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="C979" s="1" t="str">
         <f>RIGHT(B979,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="980" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A980" s="1" t="s">
         <v>1471</v>
       </c>
@@ -28576,19 +28576,19 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="984" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="B984" s="1" t="s">
-        <v>268</v>
+        <v>1046</v>
       </c>
       <c r="C984" s="1" t="str">
         <f>RIGHT(B984,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="985" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A985" s="1" t="s">
         <v>2329</v>
       </c>
@@ -28648,12 +28648,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="990" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
-        <v>650</v>
+        <v>288</v>
       </c>
       <c r="B990" s="1" t="s">
-        <v>651</v>
+        <v>289</v>
       </c>
       <c r="C990" s="1" t="str">
         <f>RIGHT(B990,3)</f>
@@ -28672,7 +28672,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="992" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A992" s="1" t="s">
         <v>2185</v>
       </c>
@@ -28708,12 +28708,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="995" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A995" s="1" t="s">
-        <v>660</v>
+        <v>294</v>
       </c>
       <c r="B995" s="1" t="s">
-        <v>661</v>
+        <v>295</v>
       </c>
       <c r="C995" s="1" t="str">
         <f>RIGHT(B995,3)</f>
@@ -28732,7 +28732,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="997" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A997" s="1" t="s">
         <v>1436</v>
       </c>
@@ -28816,19 +28816,19 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1004" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1004" s="1" t="s">
-        <v>656</v>
+        <v>300</v>
       </c>
       <c r="B1004" s="1" t="s">
-        <v>657</v>
+        <v>4521</v>
       </c>
       <c r="C1004" s="1" t="str">
         <f>RIGHT(B1004,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1005" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="1" t="s">
         <v>2365</v>
       </c>
@@ -28912,7 +28912,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1012" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="1" t="s">
         <v>2875</v>
       </c>
@@ -29128,12 +29128,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1030" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1030" s="1" t="s">
-        <v>1012</v>
+        <v>306</v>
       </c>
       <c r="B1030" s="1" t="s">
-        <v>1013</v>
+        <v>307</v>
       </c>
       <c r="C1030" s="1" t="str">
         <f>RIGHT(B1030,3)</f>
@@ -29176,12 +29176,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1034" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1034" s="1" t="s">
-        <v>912</v>
+        <v>312</v>
       </c>
       <c r="B1034" s="1" t="s">
-        <v>913</v>
+        <v>301</v>
       </c>
       <c r="C1034" s="1" t="str">
         <f>RIGHT(B1034,3)</f>
@@ -29224,19 +29224,19 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1038" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1038" s="1" t="s">
-        <v>742</v>
+        <v>316</v>
       </c>
       <c r="B1038" s="1" t="s">
-        <v>743</v>
+        <v>317</v>
       </c>
       <c r="C1038" s="1" t="str">
         <f>RIGHT(B1038,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1039" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1039" s="1" t="s">
         <v>1764</v>
       </c>
@@ -29272,31 +29272,31 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1042" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1042" s="1" t="s">
-        <v>978</v>
+        <v>322</v>
       </c>
       <c r="B1042" s="1" t="s">
-        <v>979</v>
+        <v>323</v>
       </c>
       <c r="C1042" s="1" t="str">
         <f>RIGHT(B1042,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1043" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1043" s="1" t="s">
-        <v>974</v>
+        <v>328</v>
       </c>
       <c r="B1043" s="1" t="s">
-        <v>975</v>
+        <v>329</v>
       </c>
       <c r="C1043" s="1" t="str">
         <f>RIGHT(B1043,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1044" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1044" s="1" t="s">
         <v>2086</v>
       </c>
@@ -29320,19 +29320,19 @@
         <v>sto</v>
       </c>
     </row>
-    <row r="1046" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1046" s="1" t="s">
-        <v>970</v>
+        <v>334</v>
       </c>
       <c r="B1046" s="1" t="s">
-        <v>971</v>
+        <v>552</v>
       </c>
       <c r="C1046" s="1" t="str">
         <f>RIGHT(B1046,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1047" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1047" s="1" t="s">
         <v>2131</v>
       </c>
@@ -29356,19 +29356,19 @@
         <v>sto</v>
       </c>
     </row>
-    <row r="1049" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1049" s="1" t="s">
-        <v>706</v>
+        <v>338</v>
       </c>
       <c r="B1049" s="1" t="s">
-        <v>707</v>
+        <v>339</v>
       </c>
       <c r="C1049" s="1" t="str">
         <f>RIGHT(B1049,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1050" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1050" s="1" t="s">
         <v>1472</v>
       </c>
@@ -29416,12 +29416,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1054" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1054" s="1" t="s">
-        <v>768</v>
+        <v>344</v>
       </c>
       <c r="B1054" s="1" t="s">
-        <v>769</v>
+        <v>345</v>
       </c>
       <c r="C1054" s="1" t="str">
         <f>RIGHT(B1054,3)</f>
@@ -29440,7 +29440,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1056" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1056" s="1" t="s">
         <v>1254</v>
       </c>
@@ -29488,12 +29488,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1060" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1060" s="1" t="s">
-        <v>1006</v>
+        <v>350</v>
       </c>
       <c r="B1060" s="1" t="s">
-        <v>1007</v>
+        <v>351</v>
       </c>
       <c r="C1060" s="1" t="str">
         <f>RIGHT(B1060,3)</f>
@@ -29536,12 +29536,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1064" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1064" s="1" t="s">
-        <v>1002</v>
+        <v>356</v>
       </c>
       <c r="B1064" s="1" t="s">
-        <v>1003</v>
+        <v>4519</v>
       </c>
       <c r="C1064" s="1" t="str">
         <f>RIGHT(B1064,3)</f>
@@ -29560,12 +29560,12 @@
         <v>sto</v>
       </c>
     </row>
-    <row r="1066" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1066" s="1" t="s">
-        <v>982</v>
+        <v>360</v>
       </c>
       <c r="B1066" s="1" t="s">
-        <v>983</v>
+        <v>361</v>
       </c>
       <c r="C1066" s="1" t="str">
         <f>RIGHT(B1066,3)</f>
@@ -29620,12 +29620,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1071" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1071" s="1" t="s">
-        <v>988</v>
+        <v>366</v>
       </c>
       <c r="B1071" s="1" t="s">
-        <v>989</v>
+        <v>367</v>
       </c>
       <c r="C1071" s="1" t="str">
         <f>RIGHT(B1071,3)</f>
@@ -29668,12 +29668,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1075" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1075" s="1" t="s">
-        <v>994</v>
+        <v>372</v>
       </c>
       <c r="B1075" s="1" t="s">
-        <v>995</v>
+        <v>373</v>
       </c>
       <c r="C1075" s="1" t="str">
         <f>RIGHT(B1075,3)</f>
@@ -29692,7 +29692,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1077" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1077" s="1" t="s">
         <v>2048</v>
       </c>
@@ -29704,19 +29704,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1078" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1078" s="1" t="s">
-        <v>998</v>
+        <v>378</v>
       </c>
       <c r="B1078" s="1" t="s">
-        <v>999</v>
+        <v>379</v>
       </c>
       <c r="C1078" s="1" t="str">
         <f>RIGHT(B1078,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1079" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1079" s="1" t="s">
         <v>2051</v>
       </c>
@@ -29752,12 +29752,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1082" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1082" s="1" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="B1082" s="1" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="C1082" s="1" t="str">
         <f>RIGHT(B1082,3)</f>
@@ -29776,7 +29776,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1084" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1084" s="1" t="s">
         <v>1458</v>
       </c>
@@ -29812,12 +29812,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1087" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1087" s="1" t="s">
-        <v>628</v>
+        <v>390</v>
       </c>
       <c r="B1087" s="1" t="s">
-        <v>629</v>
+        <v>391</v>
       </c>
       <c r="C1087" s="1" t="str">
         <f>RIGHT(B1087,3)</f>
@@ -29860,7 +29860,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1091" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1091" s="1" t="s">
         <v>2408</v>
       </c>
@@ -29896,12 +29896,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1094" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1094" s="1" t="s">
-        <v>664</v>
+        <v>396</v>
       </c>
       <c r="B1094" s="1" t="s">
-        <v>665</v>
+        <v>397</v>
       </c>
       <c r="C1094" s="1" t="str">
         <f>RIGHT(B1094,3)</f>
@@ -29944,12 +29944,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1098" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1098" s="1" t="s">
-        <v>836</v>
+        <v>402</v>
       </c>
       <c r="B1098" s="1" t="s">
-        <v>837</v>
+        <v>403</v>
       </c>
       <c r="C1098" s="1" t="str">
         <f>RIGHT(B1098,3)</f>
@@ -29968,24 +29968,24 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1100" s="1" t="s">
-        <v>834</v>
+        <v>408</v>
       </c>
       <c r="B1100" s="1" t="s">
-        <v>835</v>
+        <v>409</v>
       </c>
       <c r="C1100" s="1" t="str">
         <f>RIGHT(B1100,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1101" s="1" t="s">
-        <v>828</v>
+        <v>414</v>
       </c>
       <c r="B1101" s="1" t="s">
-        <v>829</v>
+        <v>415</v>
       </c>
       <c r="C1101" s="1" t="str">
         <f>RIGHT(B1101,3)</f>
@@ -30016,19 +30016,19 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1104" s="1" t="s">
-        <v>822</v>
+        <v>420</v>
       </c>
       <c r="B1104" s="1" t="s">
-        <v>823</v>
+        <v>421</v>
       </c>
       <c r="C1104" s="1" t="str">
         <f>RIGHT(B1104,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1105" s="1" t="s">
         <v>1882</v>
       </c>
@@ -30064,7 +30064,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1108" s="1" t="s">
         <v>2965</v>
       </c>
@@ -30076,12 +30076,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1109" s="1" t="s">
-        <v>848</v>
+        <v>426</v>
       </c>
       <c r="B1109" s="1" t="s">
-        <v>849</v>
+        <v>427</v>
       </c>
       <c r="C1109" s="1" t="str">
         <f>RIGHT(B1109,3)</f>
@@ -30112,19 +30112,19 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1112" s="1" t="s">
-        <v>840</v>
+        <v>432</v>
       </c>
       <c r="B1112" s="1" t="s">
-        <v>841</v>
+        <v>433</v>
       </c>
       <c r="C1112" s="1" t="str">
         <f>RIGHT(B1112,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1113" s="1" t="s">
         <v>1115</v>
       </c>
@@ -30160,12 +30160,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1116" s="1" t="s">
-        <v>846</v>
+        <v>438</v>
       </c>
       <c r="B1116" s="1" t="s">
-        <v>847</v>
+        <v>439</v>
       </c>
       <c r="C1116" s="1" t="str">
         <f>RIGHT(B1116,3)</f>
@@ -30184,7 +30184,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1118" s="1" t="s">
         <v>2486</v>
       </c>
@@ -30196,12 +30196,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1119" s="1" t="s">
-        <v>818</v>
+        <v>444</v>
       </c>
       <c r="B1119" s="1" t="s">
-        <v>819</v>
+        <v>445</v>
       </c>
       <c r="C1119" s="1" t="str">
         <f>RIGHT(B1119,3)</f>
@@ -30220,7 +30220,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1121" s="1" t="s">
         <v>1868</v>
       </c>
@@ -30232,12 +30232,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1122" s="1" t="s">
-        <v>814</v>
+        <v>450</v>
       </c>
       <c r="B1122" s="1" t="s">
-        <v>815</v>
+        <v>451</v>
       </c>
       <c r="C1122" s="1" t="str">
         <f>RIGHT(B1122,3)</f>
@@ -30256,7 +30256,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1124" s="1" t="s">
         <v>1757</v>
       </c>
@@ -30268,12 +30268,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1125" s="1" t="s">
-        <v>810</v>
+        <v>456</v>
       </c>
       <c r="B1125" s="1" t="s">
-        <v>811</v>
+        <v>250</v>
       </c>
       <c r="C1125" s="1" t="str">
         <f>RIGHT(B1125,3)</f>
@@ -30292,7 +30292,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1127" s="1" t="s">
         <v>1219</v>
       </c>
@@ -30304,12 +30304,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1128" s="1" t="s">
-        <v>806</v>
+        <v>460</v>
       </c>
       <c r="B1128" s="1" t="s">
-        <v>807</v>
+        <v>461</v>
       </c>
       <c r="C1128" s="1" t="str">
         <f>RIGHT(B1128,3)</f>
@@ -30328,7 +30328,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1130" s="1" t="s">
         <v>2116</v>
       </c>
@@ -30340,19 +30340,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1131" s="1" t="s">
-        <v>802</v>
+        <v>466</v>
       </c>
       <c r="B1131" s="1" t="s">
-        <v>803</v>
+        <v>467</v>
       </c>
       <c r="C1131" s="1" t="str">
         <f>RIGHT(B1131,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1132" s="1" t="s">
         <v>1073</v>
       </c>
@@ -30364,12 +30364,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1133" s="1" t="s">
-        <v>798</v>
+        <v>472</v>
       </c>
       <c r="B1133" s="1" t="s">
-        <v>799</v>
+        <v>473</v>
       </c>
       <c r="C1133" s="1" t="str">
         <f>RIGHT(B1133,3)</f>
@@ -30388,7 +30388,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1135" s="1" t="s">
         <v>2695</v>
       </c>
@@ -30400,7 +30400,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1136" s="1" t="s">
         <v>478</v>
       </c>
@@ -30424,7 +30424,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1138" s="1" t="s">
         <v>1242</v>
       </c>
@@ -30472,7 +30472,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1142" s="1" t="s">
         <v>1296</v>
       </c>
@@ -30484,7 +30484,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1143" s="1" t="s">
         <v>2150</v>
       </c>
@@ -30496,7 +30496,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1144" s="1" t="s">
         <v>1128</v>
       </c>
@@ -30520,7 +30520,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1146" s="1" t="s">
         <v>2764</v>
       </c>
@@ -30532,7 +30532,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1147" s="1" t="s">
         <v>2969</v>
       </c>
@@ -30544,7 +30544,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1148" s="1" t="s">
         <v>2098</v>
       </c>
@@ -30556,19 +30556,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1149" s="1" t="s">
-        <v>532</v>
+        <v>484</v>
       </c>
       <c r="B1149" s="1" t="s">
-        <v>533</v>
+        <v>485</v>
       </c>
       <c r="C1149" s="1" t="str">
         <f>RIGHT(B1149,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1150" s="1" t="s">
         <v>2478</v>
       </c>
@@ -30604,7 +30604,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1153" s="1" t="s">
         <v>1112</v>
       </c>
@@ -30628,7 +30628,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1155" s="1" t="s">
         <v>2336</v>
       </c>
@@ -30664,12 +30664,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1158" s="1" t="s">
-        <v>614</v>
+        <v>490</v>
       </c>
       <c r="B1158" s="1" t="s">
-        <v>615</v>
+        <v>491</v>
       </c>
       <c r="C1158" s="1" t="str">
         <f>RIGHT(B1158,3)</f>
@@ -30724,7 +30724,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1163" s="1" t="s">
         <v>2023</v>
       </c>
@@ -30748,7 +30748,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1165" s="1" t="s">
         <v>2723</v>
       </c>
@@ -30760,12 +30760,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1166" s="1" t="s">
-        <v>780</v>
+        <v>496</v>
       </c>
       <c r="B1166" s="1" t="s">
-        <v>781</v>
+        <v>497</v>
       </c>
       <c r="C1166" s="1" t="str">
         <f>RIGHT(B1166,3)</f>
@@ -30784,7 +30784,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1168" s="1" t="s">
         <v>2161</v>
       </c>
@@ -30832,7 +30832,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1172" s="1" t="s">
         <v>2072</v>
       </c>
@@ -30844,12 +30844,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1173" s="1" t="s">
-        <v>862</v>
+        <v>502</v>
       </c>
       <c r="B1173" s="1" t="s">
-        <v>863</v>
+        <v>503</v>
       </c>
       <c r="C1173" s="1" t="str">
         <f>RIGHT(B1173,3)</f>
@@ -30868,7 +30868,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1175" s="1" t="s">
         <v>2102</v>
       </c>
@@ -30904,7 +30904,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1178" s="1" t="s">
         <v>1124</v>
       </c>
@@ -30916,12 +30916,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1179" s="1" t="s">
-        <v>866</v>
+        <v>508</v>
       </c>
       <c r="B1179" s="1" t="s">
-        <v>867</v>
+        <v>509</v>
       </c>
       <c r="C1179" s="1" t="str">
         <f>RIGHT(B1179,3)</f>
@@ -30952,7 +30952,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1182" s="1" t="s">
         <v>3006</v>
       </c>
@@ -30964,19 +30964,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1183" s="1" t="s">
-        <v>870</v>
+        <v>514</v>
       </c>
       <c r="B1183" s="1" t="s">
-        <v>871</v>
+        <v>515</v>
       </c>
       <c r="C1183" s="1" t="str">
         <f>RIGHT(B1183,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1184" s="1" t="s">
         <v>2079</v>
       </c>
@@ -31012,7 +31012,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1187" s="1" t="s">
         <v>1211</v>
       </c>
@@ -31024,12 +31024,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1188" s="1" t="s">
-        <v>792</v>
+        <v>520</v>
       </c>
       <c r="B1188" s="1" t="s">
-        <v>793</v>
+        <v>521</v>
       </c>
       <c r="C1188" s="1" t="str">
         <f>RIGHT(B1188,3)</f>
@@ -31060,7 +31060,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1191" s="1" t="s">
         <v>1572</v>
       </c>
@@ -31072,7 +31072,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1192" s="1" t="s">
         <v>2643</v>
       </c>
@@ -31084,7 +31084,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1193" s="1" t="s">
         <v>2889</v>
       </c>
@@ -31096,19 +31096,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1194" s="1" t="s">
-        <v>894</v>
+        <v>526</v>
       </c>
       <c r="B1194" s="1" t="s">
-        <v>895</v>
+        <v>527</v>
       </c>
       <c r="C1194" s="1" t="str">
         <f>RIGHT(B1194,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1195" s="1" t="s">
         <v>2973</v>
       </c>
@@ -31120,7 +31120,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1196" s="1" t="s">
         <v>2492</v>
       </c>
@@ -31132,7 +31132,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1197" s="1" t="s">
         <v>2598</v>
       </c>
@@ -31204,7 +31204,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1203" s="1" t="s">
         <v>2241</v>
       </c>
@@ -31216,7 +31216,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1204" s="1" t="s">
         <v>1991</v>
       </c>
@@ -31228,7 +31228,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1205" s="1" t="s">
         <v>2008</v>
       </c>
@@ -31240,19 +31240,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1206" s="1" t="s">
-        <v>316</v>
+        <v>532</v>
       </c>
       <c r="B1206" s="1" t="s">
-        <v>317</v>
+        <v>533</v>
       </c>
       <c r="C1206" s="1" t="str">
         <f>RIGHT(B1206,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1207" s="1" t="s">
         <v>2978</v>
       </c>
@@ -31288,7 +31288,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1210" s="1" t="s">
         <v>2215</v>
       </c>
@@ -31300,19 +31300,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1211" s="1" t="s">
-        <v>878</v>
+        <v>538</v>
       </c>
       <c r="B1211" s="1" t="s">
-        <v>879</v>
+        <v>539</v>
       </c>
       <c r="C1211" s="1" t="str">
         <f>RIGHT(B1211,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1212" s="1" t="s">
         <v>2222</v>
       </c>
@@ -31336,7 +31336,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="1214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1214" s="1" t="s">
         <v>1578</v>
       </c>
@@ -31348,7 +31348,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1215" s="1" t="s">
         <v>2450</v>
       </c>
@@ -31360,19 +31360,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1216" s="1" t="s">
-        <v>251</v>
+        <v>540</v>
       </c>
       <c r="B1216" s="1" t="s">
-        <v>252</v>
+        <v>560</v>
       </c>
       <c r="C1216" s="1" t="str">
         <f>RIGHT(B1216,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1217" s="1" t="s">
         <v>2573</v>
       </c>
@@ -31408,19 +31408,19 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1220" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1220" s="1" t="s">
-        <v>212</v>
+        <v>546</v>
       </c>
       <c r="B1220" s="1" t="s">
-        <v>213</v>
+        <v>592</v>
       </c>
       <c r="C1220" s="1" t="str">
         <f>RIGHT(B1220,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1221" s="1" t="s">
         <v>2569</v>
       </c>
@@ -31456,12 +31456,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1224" s="1" t="s">
-        <v>228</v>
+        <v>551</v>
       </c>
       <c r="B1224" s="1" t="s">
-        <v>229</v>
+        <v>580</v>
       </c>
       <c r="C1224" s="1" t="str">
         <f>RIGHT(B1224,3)</f>
@@ -31480,7 +31480,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1226" s="1" t="s">
         <v>1884</v>
       </c>
@@ -31492,19 +31492,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1227" s="1" t="s">
-        <v>231</v>
+        <v>553</v>
       </c>
       <c r="B1227" s="1" t="s">
-        <v>232</v>
+        <v>554</v>
       </c>
       <c r="C1227" s="1" t="str">
         <f>RIGHT(B1227,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1228" s="1" t="s">
         <v>2649</v>
       </c>
@@ -31516,12 +31516,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1229" s="1" t="s">
-        <v>235</v>
+        <v>555</v>
       </c>
       <c r="B1229" s="1" t="s">
-        <v>236</v>
+        <v>562</v>
       </c>
       <c r="C1229" s="1" t="str">
         <f>RIGHT(B1229,3)</f>
@@ -31540,7 +31540,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1231" s="1" t="s">
         <v>2653</v>
       </c>
@@ -31552,12 +31552,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1232" s="1" t="s">
-        <v>239</v>
+        <v>557</v>
       </c>
       <c r="B1232" s="1" t="s">
-        <v>240</v>
+        <v>558</v>
       </c>
       <c r="C1232" s="1" t="str">
         <f>RIGHT(B1232,3)</f>
@@ -31576,7 +31576,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1234" s="1" t="s">
         <v>2657</v>
       </c>
@@ -31588,19 +31588,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1235" s="1" t="s">
-        <v>243</v>
+        <v>559</v>
       </c>
       <c r="B1235" s="1" t="s">
-        <v>244</v>
+        <v>556</v>
       </c>
       <c r="C1235" s="1" t="str">
         <f>RIGHT(B1235,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1236" s="1" t="s">
         <v>2661</v>
       </c>
@@ -31612,12 +31612,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1237" s="1" t="s">
-        <v>444</v>
+        <v>561</v>
       </c>
       <c r="B1237" s="1" t="s">
-        <v>445</v>
+        <v>568</v>
       </c>
       <c r="C1237" s="1" t="str">
         <f>RIGHT(B1237,3)</f>
@@ -31636,7 +31636,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1239" s="1" t="s">
         <v>2665</v>
       </c>
@@ -31672,19 +31672,19 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1242" s="1" t="s">
-        <v>247</v>
+        <v>567</v>
       </c>
       <c r="B1242" s="1" t="s">
-        <v>248</v>
+        <v>4517</v>
       </c>
       <c r="C1242" s="1" t="str">
         <f>RIGHT(B1242,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1243" s="1" t="s">
         <v>2669</v>
       </c>
@@ -31696,12 +31696,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1244" s="1" t="s">
-        <v>350</v>
+        <v>573</v>
       </c>
       <c r="B1244" s="1" t="s">
-        <v>351</v>
+        <v>574</v>
       </c>
       <c r="C1244" s="1" t="str">
         <f>RIGHT(B1244,3)</f>
@@ -31720,7 +31720,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1246" s="1" t="s">
         <v>1118</v>
       </c>
@@ -31756,19 +31756,19 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1249" s="1" t="s">
-        <v>218</v>
+        <v>579</v>
       </c>
       <c r="B1249" s="1" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="C1249" s="1" t="str">
         <f>RIGHT(B1249,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1250" s="1" t="s">
         <v>1316</v>
       </c>
@@ -31780,19 +31780,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1251" s="1" t="s">
-        <v>221</v>
+        <v>585</v>
       </c>
       <c r="B1251" s="1" t="s">
-        <v>222</v>
+        <v>586</v>
       </c>
       <c r="C1251" s="1" t="str">
         <f>RIGHT(B1251,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1252" s="1" t="s">
         <v>2053</v>
       </c>
@@ -31804,19 +31804,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1253" s="1" t="s">
-        <v>225</v>
+        <v>591</v>
       </c>
       <c r="B1253" s="1" t="s">
-        <v>226</v>
+        <v>335</v>
       </c>
       <c r="C1253" s="1" t="str">
         <f>RIGHT(B1253,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1254" s="1" t="s">
         <v>2414</v>
       </c>
@@ -31828,19 +31828,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1255" s="1" t="s">
-        <v>294</v>
+        <v>597</v>
       </c>
       <c r="B1255" s="1" t="s">
-        <v>295</v>
+        <v>598</v>
       </c>
       <c r="C1255" s="1" t="str">
         <f>RIGHT(B1255,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1256" s="1" t="s">
         <v>2076</v>
       </c>
@@ -31876,7 +31876,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1259" s="1" t="s">
         <v>2189</v>
       </c>
@@ -31888,7 +31888,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1260" s="1" t="s">
         <v>182</v>
       </c>
@@ -31912,7 +31912,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1262" s="1" t="s">
         <v>1742</v>
       </c>
@@ -31936,7 +31936,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1264" s="1" t="s">
         <v>2404</v>
       </c>
@@ -31960,7 +31960,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1266" s="1" t="s">
         <v>2351</v>
       </c>
@@ -31972,7 +31972,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1267" s="1" t="s">
         <v>2206</v>
       </c>
@@ -31984,7 +31984,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1268" s="1" t="s">
         <v>2083</v>
       </c>
@@ -31996,19 +31996,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1269" s="1" t="s">
-        <v>648</v>
+        <v>603</v>
       </c>
       <c r="B1269" s="1" t="s">
-        <v>649</v>
+        <v>541</v>
       </c>
       <c r="C1269" s="1" t="str">
         <f>RIGHT(B1269,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1270" s="1" t="s">
         <v>1629</v>
       </c>
@@ -32020,7 +32020,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1271" s="1" t="s">
         <v>1099</v>
       </c>
@@ -32032,7 +32032,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1272" s="1" t="s">
         <v>2698</v>
       </c>
@@ -32044,19 +32044,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1273" s="1" t="s">
-        <v>328</v>
+        <v>608</v>
       </c>
       <c r="B1273" s="1" t="s">
-        <v>329</v>
+        <v>609</v>
       </c>
       <c r="C1273" s="1" t="str">
         <f>RIGHT(B1273,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1274" s="1" t="s">
         <v>2608</v>
       </c>
@@ -32092,19 +32092,19 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1277" s="1" t="s">
-        <v>273</v>
+        <v>614</v>
       </c>
       <c r="B1277" s="1" t="s">
-        <v>274</v>
+        <v>615</v>
       </c>
       <c r="C1277" s="1" t="str">
         <f>RIGHT(B1277,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1278" s="1" t="s">
         <v>1403</v>
       </c>
@@ -32140,7 +32140,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1281" s="1" t="s">
         <v>2994</v>
       </c>
@@ -32152,7 +32152,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1282" s="1" t="s">
         <v>1102</v>
       </c>
@@ -32164,12 +32164,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1283" s="1" t="s">
-        <v>662</v>
+        <v>616</v>
       </c>
       <c r="B1283" s="1" t="s">
-        <v>663</v>
+        <v>617</v>
       </c>
       <c r="C1283" s="1" t="str">
         <f>RIGHT(B1283,3)</f>
@@ -32188,7 +32188,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1285" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1285" s="1" t="s">
         <v>1494</v>
       </c>
@@ -32224,12 +32224,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1288" s="1" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="B1288" s="1" t="s">
-        <v>659</v>
+        <v>623</v>
       </c>
       <c r="C1288" s="1" t="str">
         <f>RIGHT(B1288,3)</f>
@@ -32248,7 +32248,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1290" s="1" t="s">
         <v>2990</v>
       </c>
@@ -32272,7 +32272,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1292" s="1" t="s">
         <v>2603</v>
       </c>
@@ -32284,7 +32284,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1293" s="1" t="s">
         <v>1268</v>
       </c>
@@ -32296,7 +32296,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1294" s="1" t="s">
         <v>1465</v>
       </c>
@@ -32308,19 +32308,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1295" s="1" t="s">
-        <v>279</v>
+        <v>628</v>
       </c>
       <c r="B1295" s="1" t="s">
-        <v>280</v>
+        <v>629</v>
       </c>
       <c r="C1295" s="1" t="str">
         <f>RIGHT(B1295,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1296" s="1" t="s">
         <v>11</v>
       </c>
@@ -32356,19 +32356,19 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1299" s="1" t="s">
-        <v>1043</v>
+        <v>634</v>
       </c>
       <c r="B1299" s="1" t="s">
-        <v>1044</v>
+        <v>635</v>
       </c>
       <c r="C1299" s="1" t="str">
         <f>RIGHT(B1299,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1300" s="1" t="s">
         <v>1357</v>
       </c>
@@ -32380,19 +32380,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1301" s="1" t="s">
-        <v>1039</v>
+        <v>640</v>
       </c>
       <c r="B1301" s="1" t="s">
-        <v>1040</v>
+        <v>641</v>
       </c>
       <c r="C1301" s="1" t="str">
         <f>RIGHT(B1301,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1302" s="1" t="s">
         <v>2212</v>
       </c>
@@ -32404,19 +32404,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1303" s="1" t="s">
-        <v>1047</v>
+        <v>646</v>
       </c>
       <c r="B1303" s="1" t="s">
-        <v>1048</v>
+        <v>647</v>
       </c>
       <c r="C1303" s="1" t="str">
         <f>RIGHT(B1303,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1304" s="1" t="s">
         <v>1623</v>
       </c>
@@ -32428,19 +32428,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1305" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1305" s="1" t="s">
-        <v>1051</v>
+        <v>648</v>
       </c>
       <c r="B1305" s="1" t="s">
-        <v>1052</v>
+        <v>649</v>
       </c>
       <c r="C1305" s="1" t="str">
         <f>RIGHT(B1305,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1306" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1306" s="1" t="s">
         <v>1626</v>
       </c>
@@ -32452,19 +32452,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1307" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1307" s="1" t="s">
-        <v>1055</v>
+        <v>650</v>
       </c>
       <c r="B1307" s="1" t="s">
-        <v>1056</v>
+        <v>651</v>
       </c>
       <c r="C1307" s="1" t="str">
         <f>RIGHT(B1307,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1308" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1308" s="1" t="s">
         <v>1632</v>
       </c>
@@ -32476,12 +32476,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1309" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1309" s="1" t="s">
-        <v>1032</v>
+        <v>656</v>
       </c>
       <c r="B1309" s="1" t="s">
-        <v>1033</v>
+        <v>657</v>
       </c>
       <c r="C1309" s="1" t="str">
         <f>RIGHT(B1309,3)</f>
@@ -32500,7 +32500,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1311" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1311" s="1" t="s">
         <v>2295</v>
       </c>
@@ -32536,19 +32536,19 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1314" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1314" s="1" t="s">
-        <v>1020</v>
+        <v>658</v>
       </c>
       <c r="B1314" s="1" t="s">
-        <v>1021</v>
+        <v>659</v>
       </c>
       <c r="C1314" s="1" t="str">
         <f>RIGHT(B1314,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1315" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1315" s="1" t="s">
         <v>2218</v>
       </c>
@@ -32584,7 +32584,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1318" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1318" s="1" t="s">
         <v>1760</v>
       </c>
@@ -32596,19 +32596,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1319" s="1" t="s">
-        <v>1028</v>
+        <v>660</v>
       </c>
       <c r="B1319" s="1" t="s">
-        <v>1029</v>
+        <v>661</v>
       </c>
       <c r="C1319" s="1" t="str">
         <f>RIGHT(B1319,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1320" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1320" s="1" t="s">
         <v>2693</v>
       </c>
@@ -32620,19 +32620,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1321" s="1" t="s">
-        <v>1026</v>
+        <v>662</v>
       </c>
       <c r="B1321" s="1" t="s">
-        <v>1027</v>
+        <v>663</v>
       </c>
       <c r="C1321" s="1" t="str">
         <f>RIGHT(B1321,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1322" s="1" t="s">
         <v>1780</v>
       </c>
@@ -32644,19 +32644,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1323" s="1" t="s">
-        <v>1035</v>
+        <v>664</v>
       </c>
       <c r="B1323" s="1" t="s">
-        <v>1036</v>
+        <v>665</v>
       </c>
       <c r="C1323" s="1" t="str">
         <f>RIGHT(B1323,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1324" s="1" t="s">
         <v>1947</v>
       </c>
@@ -32668,19 +32668,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1325" s="1" t="s">
-        <v>1018</v>
+        <v>670</v>
       </c>
       <c r="B1325" s="1" t="s">
-        <v>1019</v>
+        <v>671</v>
       </c>
       <c r="C1325" s="1" t="str">
         <f>RIGHT(B1325,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1326" s="1" t="s">
         <v>2628</v>
       </c>
@@ -32692,7 +32692,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1327" s="1" t="s">
         <v>2305</v>
       </c>
@@ -32716,7 +32716,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1329" s="1" t="s">
         <v>24</v>
       </c>
@@ -32728,7 +32728,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1330" s="1" t="s">
         <v>1202</v>
       </c>
@@ -32740,19 +32740,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1331" s="1" t="s">
-        <v>896</v>
+        <v>676</v>
       </c>
       <c r="B1331" s="1" t="s">
-        <v>897</v>
+        <v>677</v>
       </c>
       <c r="C1331" s="1" t="str">
         <f>RIGHT(B1331,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1332" s="1" t="s">
         <v>2960</v>
       </c>
@@ -32764,7 +32764,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1333" s="1" t="s">
         <v>2617</v>
       </c>
@@ -32776,19 +32776,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1334" s="1" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="B1334" s="1" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="C1334" s="1" t="str">
         <f>RIGHT(B1334,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1335" s="1" t="s">
         <v>2324</v>
       </c>
@@ -32824,12 +32824,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1338" s="1" t="s">
-        <v>950</v>
+        <v>688</v>
       </c>
       <c r="B1338" s="1" t="s">
-        <v>951</v>
+        <v>689</v>
       </c>
       <c r="C1338" s="1" t="str">
         <f>RIGHT(B1338,3)</f>
@@ -32848,7 +32848,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1340" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1340" s="1" t="s">
         <v>34</v>
       </c>
@@ -32860,19 +32860,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1341" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1341" s="1" t="s">
-        <v>954</v>
+        <v>694</v>
       </c>
       <c r="B1341" s="1" t="s">
-        <v>955</v>
+        <v>695</v>
       </c>
       <c r="C1341" s="1" t="str">
         <f>RIGHT(B1341,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1342" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1342" s="1" t="s">
         <v>2165</v>
       </c>
@@ -32884,19 +32884,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1343" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1343" s="1" t="s">
-        <v>670</v>
+        <v>700</v>
       </c>
       <c r="B1343" s="1" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C1343" s="1" t="str">
         <f>RIGHT(B1343,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1344" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1344" s="1" t="s">
         <v>1320</v>
       </c>
@@ -32932,19 +32932,19 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1347" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1347" s="1" t="s">
-        <v>384</v>
+        <v>706</v>
       </c>
       <c r="B1347" s="1" t="s">
-        <v>385</v>
+        <v>707</v>
       </c>
       <c r="C1347" s="1" t="str">
         <f>RIGHT(B1347,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1348" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1348" s="1" t="s">
         <v>1083</v>
       </c>
@@ -32980,19 +32980,19 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1351" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1351" s="1" t="s">
-        <v>948</v>
+        <v>712</v>
       </c>
       <c r="B1351" s="1" t="s">
-        <v>949</v>
+        <v>713</v>
       </c>
       <c r="C1351" s="1" t="str">
         <f>RIGHT(B1351,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1352" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1352" s="1" t="s">
         <v>1924</v>
       </c>
@@ -33004,19 +33004,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1353" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1353" s="1" t="s">
-        <v>946</v>
+        <v>718</v>
       </c>
       <c r="B1353" s="1" t="s">
-        <v>947</v>
+        <v>719</v>
       </c>
       <c r="C1353" s="1" t="str">
         <f>RIGHT(B1353,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1354" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1354" s="1" t="s">
         <v>2532</v>
       </c>
@@ -33052,19 +33052,19 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1357" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1357" s="1" t="s">
-        <v>942</v>
+        <v>724</v>
       </c>
       <c r="B1357" s="1" t="s">
-        <v>943</v>
+        <v>725</v>
       </c>
       <c r="C1357" s="1" t="str">
         <f>RIGHT(B1357,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1358" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1358" s="1" t="s">
         <v>2536</v>
       </c>
@@ -33076,19 +33076,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1359" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1359" s="1" t="s">
-        <v>934</v>
+        <v>730</v>
       </c>
       <c r="B1359" s="1" t="s">
-        <v>935</v>
+        <v>731</v>
       </c>
       <c r="C1359" s="1" t="str">
         <f>RIGHT(B1359,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1360" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1360" s="1" t="s">
         <v>2540</v>
       </c>
@@ -33100,19 +33100,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1361" s="1" t="s">
-        <v>930</v>
+        <v>736</v>
       </c>
       <c r="B1361" s="1" t="s">
-        <v>931</v>
+        <v>737</v>
       </c>
       <c r="C1361" s="1" t="str">
         <f>RIGHT(B1361,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1362" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1362" s="1" t="s">
         <v>1928</v>
       </c>
@@ -33124,19 +33124,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1363" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1363" s="1" t="s">
-        <v>918</v>
+        <v>742</v>
       </c>
       <c r="B1363" s="1" t="s">
-        <v>919</v>
+        <v>743</v>
       </c>
       <c r="C1363" s="1" t="str">
         <f>RIGHT(B1363,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1364" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1364" s="1" t="s">
         <v>1353</v>
       </c>
@@ -33148,19 +33148,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1365" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1365" s="1" t="s">
-        <v>938</v>
+        <v>748</v>
       </c>
       <c r="B1365" s="1" t="s">
-        <v>939</v>
+        <v>749</v>
       </c>
       <c r="C1365" s="1" t="str">
         <f>RIGHT(B1365,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1366" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1366" s="1" t="s">
         <v>2543</v>
       </c>
@@ -33172,12 +33172,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1367" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1367" s="1" t="s">
-        <v>956</v>
+        <v>750</v>
       </c>
       <c r="B1367" s="1" t="s">
-        <v>957</v>
+        <v>751</v>
       </c>
       <c r="C1367" s="1" t="str">
         <f>RIGHT(B1367,3)</f>
@@ -33196,7 +33196,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1369" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1369" s="1" t="s">
         <v>2358</v>
       </c>
@@ -33208,12 +33208,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1370" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1370" s="1" t="s">
-        <v>958</v>
+        <v>752</v>
       </c>
       <c r="B1370" s="1" t="s">
-        <v>959</v>
+        <v>753</v>
       </c>
       <c r="C1370" s="1" t="str">
         <f>RIGHT(B1370,3)</f>
@@ -33232,7 +33232,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1372" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1372" s="1" t="s">
         <v>2546</v>
       </c>
@@ -33244,12 +33244,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1373" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1373" s="1" t="s">
-        <v>622</v>
+        <v>754</v>
       </c>
       <c r="B1373" s="1" t="s">
-        <v>623</v>
+        <v>755</v>
       </c>
       <c r="C1373" s="1" t="str">
         <f>RIGHT(B1373,3)</f>
@@ -33268,7 +33268,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1375" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1375" s="1" t="s">
         <v>2576</v>
       </c>
@@ -33304,7 +33304,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1378" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1378" s="1" t="s">
         <v>2517</v>
       </c>
@@ -33316,7 +33316,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1379" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1379" s="1" t="s">
         <v>1109</v>
       </c>
@@ -33328,7 +33328,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1380" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1380" s="1" t="s">
         <v>1988</v>
       </c>
@@ -33340,7 +33340,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1381" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1381" s="1" t="s">
         <v>1391</v>
       </c>
@@ -33364,7 +33364,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1383" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1383" s="1" t="s">
         <v>2757</v>
       </c>
@@ -33388,7 +33388,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1385" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1385" s="1" t="s">
         <v>2700</v>
       </c>
@@ -33412,12 +33412,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1387" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1387" s="1" t="s">
-        <v>718</v>
+        <v>756</v>
       </c>
       <c r="B1387" s="1" t="s">
-        <v>719</v>
+        <v>757</v>
       </c>
       <c r="C1387" s="1" t="str">
         <f>RIGHT(B1387,3)</f>
@@ -33448,12 +33448,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1390" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1390" s="1" t="s">
-        <v>712</v>
+        <v>762</v>
       </c>
       <c r="B1390" s="1" t="s">
-        <v>713</v>
+        <v>763</v>
       </c>
       <c r="C1390" s="1" t="str">
         <f>RIGHT(B1390,3)</f>
@@ -33484,7 +33484,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1393" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1393" s="1" t="s">
         <v>2682</v>
       </c>
@@ -33496,19 +33496,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1394" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1394" s="1" t="s">
-        <v>980</v>
+        <v>768</v>
       </c>
       <c r="B1394" s="1" t="s">
-        <v>981</v>
+        <v>769</v>
       </c>
       <c r="C1394" s="1" t="str">
         <f>RIGHT(B1394,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1395" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1395" s="1" t="s">
         <v>2744</v>
       </c>
@@ -33520,7 +33520,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1396" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1396" s="1" t="s">
         <v>2736</v>
       </c>
@@ -33532,19 +33532,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1397" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1397" s="1" t="s">
-        <v>976</v>
+        <v>774</v>
       </c>
       <c r="B1397" s="1" t="s">
-        <v>977</v>
+        <v>775</v>
       </c>
       <c r="C1397" s="1" t="str">
         <f>RIGHT(B1397,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1398" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1398" s="1" t="s">
         <v>3031</v>
       </c>
@@ -33568,7 +33568,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1400" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1400" s="1" t="s">
         <v>2498</v>
       </c>
@@ -33580,12 +33580,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1401" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1401" s="1" t="s">
-        <v>972</v>
+        <v>780</v>
       </c>
       <c r="B1401" s="1" t="s">
-        <v>973</v>
+        <v>781</v>
       </c>
       <c r="C1401" s="1" t="str">
         <f>RIGHT(B1401,3)</f>
@@ -33604,7 +33604,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1403" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1403" s="1" t="s">
         <v>2873</v>
       </c>
@@ -33616,7 +33616,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1404" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1404" s="1" t="s">
         <v>2727</v>
       </c>
@@ -33640,7 +33640,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1406" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1406" s="1" t="s">
         <v>1983</v>
       </c>
@@ -33652,7 +33652,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1407" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1407" s="1" t="s">
         <v>2179</v>
       </c>
@@ -33664,7 +33664,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1408" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1408" s="1" t="s">
         <v>2176</v>
       </c>
@@ -33676,12 +33676,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1409" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1409" s="1" t="s">
-        <v>1004</v>
+        <v>786</v>
       </c>
       <c r="B1409" s="1" t="s">
-        <v>1005</v>
+        <v>787</v>
       </c>
       <c r="C1409" s="1" t="str">
         <f>RIGHT(B1409,3)</f>
@@ -33712,7 +33712,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1412" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1412" s="1" t="s">
         <v>1383</v>
       </c>
@@ -33724,7 +33724,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1413" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1413" s="1" t="s">
         <v>1368</v>
       </c>
@@ -33748,7 +33748,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1415" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1415" s="1" t="s">
         <v>2731</v>
       </c>
@@ -33760,7 +33760,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1416" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1416" s="1" t="s">
         <v>1388</v>
       </c>
@@ -33772,19 +33772,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1417" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1417" s="1" t="s">
-        <v>996</v>
+        <v>792</v>
       </c>
       <c r="B1417" s="1" t="s">
-        <v>997</v>
+        <v>793</v>
       </c>
       <c r="C1417" s="1" t="str">
         <f>RIGHT(B1417,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1418" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1418" s="1" t="s">
         <v>1096</v>
       </c>
@@ -33796,19 +33796,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1419" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1419" s="1" t="s">
-        <v>1000</v>
+        <v>798</v>
       </c>
       <c r="B1419" s="1" t="s">
-        <v>1001</v>
+        <v>799</v>
       </c>
       <c r="C1419" s="1" t="str">
         <f>RIGHT(B1419,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1420" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1420" s="1" t="s">
         <v>1308</v>
       </c>
@@ -33844,7 +33844,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1423" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1423" s="1" t="s">
         <v>1502</v>
       </c>
@@ -33856,19 +33856,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1424" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1424" s="1" t="s">
-        <v>426</v>
+        <v>800</v>
       </c>
       <c r="B1424" s="1" t="s">
-        <v>427</v>
+        <v>801</v>
       </c>
       <c r="C1424" s="1" t="str">
         <f>RIGHT(B1424,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1425" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1425" s="1" t="s">
         <v>2316</v>
       </c>
@@ -33904,7 +33904,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1428" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1428" s="1" t="s">
         <v>1538</v>
       </c>
@@ -33916,7 +33916,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1429" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1429" s="1" t="s">
         <v>2321</v>
       </c>
@@ -33928,7 +33928,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1430" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1430" s="1" t="s">
         <v>2292</v>
       </c>
@@ -33940,7 +33940,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1431" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1431" s="1" t="s">
         <v>1574</v>
       </c>
@@ -33952,7 +33952,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1432" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1432" s="1" t="s">
         <v>2748</v>
       </c>
@@ -33964,7 +33964,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1433" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1433" s="1" t="s">
         <v>1545</v>
       </c>
@@ -33976,7 +33976,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1434" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1434" s="1" t="s">
         <v>1644</v>
       </c>
@@ -33988,7 +33988,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1435" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1435" s="1" t="s">
         <v>2435</v>
       </c>
@@ -34012,7 +34012,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1437" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1437" s="1" t="s">
         <v>2512</v>
       </c>
@@ -34024,7 +34024,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1438" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1438" s="1" t="s">
         <v>1394</v>
       </c>
@@ -34048,7 +34048,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1440" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1440" s="1" t="s">
         <v>2719</v>
       </c>
@@ -34072,7 +34072,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1442" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1442" s="1" t="s">
         <v>2299</v>
       </c>
@@ -34084,7 +34084,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1443" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1443" s="1" t="s">
         <v>1186</v>
       </c>
@@ -34096,7 +34096,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1444" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1444" s="1" t="s">
         <v>1191</v>
       </c>
@@ -34108,7 +34108,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1445" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1445" s="1" t="s">
         <v>2639</v>
       </c>
@@ -34120,7 +34120,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1446" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1446" s="1" t="s">
         <v>2355</v>
       </c>
@@ -34144,7 +34144,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1448" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1448" s="1" t="s">
         <v>2394</v>
       </c>
@@ -34156,7 +34156,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1449" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1449" s="1" t="s">
         <v>1515</v>
       </c>
@@ -34168,7 +34168,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1450" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1450" s="1" t="s">
         <v>2202</v>
       </c>
@@ -34180,7 +34180,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1451" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1451" s="1" t="s">
         <v>1420</v>
       </c>
@@ -34204,7 +34204,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1453" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1453" s="1" t="s">
         <v>1653</v>
       </c>
@@ -34216,7 +34216,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1454" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1454" s="1" t="s">
         <v>2714</v>
       </c>
@@ -34240,7 +34240,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1456" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1456" s="1" t="s">
         <v>1976</v>
       </c>
@@ -34252,19 +34252,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1457" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1457" s="1" t="s">
-        <v>748</v>
+        <v>802</v>
       </c>
       <c r="B1457" s="1" t="s">
-        <v>749</v>
+        <v>803</v>
       </c>
       <c r="C1457" s="1" t="str">
         <f>RIGHT(B1457,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1458" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1458" s="1" t="s">
         <v>2913</v>
       </c>
@@ -34276,19 +34276,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1459" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1459" s="1" t="s">
-        <v>414</v>
+        <v>804</v>
       </c>
       <c r="B1459" s="1" t="s">
-        <v>415</v>
+        <v>805</v>
       </c>
       <c r="C1459" s="1" t="str">
         <f>RIGHT(B1459,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1460" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1460" s="1" t="s">
         <v>2740</v>
       </c>
@@ -34324,7 +34324,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1463" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1463" s="1" t="s">
         <v>1461</v>
       </c>
@@ -34336,7 +34336,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1464" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1464" s="1" t="s">
         <v>2209</v>
       </c>
@@ -34348,19 +34348,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1465" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1465" s="1" t="s">
-        <v>378</v>
+        <v>806</v>
       </c>
       <c r="B1465" s="1" t="s">
-        <v>379</v>
+        <v>807</v>
       </c>
       <c r="C1465" s="1" t="str">
         <f>RIGHT(B1465,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1466" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1466" s="1" t="s">
         <v>1346</v>
       </c>
@@ -34396,19 +34396,19 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1469" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1469" s="1" t="s">
-        <v>408</v>
+        <v>808</v>
       </c>
       <c r="B1469" s="1" t="s">
-        <v>409</v>
+        <v>809</v>
       </c>
       <c r="C1469" s="1" t="str">
         <f>RIGHT(B1469,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1470" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1470" s="1" t="s">
         <v>1301</v>
       </c>
@@ -34444,19 +34444,19 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1473" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1473" s="1" t="s">
-        <v>402</v>
+        <v>810</v>
       </c>
       <c r="B1473" s="1" t="s">
-        <v>403</v>
+        <v>811</v>
       </c>
       <c r="C1473" s="1" t="str">
         <f>RIGHT(B1473,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1474" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1474" s="1" t="s">
         <v>18</v>
       </c>
@@ -34492,19 +34492,19 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1477" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1477" s="1" t="s">
-        <v>752</v>
+        <v>812</v>
       </c>
       <c r="B1477" s="1" t="s">
-        <v>753</v>
+        <v>813</v>
       </c>
       <c r="C1477" s="1" t="str">
         <f>RIGHT(B1477,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1478" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1478" s="1" t="s">
         <v>2587</v>
       </c>
@@ -34516,7 +34516,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1479" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1479" s="1" t="s">
         <v>2496</v>
       </c>
@@ -34528,19 +34528,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1480" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1480" s="1" t="s">
-        <v>838</v>
+        <v>814</v>
       </c>
       <c r="B1480" s="1" t="s">
-        <v>839</v>
+        <v>815</v>
       </c>
       <c r="C1480" s="1" t="str">
         <f>RIGHT(B1480,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1481" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1481" s="1" t="s">
         <v>1566</v>
       </c>
@@ -34552,7 +34552,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1482" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1482" s="1" t="s">
         <v>1182</v>
       </c>
@@ -34576,7 +34576,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1484" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1484" s="1" t="s">
         <v>1234</v>
       </c>
@@ -34588,7 +34588,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1485" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1485" s="1" t="s">
         <v>1529</v>
       </c>
@@ -34600,7 +34600,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1486" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1486" s="1" t="s">
         <v>1498</v>
       </c>
@@ -34612,7 +34612,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1487" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1487" s="1" t="s">
         <v>2432</v>
       </c>
@@ -34624,7 +34624,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1488" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1488" s="1" t="s">
         <v>3009</v>
       </c>
@@ -34636,19 +34636,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1489" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1489" s="1" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B1489" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C1489" s="1" t="str">
         <f>RIGHT(B1489,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1490" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1490" s="1" t="s">
         <v>3026</v>
       </c>
@@ -34660,7 +34660,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1491" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1491" s="1" t="s">
         <v>3071</v>
       </c>
@@ -34672,12 +34672,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1492" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1492" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B1492" s="1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C1492" s="1" t="str">
         <f>RIGHT(B1492,3)</f>
@@ -34720,12 +34720,12 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1496" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1496" s="1" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="B1496" s="1" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="C1496" s="1" t="str">
         <f>RIGHT(B1496,3)</f>
@@ -34744,7 +34744,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1498" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1498" s="1" t="s">
         <v>2591</v>
       </c>
@@ -34756,12 +34756,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1499" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1499" s="1" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="B1499" s="1" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="C1499" s="1" t="str">
         <f>RIGHT(B1499,3)</f>
@@ -34780,7 +34780,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1501" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1501" s="1" t="s">
         <v>2012</v>
       </c>
@@ -34792,7 +34792,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1502" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1502" s="1" t="s">
         <v>1900</v>
       </c>
@@ -34804,19 +34804,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1503" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1503" s="1" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
       <c r="B1503" s="1" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
       <c r="C1503" s="1" t="str">
         <f>RIGHT(B1503,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1504" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1504" s="1" t="s">
         <v>1342</v>
       </c>
@@ -34840,7 +34840,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1506" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1506" s="1" t="s">
         <v>2528</v>
       </c>
@@ -34852,19 +34852,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1507" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1507" s="1" t="s">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="B1507" s="1" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="C1507" s="1" t="str">
         <f>RIGHT(B1507,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1508" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1508" s="1" t="s">
         <v>2524</v>
       </c>
@@ -34876,19 +34876,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1509" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1509" s="1" t="s">
-        <v>484</v>
+        <v>836</v>
       </c>
       <c r="B1509" s="1" t="s">
-        <v>485</v>
+        <v>837</v>
       </c>
       <c r="C1509" s="1" t="str">
         <f>RIGHT(B1509,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1510" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1510" s="1" t="s">
         <v>3051</v>
       </c>
@@ -34924,7 +34924,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1513" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1513" s="1" t="s">
         <v>2672</v>
       </c>
@@ -34936,7 +34936,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1514" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1514" s="1" t="s">
         <v>1639</v>
       </c>
@@ -34948,7 +34948,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1515" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1515" s="1" t="s">
         <v>2127</v>
       </c>
@@ -34972,7 +34972,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1517" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1517" s="1" t="s">
         <v>2339</v>
       </c>
@@ -34984,12 +34984,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1518" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1518" s="1" t="s">
-        <v>496</v>
+        <v>838</v>
       </c>
       <c r="B1518" s="1" t="s">
-        <v>497</v>
+        <v>839</v>
       </c>
       <c r="C1518" s="1" t="str">
         <f>RIGHT(B1518,3)</f>
@@ -35008,7 +35008,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1520" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1520" s="1" t="s">
         <v>2157</v>
       </c>
@@ -35044,7 +35044,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1523" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1523" s="1" t="s">
         <v>1536</v>
       </c>
@@ -35056,7 +35056,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1524" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1524" s="1" t="s">
         <v>1533</v>
       </c>
@@ -35068,7 +35068,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1525" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1525" s="1" t="s">
         <v>2020</v>
       </c>
@@ -35080,7 +35080,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1526" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1526" s="1" t="s">
         <v>2025</v>
       </c>
@@ -35092,7 +35092,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1527" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1527" s="1" t="s">
         <v>1921</v>
       </c>
@@ -35116,7 +35116,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1529" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1529" s="1" t="s">
         <v>2689</v>
       </c>
@@ -35128,7 +35128,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1530" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1530" s="1" t="s">
         <v>1312</v>
       </c>
@@ -35140,7 +35140,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1531" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1531" s="1" t="s">
         <v>2068</v>
       </c>
@@ -35152,7 +35152,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1532" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1532" s="1" t="s">
         <v>2094</v>
       </c>
@@ -35176,7 +35176,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1534" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1534" s="1" t="s">
         <v>2579</v>
       </c>
@@ -35200,7 +35200,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1536" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1536" s="1" t="s">
         <v>1132</v>
       </c>
@@ -35224,7 +35224,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1538" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1538" s="1" t="s">
         <v>1562</v>
       </c>
@@ -35260,12 +35260,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1541" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1541" s="1" t="s">
-        <v>1034</v>
+        <v>840</v>
       </c>
       <c r="B1541" s="1" t="s">
-        <v>4523</v>
+        <v>841</v>
       </c>
       <c r="C1541" s="1" t="str">
         <f>RIGHT(B1541,3)</f>
@@ -35284,7 +35284,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1543" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1543" s="1" t="s">
         <v>1822</v>
       </c>
@@ -35320,7 +35320,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1546" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1546" s="1" t="s">
         <v>3012</v>
       </c>
@@ -35344,7 +35344,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1548" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1548" s="1" t="s">
         <v>1335</v>
       </c>
@@ -35356,12 +35356,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1549" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1549" s="1" t="s">
-        <v>1053</v>
+        <v>846</v>
       </c>
       <c r="B1549" s="1" t="s">
-        <v>4522</v>
+        <v>847</v>
       </c>
       <c r="C1549" s="1" t="str">
         <f>RIGHT(B1549,3)</f>
@@ -35380,7 +35380,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1551" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1551" s="1" t="s">
         <v>2501</v>
       </c>
@@ -35404,7 +35404,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1553" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1553" s="1" t="s">
         <v>1520</v>
       </c>
@@ -35416,12 +35416,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1554" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1554" s="1" t="s">
-        <v>1049</v>
+        <v>848</v>
       </c>
       <c r="B1554" s="1" t="s">
-        <v>1054</v>
+        <v>849</v>
       </c>
       <c r="C1554" s="1" t="str">
         <f>RIGHT(B1554,3)</f>
@@ -35440,7 +35440,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1556" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1556" s="1" t="s">
         <v>2045</v>
       </c>
@@ -35464,7 +35464,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1558" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1558" s="1" t="s">
         <v>3084</v>
       </c>
@@ -35476,12 +35476,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1559" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1559" s="1" t="s">
-        <v>1041</v>
+        <v>854</v>
       </c>
       <c r="B1559" s="1" t="s">
-        <v>1050</v>
+        <v>855</v>
       </c>
       <c r="C1559" s="1" t="str">
         <f>RIGHT(B1559,3)</f>
@@ -35500,7 +35500,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1561" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1561" s="1" t="s">
         <v>1230</v>
       </c>
@@ -35512,7 +35512,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1562" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1562" s="1" t="s">
         <v>1106</v>
       </c>
@@ -35524,19 +35524,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1563" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1563" s="1" t="s">
-        <v>1045</v>
+        <v>860</v>
       </c>
       <c r="B1563" s="1" t="s">
-        <v>1042</v>
+        <v>861</v>
       </c>
       <c r="C1563" s="1" t="str">
         <f>RIGHT(B1563,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1564" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1564" s="1" t="s">
         <v>1485</v>
       </c>
@@ -35548,7 +35548,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1565" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1565" s="1" t="s">
         <v>1994</v>
       </c>
@@ -35560,19 +35560,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1566" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1566" s="1" t="s">
-        <v>285</v>
+        <v>862</v>
       </c>
       <c r="B1566" s="1" t="s">
-        <v>1046</v>
+        <v>863</v>
       </c>
       <c r="C1566" s="1" t="str">
         <f>RIGHT(B1566,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1567" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1567" s="1" t="s">
         <v>1441</v>
       </c>
@@ -35608,7 +35608,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1570" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1570" s="1" t="s">
         <v>2418</v>
       </c>
@@ -35632,7 +35632,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1572" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1572" s="1" t="s">
         <v>1482</v>
       </c>
@@ -35656,7 +35656,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1574" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1574" s="1" t="s">
         <v>1997</v>
       </c>
@@ -35680,7 +35680,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1576" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1576" s="1" t="s">
         <v>1349</v>
       </c>
@@ -35692,7 +35692,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1577" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1577" s="1" t="s">
         <v>2004</v>
       </c>
@@ -35716,7 +35716,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1579" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1579" s="1" t="s">
         <v>2001</v>
       </c>
@@ -35728,7 +35728,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1580" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1580" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1580" s="1" t="s">
         <v>1121</v>
       </c>
@@ -35740,12 +35740,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1581" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1581" s="1" t="s">
-        <v>300</v>
+        <v>864</v>
       </c>
       <c r="B1581" s="1" t="s">
-        <v>4521</v>
+        <v>865</v>
       </c>
       <c r="C1581" s="1" t="str">
         <f>RIGHT(B1581,3)</f>
@@ -35764,7 +35764,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1583" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1583" s="1" t="s">
         <v>2397</v>
       </c>
@@ -35824,7 +35824,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1588" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1588" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1588" s="1" t="s">
         <v>1931</v>
       </c>
@@ -35836,19 +35836,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1589" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1589" s="1" t="s">
-        <v>312</v>
+        <v>866</v>
       </c>
       <c r="B1589" s="1" t="s">
-        <v>301</v>
+        <v>867</v>
       </c>
       <c r="C1589" s="1" t="str">
         <f>RIGHT(B1589,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1590" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1590" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1590" s="1" t="s">
         <v>1207</v>
       </c>
@@ -35884,7 +35884,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1593" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1593" s="1" t="s">
         <v>1450</v>
       </c>
@@ -35896,19 +35896,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1594" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1594" s="1" t="s">
-        <v>227</v>
+        <v>868</v>
       </c>
       <c r="B1594" s="1" t="s">
-        <v>313</v>
+        <v>869</v>
       </c>
       <c r="C1594" s="1" t="str">
         <f>RIGHT(B1594,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1595" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1595" s="1" t="s">
         <v>2153</v>
       </c>
@@ -35920,19 +35920,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1596" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1596" s="1" t="s">
-        <v>223</v>
+        <v>870</v>
       </c>
       <c r="B1596" s="1" t="s">
-        <v>4520</v>
+        <v>871</v>
       </c>
       <c r="C1596" s="1" t="str">
         <f>RIGHT(B1596,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1597" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1597" s="1" t="s">
         <v>1258</v>
       </c>
@@ -35956,7 +35956,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1599" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1599" s="1" t="s">
         <v>2400</v>
       </c>
@@ -35968,12 +35968,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1600" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1600" s="1" t="s">
-        <v>220</v>
+        <v>872</v>
       </c>
       <c r="B1600" s="1" t="s">
-        <v>224</v>
+        <v>873</v>
       </c>
       <c r="C1600" s="1" t="str">
         <f>RIGHT(B1600,3)</f>
@@ -35992,7 +35992,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="1602" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1602" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1602" s="1" t="s">
         <v>2624</v>
       </c>
@@ -36004,12 +36004,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1603" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1603" s="1" t="s">
-        <v>356</v>
+        <v>878</v>
       </c>
       <c r="B1603" s="1" t="s">
-        <v>4519</v>
+        <v>879</v>
       </c>
       <c r="C1603" s="1" t="str">
         <f>RIGHT(B1603,3)</f>
@@ -36052,12 +36052,12 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1607" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1607" s="1" t="s">
-        <v>249</v>
+        <v>884</v>
       </c>
       <c r="B1607" s="1" t="s">
-        <v>357</v>
+        <v>885</v>
       </c>
       <c r="C1607" s="1" t="str">
         <f>RIGHT(B1607,3)</f>
@@ -36088,7 +36088,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1610" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1610" s="1" t="s">
         <v>3055</v>
       </c>
@@ -36100,19 +36100,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1611" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1611" s="1" t="s">
-        <v>456</v>
+        <v>890</v>
       </c>
       <c r="B1611" s="1" t="s">
-        <v>250</v>
+        <v>891</v>
       </c>
       <c r="C1611" s="1" t="str">
         <f>RIGHT(B1611,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1612" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1612" s="1" t="s">
         <v>2953</v>
       </c>
@@ -36148,7 +36148,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1615" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1615" s="1" t="s">
         <v>2634</v>
       </c>
@@ -36160,19 +36160,19 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1616" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1616" s="1" t="s">
-        <v>245</v>
+        <v>892</v>
       </c>
       <c r="B1616" s="1" t="s">
-        <v>457</v>
+        <v>893</v>
       </c>
       <c r="C1616" s="1" t="str">
         <f>RIGHT(B1616,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1617" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1617" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1617" s="1" t="s">
         <v>2612</v>
       </c>
@@ -36184,12 +36184,12 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1618" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1618" s="1" t="s">
-        <v>241</v>
+        <v>894</v>
       </c>
       <c r="B1618" s="1" t="s">
-        <v>246</v>
+        <v>895</v>
       </c>
       <c r="C1618" s="1" t="str">
         <f>RIGHT(B1618,3)</f>
@@ -36220,12 +36220,12 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="1621" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1621" s="1" t="s">
-        <v>237</v>
+        <v>896</v>
       </c>
       <c r="B1621" s="1" t="s">
-        <v>242</v>
+        <v>897</v>
       </c>
       <c r="C1621" s="1" t="str">
         <f>RIGHT(B1621,3)</f>
@@ -36244,12 +36244,12 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="1623" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1623" s="1" t="s">
-        <v>233</v>
+        <v>898</v>
       </c>
       <c r="B1623" s="1" t="s">
-        <v>238</v>
+        <v>899</v>
       </c>
       <c r="C1623" s="1" t="str">
         <f>RIGHT(B1623,3)</f>
@@ -36268,12 +36268,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1625" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1625" s="1" t="s">
-        <v>230</v>
+        <v>900</v>
       </c>
       <c r="B1625" s="1" t="s">
-        <v>234</v>
+        <v>901</v>
       </c>
       <c r="C1625" s="1" t="str">
         <f>RIGHT(B1625,3)</f>
@@ -36292,12 +36292,12 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="1627" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1627" s="1" t="s">
-        <v>257</v>
+        <v>906</v>
       </c>
       <c r="B1627" s="1" t="s">
-        <v>4518</v>
+        <v>907</v>
       </c>
       <c r="C1627" s="1" t="str">
         <f>RIGHT(B1627,3)</f>
@@ -36328,72 +36328,72 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1630" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1630" s="1" t="s">
-        <v>567</v>
+        <v>912</v>
       </c>
       <c r="B1630" s="1" t="s">
-        <v>4517</v>
+        <v>913</v>
       </c>
       <c r="C1630" s="1" t="str">
         <f>RIGHT(B1630,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1631" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1631" s="1" t="s">
-        <v>579</v>
+        <v>918</v>
       </c>
       <c r="B1631" s="1" t="s">
-        <v>258</v>
+        <v>919</v>
       </c>
       <c r="C1631" s="1" t="str">
         <f>RIGHT(B1631,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1632" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1632" s="1" t="s">
-        <v>561</v>
+        <v>924</v>
       </c>
       <c r="B1632" s="1" t="s">
-        <v>568</v>
+        <v>925</v>
       </c>
       <c r="C1632" s="1" t="str">
         <f>RIGHT(B1632,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1633" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1633" s="1" t="s">
-        <v>551</v>
+        <v>930</v>
       </c>
       <c r="B1633" s="1" t="s">
-        <v>580</v>
+        <v>931</v>
       </c>
       <c r="C1633" s="1" t="str">
         <f>RIGHT(B1633,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1634" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1634" s="1" t="s">
-        <v>555</v>
+        <v>932</v>
       </c>
       <c r="B1634" s="1" t="s">
-        <v>562</v>
+        <v>933</v>
       </c>
       <c r="C1634" s="1" t="str">
         <f>RIGHT(B1634,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1635" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1635" s="1" t="s">
-        <v>334</v>
+        <v>934</v>
       </c>
       <c r="B1635" s="1" t="s">
-        <v>552</v>
+        <v>935</v>
       </c>
       <c r="C1635" s="1" t="str">
         <f>RIGHT(B1635,3)</f>
@@ -36436,24 +36436,24 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1639" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1639" s="1" t="s">
-        <v>559</v>
+        <v>936</v>
       </c>
       <c r="B1639" s="1" t="s">
-        <v>556</v>
+        <v>937</v>
       </c>
       <c r="C1639" s="1" t="str">
         <f>RIGHT(B1639,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1640" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1640" s="1" t="s">
-        <v>591</v>
+        <v>938</v>
       </c>
       <c r="B1640" s="1" t="s">
-        <v>335</v>
+        <v>939</v>
       </c>
       <c r="C1640" s="1" t="str">
         <f>RIGHT(B1640,3)</f>
@@ -36472,12 +36472,12 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1642" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1642" s="1" t="s">
-        <v>540</v>
+        <v>940</v>
       </c>
       <c r="B1642" s="1" t="s">
-        <v>560</v>
+        <v>941</v>
       </c>
       <c r="C1642" s="1" t="str">
         <f>RIGHT(B1642,3)</f>
@@ -36496,24 +36496,24 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1644" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1644" s="1" t="s">
-        <v>546</v>
+        <v>942</v>
       </c>
       <c r="B1644" s="1" t="s">
-        <v>592</v>
+        <v>943</v>
       </c>
       <c r="C1644" s="1" t="str">
         <f>RIGHT(B1644,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1645" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1645" s="1" t="s">
-        <v>603</v>
+        <v>944</v>
       </c>
       <c r="B1645" s="1" t="s">
-        <v>541</v>
+        <v>945</v>
       </c>
       <c r="C1645" s="1" t="str">
         <f>RIGHT(B1645,3)</f>
@@ -36568,12 +36568,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1650" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1650" s="1" t="s">
-        <v>1030</v>
+        <v>946</v>
       </c>
       <c r="B1650" s="1" t="s">
-        <v>1031</v>
+        <v>947</v>
       </c>
       <c r="C1650" s="1" t="str">
         <f>RIGHT(B1650,3)</f>
@@ -36592,36 +36592,36 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1652" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1652" s="1" t="s">
-        <v>1037</v>
+        <v>948</v>
       </c>
       <c r="B1652" s="1" t="s">
-        <v>1038</v>
+        <v>949</v>
       </c>
       <c r="C1652" s="1" t="str">
         <f>RIGHT(B1652,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1653" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1653" s="1" t="s">
-        <v>898</v>
+        <v>950</v>
       </c>
       <c r="B1653" s="1" t="s">
-        <v>899</v>
+        <v>951</v>
       </c>
       <c r="C1653" s="1" t="str">
         <f>RIGHT(B1653,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1654" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1654" s="1" t="s">
-        <v>688</v>
+        <v>952</v>
       </c>
       <c r="B1654" s="1" t="s">
-        <v>689</v>
+        <v>953</v>
       </c>
       <c r="C1654" s="1" t="str">
         <f>RIGHT(B1654,3)</f>
@@ -36652,12 +36652,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1657" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1657" s="1" t="s">
-        <v>700</v>
+        <v>954</v>
       </c>
       <c r="B1657" s="1" t="s">
-        <v>701</v>
+        <v>955</v>
       </c>
       <c r="C1657" s="1" t="str">
         <f>RIGHT(B1657,3)</f>
@@ -36700,12 +36700,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1661" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1661" s="1" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="B1661" s="1" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="C1661" s="1" t="str">
         <f>RIGHT(B1661,3)</f>
@@ -36760,12 +36760,12 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1666" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1666" s="1" t="s">
-        <v>676</v>
+        <v>958</v>
       </c>
       <c r="B1666" s="1" t="s">
-        <v>677</v>
+        <v>959</v>
       </c>
       <c r="C1666" s="1" t="str">
         <f>RIGHT(B1666,3)</f>
@@ -36796,12 +36796,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1669" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1669" s="1" t="s">
-        <v>682</v>
+        <v>960</v>
       </c>
       <c r="B1669" s="1" t="s">
-        <v>683</v>
+        <v>961</v>
       </c>
       <c r="C1669" s="1" t="str">
         <f>RIGHT(B1669,3)</f>
@@ -36856,12 +36856,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1674" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1674" s="1" t="s">
-        <v>390</v>
+        <v>970</v>
       </c>
       <c r="B1674" s="1" t="s">
-        <v>391</v>
+        <v>971</v>
       </c>
       <c r="C1674" s="1" t="str">
         <f>RIGHT(B1674,3)</f>
@@ -36940,12 +36940,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1681" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1681" s="1" t="s">
-        <v>944</v>
+        <v>972</v>
       </c>
       <c r="B1681" s="1" t="s">
-        <v>945</v>
+        <v>973</v>
       </c>
       <c r="C1681" s="1" t="str">
         <f>RIGHT(B1681,3)</f>
@@ -36976,48 +36976,48 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1684" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1684" s="1" t="s">
-        <v>936</v>
+        <v>974</v>
       </c>
       <c r="B1684" s="1" t="s">
-        <v>937</v>
+        <v>975</v>
       </c>
       <c r="C1684" s="1" t="str">
         <f>RIGHT(B1684,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1685" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1685" s="1" t="s">
-        <v>932</v>
+        <v>976</v>
       </c>
       <c r="B1685" s="1" t="s">
-        <v>933</v>
+        <v>977</v>
       </c>
       <c r="C1685" s="1" t="str">
         <f>RIGHT(B1685,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1686" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1686" s="1" t="s">
-        <v>924</v>
+        <v>978</v>
       </c>
       <c r="B1686" s="1" t="s">
-        <v>925</v>
+        <v>979</v>
       </c>
       <c r="C1686" s="1" t="str">
         <f>RIGHT(B1686,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1687" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1687" s="1" t="s">
-        <v>940</v>
+        <v>980</v>
       </c>
       <c r="B1687" s="1" t="s">
-        <v>941</v>
+        <v>981</v>
       </c>
       <c r="C1687" s="1" t="str">
         <f>RIGHT(B1687,3)</f>
@@ -37132,12 +37132,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1697" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1697" s="1" t="s">
-        <v>724</v>
+        <v>982</v>
       </c>
       <c r="B1697" s="1" t="s">
-        <v>725</v>
+        <v>983</v>
       </c>
       <c r="C1697" s="1" t="str">
         <f>RIGHT(B1697,3)</f>
@@ -37216,12 +37216,12 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="1704" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1704" s="1" t="s">
-        <v>432</v>
+        <v>988</v>
       </c>
       <c r="B1704" s="1" t="s">
-        <v>433</v>
+        <v>989</v>
       </c>
       <c r="C1704" s="1" t="str">
         <f>RIGHT(B1704,3)</f>
@@ -37252,12 +37252,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1707" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1707" s="1" t="s">
-        <v>750</v>
+        <v>994</v>
       </c>
       <c r="B1707" s="1" t="s">
-        <v>751</v>
+        <v>995</v>
       </c>
       <c r="C1707" s="1" t="str">
         <f>RIGHT(B1707,3)</f>
@@ -37288,12 +37288,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1710" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1710" s="1" t="s">
-        <v>754</v>
+        <v>996</v>
       </c>
       <c r="B1710" s="1" t="s">
-        <v>755</v>
+        <v>997</v>
       </c>
       <c r="C1710" s="1" t="str">
         <f>RIGHT(B1710,3)</f>
@@ -37312,12 +37312,12 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1712" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1712" s="1" t="s">
-        <v>490</v>
+        <v>998</v>
       </c>
       <c r="B1712" s="1" t="s">
-        <v>491</v>
+        <v>999</v>
       </c>
       <c r="C1712" s="1" t="str">
         <f>RIGHT(B1712,3)</f>
@@ -37348,12 +37348,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1715" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1715" s="1" t="s">
-        <v>366</v>
+        <v>1000</v>
       </c>
       <c r="B1715" s="1" t="s">
-        <v>367</v>
+        <v>1001</v>
       </c>
       <c r="C1715" s="1" t="str">
         <f>RIGHT(B1715,3)</f>
@@ -37396,12 +37396,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1719" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1719" s="1" t="s">
-        <v>730</v>
+        <v>1002</v>
       </c>
       <c r="B1719" s="1" t="s">
-        <v>731</v>
+        <v>1003</v>
       </c>
       <c r="C1719" s="1" t="str">
         <f>RIGHT(B1719,3)</f>
@@ -37456,12 +37456,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1724" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1724" s="1" t="s">
-        <v>396</v>
+        <v>1004</v>
       </c>
       <c r="B1724" s="1" t="s">
-        <v>397</v>
+        <v>1005</v>
       </c>
       <c r="C1724" s="1" t="str">
         <f>RIGHT(B1724,3)</f>
@@ -37516,12 +37516,12 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1729" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1729" s="1" t="s">
-        <v>608</v>
+        <v>1006</v>
       </c>
       <c r="B1729" s="1" t="s">
-        <v>609</v>
+        <v>1007</v>
       </c>
       <c r="C1729" s="1" t="str">
         <f>RIGHT(B1729,3)</f>
@@ -37540,24 +37540,24 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1731" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1731" s="1" t="s">
-        <v>597</v>
+        <v>1012</v>
       </c>
       <c r="B1731" s="1" t="s">
-        <v>598</v>
+        <v>1013</v>
       </c>
       <c r="C1731" s="1" t="str">
         <f>RIGHT(B1731,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1732" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1732" s="1" t="s">
-        <v>338</v>
+        <v>1018</v>
       </c>
       <c r="B1732" s="1" t="s">
-        <v>339</v>
+        <v>1019</v>
       </c>
       <c r="C1732" s="1" t="str">
         <f>RIGHT(B1732,3)</f>
@@ -37588,12 +37588,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1735" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1735" s="1" t="s">
-        <v>344</v>
+        <v>1020</v>
       </c>
       <c r="B1735" s="1" t="s">
-        <v>345</v>
+        <v>1021</v>
       </c>
       <c r="C1735" s="1" t="str">
         <f>RIGHT(B1735,3)</f>
@@ -37636,60 +37636,60 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1739" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1739" s="1" t="s">
-        <v>557</v>
+        <v>1026</v>
       </c>
       <c r="B1739" s="1" t="s">
-        <v>558</v>
+        <v>1027</v>
       </c>
       <c r="C1739" s="1" t="str">
         <f>RIGHT(B1739,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1740" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1740" s="1" t="s">
-        <v>553</v>
+        <v>1028</v>
       </c>
       <c r="B1740" s="1" t="s">
-        <v>554</v>
+        <v>1029</v>
       </c>
       <c r="C1740" s="1" t="str">
         <f>RIGHT(B1740,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1741" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1741" s="1" t="s">
-        <v>585</v>
+        <v>1030</v>
       </c>
       <c r="B1741" s="1" t="s">
-        <v>586</v>
+        <v>1031</v>
       </c>
       <c r="C1741" s="1" t="str">
         <f>RIGHT(B1741,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1742" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1742" s="1" t="s">
-        <v>573</v>
+        <v>1032</v>
       </c>
       <c r="B1742" s="1" t="s">
-        <v>574</v>
+        <v>1033</v>
       </c>
       <c r="C1742" s="1" t="str">
         <f>RIGHT(B1742,3)</f>
         <v>are</v>
       </c>
     </row>
-    <row r="1743" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1743" s="1" t="s">
-        <v>261</v>
+        <v>1034</v>
       </c>
       <c r="B1743" s="1" t="s">
-        <v>262</v>
+        <v>4523</v>
       </c>
       <c r="C1743" s="1" t="str">
         <f>RIGHT(B1743,3)</f>
@@ -37720,12 +37720,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1746" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1746" s="1" t="s">
-        <v>460</v>
+        <v>1035</v>
       </c>
       <c r="B1746" s="1" t="s">
-        <v>461</v>
+        <v>1036</v>
       </c>
       <c r="C1746" s="1" t="str">
         <f>RIGHT(B1746,3)</f>
@@ -37756,12 +37756,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1749" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1749" s="1" t="s">
-        <v>360</v>
+        <v>1037</v>
       </c>
       <c r="B1749" s="1" t="s">
-        <v>361</v>
+        <v>1038</v>
       </c>
       <c r="C1749" s="1" t="str">
         <f>RIGHT(B1749,3)</f>
@@ -37792,12 +37792,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1752" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1752" s="1" t="s">
-        <v>306</v>
+        <v>1039</v>
       </c>
       <c r="B1752" s="1" t="s">
-        <v>307</v>
+        <v>1040</v>
       </c>
       <c r="C1752" s="1" t="str">
         <f>RIGHT(B1752,3)</f>
@@ -37828,12 +37828,12 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1755" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1755" s="1" t="s">
-        <v>288</v>
+        <v>1041</v>
       </c>
       <c r="B1755" s="1" t="s">
-        <v>289</v>
+        <v>1050</v>
       </c>
       <c r="C1755" s="1" t="str">
         <f>RIGHT(B1755,3)</f>
@@ -37912,12 +37912,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1762" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1762" s="1" t="s">
-        <v>438</v>
+        <v>1043</v>
       </c>
       <c r="B1762" s="1" t="s">
-        <v>439</v>
+        <v>1044</v>
       </c>
       <c r="C1762" s="1" t="str">
         <f>RIGHT(B1762,3)</f>
@@ -37996,12 +37996,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1769" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1769" s="1" t="s">
-        <v>372</v>
+        <v>1045</v>
       </c>
       <c r="B1769" s="1" t="s">
-        <v>373</v>
+        <v>1042</v>
       </c>
       <c r="C1769" s="1" t="str">
         <f>RIGHT(B1769,3)</f>
@@ -38104,12 +38104,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1778" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1778" s="1" t="s">
-        <v>466</v>
+        <v>1047</v>
       </c>
       <c r="B1778" s="1" t="s">
-        <v>467</v>
+        <v>1048</v>
       </c>
       <c r="C1778" s="1" t="str">
         <f>RIGHT(B1778,3)</f>
@@ -38368,12 +38368,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1800" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1800" s="1" t="s">
-        <v>736</v>
+        <v>1049</v>
       </c>
       <c r="B1800" s="1" t="s">
-        <v>737</v>
+        <v>1054</v>
       </c>
       <c r="C1800" s="1" t="str">
         <f>RIGHT(B1800,3)</f>
@@ -38452,12 +38452,12 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1807" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1807" s="1" t="s">
-        <v>756</v>
+        <v>1051</v>
       </c>
       <c r="B1807" s="1" t="s">
-        <v>757</v>
+        <v>1052</v>
       </c>
       <c r="C1807" s="1" t="str">
         <f>RIGHT(B1807,3)</f>
@@ -38512,12 +38512,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1812" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1812" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1812" s="1" t="s">
-        <v>472</v>
+        <v>1053</v>
       </c>
       <c r="B1812" s="1" t="s">
-        <v>473</v>
+        <v>4522</v>
       </c>
       <c r="C1812" s="1" t="str">
         <f>RIGHT(B1812,3)</f>
@@ -38560,12 +38560,12 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1816" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1816" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1816" s="1" t="s">
-        <v>450</v>
+        <v>1055</v>
       </c>
       <c r="B1816" s="1" t="s">
-        <v>451</v>
+        <v>1056</v>
       </c>
       <c r="C1816" s="1" t="str">
         <f>RIGHT(B1816,3)</f>
@@ -38580,7 +38580,7 @@
         <v>453</v>
       </c>
       <c r="C1817" s="1" t="str">
-        <f>RIGHT(B1817,3)</f>
+        <f t="shared" ref="C1794:C1857" si="0">RIGHT(B1817,3)</f>
         <v>tis</v>
       </c>
     </row>
@@ -38592,7 +38592,7 @@
         <v>455</v>
       </c>
       <c r="C1818" s="1" t="str">
-        <f>RIGHT(B1818,3)</f>
+        <f t="shared" si="0"/>
         <v>wed</v>
       </c>
     </row>
@@ -38604,7 +38604,7 @@
         <v>1098</v>
       </c>
       <c r="C1819" s="1" t="str">
-        <f>RIGHT(B1819,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38616,7 +38616,7 @@
         <v>2697</v>
       </c>
       <c r="C1820" s="1" t="str">
-        <f>RIGHT(B1820,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38628,7 +38628,7 @@
         <v>4592</v>
       </c>
       <c r="C1821" s="1" t="str">
-        <f>RIGHT(B1821,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38640,7 +38640,7 @@
         <v>5201</v>
       </c>
       <c r="C1822" s="1" t="str">
-        <f>RIGHT(B1822,3)</f>
+        <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
@@ -38652,7 +38652,7 @@
         <v>4593</v>
       </c>
       <c r="C1823" s="1" t="str">
-        <f>RIGHT(B1823,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38664,7 +38664,7 @@
         <v>2029</v>
       </c>
       <c r="C1824" s="1" t="str">
-        <f>RIGHT(B1824,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38676,7 +38676,7 @@
         <v>2032</v>
       </c>
       <c r="C1825" s="1" t="str">
-        <f>RIGHT(B1825,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38688,7 +38688,7 @@
         <v>2034</v>
       </c>
       <c r="C1826" s="1" t="str">
-        <f>RIGHT(B1826,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38700,7 +38700,7 @@
         <v>2038</v>
       </c>
       <c r="C1827" s="1" t="str">
-        <f>RIGHT(B1827,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38712,7 +38712,7 @@
         <v>4594</v>
       </c>
       <c r="C1828" s="1" t="str">
-        <f>RIGHT(B1828,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38724,7 +38724,7 @@
         <v>5202</v>
       </c>
       <c r="C1829" s="1" t="str">
-        <f>RIGHT(B1829,3)</f>
+        <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
@@ -38736,7 +38736,7 @@
         <v>4595</v>
       </c>
       <c r="C1830" s="1" t="str">
-        <f>RIGHT(B1830,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38748,7 +38748,7 @@
         <v>5203</v>
       </c>
       <c r="C1831" s="1" t="str">
-        <f>RIGHT(B1831,3)</f>
+        <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
@@ -38760,7 +38760,7 @@
         <v>5204</v>
       </c>
       <c r="C1832" s="1" t="str">
-        <f>RIGHT(B1832,3)</f>
+        <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
@@ -38772,7 +38772,7 @@
         <v>4596</v>
       </c>
       <c r="C1833" s="1" t="str">
-        <f>RIGHT(B1833,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38784,7 +38784,7 @@
         <v>4597</v>
       </c>
       <c r="C1834" s="1" t="str">
-        <f>RIGHT(B1834,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38796,7 +38796,7 @@
         <v>5205</v>
       </c>
       <c r="C1835" s="1" t="str">
-        <f>RIGHT(B1835,3)</f>
+        <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
@@ -38808,7 +38808,7 @@
         <v>4598</v>
       </c>
       <c r="C1836" s="1" t="str">
-        <f>RIGHT(B1836,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38820,7 +38820,7 @@
         <v>5230</v>
       </c>
       <c r="C1837" s="1" t="str">
-        <f>RIGHT(B1837,3)</f>
+        <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
@@ -38832,7 +38832,7 @@
         <v>2993</v>
       </c>
       <c r="C1838" s="1" t="str">
-        <f>RIGHT(B1838,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38844,7 +38844,7 @@
         <v>4599</v>
       </c>
       <c r="C1839" s="1" t="str">
-        <f>RIGHT(B1839,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38856,7 +38856,7 @@
         <v>4600</v>
       </c>
       <c r="C1840" s="1" t="str">
-        <f>RIGHT(B1840,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38868,7 +38868,7 @@
         <v>5229</v>
       </c>
       <c r="C1841" s="1" t="str">
-        <f>RIGHT(B1841,3)</f>
+        <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
@@ -38880,7 +38880,7 @@
         <v>2734</v>
       </c>
       <c r="C1842" s="1" t="str">
-        <f>RIGHT(B1842,3)</f>
+        <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
@@ -38892,7 +38892,7 @@
         <v>5228</v>
       </c>
       <c r="C1843" s="1" t="str">
-        <f>RIGHT(B1843,3)</f>
+        <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
@@ -38904,7 +38904,7 @@
         <v>5227</v>
       </c>
       <c r="C1844" s="1" t="str">
-        <f>RIGHT(B1844,3)</f>
+        <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
@@ -38916,7 +38916,7 @@
         <v>4601</v>
       </c>
       <c r="C1845" s="1" t="str">
-        <f>RIGHT(B1845,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38928,7 +38928,7 @@
         <v>5226</v>
       </c>
       <c r="C1846" s="1" t="str">
-        <f>RIGHT(B1846,3)</f>
+        <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
@@ -38940,7 +38940,7 @@
         <v>5225</v>
       </c>
       <c r="C1847" s="1" t="str">
-        <f>RIGHT(B1847,3)</f>
+        <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
@@ -38952,7 +38952,7 @@
         <v>2989</v>
       </c>
       <c r="C1848" s="1" t="str">
-        <f>RIGHT(B1848,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38964,7 +38964,7 @@
         <v>2602</v>
       </c>
       <c r="C1849" s="1" t="str">
-        <f>RIGHT(B1849,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38976,7 +38976,7 @@
         <v>1267</v>
       </c>
       <c r="C1850" s="1" t="str">
-        <f>RIGHT(B1850,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -38988,7 +38988,7 @@
         <v>1464</v>
       </c>
       <c r="C1851" s="1" t="str">
-        <f>RIGHT(B1851,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -39000,7 +39000,7 @@
         <v>10</v>
       </c>
       <c r="C1852" s="1" t="str">
-        <f>RIGHT(B1852,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -39012,7 +39012,7 @@
         <v>5224</v>
       </c>
       <c r="C1853" s="1" t="str">
-        <f>RIGHT(B1853,3)</f>
+        <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
@@ -39024,7 +39024,7 @@
         <v>1356</v>
       </c>
       <c r="C1854" s="1" t="str">
-        <f>RIGHT(B1854,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -39036,7 +39036,7 @@
         <v>2211</v>
       </c>
       <c r="C1855" s="1" t="str">
-        <f>RIGHT(B1855,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -39048,7 +39048,7 @@
         <v>4602</v>
       </c>
       <c r="C1856" s="1" t="str">
-        <f>RIGHT(B1856,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -39060,7 +39060,7 @@
         <v>5223</v>
       </c>
       <c r="C1857" s="1" t="str">
-        <f>RIGHT(B1857,3)</f>
+        <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
@@ -39072,7 +39072,7 @@
         <v>5222</v>
       </c>
       <c r="C1858" s="1" t="str">
-        <f>RIGHT(B1858,3)</f>
+        <f t="shared" ref="C1858:C1921" si="1">RIGHT(B1858,3)</f>
         <v>baf</v>
       </c>
     </row>
@@ -39084,7 +39084,7 @@
         <v>4603</v>
       </c>
       <c r="C1859" s="1" t="str">
-        <f>RIGHT(B1859,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39096,7 +39096,7 @@
         <v>5221</v>
       </c>
       <c r="C1860" s="1" t="str">
-        <f>RIGHT(B1860,3)</f>
+        <f t="shared" si="1"/>
         <v>baf</v>
       </c>
     </row>
@@ -39108,7 +39108,7 @@
         <v>4604</v>
       </c>
       <c r="C1861" s="1" t="str">
-        <f>RIGHT(B1861,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39120,7 +39120,7 @@
         <v>4605</v>
       </c>
       <c r="C1862" s="1" t="str">
-        <f>RIGHT(B1862,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39132,7 +39132,7 @@
         <v>5220</v>
       </c>
       <c r="C1863" s="1" t="str">
-        <f>RIGHT(B1863,3)</f>
+        <f t="shared" si="1"/>
         <v>baf</v>
       </c>
     </row>
@@ -39144,7 +39144,7 @@
         <v>4606</v>
       </c>
       <c r="C1864" s="1" t="str">
-        <f>RIGHT(B1864,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39156,7 +39156,7 @@
         <v>1961</v>
       </c>
       <c r="C1865" s="1" t="str">
-        <f>RIGHT(B1865,3)</f>
+        <f t="shared" si="1"/>
         <v>baf</v>
       </c>
     </row>
@@ -39168,7 +39168,7 @@
         <v>4607</v>
       </c>
       <c r="C1866" s="1" t="str">
-        <f>RIGHT(B1866,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39180,7 +39180,7 @@
         <v>5219</v>
       </c>
       <c r="C1867" s="1" t="str">
-        <f>RIGHT(B1867,3)</f>
+        <f t="shared" si="1"/>
         <v>baf</v>
       </c>
     </row>
@@ -39192,7 +39192,7 @@
         <v>2692</v>
       </c>
       <c r="C1868" s="1" t="str">
-        <f>RIGHT(B1868,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39204,7 +39204,7 @@
         <v>4608</v>
       </c>
       <c r="C1869" s="1" t="str">
-        <f>RIGHT(B1869,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39216,7 +39216,7 @@
         <v>4609</v>
       </c>
       <c r="C1870" s="1" t="str">
-        <f>RIGHT(B1870,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39228,7 +39228,7 @@
         <v>2627</v>
       </c>
       <c r="C1871" s="1" t="str">
-        <f>RIGHT(B1871,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39240,7 +39240,7 @@
         <v>2304</v>
       </c>
       <c r="C1872" s="1" t="str">
-        <f>RIGHT(B1872,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39252,7 +39252,7 @@
         <v>23</v>
       </c>
       <c r="C1873" s="1" t="str">
-        <f>RIGHT(B1873,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39264,7 +39264,7 @@
         <v>1201</v>
       </c>
       <c r="C1874" s="1" t="str">
-        <f>RIGHT(B1874,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39276,7 +39276,7 @@
         <v>4610</v>
       </c>
       <c r="C1875" s="1" t="str">
-        <f>RIGHT(B1875,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39288,7 +39288,7 @@
         <v>5218</v>
       </c>
       <c r="C1876" s="1" t="str">
-        <f>RIGHT(B1876,3)</f>
+        <f t="shared" si="1"/>
         <v>baf</v>
       </c>
     </row>
@@ -39300,7 +39300,7 @@
         <v>2968</v>
       </c>
       <c r="C1877" s="1" t="str">
-        <f>RIGHT(B1877,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39312,7 +39312,7 @@
         <v>2616</v>
       </c>
       <c r="C1878" s="1" t="str">
-        <f>RIGHT(B1878,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39324,7 +39324,7 @@
         <v>4611</v>
       </c>
       <c r="C1879" s="1" t="str">
-        <f>RIGHT(B1879,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39336,7 +39336,7 @@
         <v>2489</v>
       </c>
       <c r="C1880" s="1" t="str">
-        <f>RIGHT(B1880,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39348,7 +39348,7 @@
         <v>3022</v>
       </c>
       <c r="C1881" s="1" t="str">
-        <f>RIGHT(B1881,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39360,7 +39360,7 @@
         <v>3024</v>
       </c>
       <c r="C1882" s="1" t="str">
-        <f>RIGHT(B1882,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39372,7 +39372,7 @@
         <v>4612</v>
       </c>
       <c r="C1883" s="1" t="str">
-        <f>RIGHT(B1883,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39384,7 +39384,7 @@
         <v>4613</v>
       </c>
       <c r="C1884" s="1" t="str">
-        <f>RIGHT(B1884,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39396,7 +39396,7 @@
         <v>2164</v>
       </c>
       <c r="C1885" s="1" t="str">
-        <f>RIGHT(B1885,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39408,7 +39408,7 @@
         <v>1319</v>
       </c>
       <c r="C1886" s="1" t="str">
-        <f>RIGHT(B1886,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39420,7 +39420,7 @@
         <v>1082</v>
       </c>
       <c r="C1887" s="1" t="str">
-        <f>RIGHT(B1887,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39432,7 +39432,7 @@
         <v>4614</v>
       </c>
       <c r="C1888" s="1" t="str">
-        <f>RIGHT(B1888,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39444,7 +39444,7 @@
         <v>2531</v>
       </c>
       <c r="C1889" s="1" t="str">
-        <f>RIGHT(B1889,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39456,7 +39456,7 @@
         <v>2535</v>
       </c>
       <c r="C1890" s="1" t="str">
-        <f>RIGHT(B1890,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39468,7 +39468,7 @@
         <v>5217</v>
       </c>
       <c r="C1891" s="1" t="str">
-        <f>RIGHT(B1891,3)</f>
+        <f t="shared" si="1"/>
         <v>baf</v>
       </c>
     </row>
@@ -39480,7 +39480,7 @@
         <v>2539</v>
       </c>
       <c r="C1892" s="1" t="str">
-        <f>RIGHT(B1892,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39492,7 +39492,7 @@
         <v>1927</v>
       </c>
       <c r="C1893" s="1" t="str">
-        <f>RIGHT(B1893,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39504,7 +39504,7 @@
         <v>4615</v>
       </c>
       <c r="C1894" s="1" t="str">
-        <f>RIGHT(B1894,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39516,7 +39516,7 @@
         <v>5216</v>
       </c>
       <c r="C1895" s="1" t="str">
-        <f>RIGHT(B1895,3)</f>
+        <f t="shared" si="1"/>
         <v>baf</v>
       </c>
     </row>
@@ -39528,7 +39528,7 @@
         <v>4616</v>
       </c>
       <c r="C1896" s="1" t="str">
-        <f>RIGHT(B1896,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39540,7 +39540,7 @@
         <v>4617</v>
       </c>
       <c r="C1897" s="1" t="str">
-        <f>RIGHT(B1897,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39552,7 +39552,7 @@
         <v>5215</v>
       </c>
       <c r="C1898" s="1" t="str">
-        <f>RIGHT(B1898,3)</f>
+        <f t="shared" si="1"/>
         <v>baf</v>
       </c>
     </row>
@@ -39564,7 +39564,7 @@
         <v>4618</v>
       </c>
       <c r="C1899" s="1" t="str">
-        <f>RIGHT(B1899,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39576,7 +39576,7 @@
         <v>4619</v>
       </c>
       <c r="C1900" s="1" t="str">
-        <f>RIGHT(B1900,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39588,7 +39588,7 @@
         <v>2520</v>
       </c>
       <c r="C1901" s="1" t="str">
-        <f>RIGHT(B1901,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39600,7 +39600,7 @@
         <v>4620</v>
       </c>
       <c r="C1902" s="1" t="str">
-        <f>RIGHT(B1902,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39612,7 +39612,7 @@
         <v>5214</v>
       </c>
       <c r="C1903" s="1" t="str">
-        <f>RIGHT(B1903,3)</f>
+        <f t="shared" si="1"/>
         <v>baf</v>
       </c>
     </row>
@@ -39624,7 +39624,7 @@
         <v>4621</v>
       </c>
       <c r="C1904" s="1" t="str">
-        <f>RIGHT(B1904,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39636,7 +39636,7 @@
         <v>5213</v>
       </c>
       <c r="C1905" s="1" t="str">
-        <f>RIGHT(B1905,3)</f>
+        <f t="shared" si="1"/>
         <v>baf</v>
       </c>
     </row>
@@ -39648,7 +39648,7 @@
         <v>4658</v>
       </c>
       <c r="C1906" s="1" t="str">
-        <f>RIGHT(B1906,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39660,7 +39660,7 @@
         <v>5212</v>
       </c>
       <c r="C1907" s="1" t="str">
-        <f>RIGHT(B1907,3)</f>
+        <f t="shared" si="1"/>
         <v>baf</v>
       </c>
     </row>
@@ -39672,7 +39672,7 @@
         <v>4657</v>
       </c>
       <c r="C1908" s="1" t="str">
-        <f>RIGHT(B1908,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39684,7 +39684,7 @@
         <v>4656</v>
       </c>
       <c r="C1909" s="1" t="str">
-        <f>RIGHT(B1909,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39696,7 +39696,7 @@
         <v>4655</v>
       </c>
       <c r="C1910" s="1" t="str">
-        <f>RIGHT(B1910,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39708,7 +39708,7 @@
         <v>2912</v>
       </c>
       <c r="C1911" s="1" t="str">
-        <f>RIGHT(B1911,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39720,7 +39720,7 @@
         <v>2182</v>
       </c>
       <c r="C1912" s="1" t="str">
-        <f>RIGHT(B1912,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39732,7 +39732,7 @@
         <v>4654</v>
       </c>
       <c r="C1913" s="1" t="str">
-        <f>RIGHT(B1913,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39744,7 +39744,7 @@
         <v>4653</v>
       </c>
       <c r="C1914" s="1" t="str">
-        <f>RIGHT(B1914,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39756,7 +39756,7 @@
         <v>5211</v>
       </c>
       <c r="C1915" s="1" t="str">
-        <f>RIGHT(B1915,3)</f>
+        <f t="shared" si="1"/>
         <v>baf</v>
       </c>
     </row>
@@ -39768,7 +39768,7 @@
         <v>1975</v>
       </c>
       <c r="C1916" s="1" t="str">
-        <f>RIGHT(B1916,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39780,7 +39780,7 @@
         <v>2713</v>
       </c>
       <c r="C1917" s="1" t="str">
-        <f>RIGHT(B1917,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39792,7 +39792,7 @@
         <v>4652</v>
       </c>
       <c r="C1918" s="1" t="str">
-        <f>RIGHT(B1918,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39804,7 +39804,7 @@
         <v>5210</v>
       </c>
       <c r="C1919" s="1" t="str">
-        <f>RIGHT(B1919,3)</f>
+        <f t="shared" si="1"/>
         <v>baf</v>
       </c>
     </row>
@@ -39816,7 +39816,7 @@
         <v>4651</v>
       </c>
       <c r="C1920" s="1" t="str">
-        <f>RIGHT(B1920,3)</f>
+        <f t="shared" si="1"/>
         <v>cre</v>
       </c>
     </row>
@@ -39828,7 +39828,7 @@
         <v>5209</v>
       </c>
       <c r="C1921" s="1" t="str">
-        <f>RIGHT(B1921,3)</f>
+        <f t="shared" si="1"/>
         <v>baf</v>
       </c>
     </row>
@@ -39840,7 +39840,7 @@
         <v>5208</v>
       </c>
       <c r="C1922" s="1" t="str">
-        <f>RIGHT(B1922,3)</f>
+        <f t="shared" ref="C1922:C1985" si="2">RIGHT(B1922,3)</f>
         <v>baf</v>
       </c>
     </row>
@@ -39852,7 +39852,7 @@
         <v>4650</v>
       </c>
       <c r="C1923" s="1" t="str">
-        <f>RIGHT(B1923,3)</f>
+        <f t="shared" si="2"/>
         <v>cre</v>
       </c>
     </row>
@@ -39864,7 +39864,7 @@
         <v>4649</v>
       </c>
       <c r="C1924" s="1" t="str">
-        <f>RIGHT(B1924,3)</f>
+        <f t="shared" si="2"/>
         <v>cre</v>
       </c>
     </row>
@@ -39876,7 +39876,7 @@
         <v>4648</v>
       </c>
       <c r="C1925" s="1" t="str">
-        <f>RIGHT(B1925,3)</f>
+        <f t="shared" si="2"/>
         <v>cre</v>
       </c>
     </row>
@@ -39888,7 +39888,7 @@
         <v>2354</v>
       </c>
       <c r="C1926" s="1" t="str">
-        <f>RIGHT(B1926,3)</f>
+        <f t="shared" si="2"/>
         <v>cre</v>
       </c>
     </row>
@@ -39900,7 +39900,7 @@
         <v>4647</v>
       </c>
       <c r="C1927" s="1" t="str">
-        <f>RIGHT(B1927,3)</f>
+        <f t="shared" si="2"/>
         <v>cre</v>
       </c>
     </row>
@@ -39912,7 +39912,7 @@
         <v>4646</v>
       </c>
       <c r="C1928" s="1" t="str">
-        <f>RIGHT(B1928,3)</f>
+        <f t="shared" si="2"/>
         <v>cre</v>
       </c>
     </row>
@@ -39924,7 +39924,7 @@
         <v>4645</v>
       </c>
       <c r="C1929" s="1" t="str">
-        <f>RIGHT(B1929,3)</f>
+        <f t="shared" si="2"/>
         <v>cre</v>
       </c>
     </row>
@@ -39936,7 +39936,7 @@
         <v>5207</v>
       </c>
       <c r="C1930" s="1" t="str">
-        <f>RIGHT(B1930,3)</f>
+        <f t="shared" si="2"/>
         <v>baf</v>
       </c>
     </row>
@@ -39948,7 +39948,7 @@
         <v>5206</v>
       </c>
       <c r="C1931" s="1" t="str">
-        <f>RIGHT(B1931,3)</f>
+        <f t="shared" si="2"/>
         <v>baf</v>
       </c>
     </row>
@@ -39960,7 +39960,7 @@
         <v>4644</v>
       </c>
       <c r="C1932" s="1" t="str">
-        <f>RIGHT(B1932,3)</f>
+        <f t="shared" si="2"/>
         <v>cre</v>
       </c>
     </row>
@@ -39972,7 +39972,7 @@
         <v>4643</v>
       </c>
       <c r="C1933" s="1" t="str">
-        <f>RIGHT(B1933,3)</f>
+        <f t="shared" si="2"/>
         <v>cre</v>
       </c>
     </row>
@@ -39984,7 +39984,7 @@
         <v>5248</v>
       </c>
       <c r="C1934" s="1" t="str">
-        <f>RIGHT(B1934,3)</f>
+        <f t="shared" si="2"/>
         <v>baf</v>
       </c>
     </row>
@@ -39996,7 +39996,7 @@
         <v>5247</v>
       </c>
       <c r="C1935" s="1" t="str">
-        <f>RIGHT(B1935,3)</f>
+        <f t="shared" si="2"/>
         <v>baf</v>
       </c>
     </row>
@@ -40008,7 +40008,7 @@
         <v>4642</v>
       </c>
       <c r="C1936" s="1" t="str">
-        <f>RIGHT(B1936,3)</f>
+        <f t="shared" si="2"/>
         <v>cre</v>
       </c>
     </row>
@@ -40020,7 +40020,7 @@
         <v>5246</v>
       </c>
       <c r="C1937" s="1" t="str">
-        <f>RIGHT(B1937,3)</f>
+        <f t="shared" si="2"/>
         <v>baf</v>
       </c>
     </row>
@@ -40032,7 +40032,7 @@
         <v>5245</v>
       </c>
       <c r="C1938" s="1" t="str">
-        <f>RIGHT(B1938,3)</f>
+        <f t="shared" si="2"/>
         <v>baf</v>
       </c>
     </row>
@@ -40044,7 +40044,7 @@
         <v>4641</v>
       </c>
       <c r="C1939" s="1" t="str">
-        <f>RIGHT(B1939,3)</f>
+        <f t="shared" si="2"/>
         <v>cre</v>
       </c>
     </row>
@@ -40056,7 +40056,7 @@
         <v>5244</v>
       </c>
       <c r="C1940" s="1" t="str">
-        <f>RIGHT(B1940,3)</f>
+        <f t="shared" si="2"/>
         <v>baf</v>
       </c>
     </row>

--- a/EE/generated/referenceTable.xlsx
+++ b/EE/generated/referenceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\generated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBFA874-9160-49CF-AA8E-F90C4E7E857A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D0A03F-9150-44E4-81A0-A73F887D96E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-255" yWindow="1275" windowWidth="15375" windowHeight="7785" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
+    <workbookView xWindow="2190" yWindow="3090" windowWidth="21600" windowHeight="11295" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Block A" sheetId="4" r:id="rId1"/>
@@ -16764,8 +16764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB79911A-7560-43EB-97A7-E09735CAF03B}">
   <dimension ref="A1:C1940"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1078" workbookViewId="0">
-      <selection activeCell="B1082" sqref="B1082"/>
+    <sheetView tabSelected="1" topLeftCell="A922" workbookViewId="0">
+      <selection activeCell="B932" sqref="B932"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38298,7 +38298,7 @@
         <v>5197</v>
       </c>
       <c r="C1794" s="1" t="str">
-        <f t="shared" ref="C1794:C1857" si="28">RIGHT(B1794,3)</f>
+        <f t="shared" ref="C1794:C1816" si="28">RIGHT(B1794,3)</f>
         <v>baf</v>
       </c>
     </row>

--- a/EE/generated/referenceTable.xlsx
+++ b/EE/generated/referenceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\generated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D0A03F-9150-44E4-81A0-A73F887D96E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA408C9-93F2-4D52-A9F2-F85E0C8F0EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="3090" windowWidth="21600" windowHeight="11295" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Block A" sheetId="4" r:id="rId1"/>
@@ -16764,8 +16764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB79911A-7560-43EB-97A7-E09735CAF03B}">
   <dimension ref="A1:C1940"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A922" workbookViewId="0">
-      <selection activeCell="B932" sqref="B932"/>
+    <sheetView tabSelected="1" topLeftCell="A1025" workbookViewId="0">
+      <selection activeCell="B1042" sqref="B1042"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EE/generated/referenceTable.xlsx
+++ b/EE/generated/referenceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\generated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55757D6-D668-4732-B857-257B3FECCAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9253B6D-BD23-43C1-8B04-0F0E1CFE40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10770" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
+    <workbookView xWindow="-22305" yWindow="2595" windowWidth="20460" windowHeight="10770" activeTab="3" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Block A" sheetId="4" r:id="rId1"/>
@@ -16402,7 +16402,7 @@
   <autoFilter ref="A1:C1940" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}">
     <filterColumn colId="2">
       <filters>
-        <filter val="sto"/>
+        <filter val="cre"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -16770,8 +16770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB79911A-7560-43EB-97A7-E09735CAF03B}">
   <dimension ref="A1:C1940"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A735" workbookViewId="0">
-      <selection activeCell="A517" sqref="A517"/>
+    <sheetView topLeftCell="A1636" workbookViewId="0">
+      <selection activeCell="B1758" sqref="B1758"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16828,7 +16828,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4524</v>
       </c>
@@ -16864,7 +16864,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2895</v>
       </c>
@@ -16900,7 +16900,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2434</v>
       </c>
@@ -17032,7 +17032,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1643</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>1544</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>2747</v>
       </c>
@@ -17716,7 +17716,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>1547</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>2843</v>
       </c>
@@ -17752,7 +17752,7 @@
         <v>sto</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>1573</v>
       </c>
@@ -18040,7 +18040,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>2291</v>
       </c>
@@ -18340,7 +18340,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>2934</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>2905</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>2320</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>1524</v>
       </c>
@@ -18628,7 +18628,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>2314</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>1500</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>2515</v>
       </c>
@@ -18916,7 +18916,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>1303</v>
       </c>
@@ -18940,7 +18940,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>1968</v>
       </c>
@@ -19096,7 +19096,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>1307</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>1094</v>
       </c>
@@ -19120,7 +19120,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>2266</v>
       </c>
@@ -19252,7 +19252,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>2268</v>
       </c>
@@ -19312,7 +19312,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>2270</v>
       </c>
@@ -19324,7 +19324,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>1076</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>2035</v>
       </c>
@@ -19708,7 +19708,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>2730</v>
       </c>
@@ -19720,7 +19720,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>1366</v>
       </c>
@@ -19732,7 +19732,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>1381</v>
       </c>
@@ -19792,7 +19792,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>2869</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>2175</v>
       </c>
@@ -19888,7 +19888,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>2178</v>
       </c>
@@ -19984,7 +19984,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>1982</v>
       </c>
@@ -20104,7 +20104,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>191</v>
       </c>
@@ -20212,7 +20212,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>2726</v>
       </c>
@@ -20296,7 +20296,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>2871</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>1540</v>
       </c>
@@ -20824,7 +20824,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>2257</v>
       </c>
@@ -20860,7 +20860,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>2497</v>
       </c>
@@ -21268,7 +21268,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>3030</v>
       </c>
@@ -21316,7 +21316,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>2259</v>
       </c>
@@ -21664,7 +21664,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>2735</v>
       </c>
@@ -21688,7 +21688,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>2743</v>
       </c>
@@ -21712,7 +21712,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>2835</v>
       </c>
@@ -21760,7 +21760,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>2837</v>
       </c>
@@ -21772,7 +21772,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>2680</v>
       </c>
@@ -21820,7 +21820,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>2263</v>
       </c>
@@ -21856,7 +21856,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>2702</v>
       </c>
@@ -21868,7 +21868,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>2704</v>
       </c>
@@ -21880,7 +21880,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>2706</v>
       </c>
@@ -21916,7 +21916,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>2708</v>
       </c>
@@ -22000,7 +22000,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>2710</v>
       </c>
@@ -22024,7 +22024,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>2755</v>
       </c>
@@ -22180,7 +22180,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>1744</v>
       </c>
@@ -22276,7 +22276,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>1604</v>
       </c>
@@ -22288,7 +22288,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>2861</v>
       </c>
@@ -22324,7 +22324,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>1730</v>
       </c>
@@ -22516,7 +22516,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>1390</v>
       </c>
@@ -22648,7 +22648,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>1986</v>
       </c>
@@ -22960,7 +22960,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>2261</v>
       </c>
@@ -22972,7 +22972,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>2901</v>
       </c>
@@ -23104,7 +23104,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="528" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>1328</v>
       </c>
@@ -23236,7 +23236,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>2208</v>
       </c>
@@ -23308,7 +23308,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="545" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>1345</v>
       </c>
@@ -23368,7 +23368,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="550" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>1590</v>
       </c>
@@ -23404,7 +23404,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="553" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>3000</v>
       </c>
@@ -23452,7 +23452,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="557" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>1299</v>
       </c>
@@ -23476,7 +23476,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>16</v>
       </c>
@@ -23584,7 +23584,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="568" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>2585</v>
       </c>
@@ -23692,7 +23692,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="577" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>2</v>
       </c>
@@ -23776,7 +23776,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="584" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>2494</v>
       </c>
@@ -23836,7 +23836,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="589" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>1564</v>
       </c>
@@ -24016,7 +24016,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="604" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>1181</v>
       </c>
@@ -24076,7 +24076,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="609" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>1587</v>
       </c>
@@ -24112,7 +24112,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="612" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>1232</v>
       </c>
@@ -24148,7 +24148,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="615" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>1527</v>
       </c>
@@ -24220,7 +24220,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="621" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>2252</v>
       </c>
@@ -24232,7 +24232,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="622" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>2253</v>
       </c>
@@ -24256,7 +24256,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="624" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>2255</v>
       </c>
@@ -24268,7 +24268,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="625" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>1496</v>
       </c>
@@ -24292,7 +24292,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="627" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>2821</v>
       </c>
@@ -24328,7 +24328,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="630" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>2264</v>
       </c>
@@ -24352,7 +24352,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>2891</v>
       </c>
@@ -24832,7 +24832,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="672" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>2431</v>
       </c>
@@ -25048,7 +25048,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="690" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>2236</v>
       </c>
@@ -25180,7 +25180,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="701" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>3008</v>
       </c>
@@ -25192,7 +25192,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="702" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>3028</v>
       </c>
@@ -25204,7 +25204,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="703" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>1361</v>
       </c>
@@ -25228,7 +25228,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="705" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>2842</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="709" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>2810</v>
       </c>
@@ -25516,7 +25516,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="729" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>2809</v>
       </c>
@@ -25528,7 +25528,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="730" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>2812</v>
       </c>
@@ -25540,7 +25540,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="731" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>1996</v>
       </c>
@@ -25576,7 +25576,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="734" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
         <v>1589</v>
       </c>
@@ -25588,7 +25588,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
         <v>1962</v>
       </c>
@@ -25624,7 +25624,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="738" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
         <v>1481</v>
       </c>
@@ -25660,7 +25660,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="741" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
         <v>2416</v>
       </c>
@@ -25708,7 +25708,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="745" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
         <v>1439</v>
       </c>
@@ -25720,7 +25720,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="746" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
         <v>1992</v>
       </c>
@@ -25804,7 +25804,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="753" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
         <v>1608</v>
       </c>
@@ -26380,7 +26380,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="801" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
         <v>1484</v>
       </c>
@@ -26416,7 +26416,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="804" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
         <v>1104</v>
       </c>
@@ -26560,7 +26560,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="816" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
         <v>1229</v>
       </c>
@@ -26572,7 +26572,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="817" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
         <v>3082</v>
       </c>
@@ -26584,7 +26584,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="818" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
         <v>2043</v>
       </c>
@@ -26596,7 +26596,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="819" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
         <v>1386</v>
       </c>
@@ -26692,7 +26692,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
         <v>2903</v>
       </c>
@@ -26704,7 +26704,7 @@
         <v>sto</v>
       </c>
     </row>
-    <row r="828" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
         <v>1523</v>
       </c>
@@ -26980,7 +26980,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
         <v>2907</v>
       </c>
@@ -27028,7 +27028,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="855" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
         <v>2500</v>
       </c>
@@ -27040,7 +27040,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="856" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
         <v>1333</v>
       </c>
@@ -27076,7 +27076,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="859" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
         <v>1888</v>
       </c>
@@ -27136,7 +27136,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
         <v>2893</v>
       </c>
@@ -27184,7 +27184,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="868" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
         <v>3011</v>
       </c>
@@ -27268,7 +27268,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="875" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
         <v>1820</v>
       </c>
@@ -27376,7 +27376,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="884" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
         <v>1467</v>
       </c>
@@ -27412,7 +27412,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="887" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
         <v>2980</v>
       </c>
@@ -27424,7 +27424,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="888" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
         <v>2318</v>
       </c>
@@ -27436,7 +27436,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="889" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
         <v>1130</v>
       </c>
@@ -27460,7 +27460,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="891" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
         <v>2578</v>
       </c>
@@ -27484,7 +27484,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="893" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
         <v>1606</v>
       </c>
@@ -27496,7 +27496,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="s">
         <v>2899</v>
       </c>
@@ -27508,7 +27508,7 @@
         <v>sto</v>
       </c>
     </row>
-    <row r="895" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="s">
         <v>2092</v>
       </c>
@@ -27568,7 +27568,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="900" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
         <v>2066</v>
       </c>
@@ -27580,7 +27580,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="901" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
         <v>1310</v>
       </c>
@@ -27832,7 +27832,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="922" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
         <v>2688</v>
       </c>
@@ -27904,7 +27904,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="928" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="s">
         <v>1920</v>
       </c>
@@ -27940,7 +27940,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="931" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
         <v>2024</v>
       </c>
@@ -27964,7 +27964,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="933" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
         <v>2019</v>
       </c>
@@ -27976,7 +27976,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="934" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
         <v>2823</v>
       </c>
@@ -27988,7 +27988,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="935" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
         <v>1292</v>
       </c>
@@ -28000,7 +28000,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="936" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
         <v>1532</v>
       </c>
@@ -28012,7 +28012,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="937" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
         <v>1535</v>
       </c>
@@ -28024,7 +28024,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
         <v>2859</v>
       </c>
@@ -28036,7 +28036,7 @@
         <v>sto</v>
       </c>
     </row>
-    <row r="939" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
         <v>2155</v>
       </c>
@@ -28048,7 +28048,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="940" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
         <v>2337</v>
       </c>
@@ -28060,7 +28060,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="941" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
         <v>2126</v>
       </c>
@@ -28072,7 +28072,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="942" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
         <v>1641</v>
       </c>
@@ -28084,7 +28084,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="943" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
         <v>2548</v>
       </c>
@@ -28108,7 +28108,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="945" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
         <v>2671</v>
       </c>
@@ -28120,7 +28120,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="946" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
         <v>3049</v>
       </c>
@@ -28132,7 +28132,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="947" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
         <v>2522</v>
       </c>
@@ -28144,7 +28144,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="948" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
         <v>2526</v>
       </c>
@@ -28168,7 +28168,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="950" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
         <v>2549</v>
       </c>
@@ -28180,7 +28180,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="951" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
         <v>2897</v>
       </c>
@@ -28216,7 +28216,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="954" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
         <v>1341</v>
       </c>
@@ -28228,7 +28228,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="955" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
         <v>1898</v>
       </c>
@@ -28240,7 +28240,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="956" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A956" s="1" t="s">
         <v>2010</v>
       </c>
@@ -28252,7 +28252,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="957" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A957" s="1" t="s">
         <v>2590</v>
       </c>
@@ -28264,7 +28264,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="958" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A958" s="1" t="s">
         <v>1814</v>
       </c>
@@ -28276,7 +28276,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="959" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
         <v>3045</v>
       </c>
@@ -28312,7 +28312,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="962" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A962" s="1" t="s">
         <v>2551</v>
       </c>
@@ -28324,7 +28324,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
         <v>2845</v>
       </c>
@@ -28336,7 +28336,7 @@
         <v>sto</v>
       </c>
     </row>
-    <row r="964" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
         <v>1886</v>
       </c>
@@ -28348,7 +28348,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="965" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
         <v>2716</v>
       </c>
@@ -28360,7 +28360,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="966" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
         <v>1290</v>
       </c>
@@ -28372,7 +28372,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="967" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
         <v>1148</v>
       </c>
@@ -28384,7 +28384,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="968" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A968" s="1" t="s">
         <v>1147</v>
       </c>
@@ -28408,7 +28408,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" s="1" t="s">
         <v>2909</v>
       </c>
@@ -28444,7 +28444,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="973" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A973" s="1" t="s">
         <v>2782</v>
       </c>
@@ -28456,7 +28456,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="974" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A974" s="1" t="s">
         <v>2783</v>
       </c>
@@ -28468,7 +28468,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="975" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A975" s="1" t="s">
         <v>2785</v>
       </c>
@@ -28480,7 +28480,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="976" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A976" s="1" t="s">
         <v>3077</v>
       </c>
@@ -28492,7 +28492,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="977" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
         <v>3079</v>
       </c>
@@ -28504,7 +28504,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="978" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
         <v>3073</v>
       </c>
@@ -28564,7 +28564,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="983" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
         <v>3075</v>
       </c>
@@ -28624,7 +28624,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="988" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A988" s="1" t="s">
         <v>2687</v>
       </c>
@@ -28636,7 +28636,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="989" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
         <v>1612</v>
       </c>
@@ -28660,7 +28660,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="991" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A991" s="1" t="s">
         <v>2825</v>
       </c>
@@ -28684,7 +28684,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="993" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
         <v>2928</v>
       </c>
@@ -28696,7 +28696,7 @@
         <v>sto</v>
       </c>
     </row>
-    <row r="994" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A994" s="1" t="s">
         <v>2924</v>
       </c>
@@ -28720,7 +28720,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="996" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A996" s="1" t="s">
         <v>2228</v>
       </c>
@@ -28744,7 +28744,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="998" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A998" s="1" t="s">
         <v>2930</v>
       </c>
@@ -28780,7 +28780,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1001" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1001" s="1" t="s">
         <v>2623</v>
       </c>
@@ -28792,7 +28792,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1002" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1002" s="1" t="s">
         <v>1518</v>
       </c>
@@ -28804,7 +28804,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1003" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1003" s="1" t="s">
         <v>2399</v>
       </c>
@@ -28840,7 +28840,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1006" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="1" t="s">
         <v>2857</v>
       </c>
@@ -28852,7 +28852,7 @@
         <v>sto</v>
       </c>
     </row>
-    <row r="1007" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1007" s="1" t="s">
         <v>1257</v>
       </c>
@@ -28864,7 +28864,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1008" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1008" s="1" t="s">
         <v>2152</v>
       </c>
@@ -28876,7 +28876,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1009" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1009" s="1" t="s">
         <v>1448</v>
       </c>
@@ -28888,7 +28888,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1010" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1010" s="1" t="s">
         <v>1206</v>
       </c>
@@ -28924,7 +28924,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1013" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="1" t="s">
         <v>1964</v>
       </c>
@@ -28936,7 +28936,7 @@
         <v>sto</v>
       </c>
     </row>
-    <row r="1014" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1014" s="1" t="s">
         <v>1930</v>
       </c>
@@ -28948,7 +28948,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1015" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1015" s="1" t="s">
         <v>2396</v>
       </c>
@@ -28960,7 +28960,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1016" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1016" s="1" t="s">
         <v>1120</v>
       </c>
@@ -28972,7 +28972,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1017" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1017" s="1" t="s">
         <v>1999</v>
       </c>
@@ -28984,7 +28984,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1018" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1018" s="1" t="s">
         <v>2003</v>
       </c>
@@ -28996,7 +28996,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1019" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1019" s="1" t="s">
         <v>1348</v>
       </c>
@@ -29008,7 +29008,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1020" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1020" s="1" t="s">
         <v>2951</v>
       </c>
@@ -29020,7 +29020,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1021" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1021" s="1" t="s">
         <v>3053</v>
       </c>
@@ -29032,7 +29032,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1022" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1022" s="1" t="s">
         <v>20</v>
       </c>
@@ -29044,7 +29044,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1023" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1023" s="1" t="s">
         <v>0</v>
       </c>
@@ -29056,7 +29056,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1024" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1024" s="1" t="s">
         <v>1359</v>
       </c>
@@ -29068,7 +29068,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1025" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1025" s="1" t="s">
         <v>1646</v>
       </c>
@@ -29080,7 +29080,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1026" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1026" s="1" t="s">
         <v>2289</v>
       </c>
@@ -29092,7 +29092,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1027" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1027" s="1" t="s">
         <v>1445</v>
       </c>
@@ -29104,7 +29104,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1028" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1028" s="1" t="s">
         <v>1443</v>
       </c>
@@ -29116,7 +29116,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1029" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1029" s="1" t="s">
         <v>1907</v>
       </c>
@@ -29164,7 +29164,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1033" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1033" s="1" t="s">
         <v>2055</v>
       </c>
@@ -29188,7 +29188,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1035" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1035" s="1" t="s">
         <v>1967</v>
       </c>
@@ -29308,7 +29308,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1045" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1045" s="1" t="s">
         <v>2926</v>
       </c>
@@ -29344,7 +29344,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1048" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1048" s="1" t="s">
         <v>2855</v>
       </c>
@@ -29380,7 +29380,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1051" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1051" s="1" t="s">
         <v>2849</v>
       </c>
@@ -29428,7 +29428,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1055" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1055" s="1" t="s">
         <v>1607</v>
       </c>
@@ -29452,7 +29452,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1057" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1057" s="1" t="s">
         <v>2847</v>
       </c>
@@ -29500,7 +29500,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1061" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1061" s="1" t="s">
         <v>2851</v>
       </c>
@@ -29548,7 +29548,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1065" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1065" s="1" t="s">
         <v>2853</v>
       </c>
@@ -29572,7 +29572,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1067" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1067" s="1" t="s">
         <v>2230</v>
       </c>
@@ -29584,7 +29584,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1068" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1068" s="1" t="s">
         <v>1965</v>
       </c>
@@ -29632,7 +29632,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1072" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1072" s="1" t="s">
         <v>1582</v>
       </c>
@@ -29680,7 +29680,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1076" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1076" s="1" t="s">
         <v>1610</v>
       </c>
@@ -29764,7 +29764,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1083" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1083" s="1" t="s">
         <v>2235</v>
       </c>
@@ -29848,7 +29848,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1090" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1090" s="1" t="s">
         <v>2233</v>
       </c>
@@ -29884,7 +29884,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1093" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1093" s="1" t="s">
         <v>1215</v>
       </c>
@@ -29908,7 +29908,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1095" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1095" s="1" t="s">
         <v>1226</v>
       </c>
@@ -29956,7 +29956,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1099" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1099" s="1" t="s">
         <v>2231</v>
       </c>
@@ -30172,7 +30172,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1117" s="1" t="s">
         <v>1151</v>
       </c>
@@ -30208,7 +30208,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1120" s="1" t="s">
         <v>1152</v>
       </c>
@@ -30244,7 +30244,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1123" s="1" t="s">
         <v>1154</v>
       </c>
@@ -30280,7 +30280,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1126" s="1" t="s">
         <v>1156</v>
       </c>
@@ -30316,7 +30316,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1129" s="1" t="s">
         <v>1469</v>
       </c>
@@ -30376,7 +30376,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1134" s="1" t="s">
         <v>2328</v>
       </c>
@@ -30412,7 +30412,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1137" s="1" t="s">
         <v>2183</v>
       </c>
@@ -30460,7 +30460,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1141" s="1" t="s">
         <v>1434</v>
       </c>
@@ -30508,7 +30508,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1145" s="1" t="s">
         <v>2346</v>
       </c>
@@ -30640,7 +30640,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1156" s="1" t="s">
         <v>2234</v>
       </c>
@@ -30652,7 +30652,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1157" s="1" t="s">
         <v>1585</v>
       </c>
@@ -30712,7 +30712,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1162" s="1" t="s">
         <v>1225</v>
       </c>
@@ -30736,7 +30736,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1164" s="1" t="s">
         <v>1227</v>
       </c>
@@ -30772,7 +30772,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1167" s="1" t="s">
         <v>1767</v>
       </c>
@@ -30856,7 +30856,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1174" s="1" t="s">
         <v>2345</v>
       </c>
@@ -31144,7 +31144,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1198" s="1" t="s">
         <v>2085</v>
       </c>
@@ -31156,7 +31156,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1199" s="1" t="s">
         <v>2129</v>
       </c>
@@ -31180,7 +31180,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="1201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1201" s="1" t="s">
         <v>1474</v>
       </c>
@@ -31192,7 +31192,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1202" s="1" t="s">
         <v>1252</v>
       </c>
@@ -31564,7 +31564,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1233" s="1" t="s">
         <v>1592</v>
       </c>
@@ -31900,7 +31900,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1261" s="1" t="s">
         <v>1769</v>
       </c>
@@ -31924,7 +31924,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1263" s="1" t="s">
         <v>1770</v>
       </c>
@@ -31948,7 +31948,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1265" s="1" t="s">
         <v>1772</v>
       </c>
@@ -33184,7 +33184,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1368" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1368" s="1" t="s">
         <v>2047</v>
       </c>
@@ -33220,7 +33220,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1371" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1371" s="1" t="s">
         <v>2049</v>
       </c>
@@ -33256,7 +33256,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1374" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1374" s="1" t="s">
         <v>1456</v>
       </c>
@@ -33352,7 +33352,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1382" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1382" s="1" t="s">
         <v>2367</v>
       </c>
@@ -33376,7 +33376,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1384" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1384" s="1" t="s">
         <v>2406</v>
       </c>
@@ -33400,7 +33400,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1386" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1386" s="1" t="s">
         <v>2420</v>
       </c>
@@ -33556,7 +33556,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1399" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1399" s="1" t="s">
         <v>2425</v>
       </c>
@@ -33592,7 +33592,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1402" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1402" s="1" t="s">
         <v>2426</v>
       </c>
@@ -33628,7 +33628,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1405" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1405" s="1" t="s">
         <v>2348</v>
       </c>
@@ -33700,7 +33700,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1411" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1411" s="1" t="s">
         <v>1584</v>
       </c>
@@ -34036,7 +34036,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1439" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1439" s="1" t="s">
         <v>2349</v>
       </c>
@@ -34060,7 +34060,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1441" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1441" s="1" t="s">
         <v>2422</v>
       </c>
@@ -34132,7 +34132,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1447" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1447" s="1" t="s">
         <v>2424</v>
       </c>
@@ -34228,7 +34228,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1455" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1455" s="1" t="s">
         <v>1224</v>
       </c>
@@ -34564,7 +34564,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1483" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1483" s="1" t="s">
         <v>1774</v>
       </c>
@@ -34684,7 +34684,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1493" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1493" s="1" t="s">
         <v>1213</v>
       </c>
@@ -34960,7 +34960,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1516" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1516" s="1" t="s">
         <v>1881</v>
       </c>
@@ -34996,7 +34996,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1519" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1519" s="1" t="s">
         <v>2963</v>
       </c>
@@ -35104,7 +35104,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1528" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1528" s="1" t="s">
         <v>2238</v>
       </c>
@@ -35164,7 +35164,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1533" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1533" s="1" t="s">
         <v>1114</v>
       </c>
@@ -35188,7 +35188,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1535" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1535" s="1" t="s">
         <v>2484</v>
       </c>
@@ -35212,7 +35212,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1537" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1537" s="1" t="s">
         <v>1866</v>
       </c>
@@ -35236,7 +35236,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1539" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1539" s="1" t="s">
         <v>1755</v>
       </c>
@@ -35248,7 +35248,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1540" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1540" s="1" t="s">
         <v>1217</v>
       </c>
@@ -35272,7 +35272,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1542" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1542" s="1" t="s">
         <v>2114</v>
       </c>
@@ -35308,7 +35308,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1545" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1545" s="1" t="s">
         <v>1071</v>
       </c>
@@ -35332,7 +35332,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1547" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1547" s="1" t="s">
         <v>2224</v>
       </c>
@@ -35368,7 +35368,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1550" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1550" s="1" t="s">
         <v>1568</v>
       </c>
@@ -35392,7 +35392,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1552" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1552" s="1" t="s">
         <v>1240</v>
       </c>
@@ -35428,7 +35428,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1555" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1555" s="1" t="s">
         <v>1294</v>
       </c>
@@ -35452,7 +35452,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1557" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1557" s="1" t="s">
         <v>2148</v>
       </c>
@@ -35488,7 +35488,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1560" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1560" s="1" t="s">
         <v>1126</v>
       </c>
@@ -35620,7 +35620,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1571" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1571" s="1" t="s">
         <v>2763</v>
       </c>
@@ -35644,7 +35644,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1573" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1573" s="1" t="s">
         <v>2957</v>
       </c>
@@ -35668,7 +35668,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1575" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1575" s="1" t="s">
         <v>2096</v>
       </c>
@@ -35704,7 +35704,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1578" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1578" s="1" t="s">
         <v>2839</v>
       </c>
@@ -35752,7 +35752,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1582" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1582" s="1" t="s">
         <v>2477</v>
       </c>
@@ -35812,7 +35812,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1587" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1587" s="1" t="s">
         <v>1270</v>
       </c>
@@ -35944,7 +35944,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1598" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1598" s="1" t="s">
         <v>2606</v>
       </c>
@@ -36076,7 +36076,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1609" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1609" s="1" t="s">
         <v>1111</v>
       </c>
@@ -36196,7 +36196,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1619" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1619" s="1" t="s">
         <v>2242</v>
       </c>
@@ -36256,7 +36256,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1624" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1624" s="1" t="s">
         <v>1765</v>
       </c>
@@ -36400,7 +36400,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1636" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1636" s="1" t="s">
         <v>2410</v>
       </c>
@@ -36520,7 +36520,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1646" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1646" s="1" t="s">
         <v>1216</v>
       </c>
@@ -36532,7 +36532,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1647" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1647" s="1" t="s">
         <v>1222</v>
       </c>
@@ -36544,7 +36544,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1648" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1648" s="1" t="s">
         <v>2370</v>
       </c>
@@ -36556,7 +36556,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1649" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1649" s="1" t="s">
         <v>2347</v>
       </c>
@@ -36580,7 +36580,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1651" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1651" s="1" t="s">
         <v>2369</v>
       </c>
@@ -36688,7 +36688,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1660" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1660" s="1" t="s">
         <v>2597</v>
       </c>
@@ -36712,7 +36712,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1662" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1662" s="1" t="s">
         <v>2490</v>
       </c>
@@ -36808,7 +36808,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1670" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1670" s="1" t="s">
         <v>2972</v>
       </c>
@@ -36844,7 +36844,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1673" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1673" s="1" t="s">
         <v>2887</v>
       </c>
@@ -36868,7 +36868,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1675" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1675" s="1" t="s">
         <v>2641</v>
       </c>
@@ -36904,7 +36904,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1678" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1678" s="1" t="s">
         <v>1570</v>
       </c>
@@ -36916,7 +36916,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1679" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1679" s="1" t="s">
         <v>1158</v>
       </c>
@@ -36928,7 +36928,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1680" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1680" s="1" t="s">
         <v>1209</v>
       </c>
@@ -36952,7 +36952,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1682" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1682" s="1" t="s">
         <v>2078</v>
       </c>
@@ -36964,7 +36964,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1683" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1683" s="1" t="s">
         <v>3004</v>
       </c>
@@ -37024,7 +37024,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1688" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1688" s="1" t="s">
         <v>1580</v>
       </c>
@@ -37036,7 +37036,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1689" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1689" s="1" t="s">
         <v>1123</v>
       </c>
@@ -37048,7 +37048,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1690" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1690" s="1" t="s">
         <v>2100</v>
       </c>
@@ -37060,7 +37060,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1691" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1691" s="1" t="s">
         <v>2070</v>
       </c>
@@ -37072,7 +37072,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1692" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1692" s="1" t="s">
         <v>2159</v>
       </c>
@@ -37084,7 +37084,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1693" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1693" s="1" t="s">
         <v>2722</v>
       </c>
@@ -37096,7 +37096,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1694" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1694" s="1" t="s">
         <v>2022</v>
       </c>
@@ -37108,7 +37108,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1695" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1695" s="1" t="s">
         <v>1221</v>
       </c>
@@ -37120,7 +37120,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1696" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1696" s="1" t="s">
         <v>2239</v>
       </c>
@@ -37264,7 +37264,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1708" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1708" s="1" t="s">
         <v>1593</v>
       </c>
@@ -37276,7 +37276,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1709" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1709" s="1" t="s">
         <v>1161</v>
       </c>
@@ -37432,7 +37432,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1722" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1722" s="1" t="s">
         <v>2335</v>
       </c>
@@ -37444,7 +37444,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1723" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1723" s="1" t="s">
         <v>1762</v>
       </c>
@@ -37492,7 +37492,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1727" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1727" s="1" t="s">
         <v>1766</v>
       </c>
@@ -37864,7 +37864,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1758" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1758" s="1" t="s">
         <v>1990</v>
       </c>
@@ -37876,7 +37876,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1759" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1759" s="1" t="s">
         <v>2006</v>
       </c>
@@ -37888,7 +37888,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1760" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1760" s="1" t="s">
         <v>2977</v>
       </c>
@@ -37900,7 +37900,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1761" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1761" s="1" t="s">
         <v>2214</v>
       </c>
@@ -37924,7 +37924,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1763" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1763" s="1" t="s">
         <v>2220</v>
       </c>
@@ -37960,7 +37960,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1766" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1766" s="1" t="s">
         <v>1576</v>
       </c>
@@ -37972,7 +37972,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1767" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1767" s="1" t="s">
         <v>2460</v>
       </c>
@@ -37984,7 +37984,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1768" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1768" s="1" t="s">
         <v>2462</v>
       </c>
@@ -38008,7 +38008,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1770" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1770" s="1" t="s">
         <v>2464</v>
       </c>
@@ -38044,7 +38044,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1773" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1773" s="1" t="s">
         <v>2466</v>
       </c>
@@ -38056,7 +38056,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1774" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1774" s="1" t="s">
         <v>2468</v>
       </c>
@@ -38068,7 +38068,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1775" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1775" s="1" t="s">
         <v>2571</v>
       </c>
@@ -38080,7 +38080,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1776" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1776" s="1" t="s">
         <v>2567</v>
       </c>
@@ -38092,7 +38092,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1777" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1777" s="1" t="s">
         <v>1883</v>
       </c>
@@ -38116,7 +38116,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1779" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1779" s="1" t="s">
         <v>2648</v>
       </c>
@@ -38164,7 +38164,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1783" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1783" s="1" t="s">
         <v>2651</v>
       </c>
@@ -38176,7 +38176,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1784" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1784" s="1" t="s">
         <v>2655</v>
       </c>
@@ -38200,7 +38200,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1786" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1786" s="1" t="s">
         <v>2659</v>
       </c>
@@ -38212,7 +38212,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1787" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1787" s="1" t="s">
         <v>2663</v>
       </c>
@@ -38224,7 +38224,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1788" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1788" s="1" t="s">
         <v>2667</v>
       </c>
@@ -38236,7 +38236,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1789" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1789" s="1" t="s">
         <v>1116</v>
       </c>
@@ -38248,7 +38248,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1790" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1790" s="1" t="s">
         <v>1314</v>
       </c>
@@ -38260,7 +38260,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1791" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1791" s="1" t="s">
         <v>1143</v>
       </c>
@@ -38284,7 +38284,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1793" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1793" s="1" t="s">
         <v>2343</v>
       </c>
@@ -38320,7 +38320,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1796" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1796" s="1" t="s">
         <v>2413</v>
       </c>
@@ -38344,7 +38344,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1798" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1798" s="1" t="s">
         <v>2074</v>
       </c>
@@ -38356,7 +38356,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1799" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1799" s="1" t="s">
         <v>1329</v>
       </c>
@@ -38380,7 +38380,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1801" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1801" s="1" t="s">
         <v>1331</v>
       </c>
@@ -38416,7 +38416,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1804" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1804" s="1" t="s">
         <v>1740</v>
       </c>
@@ -38428,7 +38428,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1805" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1805" s="1" t="s">
         <v>2402</v>
       </c>
@@ -38464,7 +38464,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="1808" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1808" s="1" t="s">
         <v>2350</v>
       </c>
@@ -38500,7 +38500,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1811" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1811" s="1" t="s">
         <v>2204</v>
       </c>
@@ -38548,7 +38548,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1815" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1815" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1815" s="1" t="s">
         <v>2082</v>
       </c>
@@ -38596,7 +38596,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="1819" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1819" s="1" t="s">
         <v>1628</v>
       </c>
@@ -38608,7 +38608,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1820" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1820" s="1" t="s">
         <v>1097</v>
       </c>
@@ -38620,7 +38620,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1821" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1821" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1821" s="1" t="s">
         <v>2696</v>
       </c>
@@ -38644,7 +38644,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1823" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1823" s="1" t="s">
         <v>2607</v>
       </c>
@@ -38656,7 +38656,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1824" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1824" s="1" t="s">
         <v>2027</v>
       </c>
@@ -38668,7 +38668,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1825" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1825" s="1" t="s">
         <v>2028</v>
       </c>
@@ -38680,7 +38680,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1826" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1826" s="1" t="s">
         <v>2031</v>
       </c>
@@ -38692,7 +38692,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1827" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1827" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1827" s="1" t="s">
         <v>2033</v>
       </c>
@@ -38704,7 +38704,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1828" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1828" s="1" t="s">
         <v>2037</v>
       </c>
@@ -38728,7 +38728,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1830" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1830" s="1" t="s">
         <v>2372</v>
       </c>
@@ -38764,7 +38764,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1833" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1833" s="1" t="s">
         <v>2683</v>
       </c>
@@ -38776,7 +38776,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1834" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1834" s="1" t="s">
         <v>2368</v>
       </c>
@@ -38800,7 +38800,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1836" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1836" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1836" s="1" t="s">
         <v>2827</v>
       </c>
@@ -38824,7 +38824,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1838" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1838" s="1" t="s">
         <v>1402</v>
       </c>
@@ -38836,7 +38836,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1839" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1839" s="1" t="s">
         <v>2992</v>
       </c>
@@ -38848,7 +38848,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1840" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1840" s="1" t="s">
         <v>1305</v>
       </c>
@@ -38908,7 +38908,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1845" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1845" s="1" t="s">
         <v>1101</v>
       </c>
@@ -38944,7 +38944,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1848" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1848" s="1" t="s">
         <v>1493</v>
       </c>
@@ -38956,7 +38956,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1849" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1849" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1849" s="1" t="s">
         <v>2988</v>
       </c>
@@ -38968,7 +38968,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1850" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1850" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1850" s="1" t="s">
         <v>2601</v>
       </c>
@@ -38980,7 +38980,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1851" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1851" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1851" s="1" t="s">
         <v>1266</v>
       </c>
@@ -38992,7 +38992,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1852" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1852" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1852" s="1" t="s">
         <v>1463</v>
       </c>
@@ -39016,7 +39016,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1854" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1854" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1854" s="1" t="s">
         <v>9</v>
       </c>
@@ -39028,7 +39028,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1855" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1855" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1855" s="1" t="s">
         <v>1355</v>
       </c>
@@ -39040,7 +39040,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1856" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1856" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1856" s="1" t="s">
         <v>2210</v>
       </c>
@@ -39076,7 +39076,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1859" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1859" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1859" s="1" t="s">
         <v>1622</v>
       </c>
@@ -39100,7 +39100,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1861" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1861" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1861" s="1" t="s">
         <v>1625</v>
       </c>
@@ -39112,7 +39112,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1862" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1862" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1862" s="1" t="s">
         <v>1631</v>
       </c>
@@ -39136,7 +39136,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1864" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1864" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1864" s="1" t="s">
         <v>2297</v>
       </c>
@@ -39160,7 +39160,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1866" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1866" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1866" s="1" t="s">
         <v>2217</v>
       </c>
@@ -39184,7 +39184,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1868" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1868" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1868" s="1" t="s">
         <v>1759</v>
       </c>
@@ -39196,7 +39196,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1869" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1869" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1869" s="1" t="s">
         <v>2691</v>
       </c>
@@ -39208,7 +39208,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1870" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1870" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1870" s="1" t="s">
         <v>1779</v>
       </c>
@@ -39220,7 +39220,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1871" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1871" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1871" s="1" t="s">
         <v>1946</v>
       </c>
@@ -39232,7 +39232,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1872" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1872" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1872" s="1" t="s">
         <v>2626</v>
       </c>
@@ -39244,7 +39244,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1873" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1873" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1873" s="1" t="s">
         <v>2303</v>
       </c>
@@ -39256,7 +39256,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1874" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1874" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1874" s="1" t="s">
         <v>22</v>
       </c>
@@ -39268,7 +39268,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1875" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1875" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1875" s="1" t="s">
         <v>1200</v>
       </c>
@@ -39292,7 +39292,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1877" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1877" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1877" s="1" t="s">
         <v>2959</v>
       </c>
@@ -39304,7 +39304,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1878" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1878" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1878" s="1" t="s">
         <v>2967</v>
       </c>
@@ -39316,7 +39316,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1879" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1879" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1879" s="1" t="s">
         <v>2615</v>
       </c>
@@ -39328,7 +39328,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1880" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1880" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1880" s="1" t="s">
         <v>2323</v>
       </c>
@@ -39340,7 +39340,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1881" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1881" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1881" s="1" t="s">
         <v>2488</v>
       </c>
@@ -39352,7 +39352,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1882" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1882" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1882" s="1" t="s">
         <v>3021</v>
       </c>
@@ -39364,7 +39364,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1883" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1883" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1883" s="1" t="s">
         <v>3023</v>
       </c>
@@ -39376,7 +39376,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1884" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1884" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1884" s="1" t="s">
         <v>2824</v>
       </c>
@@ -39388,7 +39388,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1885" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1885" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1885" s="1" t="s">
         <v>33</v>
       </c>
@@ -39400,7 +39400,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1886" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1886" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1886" s="1" t="s">
         <v>2163</v>
       </c>
@@ -39412,7 +39412,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1887" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1887" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1887" s="1" t="s">
         <v>1318</v>
       </c>
@@ -39424,7 +39424,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1888" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1888" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1888" s="1" t="s">
         <v>1081</v>
       </c>
@@ -39436,7 +39436,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1889" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1889" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1889" s="1" t="s">
         <v>1923</v>
       </c>
@@ -39448,7 +39448,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1890" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1890" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1890" s="1" t="s">
         <v>2530</v>
       </c>
@@ -39472,7 +39472,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1892" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1892" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1892" s="1" t="s">
         <v>2534</v>
       </c>
@@ -39484,7 +39484,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1893" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1893" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1893" s="1" t="s">
         <v>2538</v>
       </c>
@@ -39496,7 +39496,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1894" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1894" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1894" s="1" t="s">
         <v>1926</v>
       </c>
@@ -39520,7 +39520,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1896" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1896" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1896" s="1" t="s">
         <v>1352</v>
       </c>
@@ -39532,7 +39532,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1897" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1897" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1897" s="1" t="s">
         <v>2542</v>
       </c>
@@ -39556,7 +39556,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1899" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1899" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1899" s="1" t="s">
         <v>2357</v>
       </c>
@@ -39568,7 +39568,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1900" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1900" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1900" s="1" t="s">
         <v>2545</v>
       </c>
@@ -39580,7 +39580,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1901" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1901" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1901" s="1" t="s">
         <v>2575</v>
       </c>
@@ -39592,7 +39592,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1902" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1902" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1902" s="1" t="s">
         <v>2519</v>
       </c>
@@ -39616,7 +39616,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1904" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1904" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1904" s="1" t="s">
         <v>1108</v>
       </c>
@@ -39640,7 +39640,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1906" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1906" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1906" s="1" t="s">
         <v>1460</v>
       </c>
@@ -39664,7 +39664,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1908" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1908" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1908" s="1" t="s">
         <v>2739</v>
       </c>
@@ -39676,7 +39676,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1909" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1909" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1909" s="1" t="s">
         <v>2911</v>
       </c>
@@ -39688,7 +39688,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1910" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1910" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1910" s="1" t="s">
         <v>2181</v>
       </c>
@@ -39700,7 +39700,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1911" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1911" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1911" s="1" t="s">
         <v>1974</v>
       </c>
@@ -39712,7 +39712,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1912" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1912" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1912" s="1" t="s">
         <v>2712</v>
       </c>
@@ -39724,7 +39724,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1913" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1913" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1913" s="1" t="s">
         <v>1652</v>
       </c>
@@ -39736,7 +39736,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1914" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1914" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1914" s="1" t="s">
         <v>1419</v>
       </c>
@@ -39760,7 +39760,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1916" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1916" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1916" s="1" t="s">
         <v>2201</v>
       </c>
@@ -39772,7 +39772,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1917" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1917" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1917" s="1" t="s">
         <v>2030</v>
       </c>
@@ -39784,7 +39784,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1918" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1918" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1918" s="1" t="s">
         <v>2826</v>
       </c>
@@ -39808,7 +39808,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1920" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1920" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1920" s="1" t="s">
         <v>1514</v>
       </c>
@@ -39844,7 +39844,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1923" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1923" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1923" s="1" t="s">
         <v>2393</v>
       </c>
@@ -39856,7 +39856,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1924" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1924" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1924" s="1" t="s">
         <v>2353</v>
       </c>
@@ -39868,7 +39868,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1925" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1925" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1925" s="1" t="s">
         <v>2638</v>
       </c>
@@ -39880,7 +39880,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1926" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1926" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1926" s="1" t="s">
         <v>1190</v>
       </c>
@@ -39892,7 +39892,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1927" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1927" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1927" s="1" t="s">
         <v>1185</v>
       </c>
@@ -39904,7 +39904,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1928" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1928" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1928" s="1" t="s">
         <v>2298</v>
       </c>
@@ -39916,7 +39916,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1929" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1929" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1929" s="1" t="s">
         <v>2718</v>
       </c>
@@ -39952,7 +39952,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1932" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1932" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1932" s="1" t="s">
         <v>1393</v>
       </c>
@@ -39964,7 +39964,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1933" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1933" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1933" s="1" t="s">
         <v>2511</v>
       </c>
@@ -40000,7 +40000,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1936" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1936" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1936" s="1" t="s">
         <v>2409</v>
       </c>
@@ -40036,7 +40036,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1939" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1939" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1939" s="1" t="s">
         <v>2411</v>
       </c>
@@ -54370,8 +54370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB835E14-5A69-4171-BEB0-A92EAC97E39C}">
   <dimension ref="A1:C146"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56145,8 +56145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F845C5-1DFB-4DB9-9EFF-7FD24A274361}">
   <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EE/generated/referenceTable.xlsx
+++ b/EE/generated/referenceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\generated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91562138-BE7A-4F57-BB74-AF2C0638C5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB66B12-5531-41E2-85D7-4DC888FECB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23205" yWindow="1860" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10770" activeTab="5" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Block A" sheetId="4" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="Block D" sheetId="7" r:id="rId3"/>
     <sheet name="Block E" sheetId="8" r:id="rId4"/>
     <sheet name="Block F" sheetId="9" r:id="rId5"/>
+    <sheet name="Block G" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Block D'!$A$1:$C$184</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Block E'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Block F'!$A$1:$C$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Block G'!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5564" uniqueCount="5443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5795" uniqueCount="5655">
   <si>
     <t>aasim.cre</t>
   </si>
@@ -16375,6 +16376,642 @@
   </si>
   <si>
     <t>xad110.itm</t>
+  </si>
+  <si>
+    <t>bd4500.are</t>
+  </si>
+  <si>
+    <t>xag100.are</t>
+  </si>
+  <si>
+    <t>bd4600.are</t>
+  </si>
+  <si>
+    <t>xag101.are</t>
+  </si>
+  <si>
+    <t>bd4601.are</t>
+  </si>
+  <si>
+    <t>xag102.are</t>
+  </si>
+  <si>
+    <t>bd4700.are</t>
+  </si>
+  <si>
+    <t>xag103.are</t>
+  </si>
+  <si>
+    <t>bd5300.are</t>
+  </si>
+  <si>
+    <t>xag104.are</t>
+  </si>
+  <si>
+    <t>bdlemurd.cre</t>
+  </si>
+  <si>
+    <t>xag100.cre</t>
+  </si>
+  <si>
+    <t>bdabis1d.cre</t>
+  </si>
+  <si>
+    <t>xag102.cre</t>
+  </si>
+  <si>
+    <t>bdimpd.cre</t>
+  </si>
+  <si>
+    <t>xag103.cre</t>
+  </si>
+  <si>
+    <t>bdabis2d.cre</t>
+  </si>
+  <si>
+    <t>xag104.cre</t>
+  </si>
+  <si>
+    <t>bdcrus5d.cre</t>
+  </si>
+  <si>
+    <t>xag106.cre</t>
+  </si>
+  <si>
+    <t>bdlemure.cre</t>
+  </si>
+  <si>
+    <t>xag107.cre</t>
+  </si>
+  <si>
+    <t>bdimp.cre</t>
+  </si>
+  <si>
+    <t>xag110.cre</t>
+  </si>
+  <si>
+    <t>bdabibla.cre</t>
+  </si>
+  <si>
+    <t>xag111.cre</t>
+  </si>
+  <si>
+    <t>bdabigre.cre</t>
+  </si>
+  <si>
+    <t>xag112.cre</t>
+  </si>
+  <si>
+    <t>bdabired.cre</t>
+  </si>
+  <si>
+    <t>xag113.cre</t>
+  </si>
+  <si>
+    <t>bdhamatu.cre</t>
+  </si>
+  <si>
+    <t>xag114.cre</t>
+  </si>
+  <si>
+    <t>bdbonefi.cre</t>
+  </si>
+  <si>
+    <t>xag115.cre</t>
+  </si>
+  <si>
+    <t>bdxhost.cre</t>
+  </si>
+  <si>
+    <t>xag116.cre</t>
+  </si>
+  <si>
+    <t>bdcrue52.cre</t>
+  </si>
+  <si>
+    <t>xag121.cre</t>
+  </si>
+  <si>
+    <t>bdcut57b.cre</t>
+  </si>
+  <si>
+    <t>xag122.cre</t>
+  </si>
+  <si>
+    <t>bdcrue53.cre</t>
+  </si>
+  <si>
+    <t>xag123.cre</t>
+  </si>
+  <si>
+    <t>bdcrue54.cre</t>
+  </si>
+  <si>
+    <t>xag124.cre</t>
+  </si>
+  <si>
+    <t>bdcut57a.cre</t>
+  </si>
+  <si>
+    <t>xag125.cre</t>
+  </si>
+  <si>
+    <t>bdcrue50.cre</t>
+  </si>
+  <si>
+    <t>xag128.cre</t>
+  </si>
+  <si>
+    <t>bdcut57c.cre</t>
+  </si>
+  <si>
+    <t>xag129.cre</t>
+  </si>
+  <si>
+    <t>bdcrue51.cre</t>
+  </si>
+  <si>
+    <t>xag132.cre</t>
+  </si>
+  <si>
+    <t>bdcrus6d.cre</t>
+  </si>
+  <si>
+    <t>xag136.cre</t>
+  </si>
+  <si>
+    <t>bdcrus7d.cre</t>
+  </si>
+  <si>
+    <t>xag137.cre</t>
+  </si>
+  <si>
+    <t>bdlcore.baf</t>
+  </si>
+  <si>
+    <t>xag100.baf</t>
+  </si>
+  <si>
+    <t>bdlhard.baf</t>
+  </si>
+  <si>
+    <t>xag101.baf</t>
+  </si>
+  <si>
+    <t>bdlinsa.baf</t>
+  </si>
+  <si>
+    <t>xag102.baf</t>
+  </si>
+  <si>
+    <t>bddoorav.baf</t>
+  </si>
+  <si>
+    <t>xag103.baf</t>
+  </si>
+  <si>
+    <t>bdhellbr.baf</t>
+  </si>
+  <si>
+    <t>xag104.baf</t>
+  </si>
+  <si>
+    <t>bdinfo12.baf</t>
+  </si>
+  <si>
+    <t>xag105.baf</t>
+  </si>
+  <si>
+    <t>bdelev01.baf</t>
+  </si>
+  <si>
+    <t>xag106.baf</t>
+  </si>
+  <si>
+    <t>bdelev02.baf</t>
+  </si>
+  <si>
+    <t>xag108.baf</t>
+  </si>
+  <si>
+    <t>bddmspwn.baf</t>
+  </si>
+  <si>
+    <t>xag120.baf</t>
+  </si>
+  <si>
+    <t>gt027.baf</t>
+  </si>
+  <si>
+    <t>xag121.baf</t>
+  </si>
+  <si>
+    <t>bdgt010.baf</t>
+  </si>
+  <si>
+    <t>xag122.baf</t>
+  </si>
+  <si>
+    <t>bdfugue.baf</t>
+  </si>
+  <si>
+    <t>xag123.baf</t>
+  </si>
+  <si>
+    <t>bdavernu.baf</t>
+  </si>
+  <si>
+    <t>xag136.baf</t>
+  </si>
+  <si>
+    <t>bdimp.baf</t>
+  </si>
+  <si>
+    <t>xag127.baf</t>
+  </si>
+  <si>
+    <t>xag126.baf</t>
+  </si>
+  <si>
+    <t>xag125.baf</t>
+  </si>
+  <si>
+    <t>bdlemure.baf</t>
+  </si>
+  <si>
+    <t>xag124.baf</t>
+  </si>
+  <si>
+    <t>bdenshtv.baf</t>
+  </si>
+  <si>
+    <t>xag139.baf</t>
+  </si>
+  <si>
+    <t>bdnonin.baf</t>
+  </si>
+  <si>
+    <t>xag141.baf</t>
+  </si>
+  <si>
+    <t>bdfig00.baf</t>
+  </si>
+  <si>
+    <t>xag144.baf</t>
+  </si>
+  <si>
+    <t>bdabisha.baf</t>
+  </si>
+  <si>
+    <t>xag146.baf</t>
+  </si>
+  <si>
+    <t>bdhamatu.baf</t>
+  </si>
+  <si>
+    <t>xag155.baf</t>
+  </si>
+  <si>
+    <t>bdbonefi.baf</t>
+  </si>
+  <si>
+    <t>xag158.baf</t>
+  </si>
+  <si>
+    <t>bdmisc01.baf</t>
+  </si>
+  <si>
+    <t>xag160.baf</t>
+  </si>
+  <si>
+    <t>bdxhost.baf</t>
+  </si>
+  <si>
+    <t>xag161.baf</t>
+  </si>
+  <si>
+    <t>bdglabre.baf</t>
+  </si>
+  <si>
+    <t>xag163.baf</t>
+  </si>
+  <si>
+    <t>ambd4400.wav</t>
+  </si>
+  <si>
+    <t>xag10000.wav</t>
+  </si>
+  <si>
+    <t>ambdlva1.wav</t>
+  </si>
+  <si>
+    <t>xag10001.wav</t>
+  </si>
+  <si>
+    <t>ambd4600.wav</t>
+  </si>
+  <si>
+    <t>xag10002.wav</t>
+  </si>
+  <si>
+    <t>ambd4601.wav</t>
+  </si>
+  <si>
+    <t>xag10004.wav</t>
+  </si>
+  <si>
+    <t>ambd4700.wav</t>
+  </si>
+  <si>
+    <t>xag10006.wav</t>
+  </si>
+  <si>
+    <t>ambd5300.wav</t>
+  </si>
+  <si>
+    <t>xag10008.wav</t>
+  </si>
+  <si>
+    <t>ambdcwnd.wav</t>
+  </si>
+  <si>
+    <t>xag10009.wav</t>
+  </si>
+  <si>
+    <t>ambddwnd.wav</t>
+  </si>
+  <si>
+    <t>xag10010.wav</t>
+  </si>
+  <si>
+    <t>ambdmtl1.wav</t>
+  </si>
+  <si>
+    <t>xag10011.wav</t>
+  </si>
+  <si>
+    <t>ambdmtl2.wav</t>
+  </si>
+  <si>
+    <t>xag10012.wav</t>
+  </si>
+  <si>
+    <t>ambdmtl3.wav</t>
+  </si>
+  <si>
+    <t>xag10013.wav</t>
+  </si>
+  <si>
+    <t>ambdmtl4.wav</t>
+  </si>
+  <si>
+    <t>xag10014.wav</t>
+  </si>
+  <si>
+    <t>ambdmtl5.wav</t>
+  </si>
+  <si>
+    <t>xag10015.wav</t>
+  </si>
+  <si>
+    <t>xag10016.wav</t>
+  </si>
+  <si>
+    <t>xag10017.wav</t>
+  </si>
+  <si>
+    <t>xag10018.wav</t>
+  </si>
+  <si>
+    <t>xag10019.wav</t>
+  </si>
+  <si>
+    <t>xag10020.wav</t>
+  </si>
+  <si>
+    <t>xag10021.wav</t>
+  </si>
+  <si>
+    <t>xag10022.wav</t>
+  </si>
+  <si>
+    <t>xag10023.wav</t>
+  </si>
+  <si>
+    <t>xag10024.wav</t>
+  </si>
+  <si>
+    <t>xag10025.wav</t>
+  </si>
+  <si>
+    <t>xag10026.wav</t>
+  </si>
+  <si>
+    <t>bd4500.wed</t>
+  </si>
+  <si>
+    <t>xag100.wed</t>
+  </si>
+  <si>
+    <t>bd4600.wed</t>
+  </si>
+  <si>
+    <t>xag101.wed</t>
+  </si>
+  <si>
+    <t>bd4601.wed</t>
+  </si>
+  <si>
+    <t>xag102.wed</t>
+  </si>
+  <si>
+    <t>bd4700.wed</t>
+  </si>
+  <si>
+    <t>xag103.wed</t>
+  </si>
+  <si>
+    <t>bd5300.wed</t>
+  </si>
+  <si>
+    <t>xag104.wed</t>
+  </si>
+  <si>
+    <t>bdflam03.bam</t>
+  </si>
+  <si>
+    <t>xag100.bam</t>
+  </si>
+  <si>
+    <t>bdflam04.bam</t>
+  </si>
+  <si>
+    <t>xag109.bam</t>
+  </si>
+  <si>
+    <t>bdflam02.bam</t>
+  </si>
+  <si>
+    <t>xag112.bam</t>
+  </si>
+  <si>
+    <t>bdfug01.bam</t>
+  </si>
+  <si>
+    <t>xag146.bam</t>
+  </si>
+  <si>
+    <t>bdfug02.bam</t>
+  </si>
+  <si>
+    <t>xag147.bam</t>
+  </si>
+  <si>
+    <t>bdfug03.bam</t>
+  </si>
+  <si>
+    <t>xag148.bam</t>
+  </si>
+  <si>
+    <t>bdfug04.bam</t>
+  </si>
+  <si>
+    <t>xag149.bam</t>
+  </si>
+  <si>
+    <t>ibda1h02.bam</t>
+  </si>
+  <si>
+    <t>xag150.bam</t>
+  </si>
+  <si>
+    <t>ibdrob03.bam</t>
+  </si>
+  <si>
+    <t>xag151.bam</t>
+  </si>
+  <si>
+    <t>ibdchn02.bam</t>
+  </si>
+  <si>
+    <t>xag152.bam</t>
+  </si>
+  <si>
+    <t>xag153.bam</t>
+  </si>
+  <si>
+    <t>bdax1h02.itm</t>
+  </si>
+  <si>
+    <t>xag100.itm</t>
+  </si>
+  <si>
+    <t>bdrobe03.itm</t>
+  </si>
+  <si>
+    <t>xag101.itm</t>
+  </si>
+  <si>
+    <t>bdstaf02.itm</t>
+  </si>
+  <si>
+    <t>xag102.itm</t>
+  </si>
+  <si>
+    <t>bdchan02.itm</t>
+  </si>
+  <si>
+    <t>xag103.itm</t>
+  </si>
+  <si>
+    <t>bdmisc21.itm</t>
+  </si>
+  <si>
+    <t>xag104.itm</t>
+  </si>
+  <si>
+    <t>bdimp.itm</t>
+  </si>
+  <si>
+    <t>xag105.itm</t>
+  </si>
+  <si>
+    <t>bdabisha.itm</t>
+  </si>
+  <si>
+    <t>xag106.itm</t>
+  </si>
+  <si>
+    <t>bdhamat2.itm</t>
+  </si>
+  <si>
+    <t>xag109.itm</t>
+  </si>
+  <si>
+    <t>bdhamat1.itm</t>
+  </si>
+  <si>
+    <t>xag110.itm</t>
+  </si>
+  <si>
+    <t>bdbonefi.itm</t>
+  </si>
+  <si>
+    <t>xag111.itm</t>
+  </si>
+  <si>
+    <t>bdmisc1b.itm</t>
+  </si>
+  <si>
+    <t>xag112.itm</t>
+  </si>
+  <si>
+    <t>bdglabre.itm</t>
+  </si>
+  <si>
+    <t>xag113.itm</t>
+  </si>
+  <si>
+    <t>bdspectq.itm</t>
+  </si>
+  <si>
+    <t>xag114.itm</t>
+  </si>
+  <si>
+    <t>xag115.itm</t>
+  </si>
+  <si>
+    <t>xag121.itm</t>
+  </si>
+  <si>
+    <t>bd4500.tis</t>
+  </si>
+  <si>
+    <t>xag100.tis</t>
+  </si>
+  <si>
+    <t>bd4600.tis</t>
+  </si>
+  <si>
+    <t>xag101.tis</t>
+  </si>
+  <si>
+    <t>bd4601.tis</t>
+  </si>
+  <si>
+    <t>xag102.tis</t>
+  </si>
+  <si>
+    <t>bd4700.tis</t>
+  </si>
+  <si>
+    <t>xag103.tis</t>
+  </si>
+  <si>
+    <t>bd5300.tis</t>
+  </si>
+  <si>
+    <t>xag104.tis</t>
   </si>
 </sst>
 </file>
@@ -40404,7 +41041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB835E14-5A69-4171-BEB0-A92EAC97E39C}">
   <dimension ref="A1:C629"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B629"/>
     </sheetView>
   </sheetViews>
@@ -41970,7 +42607,7 @@
         <v>5211</v>
       </c>
       <c r="C130" s="1" t="str">
-        <f t="shared" ref="C130:C161" si="4">RIGHT(B130,3)</f>
+        <f t="shared" ref="C130:C131" si="4">RIGHT(B130,3)</f>
         <v>cre</v>
       </c>
     </row>
@@ -50317,7 +50954,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50534,4 +51171,1404 @@
   <autoFilter ref="A1:C17" xr:uid="{01E8623B-C35F-4C36-A333-CEFB77482F0A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F0131F-33AF-4648-9455-CFE6248322BD}">
+  <dimension ref="A1:C115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5443</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5444</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f t="shared" ref="C2:C65" si="0">RIGHT(B2,3)</f>
+        <v>are</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5445</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5446</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>are</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5447</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5448</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>are</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5449</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5450</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>are</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5451</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5452</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>are</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5453</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5454</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5455</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5456</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5457</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5458</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5459</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5460</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5461</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5462</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5463</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5464</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5465</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5466</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5467</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5468</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5469</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5470</v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5471</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5472</v>
+      </c>
+      <c r="C16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5473</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5474</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5475</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5476</v>
+      </c>
+      <c r="C18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>5477</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5478</v>
+      </c>
+      <c r="C19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5479</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5480</v>
+      </c>
+      <c r="C20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>5481</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5482</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5483</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5484</v>
+      </c>
+      <c r="C22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>5485</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5486</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>5487</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="C24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5489</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5490</v>
+      </c>
+      <c r="C25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5491</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5492</v>
+      </c>
+      <c r="C26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5493</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5494</v>
+      </c>
+      <c r="C27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5496</v>
+      </c>
+      <c r="C28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5497</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5498</v>
+      </c>
+      <c r="C29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5499</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5500</v>
+      </c>
+      <c r="C30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5501</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5502</v>
+      </c>
+      <c r="C31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5503</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5504</v>
+      </c>
+      <c r="C32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5505</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5506</v>
+      </c>
+      <c r="C33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5507</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5508</v>
+      </c>
+      <c r="C34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5509</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>5510</v>
+      </c>
+      <c r="C35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5511</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5512</v>
+      </c>
+      <c r="C36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5513</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5514</v>
+      </c>
+      <c r="C37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5515</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>5516</v>
+      </c>
+      <c r="C38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>5517</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>5518</v>
+      </c>
+      <c r="C39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5519</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5520</v>
+      </c>
+      <c r="C40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>5521</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>5522</v>
+      </c>
+      <c r="C41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>5523</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5524</v>
+      </c>
+      <c r="C42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>5525</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>5526</v>
+      </c>
+      <c r="C43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>5527</v>
+      </c>
+      <c r="C44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>5528</v>
+      </c>
+      <c r="C45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>5529</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>5530</v>
+      </c>
+      <c r="C46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>5531</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>5532</v>
+      </c>
+      <c r="C47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>5533</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>5534</v>
+      </c>
+      <c r="C48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>5535</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>5536</v>
+      </c>
+      <c r="C49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>5537</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>5538</v>
+      </c>
+      <c r="C50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>5539</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>5540</v>
+      </c>
+      <c r="C51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>5541</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5542</v>
+      </c>
+      <c r="C52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5544</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>5545</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>5546</v>
+      </c>
+      <c r="C54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>5547</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>5548</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>5549</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>5550</v>
+      </c>
+      <c r="C56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>5551</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>5552</v>
+      </c>
+      <c r="C57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>5553</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>5554</v>
+      </c>
+      <c r="C58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>5555</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>5556</v>
+      </c>
+      <c r="C59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>5557</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>5558</v>
+      </c>
+      <c r="C60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>5559</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>5560</v>
+      </c>
+      <c r="C61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>5561</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>5562</v>
+      </c>
+      <c r="C62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>5563</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>5564</v>
+      </c>
+      <c r="C63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>5565</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>5566</v>
+      </c>
+      <c r="C64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>5567</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>5568</v>
+      </c>
+      <c r="C65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>5569</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>5570</v>
+      </c>
+      <c r="C66" s="5" t="str">
+        <f t="shared" ref="C66:C115" si="1">RIGHT(B66,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>5571</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>5572</v>
+      </c>
+      <c r="C67" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>5573</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>5574</v>
+      </c>
+      <c r="C68" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>5575</v>
+      </c>
+      <c r="C69" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>5576</v>
+      </c>
+      <c r="C70" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>5577</v>
+      </c>
+      <c r="C71" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>4943</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>5578</v>
+      </c>
+      <c r="C72" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>5579</v>
+      </c>
+      <c r="C73" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>5580</v>
+      </c>
+      <c r="C74" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>5581</v>
+      </c>
+      <c r="C75" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>5582</v>
+      </c>
+      <c r="C76" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>5583</v>
+      </c>
+      <c r="C77" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>5584</v>
+      </c>
+      <c r="C78" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>5585</v>
+      </c>
+      <c r="C79" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>5586</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>5587</v>
+      </c>
+      <c r="C80" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wed</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>5588</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="C81" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wed</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>5590</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>5591</v>
+      </c>
+      <c r="C82" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wed</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>5592</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>5593</v>
+      </c>
+      <c r="C83" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wed</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>5594</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>5595</v>
+      </c>
+      <c r="C84" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wed</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>5596</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>5597</v>
+      </c>
+      <c r="C85" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>5598</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>5599</v>
+      </c>
+      <c r="C86" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>5600</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>5601</v>
+      </c>
+      <c r="C87" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>5602</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>5603</v>
+      </c>
+      <c r="C88" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>5604</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>5605</v>
+      </c>
+      <c r="C89" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>5606</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>5607</v>
+      </c>
+      <c r="C90" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>5608</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>5609</v>
+      </c>
+      <c r="C91" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>5610</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>5611</v>
+      </c>
+      <c r="C92" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>5612</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>5613</v>
+      </c>
+      <c r="C93" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>5614</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>5615</v>
+      </c>
+      <c r="C94" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>5616</v>
+      </c>
+      <c r="C95" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>5617</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5618</v>
+      </c>
+      <c r="C96" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>5619</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>5620</v>
+      </c>
+      <c r="C97" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>5621</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>5622</v>
+      </c>
+      <c r="C98" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>5623</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>5624</v>
+      </c>
+      <c r="C99" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>5625</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>5626</v>
+      </c>
+      <c r="C100" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>5627</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>5628</v>
+      </c>
+      <c r="C101" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>5629</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>5630</v>
+      </c>
+      <c r="C102" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>5631</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>5632</v>
+      </c>
+      <c r="C103" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>5633</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>5634</v>
+      </c>
+      <c r="C104" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>5635</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>5636</v>
+      </c>
+      <c r="C105" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>5637</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>5638</v>
+      </c>
+      <c r="C106" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>5639</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>5640</v>
+      </c>
+      <c r="C107" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>5641</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>5642</v>
+      </c>
+      <c r="C108" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>5643</v>
+      </c>
+      <c r="C109" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>3431</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>5644</v>
+      </c>
+      <c r="C110" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>5645</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>5646</v>
+      </c>
+      <c r="C111" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>tis</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>5647</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>5648</v>
+      </c>
+      <c r="C112" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>tis</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>5649</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>5650</v>
+      </c>
+      <c r="C113" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>tis</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>5651</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>5652</v>
+      </c>
+      <c r="C114" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>tis</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>5653</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>5654</v>
+      </c>
+      <c r="C115" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>tis</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{90F0131F-33AF-4648-9455-CFE6248322BD}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EE/generated/referenceTable.xlsx
+++ b/EE/generated/referenceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\generated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0E8250-1618-4C97-849C-6DA84F187590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B45B95-5029-416C-8F8A-515BEA77DE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25050" yWindow="1935" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
+    <workbookView minimized="1" xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7785" activeTab="5" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Block A" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Block D'!$A$1:$C$184</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Block E'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Block F'!$A$1:$C$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Block G'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Block G'!$A$1:$C$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5747" uniqueCount="5608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5743" uniqueCount="5604">
   <si>
     <t>aasim.cre</t>
   </si>
@@ -16045,9 +16045,6 @@
     <t>bdabis1d.cre</t>
   </si>
   <si>
-    <t>xag102.cre</t>
-  </si>
-  <si>
     <t>bdimpd.cre</t>
   </si>
   <si>
@@ -16063,9 +16060,6 @@
     <t>bdcrus5d.cre</t>
   </si>
   <si>
-    <t>xag106.cre</t>
-  </si>
-  <si>
     <t>bdlemure.cre</t>
   </si>
   <si>
@@ -16075,9 +16069,6 @@
     <t>bdimp.cre</t>
   </si>
   <si>
-    <t>xag110.cre</t>
-  </si>
-  <si>
     <t>bdabibla.cre</t>
   </si>
   <si>
@@ -16108,18 +16099,12 @@
     <t>xag115.cre</t>
   </si>
   <si>
-    <t>bdxhost.cre</t>
-  </si>
-  <si>
     <t>xag116.cre</t>
   </si>
   <si>
     <t>bdcrue52.cre</t>
   </si>
   <si>
-    <t>xag121.cre</t>
-  </si>
-  <si>
     <t>bdcut57b.cre</t>
   </si>
   <si>
@@ -16147,9 +16132,6 @@
     <t>bdcrue50.cre</t>
   </si>
   <si>
-    <t>xag128.cre</t>
-  </si>
-  <si>
     <t>bdcut57c.cre</t>
   </si>
   <si>
@@ -16159,15 +16141,9 @@
     <t>bdcrue51.cre</t>
   </si>
   <si>
-    <t>xag132.cre</t>
-  </si>
-  <si>
     <t>bdcrus6d.cre</t>
   </si>
   <si>
-    <t>xag136.cre</t>
-  </si>
-  <si>
     <t>bdcrus7d.cre</t>
   </si>
   <si>
@@ -16249,9 +16225,6 @@
     <t>bdavernu.baf</t>
   </si>
   <si>
-    <t>xag136.baf</t>
-  </si>
-  <si>
     <t>bdimp.baf</t>
   </si>
   <si>
@@ -16273,57 +16246,21 @@
     <t>bdenshtv.baf</t>
   </si>
   <si>
-    <t>xag139.baf</t>
-  </si>
-  <si>
     <t>bdnonin.baf</t>
   </si>
   <si>
-    <t>xag141.baf</t>
-  </si>
-  <si>
     <t>bdfig00.baf</t>
   </si>
   <si>
-    <t>xag144.baf</t>
-  </si>
-  <si>
     <t>bdabisha.baf</t>
   </si>
   <si>
-    <t>xag146.baf</t>
-  </si>
-  <si>
     <t>bdhamatu.baf</t>
   </si>
   <si>
-    <t>xag155.baf</t>
-  </si>
-  <si>
     <t>bdbonefi.baf</t>
   </si>
   <si>
-    <t>xag158.baf</t>
-  </si>
-  <si>
-    <t>bdmisc01.baf</t>
-  </si>
-  <si>
-    <t>xag160.baf</t>
-  </si>
-  <si>
-    <t>bdxhost.baf</t>
-  </si>
-  <si>
-    <t>xag161.baf</t>
-  </si>
-  <si>
-    <t>bdglabre.baf</t>
-  </si>
-  <si>
-    <t>xag163.baf</t>
-  </si>
-  <si>
     <t>ambd4400.wav</t>
   </si>
   <si>
@@ -16573,9 +16510,6 @@
     <t>bdhamat2.itm</t>
   </si>
   <si>
-    <t>xag109.itm</t>
-  </si>
-  <si>
     <t>bdhamat1.itm</t>
   </si>
   <si>
@@ -16588,30 +16522,12 @@
     <t>xag111.itm</t>
   </si>
   <si>
-    <t>bdmisc1b.itm</t>
-  </si>
-  <si>
     <t>xag112.itm</t>
   </si>
   <si>
-    <t>bdglabre.itm</t>
-  </si>
-  <si>
     <t>xag113.itm</t>
   </si>
   <si>
-    <t>bdspectq.itm</t>
-  </si>
-  <si>
-    <t>xag114.itm</t>
-  </si>
-  <si>
-    <t>xag115.itm</t>
-  </si>
-  <si>
-    <t>xag121.itm</t>
-  </si>
-  <si>
     <t>bd4500.tis</t>
   </si>
   <si>
@@ -16871,13 +16787,85 @@
   </si>
   <si>
     <t>xad132.baf</t>
+  </si>
+  <si>
+    <t>bdthrix.cre</t>
+  </si>
+  <si>
+    <t>xag101.cre</t>
+  </si>
+  <si>
+    <t>xag105.cre</t>
+  </si>
+  <si>
+    <t>xag108.cre</t>
+  </si>
+  <si>
+    <t>xag126.cre</t>
+  </si>
+  <si>
+    <t>xag130.cre</t>
+  </si>
+  <si>
+    <t>xag133.cre</t>
+  </si>
+  <si>
+    <t>xag138.cre</t>
+  </si>
+  <si>
+    <t>bdthrix.baf</t>
+  </si>
+  <si>
+    <t>bddcor01.baf</t>
+  </si>
+  <si>
+    <t>xag145.baf</t>
+  </si>
+  <si>
+    <t>xag140.baf</t>
+  </si>
+  <si>
+    <t>xag131.baf</t>
+  </si>
+  <si>
+    <t>xag130.baf</t>
+  </si>
+  <si>
+    <t>xag129.baf</t>
+  </si>
+  <si>
+    <t>xag128.baf</t>
+  </si>
+  <si>
+    <t>xag150.baf</t>
+  </si>
+  <si>
+    <t>xag159.baf</t>
+  </si>
+  <si>
+    <t>xag162.baf</t>
+  </si>
+  <si>
+    <t>bddcor01.itm</t>
+  </si>
+  <si>
+    <t>xag107.itm</t>
+  </si>
+  <si>
+    <t>xag119.itm</t>
+  </si>
+  <si>
+    <t>bdtelaw.spl</t>
+  </si>
+  <si>
+    <t>xag100.spl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16896,6 +16884,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -16955,13 +16950,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -48472,7 +48468,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+    <sheetView topLeftCell="A108" workbookViewId="0">
       <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
@@ -48502,7 +48498,7 @@
         <v>3502</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f>RIGHT(B2,3)</f>
+        <f t="shared" ref="C2:C33" si="0">RIGHT(B2,3)</f>
         <v>are</v>
       </c>
     </row>
@@ -48514,7 +48510,7 @@
         <v>3617</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f>RIGHT(B3,3)</f>
+        <f t="shared" si="0"/>
         <v>bam</v>
       </c>
     </row>
@@ -48526,7 +48522,7 @@
         <v>3654</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f>RIGHT(B4,3)</f>
+        <f t="shared" si="0"/>
         <v>bmp</v>
       </c>
     </row>
@@ -48538,7 +48534,7 @@
         <v>3469</v>
       </c>
       <c r="C5" s="3" t="str">
-        <f>RIGHT(B5,3)</f>
+        <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
@@ -48550,7 +48546,7 @@
         <v>3598</v>
       </c>
       <c r="C6" s="3" t="str">
-        <f>RIGHT(B6,3)</f>
+        <f t="shared" si="0"/>
         <v>itm</v>
       </c>
     </row>
@@ -48562,7 +48558,7 @@
         <v>5316</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f>RIGHT(B7,3)</f>
+        <f t="shared" si="0"/>
         <v>spl</v>
       </c>
     </row>
@@ -48574,7 +48570,7 @@
         <v>3607</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f>RIGHT(B8,3)</f>
+        <f t="shared" si="0"/>
         <v>tis</v>
       </c>
     </row>
@@ -48586,7 +48582,7 @@
         <v>3603</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f>RIGHT(B9,3)</f>
+        <f t="shared" si="0"/>
         <v>wed</v>
       </c>
     </row>
@@ -48598,7 +48594,7 @@
         <v>3505</v>
       </c>
       <c r="C10" s="3" t="str">
-        <f>RIGHT(B10,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
@@ -48610,7 +48606,7 @@
         <v>3506</v>
       </c>
       <c r="C11" s="3" t="str">
-        <f>RIGHT(B11,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
@@ -48622,7 +48618,7 @@
         <v>3507</v>
       </c>
       <c r="C12" s="3" t="str">
-        <f>RIGHT(B12,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
@@ -48634,7 +48630,7 @@
         <v>3508</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f>RIGHT(B13,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
@@ -48646,7 +48642,7 @@
         <v>3509</v>
       </c>
       <c r="C14" s="3" t="str">
-        <f>RIGHT(B14,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
@@ -48658,7 +48654,7 @@
         <v>3511</v>
       </c>
       <c r="C15" s="3" t="str">
-        <f>RIGHT(B15,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
@@ -48670,7 +48666,7 @@
         <v>3512</v>
       </c>
       <c r="C16" s="3" t="str">
-        <f>RIGHT(B16,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
@@ -48682,7 +48678,7 @@
         <v>3632</v>
       </c>
       <c r="C17" s="3" t="str">
-        <f>RIGHT(B17,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
@@ -48694,7 +48690,7 @@
         <v>3633</v>
       </c>
       <c r="C18" s="3" t="str">
-        <f>RIGHT(B18,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
@@ -48706,535 +48702,535 @@
         <v>3634</v>
       </c>
       <c r="C19" s="3" t="str">
-        <f>RIGHT(B19,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
     <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>5542</v>
+        <v>5514</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>3513</v>
       </c>
       <c r="C20" s="3" t="str">
-        <f>RIGHT(B20,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
     <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>5543</v>
+        <v>5515</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3514</v>
       </c>
       <c r="C21" s="3" t="str">
-        <f>RIGHT(B21,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
     <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>5544</v>
+        <v>5516</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3515</v>
       </c>
       <c r="C22" s="3" t="str">
-        <f>RIGHT(B22,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
     <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>5545</v>
+        <v>5517</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3516</v>
       </c>
       <c r="C23" s="3" t="str">
-        <f>RIGHT(B23,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
     <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>5546</v>
+        <v>5518</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>3517</v>
       </c>
       <c r="C24" s="3" t="str">
-        <f>RIGHT(B24,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
     <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>5547</v>
+        <v>5519</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>3518</v>
       </c>
       <c r="C25" s="3" t="str">
-        <f>RIGHT(B25,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>5548</v>
+        <v>5520</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>3635</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f>RIGHT(B26,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
     <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>5549</v>
+        <v>5521</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>3519</v>
       </c>
       <c r="C27" s="3" t="str">
-        <f>RIGHT(B27,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
     <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>5550</v>
+        <v>5522</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>3520</v>
       </c>
       <c r="C28" s="3" t="str">
-        <f>RIGHT(B28,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
     <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>5551</v>
+        <v>5523</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>3655</v>
       </c>
       <c r="C29" s="3" t="str">
-        <f>RIGHT(B29,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
     <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>5552</v>
+        <v>5524</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>3521</v>
       </c>
       <c r="C30" s="3" t="str">
-        <f>RIGHT(B30,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
     <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>5553</v>
+        <v>5525</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>3522</v>
       </c>
       <c r="C31" s="3" t="str">
-        <f>RIGHT(B31,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
     <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>5554</v>
+        <v>5526</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5555</v>
+        <v>5527</v>
       </c>
       <c r="C32" s="3" t="str">
-        <f>RIGHT(B32,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
     <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>5556</v>
+        <v>5528</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>3523</v>
       </c>
       <c r="C33" s="3" t="str">
-        <f>RIGHT(B33,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
     <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>5557</v>
+        <v>5529</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>3524</v>
       </c>
       <c r="C34" s="3" t="str">
-        <f>RIGHT(B34,3)</f>
+        <f t="shared" ref="C34:C65" si="1">RIGHT(B34,3)</f>
         <v>wav</v>
       </c>
     </row>
     <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>5558</v>
+        <v>5530</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3656</v>
       </c>
       <c r="C35" s="3" t="str">
-        <f>RIGHT(B35,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>5559</v>
+        <v>5531</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>3636</v>
       </c>
       <c r="C36" s="3" t="str">
-        <f>RIGHT(B36,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>5560</v>
+        <v>5532</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>3525</v>
       </c>
       <c r="C37" s="3" t="str">
-        <f>RIGHT(B37,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>5561</v>
+        <v>5533</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5562</v>
+        <v>5534</v>
       </c>
       <c r="C38" s="3" t="str">
-        <f>RIGHT(B38,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>5563</v>
+        <v>5535</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>3657</v>
       </c>
       <c r="C39" s="3" t="str">
-        <f>RIGHT(B39,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>5564</v>
+        <v>5536</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>3526</v>
       </c>
       <c r="C40" s="3" t="str">
-        <f>RIGHT(B40,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>5565</v>
+        <v>5537</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>3527</v>
       </c>
       <c r="C41" s="3" t="str">
-        <f>RIGHT(B41,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>5566</v>
+        <v>5538</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5567</v>
+        <v>5539</v>
       </c>
       <c r="C42" s="3" t="str">
-        <f>RIGHT(B42,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>5568</v>
+        <v>5540</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>3528</v>
       </c>
       <c r="C43" s="3" t="str">
-        <f>RIGHT(B43,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>5569</v>
+        <v>5541</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>3529</v>
       </c>
       <c r="C44" s="3" t="str">
-        <f>RIGHT(B44,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>5570</v>
+        <v>5542</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>3530</v>
       </c>
       <c r="C45" s="3" t="str">
-        <f>RIGHT(B45,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>5571</v>
+        <v>5543</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>3531</v>
       </c>
       <c r="C46" s="3" t="str">
-        <f>RIGHT(B46,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>5572</v>
+        <v>5544</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>3532</v>
       </c>
       <c r="C47" s="3" t="str">
-        <f>RIGHT(B47,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>5573</v>
+        <v>5545</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>3533</v>
       </c>
       <c r="C48" s="3" t="str">
-        <f>RIGHT(B48,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>5574</v>
+        <v>5546</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>3534</v>
       </c>
       <c r="C49" s="3" t="str">
-        <f>RIGHT(B49,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>5575</v>
+        <v>5547</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>3535</v>
       </c>
       <c r="C50" s="3" t="str">
-        <f>RIGHT(B50,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>5576</v>
+        <v>5548</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>3536</v>
       </c>
       <c r="C51" s="3" t="str">
-        <f>RIGHT(B51,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>5577</v>
+        <v>5549</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>3537</v>
       </c>
       <c r="C52" s="3" t="str">
-        <f>RIGHT(B52,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>5578</v>
+        <v>5550</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>3538</v>
       </c>
       <c r="C53" s="3" t="str">
-        <f>RIGHT(B53,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>5579</v>
+        <v>5551</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>3539</v>
       </c>
       <c r="C54" s="3" t="str">
-        <f>RIGHT(B54,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>5580</v>
+        <v>5552</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>3540</v>
       </c>
       <c r="C55" s="3" t="str">
-        <f>RIGHT(B55,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>5581</v>
+        <v>5553</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>3541</v>
       </c>
       <c r="C56" s="3" t="str">
-        <f>RIGHT(B56,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>5582</v>
+        <v>5554</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>3542</v>
       </c>
       <c r="C57" s="3" t="str">
-        <f>RIGHT(B57,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>5583</v>
+        <v>5555</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>3543</v>
       </c>
       <c r="C58" s="3" t="str">
-        <f>RIGHT(B58,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>5584</v>
+        <v>5556</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="C59" s="3" t="str">
-        <f>RIGHT(B59,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>5585</v>
+        <v>5557</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>3637</v>
       </c>
       <c r="C60" s="3" t="str">
-        <f>RIGHT(B60,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>5586</v>
+        <v>5558</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>3545</v>
       </c>
       <c r="C61" s="3" t="str">
-        <f>RIGHT(B61,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>5587</v>
+        <v>5559</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>3546</v>
       </c>
       <c r="C62" s="3" t="str">
-        <f>RIGHT(B62,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
     <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>5588</v>
+        <v>5560</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>3658</v>
       </c>
       <c r="C63" s="3" t="str">
-        <f>RIGHT(B63,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
@@ -49246,7 +49242,7 @@
         <v>3547</v>
       </c>
       <c r="C64" s="3" t="str">
-        <f>RIGHT(B64,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
@@ -49258,7 +49254,7 @@
         <v>3548</v>
       </c>
       <c r="C65" s="3" t="str">
-        <f>RIGHT(B65,3)</f>
+        <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
@@ -49267,10 +49263,10 @@
         <v>3307</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>5590</v>
+        <v>5562</v>
       </c>
       <c r="C66" s="3" t="str">
-        <f>RIGHT(B66,3)</f>
+        <f t="shared" ref="C66:C97" si="2">RIGHT(B66,3)</f>
         <v>wav</v>
       </c>
     </row>
@@ -49282,7 +49278,7 @@
         <v>3549</v>
       </c>
       <c r="C67" s="3" t="str">
-        <f>RIGHT(B67,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49294,7 +49290,7 @@
         <v>3638</v>
       </c>
       <c r="C68" s="3" t="str">
-        <f>RIGHT(B68,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49306,7 +49302,7 @@
         <v>3550</v>
       </c>
       <c r="C69" s="3" t="str">
-        <f>RIGHT(B69,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49318,7 +49314,7 @@
         <v>3551</v>
       </c>
       <c r="C70" s="3" t="str">
-        <f>RIGHT(B70,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49327,10 +49323,10 @@
         <v>1549</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>5589</v>
+        <v>5561</v>
       </c>
       <c r="C71" s="3" t="str">
-        <f>RIGHT(B71,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49342,7 +49338,7 @@
         <v>3552</v>
       </c>
       <c r="C72" s="3" t="str">
-        <f>RIGHT(B72,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49354,7 +49350,7 @@
         <v>3553</v>
       </c>
       <c r="C73" s="3" t="str">
-        <f>RIGHT(B73,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49366,7 +49362,7 @@
         <v>3554</v>
       </c>
       <c r="C74" s="3" t="str">
-        <f>RIGHT(B74,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49378,7 +49374,7 @@
         <v>3555</v>
       </c>
       <c r="C75" s="3" t="str">
-        <f>RIGHT(B75,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49390,7 +49386,7 @@
         <v>3556</v>
       </c>
       <c r="C76" s="3" t="str">
-        <f>RIGHT(B76,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49402,7 +49398,7 @@
         <v>3557</v>
       </c>
       <c r="C77" s="3" t="str">
-        <f>RIGHT(B77,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49414,7 +49410,7 @@
         <v>3558</v>
       </c>
       <c r="C78" s="3" t="str">
-        <f>RIGHT(B78,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49426,7 +49422,7 @@
         <v>3559</v>
       </c>
       <c r="C79" s="3" t="str">
-        <f>RIGHT(B79,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49438,7 +49434,7 @@
         <v>3560</v>
       </c>
       <c r="C80" s="3" t="str">
-        <f>RIGHT(B80,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49450,7 +49446,7 @@
         <v>3561</v>
       </c>
       <c r="C81" s="3" t="str">
-        <f>RIGHT(B81,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49462,7 +49458,7 @@
         <v>3659</v>
       </c>
       <c r="C82" s="3" t="str">
-        <f>RIGHT(B82,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49474,7 +49470,7 @@
         <v>3660</v>
       </c>
       <c r="C83" s="3" t="str">
-        <f>RIGHT(B83,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49483,10 +49479,10 @@
         <v>3568</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>5591</v>
+        <v>5563</v>
       </c>
       <c r="C84" s="3" t="str">
-        <f>RIGHT(B84,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49495,10 +49491,10 @@
         <v>3390</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>5592</v>
+        <v>5564</v>
       </c>
       <c r="C85" s="3" t="str">
-        <f>RIGHT(B85,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49507,10 +49503,10 @@
         <v>3389</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>5593</v>
+        <v>5565</v>
       </c>
       <c r="C86" s="3" t="str">
-        <f>RIGHT(B86,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49522,7 +49518,7 @@
         <v>3562</v>
       </c>
       <c r="C87" s="3" t="str">
-        <f>RIGHT(B87,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49534,7 +49530,7 @@
         <v>3504</v>
       </c>
       <c r="C88" s="3" t="str">
-        <f>RIGHT(B88,3)</f>
+        <f t="shared" si="2"/>
         <v>are</v>
       </c>
     </row>
@@ -49546,7 +49542,7 @@
         <v>3578</v>
       </c>
       <c r="C89" s="3" t="str">
-        <f>RIGHT(B89,3)</f>
+        <f t="shared" si="2"/>
         <v>baf</v>
       </c>
     </row>
@@ -49558,7 +49554,7 @@
         <v>3615</v>
       </c>
       <c r="C90" s="3" t="str">
-        <f>RIGHT(B90,3)</f>
+        <f t="shared" si="2"/>
         <v>bam</v>
       </c>
     </row>
@@ -49570,7 +49566,7 @@
         <v>3470</v>
       </c>
       <c r="C91" s="3" t="str">
-        <f>RIGHT(B91,3)</f>
+        <f t="shared" si="2"/>
         <v>cre</v>
       </c>
     </row>
@@ -49582,7 +49578,7 @@
         <v>3641</v>
       </c>
       <c r="C92" s="3" t="str">
-        <f>RIGHT(B92,3)</f>
+        <f t="shared" si="2"/>
         <v>itm</v>
       </c>
     </row>
@@ -49594,7 +49590,7 @@
         <v>3609</v>
       </c>
       <c r="C93" s="3" t="str">
-        <f>RIGHT(B93,3)</f>
+        <f t="shared" si="2"/>
         <v>tis</v>
       </c>
     </row>
@@ -49606,7 +49602,7 @@
         <v>3605</v>
       </c>
       <c r="C94" s="3" t="str">
-        <f>RIGHT(B94,3)</f>
+        <f t="shared" si="2"/>
         <v>wed</v>
       </c>
     </row>
@@ -49618,7 +49614,7 @@
         <v>3661</v>
       </c>
       <c r="C95" s="3" t="str">
-        <f>RIGHT(B95,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49630,7 +49626,7 @@
         <v>3662</v>
       </c>
       <c r="C96" s="3" t="str">
-        <f>RIGHT(B96,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49639,10 +49635,10 @@
         <v>3571</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>5594</v>
+        <v>5566</v>
       </c>
       <c r="C97" s="3" t="str">
-        <f>RIGHT(B97,3)</f>
+        <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
@@ -49651,10 +49647,10 @@
         <v>3572</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>5595</v>
+        <v>5567</v>
       </c>
       <c r="C98" s="3" t="str">
-        <f>RIGHT(B98,3)</f>
+        <f t="shared" ref="C98:C129" si="3">RIGHT(B98,3)</f>
         <v>wav</v>
       </c>
     </row>
@@ -49666,7 +49662,7 @@
         <v>3663</v>
       </c>
       <c r="C99" s="3" t="str">
-        <f>RIGHT(B99,3)</f>
+        <f t="shared" si="3"/>
         <v>wav</v>
       </c>
     </row>
@@ -49675,10 +49671,10 @@
         <v>3574</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>5596</v>
+        <v>5568</v>
       </c>
       <c r="C100" s="3" t="str">
-        <f>RIGHT(B100,3)</f>
+        <f t="shared" si="3"/>
         <v>wav</v>
       </c>
     </row>
@@ -49687,10 +49683,10 @@
         <v>3575</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>5606</v>
+        <v>5578</v>
       </c>
       <c r="C101" s="3" t="str">
-        <f>RIGHT(B101,3)</f>
+        <f t="shared" si="3"/>
         <v>wav</v>
       </c>
     </row>
@@ -49699,10 +49695,10 @@
         <v>3576</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>5597</v>
+        <v>5569</v>
       </c>
       <c r="C102" s="3" t="str">
-        <f>RIGHT(B102,3)</f>
+        <f t="shared" si="3"/>
         <v>wav</v>
       </c>
     </row>
@@ -49711,10 +49707,10 @@
         <v>3577</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>5598</v>
+        <v>5570</v>
       </c>
       <c r="C103" s="3" t="str">
-        <f>RIGHT(B103,3)</f>
+        <f t="shared" si="3"/>
         <v>wav</v>
       </c>
     </row>
@@ -49723,10 +49719,10 @@
         <v>2118</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>5599</v>
+        <v>5571</v>
       </c>
       <c r="C104" s="3" t="str">
-        <f>RIGHT(B104,3)</f>
+        <f t="shared" si="3"/>
         <v>wav</v>
       </c>
     </row>
@@ -49735,10 +49731,10 @@
         <v>2122</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>5600</v>
+        <v>5572</v>
       </c>
       <c r="C105" s="3" t="str">
-        <f>RIGHT(B105,3)</f>
+        <f t="shared" si="3"/>
         <v>wav</v>
       </c>
     </row>
@@ -49750,7 +49746,7 @@
         <v>3579</v>
       </c>
       <c r="C106" s="3" t="str">
-        <f>RIGHT(B106,3)</f>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
@@ -49762,7 +49758,7 @@
         <v>3613</v>
       </c>
       <c r="C107" s="3" t="str">
-        <f>RIGHT(B107,3)</f>
+        <f t="shared" si="3"/>
         <v>bam</v>
       </c>
     </row>
@@ -49774,7 +49770,7 @@
         <v>3471</v>
       </c>
       <c r="C108" s="3" t="str">
-        <f>RIGHT(B108,3)</f>
+        <f t="shared" si="3"/>
         <v>cre</v>
       </c>
     </row>
@@ -49786,7 +49782,7 @@
         <v>3600</v>
       </c>
       <c r="C109" s="3" t="str">
-        <f>RIGHT(B109,3)</f>
+        <f t="shared" si="3"/>
         <v>itm</v>
       </c>
     </row>
@@ -49798,7 +49794,7 @@
         <v>3611</v>
       </c>
       <c r="C110" s="3" t="str">
-        <f>RIGHT(B110,3)</f>
+        <f t="shared" si="3"/>
         <v>bam</v>
       </c>
     </row>
@@ -49810,7 +49806,7 @@
         <v>3472</v>
       </c>
       <c r="C111" s="3" t="str">
-        <f>RIGHT(B111,3)</f>
+        <f t="shared" si="3"/>
         <v>cre</v>
       </c>
     </row>
@@ -49822,7 +49818,7 @@
         <v>5317</v>
       </c>
       <c r="C112" s="3" t="str">
-        <f>RIGHT(B112,3)</f>
+        <f t="shared" si="3"/>
         <v>itm</v>
       </c>
     </row>
@@ -49834,7 +49830,7 @@
         <v>3473</v>
       </c>
       <c r="C113" s="3" t="str">
-        <f>RIGHT(B113,3)</f>
+        <f t="shared" si="3"/>
         <v>cre</v>
       </c>
     </row>
@@ -49846,31 +49842,31 @@
         <v>3474</v>
       </c>
       <c r="C114" s="3" t="str">
-        <f>RIGHT(B114,3)</f>
+        <f t="shared" si="3"/>
         <v>cre</v>
       </c>
     </row>
     <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>5603</v>
+        <v>5575</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>5318</v>
       </c>
       <c r="C115" s="3" t="str">
-        <f>RIGHT(B115,3)</f>
+        <f t="shared" si="3"/>
         <v>itm</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>5531</v>
+        <v>5503</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>3476</v>
       </c>
       <c r="C116" s="3" t="str">
-        <f>RIGHT(B116,3)</f>
+        <f t="shared" si="3"/>
         <v>cre</v>
       </c>
     </row>
@@ -49882,7 +49878,7 @@
         <v>3673</v>
       </c>
       <c r="C117" s="3" t="str">
-        <f>RIGHT(B117,3)</f>
+        <f t="shared" si="3"/>
         <v>itm</v>
       </c>
     </row>
@@ -49891,10 +49887,10 @@
         <v>3601</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>5604</v>
+        <v>5576</v>
       </c>
       <c r="C118" s="3" t="str">
-        <f>RIGHT(B118,3)</f>
+        <f t="shared" si="3"/>
         <v>itm</v>
       </c>
     </row>
@@ -49906,7 +49902,7 @@
         <v>3480</v>
       </c>
       <c r="C119" s="3" t="str">
-        <f>RIGHT(B119,3)</f>
+        <f t="shared" si="3"/>
         <v>cre</v>
       </c>
     </row>
@@ -49918,7 +49914,7 @@
         <v>3630</v>
       </c>
       <c r="C120" s="3" t="str">
-        <f>RIGHT(B120,3)</f>
+        <f t="shared" si="3"/>
         <v>cre</v>
       </c>
     </row>
@@ -49930,7 +49926,7 @@
         <v>3594</v>
       </c>
       <c r="C121" s="3" t="str">
-        <f>RIGHT(B121,3)</f>
+        <f t="shared" si="3"/>
         <v>bmp</v>
       </c>
     </row>
@@ -49942,7 +49938,7 @@
         <v>3648</v>
       </c>
       <c r="C122" s="3" t="str">
-        <f>RIGHT(B122,3)</f>
+        <f t="shared" si="3"/>
         <v>cre</v>
       </c>
     </row>
@@ -49954,7 +49950,7 @@
         <v>3580</v>
       </c>
       <c r="C123" s="3" t="str">
-        <f>RIGHT(B123,3)</f>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
@@ -49963,10 +49959,10 @@
         <v>3479</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>5532</v>
+        <v>5504</v>
       </c>
       <c r="C124" s="3" t="str">
-        <f>RIGHT(B124,3)</f>
+        <f t="shared" si="3"/>
         <v>cre</v>
       </c>
     </row>
@@ -49978,7 +49974,7 @@
         <v>3597</v>
       </c>
       <c r="C125" s="3" t="str">
-        <f>RIGHT(B125,3)</f>
+        <f t="shared" si="3"/>
         <v>bmp</v>
       </c>
     </row>
@@ -49987,10 +49983,10 @@
         <v>3437</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>5605</v>
+        <v>5577</v>
       </c>
       <c r="C126" s="3" t="str">
-        <f>RIGHT(B126,3)</f>
+        <f t="shared" si="3"/>
         <v>itm</v>
       </c>
     </row>
@@ -50002,7 +49998,7 @@
         <v>3581</v>
       </c>
       <c r="C127" s="3" t="str">
-        <f>RIGHT(B127,3)</f>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
@@ -50014,7 +50010,7 @@
         <v>3583</v>
       </c>
       <c r="C128" s="3" t="str">
-        <f>RIGHT(B128,3)</f>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
@@ -50026,7 +50022,7 @@
         <v>3485</v>
       </c>
       <c r="C129" s="3" t="str">
-        <f>RIGHT(B129,3)</f>
+        <f t="shared" si="3"/>
         <v>cre</v>
       </c>
     </row>
@@ -50038,7 +50034,7 @@
         <v>3487</v>
       </c>
       <c r="C130" s="3" t="str">
-        <f>RIGHT(B130,3)</f>
+        <f t="shared" ref="C130:C161" si="4">RIGHT(B130,3)</f>
         <v>cre</v>
       </c>
     </row>
@@ -50050,7 +50046,7 @@
         <v>3489</v>
       </c>
       <c r="C131" s="3" t="str">
-        <f>RIGHT(B131,3)</f>
+        <f t="shared" si="4"/>
         <v>cre</v>
       </c>
     </row>
@@ -50062,7 +50058,7 @@
         <v>3586</v>
       </c>
       <c r="C132" s="3" t="str">
-        <f>RIGHT(B132,3)</f>
+        <f t="shared" si="4"/>
         <v>baf</v>
       </c>
     </row>
@@ -50074,7 +50070,7 @@
         <v>3491</v>
       </c>
       <c r="C133" s="3" t="str">
-        <f>RIGHT(B133,3)</f>
+        <f t="shared" si="4"/>
         <v>cre</v>
       </c>
     </row>
@@ -50086,7 +50082,7 @@
         <v>3587</v>
       </c>
       <c r="C134" s="3" t="str">
-        <f>RIGHT(B134,3)</f>
+        <f t="shared" si="4"/>
         <v>baf</v>
       </c>
     </row>
@@ -50098,7 +50094,7 @@
         <v>3631</v>
       </c>
       <c r="C135" s="3" t="str">
-        <f>RIGHT(B135,3)</f>
+        <f t="shared" si="4"/>
         <v>cre</v>
       </c>
     </row>
@@ -50110,7 +50106,7 @@
         <v>3588</v>
       </c>
       <c r="C136" s="3" t="str">
-        <f>RIGHT(B136,3)</f>
+        <f t="shared" si="4"/>
         <v>baf</v>
       </c>
     </row>
@@ -50122,7 +50118,7 @@
         <v>3649</v>
       </c>
       <c r="C137" s="3" t="str">
-        <f>RIGHT(B137,3)</f>
+        <f t="shared" si="4"/>
         <v>cre</v>
       </c>
     </row>
@@ -50134,7 +50130,7 @@
         <v>3589</v>
       </c>
       <c r="C138" s="3" t="str">
-        <f>RIGHT(B138,3)</f>
+        <f t="shared" si="4"/>
         <v>baf</v>
       </c>
     </row>
@@ -50143,34 +50139,34 @@
         <v>3490</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>5533</v>
+        <v>5505</v>
       </c>
       <c r="C139" s="3" t="str">
-        <f>RIGHT(B139,3)</f>
+        <f t="shared" si="4"/>
         <v>cre</v>
       </c>
     </row>
     <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>5601</v>
+        <v>5573</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>3591</v>
       </c>
       <c r="C140" s="3" t="str">
-        <f>RIGHT(B140,3)</f>
+        <f t="shared" si="4"/>
         <v>baf</v>
       </c>
     </row>
     <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>5602</v>
+        <v>5574</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>3639</v>
       </c>
       <c r="C141" s="3" t="str">
-        <f>RIGHT(B141,3)</f>
+        <f t="shared" si="4"/>
         <v>baf</v>
       </c>
     </row>
@@ -50179,10 +50175,10 @@
         <v>3258</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>5534</v>
+        <v>5506</v>
       </c>
       <c r="C142" s="3" t="str">
-        <f>RIGHT(B142,3)</f>
+        <f t="shared" si="4"/>
         <v>cre</v>
       </c>
     </row>
@@ -50194,7 +50190,7 @@
         <v>3665</v>
       </c>
       <c r="C143" s="3" t="str">
-        <f>RIGHT(B143,3)</f>
+        <f t="shared" si="4"/>
         <v>baf</v>
       </c>
     </row>
@@ -50203,10 +50199,10 @@
         <v>3492</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>5535</v>
+        <v>5507</v>
       </c>
       <c r="C144" s="3" t="str">
-        <f>RIGHT(B144,3)</f>
+        <f t="shared" si="4"/>
         <v>cre</v>
       </c>
     </row>
@@ -50218,7 +50214,7 @@
         <v>3666</v>
       </c>
       <c r="C145" s="3" t="str">
-        <f>RIGHT(B145,3)</f>
+        <f t="shared" si="4"/>
         <v>baf</v>
       </c>
     </row>
@@ -50227,10 +50223,10 @@
         <v>3493</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>5536</v>
+        <v>5508</v>
       </c>
       <c r="C146" s="3" t="str">
-        <f>RIGHT(B146,3)</f>
+        <f t="shared" si="4"/>
         <v>cre</v>
       </c>
     </row>
@@ -50239,10 +50235,10 @@
         <v>3031</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>5607</v>
+        <v>5579</v>
       </c>
       <c r="C147" s="3" t="str">
-        <f>RIGHT(B147,3)</f>
+        <f t="shared" si="4"/>
         <v>baf</v>
       </c>
     </row>
@@ -50254,7 +50250,7 @@
         <v>3650</v>
       </c>
       <c r="C148" s="3" t="str">
-        <f>RIGHT(B148,3)</f>
+        <f t="shared" si="4"/>
         <v>cre</v>
       </c>
     </row>
@@ -50266,7 +50262,7 @@
         <v>3667</v>
       </c>
       <c r="C149" s="3" t="str">
-        <f>RIGHT(B149,3)</f>
+        <f t="shared" si="4"/>
         <v>baf</v>
       </c>
     </row>
@@ -50275,10 +50271,10 @@
         <v>3495</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>5537</v>
+        <v>5509</v>
       </c>
       <c r="C150" s="3" t="str">
-        <f>RIGHT(B150,3)</f>
+        <f t="shared" si="4"/>
         <v>cre</v>
       </c>
     </row>
@@ -50290,7 +50286,7 @@
         <v>3668</v>
       </c>
       <c r="C151" s="3" t="str">
-        <f>RIGHT(B151,3)</f>
+        <f t="shared" si="4"/>
         <v>baf</v>
       </c>
     </row>
@@ -50299,10 +50295,10 @@
         <v>3496</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>5538</v>
+        <v>5510</v>
       </c>
       <c r="C152" s="3" t="str">
-        <f>RIGHT(B152,3)</f>
+        <f t="shared" si="4"/>
         <v>cre</v>
       </c>
     </row>
@@ -50311,10 +50307,10 @@
         <v>3497</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>5539</v>
+        <v>5511</v>
       </c>
       <c r="C153" s="3" t="str">
-        <f>RIGHT(B153,3)</f>
+        <f t="shared" si="4"/>
         <v>cre</v>
       </c>
     </row>
@@ -50326,7 +50322,7 @@
         <v>3669</v>
       </c>
       <c r="C154" s="3" t="str">
-        <f>RIGHT(B154,3)</f>
+        <f t="shared" si="4"/>
         <v>baf</v>
       </c>
     </row>
@@ -50338,7 +50334,7 @@
         <v>3651</v>
       </c>
       <c r="C155" s="3" t="str">
-        <f>RIGHT(B155,3)</f>
+        <f t="shared" si="4"/>
         <v>cre</v>
       </c>
     </row>
@@ -50347,10 +50343,10 @@
         <v>3499</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>5540</v>
+        <v>5512</v>
       </c>
       <c r="C156" s="3" t="str">
-        <f>RIGHT(B156,3)</f>
+        <f t="shared" si="4"/>
         <v>cre</v>
       </c>
     </row>
@@ -50362,7 +50358,7 @@
         <v>3670</v>
       </c>
       <c r="C157" s="3" t="str">
-        <f>RIGHT(B157,3)</f>
+        <f t="shared" si="4"/>
         <v>baf</v>
       </c>
     </row>
@@ -50374,7 +50370,7 @@
         <v>3652</v>
       </c>
       <c r="C158" s="3" t="str">
-        <f>RIGHT(B158,3)</f>
+        <f t="shared" si="4"/>
         <v>cre</v>
       </c>
     </row>
@@ -50383,10 +50379,10 @@
         <v>3500</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>5541</v>
+        <v>5513</v>
       </c>
       <c r="C159" s="3" t="str">
-        <f>RIGHT(B159,3)</f>
+        <f t="shared" si="4"/>
         <v>cre</v>
       </c>
     </row>
@@ -50398,7 +50394,7 @@
         <v>3640</v>
       </c>
       <c r="C160" s="3" t="str">
-        <f>RIGHT(B160,3)</f>
+        <f t="shared" si="4"/>
         <v>baf</v>
       </c>
     </row>
@@ -50410,7 +50406,7 @@
         <v>3671</v>
       </c>
       <c r="C161" s="3" t="str">
-        <f>RIGHT(B161,3)</f>
+        <f t="shared" si="4"/>
         <v>baf</v>
       </c>
     </row>
@@ -50825,10 +50821,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F0131F-33AF-4648-9455-CFE6248322BD}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50849,7 +50846,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5319</v>
       </c>
@@ -50861,7 +50858,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5321</v>
       </c>
@@ -50873,7 +50870,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5323</v>
       </c>
@@ -50885,7 +50882,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5325</v>
       </c>
@@ -50897,7 +50894,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5327</v>
       </c>
@@ -50911,7 +50908,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5329</v>
+        <v>5580</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5330</v>
@@ -50923,10 +50920,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5331</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5332</v>
+        <v>5329</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5581</v>
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50935,10 +50932,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>5331</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>5333</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5334</v>
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50947,10 +50944,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>5332</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>5335</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5336</v>
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50959,10 +50956,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5337</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5338</v>
+        <v>5334</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>5582</v>
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50971,10 +50968,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>5339</v>
+        <v>5336</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5340</v>
+        <v>5338</v>
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50983,10 +50980,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>5341</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5342</v>
+        <v>5337</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5583</v>
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50995,10 +50992,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>5343</v>
+        <v>5339</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5344</v>
+        <v>5341</v>
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51007,10 +51004,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>5345</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5346</v>
+        <v>5340</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>5343</v>
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51019,10 +51016,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>5347</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5348</v>
+        <v>5342</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>5345</v>
       </c>
       <c r="C16" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51031,10 +51028,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>5349</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5350</v>
+        <v>5344</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>5347</v>
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51043,10 +51040,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>5351</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>5352</v>
+        <v>5346</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>5349</v>
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51055,10 +51052,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>5353</v>
+        <v>5348</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5354</v>
+        <v>5350</v>
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51067,10 +51064,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>5355</v>
+        <v>5351</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5356</v>
+        <v>5353</v>
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51079,10 +51076,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>5357</v>
+        <v>5352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5358</v>
+        <v>5355</v>
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51091,10 +51088,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>5359</v>
+        <v>5354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5360</v>
+        <v>5357</v>
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51103,10 +51100,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>5361</v>
+        <v>5356</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5362</v>
+        <v>5359</v>
       </c>
       <c r="C23" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51115,10 +51112,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>5363</v>
+        <v>5358</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5364</v>
+        <v>5584</v>
       </c>
       <c r="C24" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51127,10 +51124,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>5365</v>
+        <v>5360</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5366</v>
+        <v>5362</v>
       </c>
       <c r="C25" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51139,10 +51136,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>5367</v>
+        <v>5361</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5368</v>
+        <v>5585</v>
       </c>
       <c r="C26" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51151,10 +51148,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>5369</v>
+        <v>5363</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5370</v>
+        <v>5586</v>
       </c>
       <c r="C27" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51163,10 +51160,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>5371</v>
+        <v>5364</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5372</v>
+        <v>5366</v>
       </c>
       <c r="C28" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51175,1050 +51172,1039 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>5373</v>
+        <v>5365</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5374</v>
+        <v>5587</v>
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>5375</v>
+        <v>5602</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5376</v>
+        <v>5603</v>
       </c>
       <c r="C30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>spl</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>5377</v>
+        <v>5367</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5378</v>
+        <v>5368</v>
       </c>
       <c r="C31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>5379</v>
+        <v>5369</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5380</v>
+        <v>5370</v>
       </c>
       <c r="C32" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>5381</v>
+        <v>5371</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>5382</v>
+        <v>5372</v>
       </c>
       <c r="C33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>5383</v>
+        <v>5373</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>5384</v>
+        <v>5374</v>
       </c>
       <c r="C34" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>5385</v>
+        <v>5375</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5386</v>
+        <v>5376</v>
       </c>
       <c r="C35" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>5387</v>
+        <v>5377</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5388</v>
+        <v>5378</v>
       </c>
       <c r="C36" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>5389</v>
+        <v>5379</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5390</v>
+        <v>5380</v>
       </c>
       <c r="C37" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>5391</v>
+        <v>5381</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5392</v>
+        <v>5382</v>
       </c>
       <c r="C38" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>5393</v>
+        <v>5383</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>5394</v>
+        <v>5384</v>
       </c>
       <c r="C39" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>5395</v>
+        <v>5385</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>5396</v>
+        <v>5386</v>
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>5397</v>
+        <v>5387</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>5398</v>
+        <v>5388</v>
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>5399</v>
+        <v>5389</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5400</v>
+        <v>5390</v>
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>5401</v>
+        <v>5588</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5402</v>
+        <v>5397</v>
       </c>
       <c r="C43" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>3191</v>
+        <v>5398</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>5403</v>
+        <v>5395</v>
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>3189</v>
+        <v>5589</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>5404</v>
+        <v>5394</v>
       </c>
       <c r="C45" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>5405</v>
+        <v>5400</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>5406</v>
+        <v>5393</v>
       </c>
       <c r="C46" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>5407</v>
+        <v>5399</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5408</v>
+        <v>5590</v>
       </c>
       <c r="C47" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>5409</v>
+        <v>5391</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>5410</v>
+        <v>5591</v>
       </c>
       <c r="C48" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>5411</v>
+        <v>5392</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>5412</v>
+        <v>5592</v>
       </c>
       <c r="C49" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>5413</v>
+        <v>3191</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>5414</v>
+        <v>5593</v>
       </c>
       <c r="C50" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>5415</v>
+        <v>3189</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>5416</v>
+        <v>5594</v>
       </c>
       <c r="C51" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>5417</v>
+        <v>5396</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>5418</v>
+        <v>5595</v>
       </c>
       <c r="C52" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>5419</v>
+        <v>5401</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>5420</v>
+        <v>5596</v>
       </c>
       <c r="C53" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>5421</v>
+        <v>5402</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>5422</v>
+        <v>5597</v>
       </c>
       <c r="C54" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>5423</v>
+        <v>5403</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>5424</v>
+        <v>5598</v>
       </c>
       <c r="C55" s="5" t="str">
         <f t="shared" si="0"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>5425</v>
+        <v>5404</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>5426</v>
+        <v>5405</v>
       </c>
       <c r="C56" s="5" t="str">
         <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>5427</v>
+        <v>5406</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>5428</v>
+        <v>5407</v>
       </c>
       <c r="C57" s="5" t="str">
         <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>5429</v>
+        <v>5408</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>5430</v>
+        <v>5409</v>
       </c>
       <c r="C58" s="5" t="str">
         <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>5431</v>
+        <v>5410</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>5432</v>
+        <v>5411</v>
       </c>
       <c r="C59" s="5" t="str">
         <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>5433</v>
+        <v>5412</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>5434</v>
+        <v>5413</v>
       </c>
       <c r="C60" s="5" t="str">
         <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>5435</v>
+        <v>5414</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>5436</v>
+        <v>5415</v>
       </c>
       <c r="C61" s="5" t="str">
         <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>5437</v>
+        <v>5416</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>5438</v>
+        <v>5417</v>
       </c>
       <c r="C62" s="5" t="str">
         <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>5439</v>
+        <v>5418</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>5440</v>
+        <v>5419</v>
       </c>
       <c r="C63" s="5" t="str">
         <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>5441</v>
+        <v>5420</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>5442</v>
+        <v>5421</v>
       </c>
       <c r="C64" s="5" t="str">
         <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>5443</v>
+        <v>5422</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>5444</v>
+        <v>5423</v>
       </c>
       <c r="C65" s="5" t="str">
         <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>5445</v>
+        <v>5424</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>5446</v>
+        <v>5425</v>
       </c>
       <c r="C66" s="5" t="str">
         <f t="shared" ref="C66:C115" si="1">RIGHT(B66,3)</f>
         <v>wav</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>5447</v>
+        <v>5426</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>5448</v>
+        <v>5427</v>
       </c>
       <c r="C67" s="5" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>5449</v>
+        <v>5428</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>5450</v>
+        <v>5429</v>
       </c>
       <c r="C68" s="5" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>3302</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>5451</v>
+        <v>5430</v>
       </c>
       <c r="C69" s="5" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>3303</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>5452</v>
+        <v>5431</v>
       </c>
       <c r="C70" s="5" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>3304</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>5453</v>
+        <v>5432</v>
       </c>
       <c r="C71" s="5" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>4820</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>5454</v>
+        <v>5433</v>
       </c>
       <c r="C72" s="5" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>3373</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>5455</v>
+        <v>5434</v>
       </c>
       <c r="C73" s="5" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>3374</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>5456</v>
+        <v>5435</v>
       </c>
       <c r="C74" s="5" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>1415</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>5457</v>
+        <v>5436</v>
       </c>
       <c r="C75" s="5" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>1416</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>5458</v>
+        <v>5437</v>
       </c>
       <c r="C76" s="5" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>3323</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>5459</v>
+        <v>5438</v>
       </c>
       <c r="C77" s="5" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>3324</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>5460</v>
+        <v>5439</v>
       </c>
       <c r="C78" s="5" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>3325</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>5461</v>
+        <v>5440</v>
       </c>
       <c r="C79" s="5" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>5462</v>
+        <v>5441</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>5463</v>
+        <v>5442</v>
       </c>
       <c r="C80" s="5" t="str">
         <f t="shared" si="1"/>
         <v>wed</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>5464</v>
+        <v>5443</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>5465</v>
+        <v>5444</v>
       </c>
       <c r="C81" s="5" t="str">
         <f t="shared" si="1"/>
         <v>wed</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>5466</v>
+        <v>5445</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>5467</v>
+        <v>5446</v>
       </c>
       <c r="C82" s="5" t="str">
         <f t="shared" si="1"/>
         <v>wed</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>5468</v>
+        <v>5447</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>5469</v>
+        <v>5448</v>
       </c>
       <c r="C83" s="5" t="str">
         <f t="shared" si="1"/>
         <v>wed</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>5470</v>
+        <v>5449</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>5471</v>
+        <v>5450</v>
       </c>
       <c r="C84" s="5" t="str">
         <f t="shared" si="1"/>
         <v>wed</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>5472</v>
+        <v>5451</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>5473</v>
+        <v>5452</v>
       </c>
       <c r="C85" s="5" t="str">
         <f t="shared" si="1"/>
         <v>bam</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>5474</v>
+        <v>5453</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>5475</v>
+        <v>5454</v>
       </c>
       <c r="C86" s="5" t="str">
         <f t="shared" si="1"/>
         <v>bam</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>5476</v>
+        <v>5455</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>5477</v>
+        <v>5456</v>
       </c>
       <c r="C87" s="5" t="str">
         <f t="shared" si="1"/>
         <v>bam</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>5478</v>
+        <v>5457</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>5479</v>
+        <v>5458</v>
       </c>
       <c r="C88" s="5" t="str">
         <f t="shared" si="1"/>
         <v>bam</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>5480</v>
+        <v>5459</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>5481</v>
+        <v>5460</v>
       </c>
       <c r="C89" s="5" t="str">
         <f t="shared" si="1"/>
         <v>bam</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>5482</v>
+        <v>5461</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>5483</v>
+        <v>5462</v>
       </c>
       <c r="C90" s="5" t="str">
         <f t="shared" si="1"/>
         <v>bam</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>5484</v>
+        <v>5463</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>5485</v>
+        <v>5464</v>
       </c>
       <c r="C91" s="5" t="str">
         <f t="shared" si="1"/>
         <v>bam</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>5486</v>
+        <v>5465</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>5487</v>
+        <v>5466</v>
       </c>
       <c r="C92" s="5" t="str">
         <f t="shared" si="1"/>
         <v>bam</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>5488</v>
+        <v>5467</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>5489</v>
+        <v>5468</v>
       </c>
       <c r="C93" s="5" t="str">
         <f t="shared" si="1"/>
         <v>bam</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>5490</v>
+        <v>5469</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>5491</v>
+        <v>5470</v>
       </c>
       <c r="C94" s="5" t="str">
         <f t="shared" si="1"/>
         <v>bam</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>3446</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>5492</v>
+        <v>5471</v>
       </c>
       <c r="C95" s="5" t="str">
         <f t="shared" si="1"/>
         <v>bam</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>5493</v>
+        <v>5472</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>5494</v>
+        <v>5473</v>
       </c>
       <c r="C96" s="5" t="str">
         <f t="shared" si="1"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>5495</v>
+        <v>5474</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>5496</v>
+        <v>5475</v>
       </c>
       <c r="C97" s="5" t="str">
         <f t="shared" si="1"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>5497</v>
+        <v>5476</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>5498</v>
+        <v>5477</v>
       </c>
       <c r="C98" s="5" t="str">
         <f t="shared" si="1"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>5499</v>
+        <v>5478</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>5500</v>
+        <v>5479</v>
       </c>
       <c r="C99" s="5" t="str">
         <f t="shared" si="1"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>5501</v>
+        <v>5480</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>5502</v>
+        <v>5481</v>
       </c>
       <c r="C100" s="5" t="str">
         <f t="shared" si="1"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>5503</v>
+        <v>5599</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>5504</v>
+        <v>5483</v>
       </c>
       <c r="C101" s="5" t="str">
         <f t="shared" si="1"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>5505</v>
+        <v>5482</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>5506</v>
+        <v>5485</v>
       </c>
       <c r="C102" s="5" t="str">
         <f t="shared" si="1"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>5507</v>
+        <v>5484</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>5508</v>
+        <v>5600</v>
       </c>
       <c r="C103" s="5" t="str">
         <f t="shared" si="1"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>5509</v>
+        <v>5486</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>5510</v>
+        <v>5488</v>
       </c>
       <c r="C104" s="5" t="str">
         <f t="shared" si="1"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>5511</v>
+        <v>5487</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>5512</v>
+        <v>5490</v>
       </c>
       <c r="C105" s="5" t="str">
         <f t="shared" si="1"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>5513</v>
+        <v>5489</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>5514</v>
+        <v>5491</v>
       </c>
       <c r="C106" s="5" t="str">
         <f t="shared" si="1"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>5515</v>
+        <v>3429</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>5516</v>
+        <v>5492</v>
       </c>
       <c r="C107" s="5" t="str">
         <f t="shared" si="1"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>5517</v>
+        <v>3431</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>5518</v>
+        <v>5601</v>
       </c>
       <c r="C108" s="5" t="str">
         <f t="shared" si="1"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>3429</v>
+        <v>5493</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>5519</v>
+        <v>5494</v>
       </c>
       <c r="C109" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>tis</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>3431</v>
+        <v>5495</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>5520</v>
+        <v>5496</v>
       </c>
       <c r="C110" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>tis</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>5521</v>
+        <v>5497</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>5522</v>
+        <v>5498</v>
       </c>
       <c r="C111" s="5" t="str">
         <f t="shared" si="1"/>
         <v>tis</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>5523</v>
+        <v>5499</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>5524</v>
+        <v>5500</v>
       </c>
       <c r="C112" s="5" t="str">
         <f t="shared" si="1"/>
         <v>tis</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>5525</v>
+        <v>5501</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>5526</v>
+        <v>5502</v>
       </c>
       <c r="C113" s="5" t="str">
         <f t="shared" si="1"/>
         <v>tis</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>5527</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>5528</v>
-      </c>
-      <c r="C114" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>tis</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>5529</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>5530</v>
-      </c>
-      <c r="C115" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>tis</v>
-      </c>
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="5"/>
+    </row>
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{90F0131F-33AF-4648-9455-CFE6248322BD}"/>
+  <autoFilter ref="A1:C115" xr:uid="{90F0131F-33AF-4648-9455-CFE6248322BD}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="cre"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EE/generated/referenceTable.xlsx
+++ b/EE/generated/referenceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\generated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B45B95-5029-416C-8F8A-515BEA77DE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E709C08C-7690-4AAD-B503-C9A7246338BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7785" activeTab="5" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
+    <workbookView xWindow="-11445" yWindow="2220" windowWidth="11385" windowHeight="11835" firstSheet="3" activeTab="5" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Block A" sheetId="4" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5743" uniqueCount="5604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5771" uniqueCount="5631">
   <si>
     <t>aasim.cre</t>
   </si>
@@ -16054,811 +16054,892 @@
     <t>bdabis2d.cre</t>
   </si>
   <si>
+    <t>bdcrus5d.cre</t>
+  </si>
+  <si>
+    <t>bdlemure.cre</t>
+  </si>
+  <si>
+    <t>xag107.cre</t>
+  </si>
+  <si>
+    <t>bdimp.cre</t>
+  </si>
+  <si>
+    <t>bdabibla.cre</t>
+  </si>
+  <si>
+    <t>bdabigre.cre</t>
+  </si>
+  <si>
+    <t>bdabired.cre</t>
+  </si>
+  <si>
+    <t>bdhamatu.cre</t>
+  </si>
+  <si>
+    <t>xag114.cre</t>
+  </si>
+  <si>
+    <t>bdbonefi.cre</t>
+  </si>
+  <si>
+    <t>xag115.cre</t>
+  </si>
+  <si>
+    <t>xag116.cre</t>
+  </si>
+  <si>
+    <t>bdcrue52.cre</t>
+  </si>
+  <si>
+    <t>bdcut57b.cre</t>
+  </si>
+  <si>
+    <t>bdcrue53.cre</t>
+  </si>
+  <si>
+    <t>bdcrue54.cre</t>
+  </si>
+  <si>
+    <t>bdcut57a.cre</t>
+  </si>
+  <si>
+    <t>xag125.cre</t>
+  </si>
+  <si>
+    <t>bdcrue50.cre</t>
+  </si>
+  <si>
+    <t>bdcut57c.cre</t>
+  </si>
+  <si>
+    <t>bdcrue51.cre</t>
+  </si>
+  <si>
+    <t>bdcrus6d.cre</t>
+  </si>
+  <si>
+    <t>bdcrus7d.cre</t>
+  </si>
+  <si>
+    <t>bdlcore.baf</t>
+  </si>
+  <si>
+    <t>xag100.baf</t>
+  </si>
+  <si>
+    <t>bdlhard.baf</t>
+  </si>
+  <si>
+    <t>bdlinsa.baf</t>
+  </si>
+  <si>
+    <t>xag102.baf</t>
+  </si>
+  <si>
+    <t>bddoorav.baf</t>
+  </si>
+  <si>
+    <t>xag103.baf</t>
+  </si>
+  <si>
+    <t>bdhellbr.baf</t>
+  </si>
+  <si>
+    <t>xag104.baf</t>
+  </si>
+  <si>
+    <t>bdinfo12.baf</t>
+  </si>
+  <si>
+    <t>xag105.baf</t>
+  </si>
+  <si>
+    <t>bdelev01.baf</t>
+  </si>
+  <si>
+    <t>xag106.baf</t>
+  </si>
+  <si>
+    <t>bdelev02.baf</t>
+  </si>
+  <si>
+    <t>xag108.baf</t>
+  </si>
+  <si>
+    <t>bddmspwn.baf</t>
+  </si>
+  <si>
+    <t>gt027.baf</t>
+  </si>
+  <si>
+    <t>bdgt010.baf</t>
+  </si>
+  <si>
+    <t>xag122.baf</t>
+  </si>
+  <si>
+    <t>bdfugue.baf</t>
+  </si>
+  <si>
+    <t>xag123.baf</t>
+  </si>
+  <si>
+    <t>bdavernu.baf</t>
+  </si>
+  <si>
+    <t>bdimp.baf</t>
+  </si>
+  <si>
+    <t>xag127.baf</t>
+  </si>
+  <si>
+    <t>xag126.baf</t>
+  </si>
+  <si>
+    <t>xag125.baf</t>
+  </si>
+  <si>
+    <t>bdlemure.baf</t>
+  </si>
+  <si>
+    <t>xag124.baf</t>
+  </si>
+  <si>
+    <t>bdenshtv.baf</t>
+  </si>
+  <si>
+    <t>bdnonin.baf</t>
+  </si>
+  <si>
+    <t>bdfig00.baf</t>
+  </si>
+  <si>
+    <t>bdabisha.baf</t>
+  </si>
+  <si>
+    <t>bdhamatu.baf</t>
+  </si>
+  <si>
+    <t>bdbonefi.baf</t>
+  </si>
+  <si>
+    <t>ambd4400.wav</t>
+  </si>
+  <si>
+    <t>xag10000.wav</t>
+  </si>
+  <si>
+    <t>ambdlva1.wav</t>
+  </si>
+  <si>
+    <t>xag10001.wav</t>
+  </si>
+  <si>
+    <t>ambd4600.wav</t>
+  </si>
+  <si>
+    <t>xag10002.wav</t>
+  </si>
+  <si>
+    <t>ambd4601.wav</t>
+  </si>
+  <si>
+    <t>xag10004.wav</t>
+  </si>
+  <si>
+    <t>ambd4700.wav</t>
+  </si>
+  <si>
+    <t>xag10006.wav</t>
+  </si>
+  <si>
+    <t>ambd5300.wav</t>
+  </si>
+  <si>
+    <t>xag10008.wav</t>
+  </si>
+  <si>
+    <t>ambdcwnd.wav</t>
+  </si>
+  <si>
+    <t>ambddwnd.wav</t>
+  </si>
+  <si>
+    <t>xag10010.wav</t>
+  </si>
+  <si>
+    <t>ambdmtl1.wav</t>
+  </si>
+  <si>
+    <t>ambdmtl2.wav</t>
+  </si>
+  <si>
+    <t>xag10012.wav</t>
+  </si>
+  <si>
+    <t>ambdmtl3.wav</t>
+  </si>
+  <si>
+    <t>xag10013.wav</t>
+  </si>
+  <si>
+    <t>ambdmtl4.wav</t>
+  </si>
+  <si>
+    <t>xag10014.wav</t>
+  </si>
+  <si>
+    <t>ambdmtl5.wav</t>
+  </si>
+  <si>
+    <t>xag10015.wav</t>
+  </si>
+  <si>
+    <t>xag10016.wav</t>
+  </si>
+  <si>
+    <t>xag10017.wav</t>
+  </si>
+  <si>
+    <t>xag10018.wav</t>
+  </si>
+  <si>
+    <t>xag10019.wav</t>
+  </si>
+  <si>
+    <t>xag10020.wav</t>
+  </si>
+  <si>
+    <t>xag10021.wav</t>
+  </si>
+  <si>
+    <t>xag10022.wav</t>
+  </si>
+  <si>
+    <t>xag10023.wav</t>
+  </si>
+  <si>
+    <t>xag10024.wav</t>
+  </si>
+  <si>
+    <t>xag10025.wav</t>
+  </si>
+  <si>
+    <t>xag10026.wav</t>
+  </si>
+  <si>
+    <t>bd4500.wed</t>
+  </si>
+  <si>
+    <t>xag100.wed</t>
+  </si>
+  <si>
+    <t>bd4600.wed</t>
+  </si>
+  <si>
+    <t>xag101.wed</t>
+  </si>
+  <si>
+    <t>bd4601.wed</t>
+  </si>
+  <si>
+    <t>xag102.wed</t>
+  </si>
+  <si>
+    <t>bd4700.wed</t>
+  </si>
+  <si>
+    <t>xag103.wed</t>
+  </si>
+  <si>
+    <t>bd5300.wed</t>
+  </si>
+  <si>
+    <t>xag104.wed</t>
+  </si>
+  <si>
+    <t>bdflam03.bam</t>
+  </si>
+  <si>
+    <t>xag100.bam</t>
+  </si>
+  <si>
+    <t>bdflam04.bam</t>
+  </si>
+  <si>
+    <t>xag109.bam</t>
+  </si>
+  <si>
+    <t>bdflam02.bam</t>
+  </si>
+  <si>
+    <t>xag112.bam</t>
+  </si>
+  <si>
+    <t>bdfug01.bam</t>
+  </si>
+  <si>
+    <t>xag146.bam</t>
+  </si>
+  <si>
+    <t>bdfug02.bam</t>
+  </si>
+  <si>
+    <t>xag147.bam</t>
+  </si>
+  <si>
+    <t>bdfug03.bam</t>
+  </si>
+  <si>
+    <t>xag148.bam</t>
+  </si>
+  <si>
+    <t>bdfug04.bam</t>
+  </si>
+  <si>
+    <t>xag149.bam</t>
+  </si>
+  <si>
+    <t>ibda1h02.bam</t>
+  </si>
+  <si>
+    <t>xag150.bam</t>
+  </si>
+  <si>
+    <t>ibdrob03.bam</t>
+  </si>
+  <si>
+    <t>xag151.bam</t>
+  </si>
+  <si>
+    <t>ibdchn02.bam</t>
+  </si>
+  <si>
+    <t>xag152.bam</t>
+  </si>
+  <si>
+    <t>bdax1h02.itm</t>
+  </si>
+  <si>
+    <t>xag100.itm</t>
+  </si>
+  <si>
+    <t>bdrobe03.itm</t>
+  </si>
+  <si>
+    <t>xag101.itm</t>
+  </si>
+  <si>
+    <t>bdstaf02.itm</t>
+  </si>
+  <si>
+    <t>xag102.itm</t>
+  </si>
+  <si>
+    <t>bdchan02.itm</t>
+  </si>
+  <si>
+    <t>xag103.itm</t>
+  </si>
+  <si>
+    <t>bdmisc21.itm</t>
+  </si>
+  <si>
+    <t>xag104.itm</t>
+  </si>
+  <si>
+    <t>bdimp.itm</t>
+  </si>
+  <si>
+    <t>xag105.itm</t>
+  </si>
+  <si>
+    <t>bdabisha.itm</t>
+  </si>
+  <si>
+    <t>xag106.itm</t>
+  </si>
+  <si>
+    <t>bdhamat2.itm</t>
+  </si>
+  <si>
+    <t>bdhamat1.itm</t>
+  </si>
+  <si>
+    <t>xag110.itm</t>
+  </si>
+  <si>
+    <t>bdbonefi.itm</t>
+  </si>
+  <si>
+    <t>xag113.itm</t>
+  </si>
+  <si>
+    <t>bd4500.tis</t>
+  </si>
+  <si>
+    <t>xag100.tis</t>
+  </si>
+  <si>
+    <t>bd4600.tis</t>
+  </si>
+  <si>
+    <t>xag101.tis</t>
+  </si>
+  <si>
+    <t>bd4601.tis</t>
+  </si>
+  <si>
+    <t>xag102.tis</t>
+  </si>
+  <si>
+    <t>bd4700.tis</t>
+  </si>
+  <si>
+    <t>xag103.tis</t>
+  </si>
+  <si>
+    <t>bd5300.tis</t>
+  </si>
+  <si>
+    <t>xag104.tis</t>
+  </si>
+  <si>
+    <t>corwin7.cre</t>
+  </si>
+  <si>
+    <t>xad112.cre</t>
+  </si>
+  <si>
+    <t>xad121.cre</t>
+  </si>
+  <si>
+    <t>xad123.cre</t>
+  </si>
+  <si>
+    <t>xad128.cre</t>
+  </si>
+  <si>
+    <t>xad131.cre</t>
+  </si>
+  <si>
+    <t>xad136.cre</t>
+  </si>
+  <si>
+    <t>xad146.cre</t>
+  </si>
+  <si>
+    <t>xad149.cre</t>
+  </si>
+  <si>
+    <t>xad153.cre</t>
+  </si>
+  <si>
+    <t>xad156.cre</t>
+  </si>
+  <si>
+    <t>bd68296.wav</t>
+  </si>
+  <si>
+    <t>bd68292.wav</t>
+  </si>
+  <si>
+    <t>bd68293.wav</t>
+  </si>
+  <si>
+    <t>bd68294.wav</t>
+  </si>
+  <si>
+    <t>bd68295.wav</t>
+  </si>
+  <si>
+    <t>bd68256.wav</t>
+  </si>
+  <si>
+    <t>bd68257.wav</t>
+  </si>
+  <si>
+    <t>bd68258.wav</t>
+  </si>
+  <si>
+    <t>bd68251.wav</t>
+  </si>
+  <si>
+    <t>bd68252.wav</t>
+  </si>
+  <si>
+    <t>bd68253.wav</t>
+  </si>
+  <si>
+    <t>bd68254.wav</t>
+  </si>
+  <si>
+    <t>bd68255.wav</t>
+  </si>
+  <si>
+    <t>xad10028.wav</t>
+  </si>
+  <si>
+    <t>bd68273.wav</t>
+  </si>
+  <si>
+    <t>bd68274.wav</t>
+  </si>
+  <si>
+    <t>bd68259.wav</t>
+  </si>
+  <si>
+    <t>bd68275.wav</t>
+  </si>
+  <si>
+    <t>bd68276.wav</t>
+  </si>
+  <si>
+    <t>bd68277.wav</t>
+  </si>
+  <si>
+    <t>xad10034.wav</t>
+  </si>
+  <si>
+    <t>bd68278.wav</t>
+  </si>
+  <si>
+    <t>bd68279.wav</t>
+  </si>
+  <si>
+    <t>bd68260.wav</t>
+  </si>
+  <si>
+    <t>bd68261.wav</t>
+  </si>
+  <si>
+    <t>xad10038.wav</t>
+  </si>
+  <si>
+    <t>bd68262.wav</t>
+  </si>
+  <si>
+    <t>bd68263.wav</t>
+  </si>
+  <si>
+    <t>bd68264.wav</t>
+  </si>
+  <si>
+    <t>bd68265.wav</t>
+  </si>
+  <si>
+    <t>bd68266.wav</t>
+  </si>
+  <si>
+    <t>bd68267.wav</t>
+  </si>
+  <si>
+    <t>bd68268.wav</t>
+  </si>
+  <si>
+    <t>bd68280.wav</t>
+  </si>
+  <si>
+    <t>bd68281.wav</t>
+  </si>
+  <si>
+    <t>bd68282.wav</t>
+  </si>
+  <si>
+    <t>bd68283.wav</t>
+  </si>
+  <si>
+    <t>bd68297.wav</t>
+  </si>
+  <si>
+    <t>bd68298.wav</t>
+  </si>
+  <si>
+    <t>bd68284.wav</t>
+  </si>
+  <si>
+    <t>bd68285.wav</t>
+  </si>
+  <si>
+    <t>bd68286.wav</t>
+  </si>
+  <si>
+    <t>bd68287.wav</t>
+  </si>
+  <si>
+    <t>bd68288.wav</t>
+  </si>
+  <si>
+    <t>bd68289.wav</t>
+  </si>
+  <si>
+    <t>bd68290.wav</t>
+  </si>
+  <si>
+    <t>bd68291.wav</t>
+  </si>
+  <si>
+    <t>xad10072.wav</t>
+  </si>
+  <si>
+    <t>xad10064.wav</t>
+  </si>
+  <si>
+    <t>xad10091.wav</t>
+  </si>
+  <si>
+    <t>xad10092.wav</t>
+  </si>
+  <si>
+    <t>xad10093.wav</t>
+  </si>
+  <si>
+    <t>xad10108.wav</t>
+  </si>
+  <si>
+    <t>xad10109.wav</t>
+  </si>
+  <si>
+    <t>xad10117.wav</t>
+  </si>
+  <si>
+    <t>xad10119.wav</t>
+  </si>
+  <si>
+    <t>xad10120.wav</t>
+  </si>
+  <si>
+    <t>xad10126.wav</t>
+  </si>
+  <si>
+    <t>xad10127.wav</t>
+  </si>
+  <si>
+    <t>bdcorwin.baf</t>
+  </si>
+  <si>
+    <t>bdfist.baf</t>
+  </si>
+  <si>
+    <t>bdhelm08.itm</t>
+  </si>
+  <si>
+    <t>xad107.itm</t>
+  </si>
+  <si>
+    <t>xad113.itm</t>
+  </si>
+  <si>
+    <t>xad10118.wav</t>
+  </si>
+  <si>
+    <t>xad132.baf</t>
+  </si>
+  <si>
+    <t>bdthrix.cre</t>
+  </si>
+  <si>
+    <t>xag101.cre</t>
+  </si>
+  <si>
+    <t>xag126.cre</t>
+  </si>
+  <si>
+    <t>bdthrix.baf</t>
+  </si>
+  <si>
+    <t>bddcor01.baf</t>
+  </si>
+  <si>
+    <t>xag129.baf</t>
+  </si>
+  <si>
+    <t>bddcor01.itm</t>
+  </si>
+  <si>
+    <t>xag107.itm</t>
+  </si>
+  <si>
+    <t>bdtelaw.spl</t>
+  </si>
+  <si>
+    <t>xag100.spl</t>
+  </si>
+  <si>
+    <t>bdhelcat.cre</t>
+  </si>
+  <si>
+    <t>bderinye.cre</t>
+  </si>
+  <si>
+    <t>xag102.cre</t>
+  </si>
+  <si>
+    <t>xag106.cre</t>
+  </si>
+  <si>
+    <t>xag110.cre</t>
+  </si>
+  <si>
+    <t>xag117.cre</t>
+  </si>
+  <si>
+    <t>xag118.cre</t>
+  </si>
+  <si>
+    <t>xag127.cre</t>
+  </si>
+  <si>
+    <t>xag128.cre</t>
+  </si>
+  <si>
+    <t>xag132.cre</t>
+  </si>
+  <si>
+    <t>xag140.cre</t>
+  </si>
+  <si>
+    <t>bdhelcat.baf</t>
+  </si>
+  <si>
+    <t>bderinye.baf</t>
+  </si>
+  <si>
+    <t>bdarch00.baf</t>
+  </si>
+  <si>
+    <t>xag137.baf</t>
+  </si>
+  <si>
+    <t>xag136.baf</t>
+  </si>
+  <si>
+    <t>xag135.baf</t>
+  </si>
+  <si>
+    <t>xag134.baf</t>
+  </si>
+  <si>
+    <t>xag156.bam</t>
+  </si>
+  <si>
+    <t>bdhelcat.itm</t>
+  </si>
+  <si>
+    <t>bddtrai.itm</t>
+  </si>
+  <si>
+    <t>xag108.itm</t>
+  </si>
+  <si>
+    <t>xag109.itm</t>
+  </si>
+  <si>
+    <t>xag114.itm</t>
+  </si>
+  <si>
+    <t>xag115.itm</t>
+  </si>
+  <si>
+    <t>xag116.itm</t>
+  </si>
+  <si>
+    <t>xag122.itm</t>
+  </si>
+  <si>
+    <t>bdaun2.cre</t>
+  </si>
+  <si>
     <t>xag104.cre</t>
   </si>
   <si>
-    <t>bdcrus5d.cre</t>
-  </si>
-  <si>
-    <t>bdlemure.cre</t>
-  </si>
-  <si>
-    <t>xag107.cre</t>
-  </si>
-  <si>
-    <t>bdimp.cre</t>
-  </si>
-  <si>
-    <t>bdabibla.cre</t>
+    <t>xag108.cre</t>
   </si>
   <si>
     <t>xag111.cre</t>
   </si>
   <si>
-    <t>bdabigre.cre</t>
-  </si>
-  <si>
-    <t>xag112.cre</t>
-  </si>
-  <si>
-    <t>bdabired.cre</t>
-  </si>
-  <si>
-    <t>xag113.cre</t>
-  </si>
-  <si>
-    <t>bdhamatu.cre</t>
-  </si>
-  <si>
-    <t>xag114.cre</t>
-  </si>
-  <si>
-    <t>bdbonefi.cre</t>
-  </si>
-  <si>
-    <t>xag115.cre</t>
-  </si>
-  <si>
-    <t>xag116.cre</t>
-  </si>
-  <si>
-    <t>bdcrue52.cre</t>
-  </si>
-  <si>
-    <t>bdcut57b.cre</t>
-  </si>
-  <si>
-    <t>xag122.cre</t>
-  </si>
-  <si>
-    <t>bdcrue53.cre</t>
-  </si>
-  <si>
-    <t>xag123.cre</t>
-  </si>
-  <si>
-    <t>bdcrue54.cre</t>
-  </si>
-  <si>
-    <t>xag124.cre</t>
-  </si>
-  <si>
-    <t>bdcut57a.cre</t>
-  </si>
-  <si>
-    <t>xag125.cre</t>
-  </si>
-  <si>
-    <t>bdcrue50.cre</t>
-  </si>
-  <si>
-    <t>bdcut57c.cre</t>
+    <t>xag119.cre</t>
   </si>
   <si>
     <t>xag129.cre</t>
   </si>
   <si>
-    <t>bdcrue51.cre</t>
-  </si>
-  <si>
-    <t>bdcrus6d.cre</t>
-  </si>
-  <si>
-    <t>bdcrus7d.cre</t>
-  </si>
-  <si>
-    <t>xag137.cre</t>
-  </si>
-  <si>
-    <t>bdlcore.baf</t>
-  </si>
-  <si>
-    <t>xag100.baf</t>
-  </si>
-  <si>
-    <t>bdlhard.baf</t>
-  </si>
-  <si>
-    <t>xag101.baf</t>
-  </si>
-  <si>
-    <t>bdlinsa.baf</t>
-  </si>
-  <si>
-    <t>xag102.baf</t>
-  </si>
-  <si>
-    <t>bddoorav.baf</t>
-  </si>
-  <si>
-    <t>xag103.baf</t>
-  </si>
-  <si>
-    <t>bdhellbr.baf</t>
-  </si>
-  <si>
-    <t>xag104.baf</t>
-  </si>
-  <si>
-    <t>bdinfo12.baf</t>
-  </si>
-  <si>
-    <t>xag105.baf</t>
-  </si>
-  <si>
-    <t>bdelev01.baf</t>
-  </si>
-  <si>
-    <t>xag106.baf</t>
-  </si>
-  <si>
-    <t>bdelev02.baf</t>
-  </si>
-  <si>
-    <t>xag108.baf</t>
-  </si>
-  <si>
-    <t>bddmspwn.baf</t>
-  </si>
-  <si>
-    <t>xag120.baf</t>
-  </si>
-  <si>
-    <t>gt027.baf</t>
-  </si>
-  <si>
-    <t>xag121.baf</t>
-  </si>
-  <si>
-    <t>bdgt010.baf</t>
-  </si>
-  <si>
-    <t>xag122.baf</t>
-  </si>
-  <si>
-    <t>bdfugue.baf</t>
-  </si>
-  <si>
-    <t>xag123.baf</t>
-  </si>
-  <si>
-    <t>bdavernu.baf</t>
-  </si>
-  <si>
-    <t>bdimp.baf</t>
-  </si>
-  <si>
-    <t>xag127.baf</t>
-  </si>
-  <si>
-    <t>xag126.baf</t>
-  </si>
-  <si>
-    <t>xag125.baf</t>
-  </si>
-  <si>
-    <t>bdlemure.baf</t>
-  </si>
-  <si>
-    <t>xag124.baf</t>
-  </si>
-  <si>
-    <t>bdenshtv.baf</t>
-  </si>
-  <si>
-    <t>bdnonin.baf</t>
-  </si>
-  <si>
-    <t>bdfig00.baf</t>
-  </si>
-  <si>
-    <t>bdabisha.baf</t>
-  </si>
-  <si>
-    <t>bdhamatu.baf</t>
-  </si>
-  <si>
-    <t>bdbonefi.baf</t>
-  </si>
-  <si>
-    <t>ambd4400.wav</t>
-  </si>
-  <si>
-    <t>xag10000.wav</t>
-  </si>
-  <si>
-    <t>ambdlva1.wav</t>
-  </si>
-  <si>
-    <t>xag10001.wav</t>
-  </si>
-  <si>
-    <t>ambd4600.wav</t>
-  </si>
-  <si>
-    <t>xag10002.wav</t>
-  </si>
-  <si>
-    <t>ambd4601.wav</t>
-  </si>
-  <si>
-    <t>xag10004.wav</t>
-  </si>
-  <si>
-    <t>ambd4700.wav</t>
-  </si>
-  <si>
-    <t>xag10006.wav</t>
-  </si>
-  <si>
-    <t>ambd5300.wav</t>
-  </si>
-  <si>
-    <t>xag10008.wav</t>
-  </si>
-  <si>
-    <t>ambdcwnd.wav</t>
-  </si>
-  <si>
-    <t>xag10009.wav</t>
-  </si>
-  <si>
-    <t>ambddwnd.wav</t>
-  </si>
-  <si>
-    <t>xag10010.wav</t>
-  </si>
-  <si>
-    <t>ambdmtl1.wav</t>
-  </si>
-  <si>
-    <t>xag10011.wav</t>
-  </si>
-  <si>
-    <t>ambdmtl2.wav</t>
-  </si>
-  <si>
-    <t>xag10012.wav</t>
-  </si>
-  <si>
-    <t>ambdmtl3.wav</t>
-  </si>
-  <si>
-    <t>xag10013.wav</t>
-  </si>
-  <si>
-    <t>ambdmtl4.wav</t>
-  </si>
-  <si>
-    <t>xag10014.wav</t>
-  </si>
-  <si>
-    <t>ambdmtl5.wav</t>
-  </si>
-  <si>
-    <t>xag10015.wav</t>
-  </si>
-  <si>
-    <t>xag10016.wav</t>
-  </si>
-  <si>
-    <t>xag10017.wav</t>
-  </si>
-  <si>
-    <t>xag10018.wav</t>
-  </si>
-  <si>
-    <t>xag10019.wav</t>
-  </si>
-  <si>
-    <t>xag10020.wav</t>
-  </si>
-  <si>
-    <t>xag10021.wav</t>
-  </si>
-  <si>
-    <t>xag10022.wav</t>
-  </si>
-  <si>
-    <t>xag10023.wav</t>
-  </si>
-  <si>
-    <t>xag10024.wav</t>
-  </si>
-  <si>
-    <t>xag10025.wav</t>
-  </si>
-  <si>
-    <t>xag10026.wav</t>
-  </si>
-  <si>
-    <t>bd4500.wed</t>
-  </si>
-  <si>
-    <t>xag100.wed</t>
-  </si>
-  <si>
-    <t>bd4600.wed</t>
-  </si>
-  <si>
-    <t>xag101.wed</t>
-  </si>
-  <si>
-    <t>bd4601.wed</t>
-  </si>
-  <si>
-    <t>xag102.wed</t>
-  </si>
-  <si>
-    <t>bd4700.wed</t>
-  </si>
-  <si>
-    <t>xag103.wed</t>
-  </si>
-  <si>
-    <t>bd5300.wed</t>
-  </si>
-  <si>
-    <t>xag104.wed</t>
-  </si>
-  <si>
-    <t>bdflam03.bam</t>
-  </si>
-  <si>
-    <t>xag100.bam</t>
-  </si>
-  <si>
-    <t>bdflam04.bam</t>
-  </si>
-  <si>
-    <t>xag109.bam</t>
-  </si>
-  <si>
-    <t>bdflam02.bam</t>
-  </si>
-  <si>
-    <t>xag112.bam</t>
-  </si>
-  <si>
-    <t>bdfug01.bam</t>
-  </si>
-  <si>
-    <t>xag146.bam</t>
-  </si>
-  <si>
-    <t>bdfug02.bam</t>
-  </si>
-  <si>
-    <t>xag147.bam</t>
-  </si>
-  <si>
-    <t>bdfug03.bam</t>
-  </si>
-  <si>
-    <t>xag148.bam</t>
-  </si>
-  <si>
-    <t>bdfug04.bam</t>
-  </si>
-  <si>
-    <t>xag149.bam</t>
-  </si>
-  <si>
-    <t>ibda1h02.bam</t>
-  </si>
-  <si>
-    <t>xag150.bam</t>
-  </si>
-  <si>
-    <t>ibdrob03.bam</t>
-  </si>
-  <si>
-    <t>xag151.bam</t>
-  </si>
-  <si>
-    <t>ibdchn02.bam</t>
-  </si>
-  <si>
-    <t>xag152.bam</t>
-  </si>
-  <si>
-    <t>xag153.bam</t>
-  </si>
-  <si>
-    <t>bdax1h02.itm</t>
-  </si>
-  <si>
-    <t>xag100.itm</t>
-  </si>
-  <si>
-    <t>bdrobe03.itm</t>
-  </si>
-  <si>
-    <t>xag101.itm</t>
-  </si>
-  <si>
-    <t>bdstaf02.itm</t>
-  </si>
-  <si>
-    <t>xag102.itm</t>
-  </si>
-  <si>
-    <t>bdchan02.itm</t>
-  </si>
-  <si>
-    <t>xag103.itm</t>
-  </si>
-  <si>
-    <t>bdmisc21.itm</t>
-  </si>
-  <si>
-    <t>xag104.itm</t>
-  </si>
-  <si>
-    <t>bdimp.itm</t>
-  </si>
-  <si>
-    <t>xag105.itm</t>
-  </si>
-  <si>
-    <t>bdabisha.itm</t>
-  </si>
-  <si>
-    <t>xag106.itm</t>
-  </si>
-  <si>
-    <t>bdhamat2.itm</t>
-  </si>
-  <si>
-    <t>bdhamat1.itm</t>
-  </si>
-  <si>
-    <t>xag110.itm</t>
-  </si>
-  <si>
-    <t>bdbonefi.itm</t>
-  </si>
-  <si>
-    <t>xag111.itm</t>
-  </si>
-  <si>
-    <t>xag112.itm</t>
-  </si>
-  <si>
-    <t>xag113.itm</t>
-  </si>
-  <si>
-    <t>bd4500.tis</t>
-  </si>
-  <si>
-    <t>xag100.tis</t>
-  </si>
-  <si>
-    <t>bd4600.tis</t>
-  </si>
-  <si>
-    <t>xag101.tis</t>
-  </si>
-  <si>
-    <t>bd4601.tis</t>
-  </si>
-  <si>
-    <t>xag102.tis</t>
-  </si>
-  <si>
-    <t>bd4700.tis</t>
-  </si>
-  <si>
-    <t>xag103.tis</t>
-  </si>
-  <si>
-    <t>bd5300.tis</t>
-  </si>
-  <si>
-    <t>xag104.tis</t>
-  </si>
-  <si>
-    <t>corwin7.cre</t>
-  </si>
-  <si>
-    <t>xad112.cre</t>
-  </si>
-  <si>
-    <t>xad121.cre</t>
-  </si>
-  <si>
-    <t>xad123.cre</t>
-  </si>
-  <si>
-    <t>xad128.cre</t>
-  </si>
-  <si>
-    <t>xad131.cre</t>
-  </si>
-  <si>
-    <t>xad136.cre</t>
-  </si>
-  <si>
-    <t>xad146.cre</t>
-  </si>
-  <si>
-    <t>xad149.cre</t>
-  </si>
-  <si>
-    <t>xad153.cre</t>
-  </si>
-  <si>
-    <t>xad156.cre</t>
-  </si>
-  <si>
-    <t>bd68296.wav</t>
-  </si>
-  <si>
-    <t>bd68292.wav</t>
-  </si>
-  <si>
-    <t>bd68293.wav</t>
-  </si>
-  <si>
-    <t>bd68294.wav</t>
-  </si>
-  <si>
-    <t>bd68295.wav</t>
-  </si>
-  <si>
-    <t>bd68256.wav</t>
-  </si>
-  <si>
-    <t>bd68257.wav</t>
-  </si>
-  <si>
-    <t>bd68258.wav</t>
-  </si>
-  <si>
-    <t>bd68251.wav</t>
-  </si>
-  <si>
-    <t>bd68252.wav</t>
-  </si>
-  <si>
-    <t>bd68253.wav</t>
-  </si>
-  <si>
-    <t>bd68254.wav</t>
-  </si>
-  <si>
-    <t>bd68255.wav</t>
-  </si>
-  <si>
-    <t>xad10028.wav</t>
-  </si>
-  <si>
-    <t>bd68273.wav</t>
-  </si>
-  <si>
-    <t>bd68274.wav</t>
-  </si>
-  <si>
-    <t>bd68259.wav</t>
-  </si>
-  <si>
-    <t>bd68275.wav</t>
-  </si>
-  <si>
-    <t>bd68276.wav</t>
-  </si>
-  <si>
-    <t>bd68277.wav</t>
-  </si>
-  <si>
-    <t>xad10034.wav</t>
-  </si>
-  <si>
-    <t>bd68278.wav</t>
-  </si>
-  <si>
-    <t>bd68279.wav</t>
-  </si>
-  <si>
-    <t>bd68260.wav</t>
-  </si>
-  <si>
-    <t>bd68261.wav</t>
-  </si>
-  <si>
-    <t>xad10038.wav</t>
-  </si>
-  <si>
-    <t>bd68262.wav</t>
-  </si>
-  <si>
-    <t>bd68263.wav</t>
-  </si>
-  <si>
-    <t>bd68264.wav</t>
-  </si>
-  <si>
-    <t>bd68265.wav</t>
-  </si>
-  <si>
-    <t>bd68266.wav</t>
-  </si>
-  <si>
-    <t>bd68267.wav</t>
-  </si>
-  <si>
-    <t>bd68268.wav</t>
-  </si>
-  <si>
-    <t>bd68280.wav</t>
-  </si>
-  <si>
-    <t>bd68281.wav</t>
-  </si>
-  <si>
-    <t>bd68282.wav</t>
-  </si>
-  <si>
-    <t>bd68283.wav</t>
-  </si>
-  <si>
-    <t>bd68297.wav</t>
-  </si>
-  <si>
-    <t>bd68298.wav</t>
-  </si>
-  <si>
-    <t>bd68284.wav</t>
-  </si>
-  <si>
-    <t>bd68285.wav</t>
-  </si>
-  <si>
-    <t>bd68286.wav</t>
-  </si>
-  <si>
-    <t>bd68287.wav</t>
-  </si>
-  <si>
-    <t>bd68288.wav</t>
-  </si>
-  <si>
-    <t>bd68289.wav</t>
-  </si>
-  <si>
-    <t>bd68290.wav</t>
-  </si>
-  <si>
-    <t>bd68291.wav</t>
-  </si>
-  <si>
-    <t>xad10072.wav</t>
-  </si>
-  <si>
-    <t>xad10064.wav</t>
-  </si>
-  <si>
-    <t>xad10091.wav</t>
-  </si>
-  <si>
-    <t>xad10092.wav</t>
-  </si>
-  <si>
-    <t>xad10093.wav</t>
-  </si>
-  <si>
-    <t>xad10108.wav</t>
-  </si>
-  <si>
-    <t>xad10109.wav</t>
-  </si>
-  <si>
-    <t>xad10117.wav</t>
-  </si>
-  <si>
-    <t>xad10119.wav</t>
-  </si>
-  <si>
-    <t>xad10120.wav</t>
-  </si>
-  <si>
-    <t>xad10126.wav</t>
-  </si>
-  <si>
-    <t>xad10127.wav</t>
-  </si>
-  <si>
-    <t>bdcorwin.baf</t>
-  </si>
-  <si>
-    <t>bdfist.baf</t>
-  </si>
-  <si>
-    <t>bdhelm08.itm</t>
-  </si>
-  <si>
-    <t>xad107.itm</t>
-  </si>
-  <si>
-    <t>xad113.itm</t>
-  </si>
-  <si>
-    <t>xad10118.wav</t>
-  </si>
-  <si>
-    <t>xad132.baf</t>
-  </si>
-  <si>
-    <t>bdthrix.cre</t>
-  </si>
-  <si>
-    <t>xag101.cre</t>
-  </si>
-  <si>
-    <t>xag105.cre</t>
-  </si>
-  <si>
-    <t>xag108.cre</t>
-  </si>
-  <si>
-    <t>xag126.cre</t>
-  </si>
-  <si>
-    <t>xag130.cre</t>
-  </si>
-  <si>
     <t>xag133.cre</t>
   </si>
   <si>
-    <t>xag138.cre</t>
-  </si>
-  <si>
-    <t>bdthrix.baf</t>
-  </si>
-  <si>
-    <t>bddcor01.baf</t>
-  </si>
-  <si>
-    <t>xag145.baf</t>
-  </si>
-  <si>
-    <t>xag140.baf</t>
+    <t>xag136.cre</t>
+  </si>
+  <si>
+    <t>xag141.cre</t>
+  </si>
+  <si>
+    <t>garren03.wav</t>
+  </si>
+  <si>
+    <t>garren04.wav</t>
+  </si>
+  <si>
+    <t>garren05.wav</t>
+  </si>
+  <si>
+    <t>garren01.wav</t>
+  </si>
+  <si>
+    <t>xag10003.wav</t>
+  </si>
+  <si>
+    <t>xag10005.wav</t>
+  </si>
+  <si>
+    <t>xag10027.wav</t>
+  </si>
+  <si>
+    <t>xag10028.wav</t>
+  </si>
+  <si>
+    <t>xag10029.wav</t>
+  </si>
+  <si>
+    <t>xag10030.wav</t>
+  </si>
+  <si>
+    <t>bdaun.baf</t>
+  </si>
+  <si>
+    <t>xag107.baf</t>
+  </si>
+  <si>
+    <t>xag110.baf</t>
+  </si>
+  <si>
+    <t>xag128.baf</t>
   </si>
   <si>
     <t>xag131.baf</t>
   </si>
   <si>
-    <t>xag130.baf</t>
-  </si>
-  <si>
-    <t>xag129.baf</t>
-  </si>
-  <si>
-    <t>xag128.baf</t>
-  </si>
-  <si>
-    <t>xag150.baf</t>
-  </si>
-  <si>
-    <t>xag159.baf</t>
-  </si>
-  <si>
-    <t>xag162.baf</t>
-  </si>
-  <si>
-    <t>bddcor01.itm</t>
-  </si>
-  <si>
-    <t>xag107.itm</t>
-  </si>
-  <si>
-    <t>xag119.itm</t>
-  </si>
-  <si>
-    <t>bdtelaw.spl</t>
-  </si>
-  <si>
-    <t>xag100.spl</t>
+    <t>xag167.baf</t>
+  </si>
+  <si>
+    <t>xag158.baf</t>
+  </si>
+  <si>
+    <t>xag153.baf</t>
+  </si>
+  <si>
+    <t>xag148.baf</t>
+  </si>
+  <si>
+    <t>xag139.baf</t>
+  </si>
+  <si>
+    <t>xag138.baf</t>
+  </si>
+  <si>
+    <t>xag170.baf</t>
   </si>
 </sst>
 </file>
@@ -48708,7 +48789,7 @@
     </row>
     <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>5514</v>
+        <v>5497</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>3513</v>
@@ -48720,7 +48801,7 @@
     </row>
     <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>5515</v>
+        <v>5498</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3514</v>
@@ -48732,7 +48813,7 @@
     </row>
     <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>5516</v>
+        <v>5499</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3515</v>
@@ -48744,7 +48825,7 @@
     </row>
     <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>5517</v>
+        <v>5500</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3516</v>
@@ -48756,7 +48837,7 @@
     </row>
     <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>5518</v>
+        <v>5501</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>3517</v>
@@ -48768,7 +48849,7 @@
     </row>
     <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>5519</v>
+        <v>5502</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>3518</v>
@@ -48780,7 +48861,7 @@
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>5520</v>
+        <v>5503</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>3635</v>
@@ -48792,7 +48873,7 @@
     </row>
     <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>5521</v>
+        <v>5504</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>3519</v>
@@ -48804,7 +48885,7 @@
     </row>
     <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>5522</v>
+        <v>5505</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>3520</v>
@@ -48816,7 +48897,7 @@
     </row>
     <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>5523</v>
+        <v>5506</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>3655</v>
@@ -48828,7 +48909,7 @@
     </row>
     <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>5524</v>
+        <v>5507</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>3521</v>
@@ -48840,7 +48921,7 @@
     </row>
     <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>5525</v>
+        <v>5508</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>3522</v>
@@ -48852,10 +48933,10 @@
     </row>
     <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>5526</v>
+        <v>5509</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5527</v>
+        <v>5510</v>
       </c>
       <c r="C32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -48864,7 +48945,7 @@
     </row>
     <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>5528</v>
+        <v>5511</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>3523</v>
@@ -48876,7 +48957,7 @@
     </row>
     <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>5529</v>
+        <v>5512</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>3524</v>
@@ -48888,7 +48969,7 @@
     </row>
     <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>5530</v>
+        <v>5513</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3656</v>
@@ -48900,7 +48981,7 @@
     </row>
     <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>5531</v>
+        <v>5514</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>3636</v>
@@ -48912,7 +48993,7 @@
     </row>
     <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>5532</v>
+        <v>5515</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>3525</v>
@@ -48924,10 +49005,10 @@
     </row>
     <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>5533</v>
+        <v>5516</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5534</v>
+        <v>5517</v>
       </c>
       <c r="C38" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48936,7 +49017,7 @@
     </row>
     <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>5535</v>
+        <v>5518</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>3657</v>
@@ -48948,7 +49029,7 @@
     </row>
     <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>5536</v>
+        <v>5519</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>3526</v>
@@ -48960,7 +49041,7 @@
     </row>
     <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>5537</v>
+        <v>5520</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>3527</v>
@@ -48972,10 +49053,10 @@
     </row>
     <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>5538</v>
+        <v>5521</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5539</v>
+        <v>5522</v>
       </c>
       <c r="C42" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48984,7 +49065,7 @@
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>5540</v>
+        <v>5523</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>3528</v>
@@ -48996,7 +49077,7 @@
     </row>
     <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>5541</v>
+        <v>5524</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>3529</v>
@@ -49008,7 +49089,7 @@
     </row>
     <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>5542</v>
+        <v>5525</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>3530</v>
@@ -49020,7 +49101,7 @@
     </row>
     <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>5543</v>
+        <v>5526</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>3531</v>
@@ -49032,7 +49113,7 @@
     </row>
     <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>5544</v>
+        <v>5527</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>3532</v>
@@ -49044,7 +49125,7 @@
     </row>
     <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>5545</v>
+        <v>5528</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>3533</v>
@@ -49056,7 +49137,7 @@
     </row>
     <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>5546</v>
+        <v>5529</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>3534</v>
@@ -49068,7 +49149,7 @@
     </row>
     <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>5547</v>
+        <v>5530</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>3535</v>
@@ -49080,7 +49161,7 @@
     </row>
     <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>5548</v>
+        <v>5531</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>3536</v>
@@ -49092,7 +49173,7 @@
     </row>
     <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>5549</v>
+        <v>5532</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>3537</v>
@@ -49104,7 +49185,7 @@
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>5550</v>
+        <v>5533</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>3538</v>
@@ -49116,7 +49197,7 @@
     </row>
     <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>5551</v>
+        <v>5534</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>3539</v>
@@ -49128,7 +49209,7 @@
     </row>
     <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>5552</v>
+        <v>5535</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>3540</v>
@@ -49140,7 +49221,7 @@
     </row>
     <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>5553</v>
+        <v>5536</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>3541</v>
@@ -49152,7 +49233,7 @@
     </row>
     <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>5554</v>
+        <v>5537</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>3542</v>
@@ -49164,7 +49245,7 @@
     </row>
     <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>5555</v>
+        <v>5538</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>3543</v>
@@ -49176,7 +49257,7 @@
     </row>
     <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>5556</v>
+        <v>5539</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>3544</v>
@@ -49188,7 +49269,7 @@
     </row>
     <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>5557</v>
+        <v>5540</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>3637</v>
@@ -49200,7 +49281,7 @@
     </row>
     <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>5558</v>
+        <v>5541</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>3545</v>
@@ -49212,7 +49293,7 @@
     </row>
     <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>5559</v>
+        <v>5542</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>3546</v>
@@ -49224,7 +49305,7 @@
     </row>
     <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>5560</v>
+        <v>5543</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>3658</v>
@@ -49263,7 +49344,7 @@
         <v>3307</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>5562</v>
+        <v>5545</v>
       </c>
       <c r="C66" s="3" t="str">
         <f t="shared" ref="C66:C97" si="2">RIGHT(B66,3)</f>
@@ -49323,7 +49404,7 @@
         <v>1549</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>5561</v>
+        <v>5544</v>
       </c>
       <c r="C71" s="3" t="str">
         <f t="shared" si="2"/>
@@ -49479,7 +49560,7 @@
         <v>3568</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>5563</v>
+        <v>5546</v>
       </c>
       <c r="C84" s="3" t="str">
         <f t="shared" si="2"/>
@@ -49491,7 +49572,7 @@
         <v>3390</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>5564</v>
+        <v>5547</v>
       </c>
       <c r="C85" s="3" t="str">
         <f t="shared" si="2"/>
@@ -49503,7 +49584,7 @@
         <v>3389</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>5565</v>
+        <v>5548</v>
       </c>
       <c r="C86" s="3" t="str">
         <f t="shared" si="2"/>
@@ -49635,7 +49716,7 @@
         <v>3571</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>5566</v>
+        <v>5549</v>
       </c>
       <c r="C97" s="3" t="str">
         <f t="shared" si="2"/>
@@ -49647,7 +49728,7 @@
         <v>3572</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>5567</v>
+        <v>5550</v>
       </c>
       <c r="C98" s="3" t="str">
         <f t="shared" ref="C98:C129" si="3">RIGHT(B98,3)</f>
@@ -49671,7 +49752,7 @@
         <v>3574</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>5568</v>
+        <v>5551</v>
       </c>
       <c r="C100" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49683,7 +49764,7 @@
         <v>3575</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>5578</v>
+        <v>5561</v>
       </c>
       <c r="C101" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49695,7 +49776,7 @@
         <v>3576</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>5569</v>
+        <v>5552</v>
       </c>
       <c r="C102" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49707,7 +49788,7 @@
         <v>3577</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>5570</v>
+        <v>5553</v>
       </c>
       <c r="C103" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49719,7 +49800,7 @@
         <v>2118</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>5571</v>
+        <v>5554</v>
       </c>
       <c r="C104" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49731,7 +49812,7 @@
         <v>2122</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>5572</v>
+        <v>5555</v>
       </c>
       <c r="C105" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49848,7 +49929,7 @@
     </row>
     <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>5575</v>
+        <v>5558</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>5318</v>
@@ -49860,7 +49941,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>5503</v>
+        <v>5486</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>3476</v>
@@ -49887,7 +49968,7 @@
         <v>3601</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>5576</v>
+        <v>5559</v>
       </c>
       <c r="C118" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49959,7 +50040,7 @@
         <v>3479</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>5504</v>
+        <v>5487</v>
       </c>
       <c r="C124" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49983,7 +50064,7 @@
         <v>3437</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>5577</v>
+        <v>5560</v>
       </c>
       <c r="C126" s="3" t="str">
         <f t="shared" si="3"/>
@@ -50139,7 +50220,7 @@
         <v>3490</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>5505</v>
+        <v>5488</v>
       </c>
       <c r="C139" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50148,7 +50229,7 @@
     </row>
     <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>5573</v>
+        <v>5556</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>3591</v>
@@ -50160,7 +50241,7 @@
     </row>
     <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>5574</v>
+        <v>5557</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>3639</v>
@@ -50175,7 +50256,7 @@
         <v>3258</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>5506</v>
+        <v>5489</v>
       </c>
       <c r="C142" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50199,7 +50280,7 @@
         <v>3492</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>5507</v>
+        <v>5490</v>
       </c>
       <c r="C144" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50223,7 +50304,7 @@
         <v>3493</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>5508</v>
+        <v>5491</v>
       </c>
       <c r="C146" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50235,7 +50316,7 @@
         <v>3031</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>5579</v>
+        <v>5562</v>
       </c>
       <c r="C147" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50271,7 +50352,7 @@
         <v>3495</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>5509</v>
+        <v>5492</v>
       </c>
       <c r="C150" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50295,7 +50376,7 @@
         <v>3496</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>5510</v>
+        <v>5493</v>
       </c>
       <c r="C152" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50307,7 +50388,7 @@
         <v>3497</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>5511</v>
+        <v>5494</v>
       </c>
       <c r="C153" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50343,7 +50424,7 @@
         <v>3499</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>5512</v>
+        <v>5495</v>
       </c>
       <c r="C156" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50379,7 +50460,7 @@
         <v>3500</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>5513</v>
+        <v>5496</v>
       </c>
       <c r="C159" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50821,11 +50902,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F0131F-33AF-4648-9455-CFE6248322BD}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50846,72 +50926,72 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5319</v>
+        <v>5600</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5320</v>
+        <v>5330</v>
       </c>
       <c r="C2" s="5" t="str">
         <f t="shared" ref="C2:C65" si="0">RIGHT(B2,3)</f>
-        <v>are</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5321</v>
+        <v>5563</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5322</v>
+        <v>5564</v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>are</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5323</v>
+        <v>5573</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5324</v>
+        <v>5575</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>are</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5325</v>
+        <v>5574</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5326</v>
+        <v>5333</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>are</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5327</v>
+        <v>5329</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5328</v>
+        <v>5601</v>
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>are</v>
+        <v>cre</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5580</v>
+        <v>5331</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5330</v>
+        <v>5576</v>
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50920,10 +51000,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5329</v>
+        <v>5332</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>5581</v>
+        <v>5337</v>
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50932,10 +51012,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5331</v>
+        <v>5334</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>5333</v>
+        <v>5602</v>
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50944,10 +51024,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>5332</v>
+        <v>5335</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5335</v>
+        <v>5577</v>
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50956,10 +51036,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5334</v>
+        <v>5336</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>5582</v>
+        <v>5603</v>
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50968,10 +51048,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>5336</v>
+        <v>5338</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5338</v>
+        <v>5343</v>
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50980,10 +51060,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>5337</v>
+        <v>5339</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>5583</v>
+        <v>5345</v>
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50992,10 +51072,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>5339</v>
+        <v>5340</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5341</v>
+        <v>5346</v>
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51004,10 +51084,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>5340</v>
+        <v>5341</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>5343</v>
+        <v>5578</v>
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51019,7 +51099,7 @@
         <v>5342</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>5345</v>
+        <v>5579</v>
       </c>
       <c r="C16" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51031,7 +51111,7 @@
         <v>5344</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>5347</v>
+        <v>5604</v>
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51040,10 +51120,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>5346</v>
+        <v>5347</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>5349</v>
+        <v>5352</v>
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51055,7 +51135,7 @@
         <v>5348</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5350</v>
+        <v>5565</v>
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51064,10 +51144,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>5351</v>
+        <v>5349</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5353</v>
+        <v>5580</v>
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51076,10 +51156,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>5352</v>
+        <v>5350</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5355</v>
+        <v>5581</v>
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51088,10 +51168,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>5354</v>
+        <v>5351</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5357</v>
+        <v>5605</v>
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51100,10 +51180,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>5356</v>
+        <v>5353</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5359</v>
+        <v>5582</v>
       </c>
       <c r="C23" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51112,10 +51192,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>5358</v>
+        <v>5354</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5584</v>
+        <v>5606</v>
       </c>
       <c r="C24" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51124,10 +51204,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>5360</v>
+        <v>5355</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5362</v>
+        <v>5607</v>
       </c>
       <c r="C25" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51136,10 +51216,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>5361</v>
+        <v>5356</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5585</v>
+        <v>5583</v>
       </c>
       <c r="C26" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51148,10 +51228,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>5363</v>
+        <v>5357</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5586</v>
+        <v>5608</v>
       </c>
       <c r="C27" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51160,1050 +51240,1152 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>5364</v>
+        <v>5319</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5366</v>
+        <v>5320</v>
       </c>
       <c r="C28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>cre</v>
+        <v>are</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>5365</v>
+        <v>5321</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5587</v>
+        <v>5322</v>
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>are</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>5602</v>
+        <v>5323</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5603</v>
+        <v>5324</v>
       </c>
       <c r="C30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>spl</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>are</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>5367</v>
+        <v>5325</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5368</v>
+        <v>5326</v>
       </c>
       <c r="C31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>are</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>5369</v>
+        <v>5327</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5370</v>
+        <v>5328</v>
       </c>
       <c r="C32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>are</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>5371</v>
+        <v>5571</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>5372</v>
+        <v>5572</v>
       </c>
       <c r="C33" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>spl</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>5373</v>
+        <v>5609</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>5374</v>
+        <v>5393</v>
       </c>
       <c r="C34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>5375</v>
+        <v>5610</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5376</v>
+        <v>5395</v>
       </c>
       <c r="C35" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>5377</v>
+        <v>5611</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5378</v>
+        <v>5397</v>
       </c>
       <c r="C36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>5379</v>
+        <v>5612</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5380</v>
+        <v>5613</v>
       </c>
       <c r="C37" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>5381</v>
+        <v>5392</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5382</v>
+        <v>5399</v>
       </c>
       <c r="C38" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>5383</v>
+        <v>5394</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>5384</v>
+        <v>5614</v>
       </c>
       <c r="C39" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>5385</v>
+        <v>5396</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>5386</v>
+        <v>5401</v>
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>5387</v>
+        <v>5398</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>5388</v>
+        <v>5403</v>
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>5389</v>
+        <v>5400</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5390</v>
+        <v>5406</v>
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>5588</v>
+        <v>5402</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5397</v>
+        <v>5409</v>
       </c>
       <c r="C43" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>5398</v>
+        <v>5404</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>5395</v>
+        <v>5411</v>
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>5589</v>
+        <v>5405</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>5394</v>
+        <v>5413</v>
       </c>
       <c r="C45" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>5400</v>
+        <v>5407</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>5393</v>
+        <v>5415</v>
       </c>
       <c r="C46" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>5399</v>
+        <v>5408</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5590</v>
+        <v>5416</v>
       </c>
       <c r="C47" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>5391</v>
+        <v>5410</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>5591</v>
+        <v>5417</v>
       </c>
       <c r="C48" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>5392</v>
+        <v>5412</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>5592</v>
+        <v>5418</v>
       </c>
       <c r="C49" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>3191</v>
+        <v>5414</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>5593</v>
+        <v>5419</v>
       </c>
       <c r="C50" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>3189</v>
+        <v>3302</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>5594</v>
+        <v>5420</v>
       </c>
       <c r="C51" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>5396</v>
+        <v>3303</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>5595</v>
+        <v>5421</v>
       </c>
       <c r="C52" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>5401</v>
+        <v>3304</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>5596</v>
+        <v>5422</v>
       </c>
       <c r="C53" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>5402</v>
+        <v>4820</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>5597</v>
+        <v>5423</v>
       </c>
       <c r="C54" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>5403</v>
+        <v>3373</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>5598</v>
+        <v>5424</v>
       </c>
       <c r="C55" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>5404</v>
+        <v>3374</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>5405</v>
+        <v>5425</v>
       </c>
       <c r="C56" s="5" t="str">
         <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>5406</v>
+        <v>1415</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>5407</v>
+        <v>5426</v>
       </c>
       <c r="C57" s="5" t="str">
         <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>5408</v>
+        <v>1416</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>5409</v>
+        <v>5615</v>
       </c>
       <c r="C58" s="5" t="str">
         <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>5410</v>
+        <v>3323</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>5411</v>
+        <v>5616</v>
       </c>
       <c r="C59" s="5" t="str">
         <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>5412</v>
+        <v>3324</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>5413</v>
+        <v>5617</v>
       </c>
       <c r="C60" s="5" t="str">
         <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>5414</v>
+        <v>3325</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>5415</v>
+        <v>5618</v>
       </c>
       <c r="C61" s="5" t="str">
         <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>5416</v>
+        <v>5619</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>5417</v>
+        <v>5359</v>
       </c>
       <c r="C62" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>5418</v>
+        <v>5358</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>5419</v>
+        <v>5362</v>
       </c>
       <c r="C63" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>5420</v>
+        <v>5360</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>5421</v>
+        <v>5364</v>
       </c>
       <c r="C64" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>5422</v>
+        <v>5361</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>5423</v>
+        <v>5366</v>
       </c>
       <c r="C65" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>5424</v>
+        <v>5363</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>5425</v>
+        <v>5368</v>
       </c>
       <c r="C66" s="5" t="str">
-        <f t="shared" ref="C66:C115" si="1">RIGHT(B66,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C66:C113" si="1">RIGHT(B66,3)</f>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>5426</v>
+        <v>5365</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>5427</v>
+        <v>5370</v>
       </c>
       <c r="C67" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>5428</v>
+        <v>5367</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>5429</v>
+        <v>5620</v>
       </c>
       <c r="C68" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>3302</v>
+        <v>5369</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>5430</v>
+        <v>5372</v>
       </c>
       <c r="C69" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>3303</v>
+        <v>5371</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>5431</v>
+        <v>5621</v>
       </c>
       <c r="C70" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>3304</v>
+        <v>5373</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>5432</v>
+        <v>5376</v>
       </c>
       <c r="C71" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>4820</v>
+        <v>5374</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>5433</v>
+        <v>5378</v>
       </c>
       <c r="C72" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>3373</v>
+        <v>5375</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>5434</v>
+        <v>5385</v>
       </c>
       <c r="C73" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>3374</v>
+        <v>5377</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>5435</v>
+        <v>5383</v>
       </c>
       <c r="C74" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>1415</v>
+        <v>5566</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>5436</v>
+        <v>5382</v>
       </c>
       <c r="C75" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>1416</v>
+        <v>5386</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>5437</v>
+        <v>5381</v>
       </c>
       <c r="C76" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>3323</v>
+        <v>5567</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>5438</v>
+        <v>5622</v>
       </c>
       <c r="C77" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>3324</v>
+        <v>5388</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>5439</v>
+        <v>5568</v>
       </c>
       <c r="C78" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>3325</v>
+        <v>5584</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>5440</v>
+        <v>5623</v>
       </c>
       <c r="C79" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>5441</v>
+        <v>5585</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>5442</v>
+        <v>5590</v>
       </c>
       <c r="C80" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wed</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>5443</v>
+        <v>5586</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>5444</v>
+        <v>5589</v>
       </c>
       <c r="C81" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wed</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>5445</v>
+        <v>5390</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>5446</v>
+        <v>5624</v>
       </c>
       <c r="C82" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wed</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>5447</v>
+        <v>5389</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>5448</v>
+        <v>5625</v>
       </c>
       <c r="C83" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wed</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>5449</v>
+        <v>5387</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>5450</v>
+        <v>5626</v>
       </c>
       <c r="C84" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wed</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>5451</v>
+        <v>5379</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>5452</v>
+        <v>5627</v>
       </c>
       <c r="C85" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bam</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>5453</v>
+        <v>5380</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>5454</v>
+        <v>5628</v>
       </c>
       <c r="C86" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bam</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>5455</v>
+        <v>3191</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>5456</v>
+        <v>5629</v>
       </c>
       <c r="C87" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bam</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>5457</v>
+        <v>3189</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>5458</v>
+        <v>5587</v>
       </c>
       <c r="C88" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bam</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>5459</v>
+        <v>5384</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>5460</v>
+        <v>5588</v>
       </c>
       <c r="C89" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bam</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>5461</v>
+        <v>5391</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>5462</v>
+        <v>5630</v>
       </c>
       <c r="C90" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bam</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>5463</v>
+        <v>5427</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>5464</v>
+        <v>5428</v>
       </c>
       <c r="C91" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bam</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wed</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>5465</v>
+        <v>5429</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>5466</v>
+        <v>5430</v>
       </c>
       <c r="C92" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bam</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wed</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>5467</v>
+        <v>5431</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>5468</v>
+        <v>5432</v>
       </c>
       <c r="C93" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bam</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wed</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>5469</v>
+        <v>5433</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>5470</v>
+        <v>5434</v>
       </c>
       <c r="C94" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bam</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wed</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>3446</v>
+        <v>5435</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>5471</v>
+        <v>5436</v>
       </c>
       <c r="C95" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bam</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wed</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>5472</v>
+        <v>5437</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>5473</v>
+        <v>5438</v>
       </c>
       <c r="C96" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>5474</v>
+        <v>5439</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>5475</v>
+        <v>5440</v>
       </c>
       <c r="C97" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>5476</v>
+        <v>5441</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>5477</v>
+        <v>5442</v>
       </c>
       <c r="C98" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>5478</v>
+        <v>5443</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>5479</v>
+        <v>5444</v>
       </c>
       <c r="C99" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>5480</v>
+        <v>5445</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>5481</v>
+        <v>5446</v>
       </c>
       <c r="C100" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>5599</v>
+        <v>5447</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>5483</v>
+        <v>5448</v>
       </c>
       <c r="C101" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>5482</v>
+        <v>5449</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>5485</v>
+        <v>5450</v>
       </c>
       <c r="C102" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>5484</v>
+        <v>5451</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>5600</v>
+        <v>5452</v>
       </c>
       <c r="C103" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>5486</v>
+        <v>5453</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>5488</v>
+        <v>5454</v>
       </c>
       <c r="C104" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>5487</v>
+        <v>5455</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>5490</v>
+        <v>5456</v>
       </c>
       <c r="C105" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>5489</v>
+        <v>3446</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>5491</v>
+        <v>5591</v>
       </c>
       <c r="C106" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>3429</v>
+        <v>5457</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>5492</v>
+        <v>5458</v>
       </c>
       <c r="C107" s="5" t="str">
         <f t="shared" si="1"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>3431</v>
+        <v>5459</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>5601</v>
+        <v>5460</v>
       </c>
       <c r="C108" s="5" t="str">
         <f t="shared" si="1"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>5493</v>
+        <v>5461</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>5494</v>
+        <v>5462</v>
       </c>
       <c r="C109" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>tis</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>5495</v>
+        <v>5463</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>5496</v>
+        <v>5464</v>
       </c>
       <c r="C110" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>tis</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>5497</v>
+        <v>5465</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>5498</v>
+        <v>5466</v>
       </c>
       <c r="C111" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>tis</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>5499</v>
+        <v>5569</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>5500</v>
+        <v>5468</v>
       </c>
       <c r="C112" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>tis</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>5501</v>
+        <v>5592</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>5502</v>
+        <v>5470</v>
       </c>
       <c r="C113" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>tis</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>5593</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>5570</v>
+      </c>
       <c r="C114" s="5"/>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>5594</v>
+      </c>
       <c r="C115" s="5"/>
     </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>5469</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>5473</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>5467</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>5595</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>5471</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>5475</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>5472</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>5596</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>5474</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>5597</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>5598</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>3431</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>5476</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>5477</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>5478</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>5479</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>5480</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>5481</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>5482</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>5483</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>5484</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>5485</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C115" xr:uid="{90F0131F-33AF-4648-9455-CFE6248322BD}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="cre"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C115" xr:uid="{90F0131F-33AF-4648-9455-CFE6248322BD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/EE/generated/referenceTable.xlsx
+++ b/EE/generated/referenceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\generated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E709C08C-7690-4AAD-B503-C9A7246338BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74E7FDE-DB2C-4CA2-8295-D0D11C128EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11445" yWindow="2220" windowWidth="11385" windowHeight="11835" firstSheet="3" activeTab="5" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Block A" sheetId="4" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5771" uniqueCount="5631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5795" uniqueCount="5655">
   <si>
     <t>aasim.cre</t>
   </si>
@@ -14989,9 +14989,6 @@
     <t>xac104.bam</t>
   </si>
   <si>
-    <t>xac103.bam</t>
-  </si>
-  <si>
     <t>xac102.bam</t>
   </si>
   <si>
@@ -15787,9 +15784,6 @@
     <t>xac119.bam</t>
   </si>
   <si>
-    <t>xac118.bam</t>
-  </si>
-  <si>
     <t>xaa441.dlg</t>
   </si>
   <si>
@@ -16411,15 +16405,9 @@
     <t>ibdrob03.bam</t>
   </si>
   <si>
-    <t>xag151.bam</t>
-  </si>
-  <si>
     <t>ibdchn02.bam</t>
   </si>
   <si>
-    <t>xag152.bam</t>
-  </si>
-  <si>
     <t>bdax1h02.itm</t>
   </si>
   <si>
@@ -16822,9 +16810,6 @@
     <t>xag134.baf</t>
   </si>
   <si>
-    <t>xag156.bam</t>
-  </si>
-  <si>
     <t>bdhelcat.itm</t>
   </si>
   <si>
@@ -16940,6 +16925,93 @@
   </si>
   <si>
     <t>xag170.baf</t>
+  </si>
+  <si>
+    <t>undedhit.eff</t>
+  </si>
+  <si>
+    <t>xaa102.eff</t>
+  </si>
+  <si>
+    <t>sw1h79.eff</t>
+  </si>
+  <si>
+    <t>xaa101.eff</t>
+  </si>
+  <si>
+    <t>destself.eff</t>
+  </si>
+  <si>
+    <t>xaa100.eff</t>
+  </si>
+  <si>
+    <t>xac127.bam</t>
+  </si>
+  <si>
+    <t>bdsw1hca.eff</t>
+  </si>
+  <si>
+    <t>xac100.eff</t>
+  </si>
+  <si>
+    <t>bdankhsu.eff</t>
+  </si>
+  <si>
+    <t>xac101.eff</t>
+  </si>
+  <si>
+    <t>bdbow06.spl</t>
+  </si>
+  <si>
+    <t>xad101.spl</t>
+  </si>
+  <si>
+    <t>bdax1h02.spl</t>
+  </si>
+  <si>
+    <t>xag101.spl</t>
+  </si>
+  <si>
+    <t>bddcor01.spl</t>
+  </si>
+  <si>
+    <t>xag105.spl</t>
+  </si>
+  <si>
+    <t>bddcor1a.spl</t>
+  </si>
+  <si>
+    <t>xag107.spl</t>
+  </si>
+  <si>
+    <t>bdbonefi.spl</t>
+  </si>
+  <si>
+    <t>xag113.spl</t>
+  </si>
+  <si>
+    <t>bdimpale.spl</t>
+  </si>
+  <si>
+    <t>xag111.spl</t>
+  </si>
+  <si>
+    <t>bdhafear.spl</t>
+  </si>
+  <si>
+    <t>xag109.spl</t>
+  </si>
+  <si>
+    <t>xag153.bam</t>
+  </si>
+  <si>
+    <t>xag155.bam</t>
+  </si>
+  <si>
+    <t>xag166.bam</t>
+  </si>
+  <si>
+    <t>xac126.bam</t>
   </si>
 </sst>
 </file>
@@ -17298,8 +17370,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8A4AD6E-EAAC-458B-B718-74D41769F88F}" name="Table13" displayName="Table13" ref="A1:C1942" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:C1942" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8A4AD6E-EAAC-458B-B718-74D41769F88F}" name="Table13" displayName="Table13" ref="A1:C1945" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:C1945" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C1939">
     <sortCondition ref="A1:A1940"/>
   </sortState>
@@ -17315,8 +17387,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}" name="Table1" displayName="Table1" ref="A1:C629" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C629" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}" name="Table1" displayName="Table1" ref="A1:C631" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C631" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C131">
     <sortCondition ref="A1:A612"/>
   </sortState>
@@ -17648,10 +17720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB79911A-7560-43EB-97A7-E09735CAF03B}">
-  <dimension ref="A1:C1942"/>
+  <dimension ref="A1:C1945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39133,7 +39205,7 @@
         <v>2628</v>
       </c>
       <c r="B1790" s="1" t="s">
-        <v>5247</v>
+        <v>5245</v>
       </c>
       <c r="C1790" s="1" t="str">
         <f t="shared" si="28"/>
@@ -39169,7 +39241,7 @@
         <v>2477</v>
       </c>
       <c r="B1793" s="1" t="s">
-        <v>5248</v>
+        <v>5246</v>
       </c>
       <c r="C1793" s="1" t="str">
         <f t="shared" si="28"/>
@@ -39181,7 +39253,7 @@
         <v>2630</v>
       </c>
       <c r="B1794" s="1" t="s">
-        <v>5249</v>
+        <v>5247</v>
       </c>
       <c r="C1794" s="1" t="str">
         <f t="shared" si="28"/>
@@ -39190,10 +39262,10 @@
     </row>
     <row r="1795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1795" s="1" t="s">
-        <v>5250</v>
+        <v>5248</v>
       </c>
       <c r="B1795" s="1" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
       <c r="C1795" s="1" t="str">
         <f t="shared" si="28"/>
@@ -39205,7 +39277,7 @@
         <v>2821</v>
       </c>
       <c r="B1796" s="1" t="s">
-        <v>5252</v>
+        <v>5250</v>
       </c>
       <c r="C1796" s="1" t="str">
         <f t="shared" si="28"/>
@@ -39217,7 +39289,7 @@
         <v>2498</v>
       </c>
       <c r="B1797" s="1" t="s">
-        <v>5253</v>
+        <v>5251</v>
       </c>
       <c r="C1797" s="1" t="str">
         <f t="shared" ref="C1797:C1860" si="29">RIGHT(B1797,3)</f>
@@ -39229,7 +39301,7 @@
         <v>1078</v>
       </c>
       <c r="B1798" s="1" t="s">
-        <v>5254</v>
+        <v>5252</v>
       </c>
       <c r="C1798" s="1" t="str">
         <f t="shared" si="29"/>
@@ -39241,7 +39313,7 @@
         <v>1877</v>
       </c>
       <c r="B1799" s="1" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="C1799" s="1" t="str">
         <f t="shared" si="29"/>
@@ -39253,7 +39325,7 @@
         <v>2868</v>
       </c>
       <c r="B1800" s="1" t="s">
-        <v>5256</v>
+        <v>5254</v>
       </c>
       <c r="C1800" s="1" t="str">
         <f t="shared" si="29"/>
@@ -39262,10 +39334,10 @@
     </row>
     <row r="1801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1801" s="1" t="s">
-        <v>5257</v>
+        <v>5255</v>
       </c>
       <c r="B1801" s="1" t="s">
-        <v>5258</v>
+        <v>5256</v>
       </c>
       <c r="C1801" s="1" t="str">
         <f t="shared" si="29"/>
@@ -39277,7 +39349,7 @@
         <v>2478</v>
       </c>
       <c r="B1802" s="1" t="s">
-        <v>5259</v>
+        <v>5257</v>
       </c>
       <c r="C1802" s="1" t="str">
         <f t="shared" si="29"/>
@@ -39289,7 +39361,7 @@
         <v>2869</v>
       </c>
       <c r="B1803" s="1" t="s">
-        <v>5260</v>
+        <v>5258</v>
       </c>
       <c r="C1803" s="1" t="str">
         <f t="shared" si="29"/>
@@ -39301,7 +39373,7 @@
         <v>2832</v>
       </c>
       <c r="B1804" s="1" t="s">
-        <v>5261</v>
+        <v>5259</v>
       </c>
       <c r="C1804" s="1" t="str">
         <f t="shared" si="29"/>
@@ -39313,7 +39385,7 @@
         <v>1203</v>
       </c>
       <c r="B1805" s="1" t="s">
-        <v>5262</v>
+        <v>5260</v>
       </c>
       <c r="C1805" s="1" t="str">
         <f t="shared" si="29"/>
@@ -40618,46 +40690,46 @@
     </row>
     <row r="1914" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1914" s="1" t="s">
-        <v>2860</v>
+        <v>5626</v>
       </c>
       <c r="B1914" s="1" t="s">
-        <v>2861</v>
+        <v>5627</v>
       </c>
       <c r="C1914" s="1" t="str">
         <f t="shared" si="30"/>
-        <v>sto</v>
+        <v>eff</v>
       </c>
     </row>
     <row r="1915" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1915" s="1" t="s">
-        <v>1965</v>
+        <v>5628</v>
       </c>
       <c r="B1915" s="1" t="s">
-        <v>1966</v>
+        <v>5629</v>
       </c>
       <c r="C1915" s="1" t="str">
         <f t="shared" si="30"/>
-        <v>sto</v>
+        <v>eff</v>
       </c>
     </row>
     <row r="1916" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1916" s="1" t="s">
-        <v>2894</v>
+        <v>5630</v>
       </c>
       <c r="B1916" s="1" t="s">
-        <v>2895</v>
+        <v>5631</v>
       </c>
       <c r="C1916" s="1" t="str">
         <f t="shared" si="30"/>
-        <v>sto</v>
+        <v>eff</v>
       </c>
     </row>
     <row r="1917" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1917" s="1" t="s">
-        <v>2834</v>
+        <v>2860</v>
       </c>
       <c r="B1917" s="1" t="s">
-        <v>2835</v>
+        <v>2861</v>
       </c>
       <c r="C1917" s="1" t="str">
         <f t="shared" si="30"/>
@@ -40666,10 +40738,10 @@
     </row>
     <row r="1918" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1918" s="1" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="B1918" s="1" t="s">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="C1918" s="1" t="str">
         <f t="shared" si="30"/>
@@ -40678,10 +40750,10 @@
     </row>
     <row r="1919" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1919" s="1" t="s">
-        <v>2844</v>
+        <v>2894</v>
       </c>
       <c r="B1919" s="1" t="s">
-        <v>2845</v>
+        <v>2895</v>
       </c>
       <c r="C1919" s="1" t="str">
         <f t="shared" si="30"/>
@@ -40690,10 +40762,10 @@
     </row>
     <row r="1920" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1920" s="1" t="s">
-        <v>2842</v>
+        <v>2834</v>
       </c>
       <c r="B1920" s="1" t="s">
-        <v>2843</v>
+        <v>2835</v>
       </c>
       <c r="C1920" s="1" t="str">
         <f t="shared" si="30"/>
@@ -40702,10 +40774,10 @@
     </row>
     <row r="1921" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1921" s="1" t="s">
-        <v>2838</v>
+        <v>1962</v>
       </c>
       <c r="B1921" s="1" t="s">
-        <v>2839</v>
+        <v>1963</v>
       </c>
       <c r="C1921" s="1" t="str">
         <f t="shared" si="30"/>
@@ -40714,10 +40786,10 @@
     </row>
     <row r="1922" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1922" s="1" t="s">
-        <v>2840</v>
+        <v>2844</v>
       </c>
       <c r="B1922" s="1" t="s">
-        <v>2841</v>
+        <v>2845</v>
       </c>
       <c r="C1922" s="1" t="str">
         <f t="shared" si="30"/>
@@ -40726,10 +40798,10 @@
     </row>
     <row r="1923" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1923" s="1" t="s">
-        <v>2846</v>
+        <v>2842</v>
       </c>
       <c r="B1923" s="1" t="s">
-        <v>2916</v>
+        <v>2843</v>
       </c>
       <c r="C1923" s="1" t="str">
         <f t="shared" si="30"/>
@@ -40738,10 +40810,10 @@
     </row>
     <row r="1924" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1924" s="1" t="s">
-        <v>2915</v>
+        <v>2838</v>
       </c>
       <c r="B1924" s="1" t="s">
-        <v>4528</v>
+        <v>2839</v>
       </c>
       <c r="C1924" s="1" t="str">
         <f t="shared" si="30"/>
@@ -40750,10 +40822,10 @@
     </row>
     <row r="1925" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1925" s="1" t="s">
-        <v>1964</v>
+        <v>2840</v>
       </c>
       <c r="B1925" s="1" t="s">
-        <v>4529</v>
+        <v>2841</v>
       </c>
       <c r="C1925" s="1" t="str">
         <f t="shared" ref="C1925:C1939" si="31">RIGHT(B1925,3)</f>
@@ -40762,10 +40834,10 @@
     </row>
     <row r="1926" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1926" s="1" t="s">
-        <v>1961</v>
+        <v>2846</v>
       </c>
       <c r="B1926" s="1" t="s">
-        <v>2849</v>
+        <v>2916</v>
       </c>
       <c r="C1926" s="1" t="str">
         <f t="shared" si="31"/>
@@ -40774,10 +40846,10 @@
     </row>
     <row r="1927" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1927" s="1" t="s">
-        <v>2848</v>
+        <v>2915</v>
       </c>
       <c r="B1927" s="1" t="s">
-        <v>2847</v>
+        <v>4528</v>
       </c>
       <c r="C1927" s="1" t="str">
         <f t="shared" si="31"/>
@@ -40786,10 +40858,10 @@
     </row>
     <row r="1928" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1928" s="1" t="s">
-        <v>2919</v>
+        <v>1964</v>
       </c>
       <c r="B1928" s="1" t="s">
-        <v>2920</v>
+        <v>4529</v>
       </c>
       <c r="C1928" s="1" t="str">
         <f t="shared" si="31"/>
@@ -40798,10 +40870,10 @@
     </row>
     <row r="1929" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1929" s="1" t="s">
-        <v>2917</v>
+        <v>1961</v>
       </c>
       <c r="B1929" s="1" t="s">
-        <v>2918</v>
+        <v>2849</v>
       </c>
       <c r="C1929" s="1" t="str">
         <f t="shared" si="31"/>
@@ -40810,10 +40882,10 @@
     </row>
     <row r="1930" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1930" s="1" t="s">
-        <v>2898</v>
+        <v>2848</v>
       </c>
       <c r="B1930" s="1" t="s">
-        <v>2899</v>
+        <v>2847</v>
       </c>
       <c r="C1930" s="1" t="str">
         <f t="shared" si="31"/>
@@ -40822,10 +40894,10 @@
     </row>
     <row r="1931" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1931" s="1" t="s">
-        <v>2836</v>
+        <v>2919</v>
       </c>
       <c r="B1931" s="1" t="s">
-        <v>2837</v>
+        <v>2920</v>
       </c>
       <c r="C1931" s="1" t="str">
         <f t="shared" si="31"/>
@@ -40834,10 +40906,10 @@
     </row>
     <row r="1932" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1932" s="1" t="s">
-        <v>2886</v>
+        <v>2917</v>
       </c>
       <c r="B1932" s="1" t="s">
-        <v>2887</v>
+        <v>2918</v>
       </c>
       <c r="C1932" s="1" t="str">
         <f t="shared" si="31"/>
@@ -40846,10 +40918,10 @@
     </row>
     <row r="1933" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1933" s="1" t="s">
-        <v>2850</v>
+        <v>2898</v>
       </c>
       <c r="B1933" s="1" t="s">
-        <v>2851</v>
+        <v>2899</v>
       </c>
       <c r="C1933" s="1" t="str">
         <f t="shared" si="31"/>
@@ -40858,10 +40930,10 @@
     </row>
     <row r="1934" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1934" s="1" t="s">
-        <v>2888</v>
+        <v>2836</v>
       </c>
       <c r="B1934" s="1" t="s">
-        <v>2889</v>
+        <v>2837</v>
       </c>
       <c r="C1934" s="1" t="str">
         <f t="shared" si="31"/>
@@ -40870,10 +40942,10 @@
     </row>
     <row r="1935" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1935" s="1" t="s">
-        <v>2882</v>
+        <v>2886</v>
       </c>
       <c r="B1935" s="1" t="s">
-        <v>2883</v>
+        <v>2887</v>
       </c>
       <c r="C1935" s="1" t="str">
         <f t="shared" si="31"/>
@@ -40882,10 +40954,10 @@
     </row>
     <row r="1936" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1936" s="1" t="s">
-        <v>2896</v>
+        <v>2850</v>
       </c>
       <c r="B1936" s="1" t="s">
-        <v>2897</v>
+        <v>2851</v>
       </c>
       <c r="C1936" s="1" t="str">
         <f t="shared" si="31"/>
@@ -40894,10 +40966,10 @@
     </row>
     <row r="1937" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1937" s="1" t="s">
-        <v>2892</v>
+        <v>2888</v>
       </c>
       <c r="B1937" s="1" t="s">
-        <v>2893</v>
+        <v>2889</v>
       </c>
       <c r="C1937" s="1" t="str">
         <f t="shared" si="31"/>
@@ -40906,10 +40978,10 @@
     </row>
     <row r="1938" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1938" s="1" t="s">
-        <v>1959</v>
+        <v>2882</v>
       </c>
       <c r="B1938" s="1" t="s">
-        <v>1960</v>
+        <v>2883</v>
       </c>
       <c r="C1938" s="1" t="str">
         <f t="shared" si="31"/>
@@ -40918,10 +40990,10 @@
     </row>
     <row r="1939" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1939" s="1" t="s">
-        <v>2880</v>
+        <v>2896</v>
       </c>
       <c r="B1939" s="1" t="s">
-        <v>2881</v>
+        <v>2897</v>
       </c>
       <c r="C1939" s="1" t="str">
         <f t="shared" si="31"/>
@@ -40930,10 +41002,10 @@
     </row>
     <row r="1940" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1940" s="1" t="s">
-        <v>2890</v>
+        <v>2892</v>
       </c>
       <c r="B1940" s="1" t="s">
-        <v>2891</v>
+        <v>2893</v>
       </c>
       <c r="C1940" s="1" t="str">
         <f t="shared" ref="C1940" si="32">RIGHT(B1940,3)</f>
@@ -40942,10 +41014,10 @@
     </row>
     <row r="1941" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1941" s="1" t="s">
-        <v>2852</v>
+        <v>1959</v>
       </c>
       <c r="B1941" s="1" t="s">
-        <v>2853</v>
+        <v>1960</v>
       </c>
       <c r="C1941" s="1" t="str">
         <f t="shared" ref="C1941:C1942" si="33">RIGHT(B1941,3)</f>
@@ -40954,13 +41026,49 @@
     </row>
     <row r="1942" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1942" s="1" t="s">
-        <v>2884</v>
+        <v>2880</v>
       </c>
       <c r="B1942" s="1" t="s">
-        <v>2885</v>
+        <v>2881</v>
       </c>
       <c r="C1942" s="1" t="str">
         <f t="shared" si="33"/>
+        <v>sto</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1943" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B1943" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="C1943" s="1" t="str">
+        <f t="shared" ref="C1943:C1945" si="34">RIGHT(B1943,3)</f>
+        <v>sto</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1944" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B1944" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="C1944" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>sto</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1945" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B1945" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C1945" s="1" t="str">
+        <f t="shared" si="34"/>
         <v>sto</v>
       </c>
     </row>
@@ -40975,10 +41083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB835E14-5A69-4171-BEB0-A92EAC97E39C}">
-  <dimension ref="A1:C629"/>
+  <dimension ref="A1:C631"/>
   <sheetViews>
-    <sheetView topLeftCell="A625" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41229,7 +41337,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>5027</v>
+        <v>5026</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4553</v>
@@ -41253,7 +41361,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>5028</v>
+        <v>5027</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4557</v>
@@ -41265,7 +41373,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>4559</v>
@@ -41277,7 +41385,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>4561</v>
@@ -41313,7 +41421,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>5031</v>
+        <v>5030</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>4567</v>
@@ -41325,7 +41433,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>5032</v>
+        <v>5031</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>4569</v>
@@ -41364,7 +41472,7 @@
         <v>3251</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5033</v>
+        <v>5032</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -41373,7 +41481,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>5034</v>
+        <v>5033</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>4575</v>
@@ -41412,7 +41520,7 @@
         <v>3253</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5035</v>
+        <v>5034</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="1"/>
@@ -41421,10 +41529,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>5035</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>5036</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>5037</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="1"/>
@@ -41433,7 +41541,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>5038</v>
+        <v>5037</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>4581</v>
@@ -41445,7 +41553,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>5039</v>
+        <v>5038</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>4583</v>
@@ -41457,7 +41565,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>5040</v>
+        <v>5039</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>4585</v>
@@ -41469,7 +41577,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>5041</v>
+        <v>5040</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>4587</v>
@@ -41481,7 +41589,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>4589</v>
@@ -41493,7 +41601,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>5043</v>
+        <v>5042</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>4591</v>
@@ -41505,7 +41613,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>5044</v>
+        <v>5043</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>4593</v>
@@ -41517,10 +41625,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>5044</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>5045</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>5046</v>
       </c>
       <c r="C45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -41529,10 +41637,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>5046</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>5047</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>5048</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -41541,7 +41649,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>5049</v>
+        <v>5048</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>4595</v>
@@ -41553,7 +41661,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>5050</v>
+        <v>5049</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>4596</v>
@@ -41565,10 +41673,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>5050</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>5051</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>5052</v>
       </c>
       <c r="C49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -41577,7 +41685,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>4598</v>
@@ -41589,7 +41697,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>4600</v>
@@ -41601,7 +41709,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>5055</v>
+        <v>5054</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>4602</v>
@@ -41892,7 +42000,7 @@
         <v>4597</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>5056</v>
+        <v>5055</v>
       </c>
       <c r="C76" s="1" t="str">
         <f t="shared" si="2"/>
@@ -41904,7 +42012,7 @@
         <v>4599</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>5057</v>
+        <v>5056</v>
       </c>
       <c r="C77" s="1" t="str">
         <f t="shared" si="2"/>
@@ -41976,7 +42084,7 @@
         <v>4611</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>5058</v>
+        <v>5057</v>
       </c>
       <c r="C83" s="1" t="str">
         <f t="shared" si="2"/>
@@ -42000,7 +42108,7 @@
         <v>4615</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>5059</v>
+        <v>5058</v>
       </c>
       <c r="C85" s="1" t="str">
         <f t="shared" si="2"/>
@@ -42060,7 +42168,7 @@
         <v>4624</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>5060</v>
+        <v>5059</v>
       </c>
       <c r="C90" s="1" t="str">
         <f t="shared" si="2"/>
@@ -42096,7 +42204,7 @@
         <v>4629</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>5061</v>
+        <v>5060</v>
       </c>
       <c r="C93" s="1" t="str">
         <f t="shared" si="2"/>
@@ -42120,7 +42228,7 @@
         <v>4633</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>5062</v>
+        <v>5061</v>
       </c>
       <c r="C95" s="1" t="str">
         <f t="shared" si="2"/>
@@ -42132,7 +42240,7 @@
         <v>4634</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>5063</v>
+        <v>5062</v>
       </c>
       <c r="C96" s="1" t="str">
         <f t="shared" si="2"/>
@@ -42168,7 +42276,7 @@
         <v>4639</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>5064</v>
+        <v>5063</v>
       </c>
       <c r="C99" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42180,7 +42288,7 @@
         <v>4641</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>5065</v>
+        <v>5064</v>
       </c>
       <c r="C100" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42216,7 +42324,7 @@
         <v>4646</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>5066</v>
+        <v>5065</v>
       </c>
       <c r="C103" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42276,7 +42384,7 @@
         <v>4654</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>5067</v>
+        <v>5066</v>
       </c>
       <c r="C108" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42288,7 +42396,7 @@
         <v>4656</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>5068</v>
+        <v>5067</v>
       </c>
       <c r="C109" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42300,7 +42408,7 @@
         <v>4658</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>5069</v>
+        <v>5068</v>
       </c>
       <c r="C110" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42312,7 +42420,7 @@
         <v>4660</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>5070</v>
+        <v>5069</v>
       </c>
       <c r="C111" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42324,7 +42432,7 @@
         <v>4662</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
       <c r="C112" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42336,7 +42444,7 @@
         <v>4664</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="C113" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42348,7 +42456,7 @@
         <v>4666</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>5073</v>
+        <v>5072</v>
       </c>
       <c r="C114" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42360,7 +42468,7 @@
         <v>4668</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
       <c r="C115" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42384,7 +42492,7 @@
         <v>4672</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>5075</v>
+        <v>5074</v>
       </c>
       <c r="C117" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42396,7 +42504,7 @@
         <v>4674</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>5076</v>
+        <v>5075</v>
       </c>
       <c r="C118" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42408,7 +42516,7 @@
         <v>4676</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>5077</v>
+        <v>5076</v>
       </c>
       <c r="C119" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42420,7 +42528,7 @@
         <v>4678</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>5078</v>
+        <v>5077</v>
       </c>
       <c r="C120" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42432,7 +42540,7 @@
         <v>4680</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>5079</v>
+        <v>5078</v>
       </c>
       <c r="C121" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42444,7 +42552,7 @@
         <v>4682</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>5080</v>
+        <v>5079</v>
       </c>
       <c r="C122" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42456,7 +42564,7 @@
         <v>4684</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>5081</v>
+        <v>5080</v>
       </c>
       <c r="C123" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42468,7 +42576,7 @@
         <v>4686</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>5082</v>
+        <v>5081</v>
       </c>
       <c r="C124" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42480,7 +42588,7 @@
         <v>4688</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>5083</v>
+        <v>5082</v>
       </c>
       <c r="C125" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42492,7 +42600,7 @@
         <v>4690</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>5084</v>
+        <v>5083</v>
       </c>
       <c r="C126" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42504,7 +42612,7 @@
         <v>4692</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>5085</v>
+        <v>5084</v>
       </c>
       <c r="C127" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42516,7 +42624,7 @@
         <v>4694</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>5086</v>
+        <v>5085</v>
       </c>
       <c r="C128" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42528,7 +42636,7 @@
         <v>4696</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>5087</v>
+        <v>5086</v>
       </c>
       <c r="C129" s="1" t="str">
         <f t="shared" si="3"/>
@@ -42540,7 +42648,7 @@
         <v>4697</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>5088</v>
+        <v>5087</v>
       </c>
       <c r="C130" s="1" t="str">
         <f t="shared" ref="C130:C131" si="4">RIGHT(B130,3)</f>
@@ -42552,7 +42660,7 @@
         <v>3252</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>5089</v>
+        <v>5088</v>
       </c>
       <c r="C131" s="1" t="str">
         <f t="shared" si="4"/>
@@ -42585,10 +42693,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="C134" s="1" t="str">
         <f t="shared" si="5"/>
@@ -42597,10 +42705,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>5266</v>
+        <v>5264</v>
       </c>
       <c r="C135" s="1" t="str">
         <f t="shared" si="5"/>
@@ -42609,10 +42717,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>5267</v>
+        <v>5265</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>5268</v>
+        <v>5266</v>
       </c>
       <c r="C136" s="1" t="str">
         <f t="shared" si="5"/>
@@ -42621,10 +42729,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>5269</v>
+        <v>5267</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>5270</v>
+        <v>5268</v>
       </c>
       <c r="C137" s="1" t="str">
         <f t="shared" si="5"/>
@@ -42633,10 +42741,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>5271</v>
+        <v>5269</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>5272</v>
+        <v>5270</v>
       </c>
       <c r="C138" s="1" t="str">
         <f t="shared" si="5"/>
@@ -42645,10 +42753,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>5273</v>
+        <v>5271</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="C139" s="1" t="str">
         <f t="shared" si="5"/>
@@ -45000,7 +45108,7 @@
         <v>1410</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>5090</v>
+        <v>5089</v>
       </c>
       <c r="C335" s="1" t="str">
         <f t="shared" si="8"/>
@@ -45045,7 +45153,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>5091</v>
+        <v>5090</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>4799</v>
@@ -45057,7 +45165,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>5092</v>
+        <v>5091</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>4797</v>
@@ -45069,10 +45177,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
+        <v>5092</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>5093</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>5094</v>
       </c>
       <c r="C341" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45096,7 +45204,7 @@
         <v>3296</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>5095</v>
+        <v>5094</v>
       </c>
       <c r="C343" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45108,7 +45216,7 @@
         <v>3297</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>5096</v>
+        <v>5095</v>
       </c>
       <c r="C344" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45216,7 +45324,7 @@
         <v>3215</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>5097</v>
+        <v>5096</v>
       </c>
       <c r="C353" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45264,7 +45372,7 @@
         <v>1889</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>5098</v>
+        <v>5097</v>
       </c>
       <c r="C357" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45276,7 +45384,7 @@
         <v>1890</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>5099</v>
+        <v>5098</v>
       </c>
       <c r="C358" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45288,7 +45396,7 @@
         <v>1887</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>5100</v>
+        <v>5099</v>
       </c>
       <c r="C359" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45300,7 +45408,7 @@
         <v>1888</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="C360" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45309,7 +45417,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>4825</v>
@@ -45321,7 +45429,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>4826</v>
@@ -45333,7 +45441,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>5104</v>
+        <v>5103</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>4827</v>
@@ -45384,7 +45492,7 @@
         <v>3302</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>5105</v>
+        <v>5104</v>
       </c>
       <c r="C367" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45396,7 +45504,7 @@
         <v>3303</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>5106</v>
+        <v>5105</v>
       </c>
       <c r="C368" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45408,7 +45516,7 @@
         <v>3304</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>5107</v>
+        <v>5106</v>
       </c>
       <c r="C369" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45417,10 +45525,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
+        <v>5107</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>5108</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>5109</v>
       </c>
       <c r="C370" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45432,7 +45540,7 @@
         <v>1411</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>5110</v>
+        <v>5109</v>
       </c>
       <c r="C371" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45444,7 +45552,7 @@
         <v>1412</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>5111</v>
+        <v>5110</v>
       </c>
       <c r="C372" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45456,7 +45564,7 @@
         <v>1413</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>5112</v>
+        <v>5111</v>
       </c>
       <c r="C373" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45465,10 +45573,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
+        <v>5112</v>
+      </c>
+      <c r="B374" s="1" t="s">
         <v>5113</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>5114</v>
       </c>
       <c r="C374" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45480,7 +45588,7 @@
         <v>1415</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>5115</v>
+        <v>5114</v>
       </c>
       <c r="C375" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45492,7 +45600,7 @@
         <v>1416</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>5116</v>
+        <v>5115</v>
       </c>
       <c r="C376" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45504,7 +45612,7 @@
         <v>3323</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>5117</v>
+        <v>5116</v>
       </c>
       <c r="C377" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45516,7 +45624,7 @@
         <v>3324</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>5118</v>
+        <v>5117</v>
       </c>
       <c r="C378" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45528,7 +45636,7 @@
         <v>3325</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>5119</v>
+        <v>5118</v>
       </c>
       <c r="C379" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45540,7 +45648,7 @@
         <v>4820</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>5120</v>
+        <v>5119</v>
       </c>
       <c r="C380" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45576,7 +45684,7 @@
         <v>1909</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>5121</v>
+        <v>5120</v>
       </c>
       <c r="C383" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45588,7 +45696,7 @@
         <v>4855</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>5122</v>
+        <v>5121</v>
       </c>
       <c r="C384" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45600,7 +45708,7 @@
         <v>4856</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>5123</v>
+        <v>5122</v>
       </c>
       <c r="C385" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45612,7 +45720,7 @@
         <v>4857</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>5124</v>
+        <v>5123</v>
       </c>
       <c r="C386" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45621,10 +45729,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
+        <v>5124</v>
+      </c>
+      <c r="B387" s="1" t="s">
         <v>5125</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>5126</v>
       </c>
       <c r="C387" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45633,10 +45741,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
+        <v>5126</v>
+      </c>
+      <c r="B388" s="1" t="s">
         <v>5127</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>5128</v>
       </c>
       <c r="C388" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45645,10 +45753,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
+        <v>5128</v>
+      </c>
+      <c r="B389" s="1" t="s">
         <v>5129</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>5130</v>
       </c>
       <c r="C389" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45657,10 +45765,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
+        <v>5130</v>
+      </c>
+      <c r="B390" s="1" t="s">
         <v>5131</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>5132</v>
       </c>
       <c r="C390" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45669,10 +45777,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
+        <v>5132</v>
+      </c>
+      <c r="B391" s="1" t="s">
         <v>5133</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>5134</v>
       </c>
       <c r="C391" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45681,10 +45789,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
+        <v>5134</v>
+      </c>
+      <c r="B392" s="1" t="s">
         <v>5135</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>5136</v>
       </c>
       <c r="C392" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45693,10 +45801,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
+        <v>5136</v>
+      </c>
+      <c r="B393" s="1" t="s">
         <v>5137</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>5138</v>
       </c>
       <c r="C393" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45708,7 +45816,7 @@
         <v>4850</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>5139</v>
+        <v>5138</v>
       </c>
       <c r="C394" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45720,7 +45828,7 @@
         <v>4851</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>5140</v>
+        <v>5139</v>
       </c>
       <c r="C395" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45732,7 +45840,7 @@
         <v>4852</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>5141</v>
+        <v>5140</v>
       </c>
       <c r="C396" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45744,7 +45852,7 @@
         <v>4853</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>5142</v>
+        <v>5141</v>
       </c>
       <c r="C397" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45756,7 +45864,7 @@
         <v>4854</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>5143</v>
+        <v>5142</v>
       </c>
       <c r="C398" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45768,7 +45876,7 @@
         <v>4831</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>5144</v>
+        <v>5143</v>
       </c>
       <c r="C399" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45804,7 +45912,7 @@
         <v>4834</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>5145</v>
+        <v>5144</v>
       </c>
       <c r="C402" s="1" t="str">
         <f t="shared" si="9"/>
@@ -45816,7 +45924,7 @@
         <v>4835</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>5146</v>
+        <v>5145</v>
       </c>
       <c r="C403" s="1" t="str">
         <f t="shared" ref="C403:C466" si="10">RIGHT(B403,3)</f>
@@ -45828,7 +45936,7 @@
         <v>4836</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>5147</v>
+        <v>5146</v>
       </c>
       <c r="C404" s="1" t="str">
         <f t="shared" si="10"/>
@@ -45840,7 +45948,7 @@
         <v>4837</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>5148</v>
+        <v>5147</v>
       </c>
       <c r="C405" s="1" t="str">
         <f t="shared" si="10"/>
@@ -45852,7 +45960,7 @@
         <v>4839</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>5149</v>
+        <v>5148</v>
       </c>
       <c r="C406" s="1" t="str">
         <f t="shared" si="10"/>
@@ -45861,10 +45969,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>5180</v>
+        <v>5178</v>
       </c>
       <c r="C407" s="1" t="str">
         <f t="shared" si="10"/>
@@ -45873,10 +45981,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>3391</v>
+        <v>4842</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>5179</v>
+        <v>5149</v>
       </c>
       <c r="C408" s="1" t="str">
         <f t="shared" si="10"/>
@@ -45885,7 +45993,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>4842</v>
+        <v>1780</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>5150</v>
@@ -45897,7 +46005,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>5151</v>
@@ -45909,7 +46017,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>5152</v>
@@ -45921,7 +46029,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>1782</v>
+        <v>4841</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>5153</v>
@@ -45933,7 +46041,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>4841</v>
+        <v>3386</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>5154</v>
@@ -45945,7 +46053,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>5155</v>
@@ -45957,7 +46065,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>3387</v>
+        <v>3320</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>5156</v>
@@ -45969,7 +46077,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>5157</v>
@@ -45981,7 +46089,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>5158</v>
@@ -45993,7 +46101,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>5159</v>
@@ -46005,7 +46113,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>5160</v>
@@ -46017,10 +46125,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>5161</v>
+        <v>4849</v>
       </c>
       <c r="C420" s="1" t="str">
         <f t="shared" si="10"/>
@@ -46029,10 +46137,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>4849</v>
+        <v>4848</v>
       </c>
       <c r="C421" s="1" t="str">
         <f t="shared" si="10"/>
@@ -46041,10 +46149,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>4848</v>
+        <v>4847</v>
       </c>
       <c r="C422" s="1" t="str">
         <f t="shared" si="10"/>
@@ -46053,10 +46161,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>4847</v>
+        <v>4846</v>
       </c>
       <c r="C423" s="1" t="str">
         <f t="shared" si="10"/>
@@ -46065,10 +46173,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>4846</v>
+        <v>5161</v>
       </c>
       <c r="C424" s="1" t="str">
         <f t="shared" si="10"/>
@@ -46077,7 +46185,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>5162</v>
@@ -46089,7 +46197,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>5163</v>
@@ -46101,7 +46209,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>5164</v>
@@ -46113,7 +46221,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>5165</v>
@@ -46125,7 +46233,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>5166</v>
@@ -46137,7 +46245,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>5167</v>
@@ -46149,7 +46257,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>3305</v>
+        <v>4794</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>5168</v>
@@ -46161,7 +46269,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>4794</v>
+        <v>4796</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>5169</v>
@@ -46173,7 +46281,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>4796</v>
+        <v>4798</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>5170</v>
@@ -46185,7 +46293,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>4798</v>
+        <v>4800</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>5171</v>
@@ -46197,7 +46305,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>4800</v>
+        <v>4802</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>5172</v>
@@ -46209,7 +46317,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>4802</v>
+        <v>4804</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>5173</v>
@@ -46221,7 +46329,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>4804</v>
+        <v>4806</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>5174</v>
@@ -46233,7 +46341,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>4806</v>
+        <v>4808</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>5175</v>
@@ -46245,7 +46353,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>4808</v>
+        <v>4810</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>5176</v>
@@ -46257,7 +46365,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>4810</v>
+        <v>4812</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>5177</v>
@@ -46269,10 +46377,10 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>4812</v>
+        <v>3392</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>5178</v>
+        <v>5179</v>
       </c>
       <c r="C441" s="1" t="str">
         <f t="shared" si="10"/>
@@ -46284,7 +46392,7 @@
         <v>2192</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>5181</v>
+        <v>5180</v>
       </c>
       <c r="C442" s="1" t="str">
         <f t="shared" si="10"/>
@@ -46296,7 +46404,7 @@
         <v>2193</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>5182</v>
+        <v>5181</v>
       </c>
       <c r="C443" s="1" t="str">
         <f t="shared" si="10"/>
@@ -46308,7 +46416,7 @@
         <v>4845</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>5183</v>
+        <v>5182</v>
       </c>
       <c r="C444" s="1" t="str">
         <f t="shared" si="10"/>
@@ -46320,7 +46428,7 @@
         <v>1871</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>5184</v>
+        <v>5183</v>
       </c>
       <c r="C445" s="1" t="str">
         <f t="shared" si="10"/>
@@ -46332,7 +46440,7 @@
         <v>1872</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>5185</v>
+        <v>5184</v>
       </c>
       <c r="C446" s="1" t="str">
         <f t="shared" si="10"/>
@@ -46344,7 +46452,7 @@
         <v>1868</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>5186</v>
+        <v>5185</v>
       </c>
       <c r="C447" s="1" t="str">
         <f t="shared" si="10"/>
@@ -46356,7 +46464,7 @@
         <v>1869</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>5187</v>
+        <v>5186</v>
       </c>
       <c r="C448" s="1" t="str">
         <f t="shared" si="10"/>
@@ -46368,7 +46476,7 @@
         <v>2056</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>5188</v>
+        <v>5187</v>
       </c>
       <c r="C449" s="1" t="str">
         <f t="shared" si="10"/>
@@ -46380,7 +46488,7 @@
         <v>2057</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>5189</v>
+        <v>5188</v>
       </c>
       <c r="C450" s="1" t="str">
         <f t="shared" si="10"/>
@@ -46392,7 +46500,7 @@
         <v>2058</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>5190</v>
+        <v>5189</v>
       </c>
       <c r="C451" s="1" t="str">
         <f t="shared" si="10"/>
@@ -46404,7 +46512,7 @@
         <v>2053</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>5191</v>
+        <v>5190</v>
       </c>
       <c r="C452" s="1" t="str">
         <f t="shared" si="10"/>
@@ -46416,7 +46524,7 @@
         <v>2054</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>5192</v>
+        <v>5191</v>
       </c>
       <c r="C453" s="1" t="str">
         <f t="shared" si="10"/>
@@ -46428,7 +46536,7 @@
         <v>2055</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>5193</v>
+        <v>5192</v>
       </c>
       <c r="C454" s="1" t="str">
         <f t="shared" si="10"/>
@@ -47013,10 +47121,10 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
+        <v>5193</v>
+      </c>
+      <c r="B503" s="1" t="s">
         <v>5194</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>5195</v>
       </c>
       <c r="C503" s="1" t="str">
         <f t="shared" si="11"/>
@@ -47028,7 +47136,7 @@
         <v>3275</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>5196</v>
+        <v>5195</v>
       </c>
       <c r="C504" s="1" t="str">
         <f t="shared" si="11"/>
@@ -47052,7 +47160,7 @@
         <v>3260</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>5197</v>
+        <v>5196</v>
       </c>
       <c r="C506" s="1" t="str">
         <f t="shared" si="11"/>
@@ -47064,7 +47172,7 @@
         <v>3272</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>5198</v>
+        <v>5197</v>
       </c>
       <c r="C507" s="1" t="str">
         <f t="shared" si="11"/>
@@ -47076,7 +47184,7 @@
         <v>3271</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>5199</v>
+        <v>5198</v>
       </c>
       <c r="C508" s="1" t="str">
         <f t="shared" si="11"/>
@@ -47088,7 +47196,7 @@
         <v>3270</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>5200</v>
+        <v>5199</v>
       </c>
       <c r="C509" s="1" t="str">
         <f t="shared" si="11"/>
@@ -47100,7 +47208,7 @@
         <v>3269</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>5201</v>
+        <v>5200</v>
       </c>
       <c r="C510" s="1" t="str">
         <f t="shared" si="11"/>
@@ -47109,7 +47217,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>4920</v>
@@ -47124,7 +47232,7 @@
         <v>3261</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="C512" s="1" t="str">
         <f t="shared" si="11"/>
@@ -47136,7 +47244,7 @@
         <v>4929</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="C513" s="1" t="str">
         <f t="shared" si="11"/>
@@ -47145,10 +47253,10 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
+        <v>5204</v>
+      </c>
+      <c r="B514" s="1" t="s">
         <v>5205</v>
-      </c>
-      <c r="B514" s="1" t="s">
-        <v>5206</v>
       </c>
       <c r="C514" s="1" t="str">
         <f t="shared" si="11"/>
@@ -47157,10 +47265,10 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
+        <v>5206</v>
+      </c>
+      <c r="B515" s="1" t="s">
         <v>5207</v>
-      </c>
-      <c r="B515" s="1" t="s">
-        <v>5208</v>
       </c>
       <c r="C515" s="1" t="str">
         <f t="shared" si="11"/>
@@ -47169,10 +47277,10 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
+        <v>5208</v>
+      </c>
+      <c r="B516" s="1" t="s">
         <v>5209</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>5210</v>
       </c>
       <c r="C516" s="1" t="str">
         <f t="shared" si="11"/>
@@ -47181,10 +47289,10 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
+        <v>5210</v>
+      </c>
+      <c r="B517" s="1" t="s">
         <v>5211</v>
-      </c>
-      <c r="B517" s="1" t="s">
-        <v>5212</v>
       </c>
       <c r="C517" s="1" t="str">
         <f t="shared" si="11"/>
@@ -47193,10 +47301,10 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
+        <v>5212</v>
+      </c>
+      <c r="B518" s="1" t="s">
         <v>5213</v>
-      </c>
-      <c r="B518" s="1" t="s">
-        <v>5214</v>
       </c>
       <c r="C518" s="1" t="str">
         <f t="shared" si="11"/>
@@ -47205,10 +47313,10 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
+        <v>5214</v>
+      </c>
+      <c r="B519" s="1" t="s">
         <v>5215</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>5216</v>
       </c>
       <c r="C519" s="1" t="str">
         <f t="shared" si="11"/>
@@ -47217,10 +47325,10 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
+        <v>5216</v>
+      </c>
+      <c r="B520" s="1" t="s">
         <v>5217</v>
-      </c>
-      <c r="B520" s="1" t="s">
-        <v>5218</v>
       </c>
       <c r="C520" s="1" t="str">
         <f t="shared" si="11"/>
@@ -47229,7 +47337,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>5219</v>
+        <v>5218</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>4925</v>
@@ -47244,7 +47352,7 @@
         <v>4919</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>5220</v>
+        <v>5219</v>
       </c>
       <c r="C522" s="1" t="str">
         <f t="shared" ref="C522:C553" si="12">RIGHT(B522,3)</f>
@@ -47256,7 +47364,7 @@
         <v>4923</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>5221</v>
+        <v>5220</v>
       </c>
       <c r="C523" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47280,7 +47388,7 @@
         <v>3267</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>5222</v>
+        <v>5221</v>
       </c>
       <c r="C525" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47292,7 +47400,7 @@
         <v>4921</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>5223</v>
+        <v>5222</v>
       </c>
       <c r="C526" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47316,7 +47424,7 @@
         <v>4918</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>5224</v>
+        <v>5223</v>
       </c>
       <c r="C528" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47328,7 +47436,7 @@
         <v>4917</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>5225</v>
+        <v>5224</v>
       </c>
       <c r="C529" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47340,7 +47448,7 @@
         <v>4916</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>5226</v>
+        <v>5225</v>
       </c>
       <c r="C530" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47352,7 +47460,7 @@
         <v>3007</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>5227</v>
+        <v>5226</v>
       </c>
       <c r="C531" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47364,7 +47472,7 @@
         <v>1956</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>5228</v>
+        <v>5227</v>
       </c>
       <c r="C532" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47376,7 +47484,7 @@
         <v>3004</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>5229</v>
+        <v>5228</v>
       </c>
       <c r="C533" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47388,7 +47496,7 @@
         <v>4924</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>5230</v>
+        <v>5229</v>
       </c>
       <c r="C534" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47400,7 +47508,7 @@
         <v>4926</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>5231</v>
+        <v>5230</v>
       </c>
       <c r="C535" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47412,7 +47520,7 @@
         <v>4927</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>5232</v>
+        <v>5231</v>
       </c>
       <c r="C536" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47424,7 +47532,7 @@
         <v>4928</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>5233</v>
+        <v>5232</v>
       </c>
       <c r="C537" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47436,7 +47544,7 @@
         <v>3265</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>5234</v>
+        <v>5233</v>
       </c>
       <c r="C538" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47448,7 +47556,7 @@
         <v>4931</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>5235</v>
+        <v>5234</v>
       </c>
       <c r="C539" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47460,7 +47568,7 @@
         <v>4932</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>5236</v>
+        <v>5235</v>
       </c>
       <c r="C540" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47472,7 +47580,7 @@
         <v>4933</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>5237</v>
+        <v>5236</v>
       </c>
       <c r="C541" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47484,7 +47592,7 @@
         <v>4935</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>5238</v>
+        <v>5237</v>
       </c>
       <c r="C542" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47496,7 +47604,7 @@
         <v>4936</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>5239</v>
+        <v>5238</v>
       </c>
       <c r="C543" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47508,7 +47616,7 @@
         <v>4937</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>5240</v>
+        <v>5239</v>
       </c>
       <c r="C544" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47520,7 +47628,7 @@
         <v>4938</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>5241</v>
+        <v>5240</v>
       </c>
       <c r="C545" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47532,7 +47640,7 @@
         <v>3268</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>5242</v>
+        <v>5241</v>
       </c>
       <c r="C546" s="1" t="str">
         <f t="shared" si="12"/>
@@ -47784,7 +47892,7 @@
         <v>3410</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="C567" s="1" t="str">
         <f t="shared" si="13"/>
@@ -47793,10 +47901,10 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
-        <v>5276</v>
+        <v>5274</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>5277</v>
+        <v>5275</v>
       </c>
       <c r="C568" s="1" t="str">
         <f t="shared" si="13"/>
@@ -47805,10 +47913,10 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
-        <v>5278</v>
+        <v>5276</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>5279</v>
+        <v>5277</v>
       </c>
       <c r="C569" s="1" t="str">
         <f t="shared" si="13"/>
@@ -47817,10 +47925,10 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
-        <v>5280</v>
+        <v>5278</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>5281</v>
+        <v>5279</v>
       </c>
       <c r="C570" s="1" t="str">
         <f t="shared" si="13"/>
@@ -47829,10 +47937,10 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
-        <v>5282</v>
+        <v>5280</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>5283</v>
+        <v>5281</v>
       </c>
       <c r="C571" s="1" t="str">
         <f t="shared" si="13"/>
@@ -47841,10 +47949,10 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>5285</v>
+        <v>5283</v>
       </c>
       <c r="C572" s="1" t="str">
         <f t="shared" si="13"/>
@@ -47868,7 +47976,7 @@
         <v>3435</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>5286</v>
+        <v>5284</v>
       </c>
       <c r="C574" s="1" t="str">
         <f t="shared" si="13"/>
@@ -47880,7 +47988,7 @@
         <v>3431</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>5287</v>
+        <v>5285</v>
       </c>
       <c r="C575" s="1" t="str">
         <f t="shared" si="13"/>
@@ -47892,7 +48000,7 @@
         <v>3436</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>5288</v>
+        <v>5286</v>
       </c>
       <c r="C576" s="1" t="str">
         <f t="shared" si="13"/>
@@ -47904,7 +48012,7 @@
         <v>3411</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>5289</v>
+        <v>5287</v>
       </c>
       <c r="C577" s="1" t="str">
         <f t="shared" si="13"/>
@@ -47916,7 +48024,7 @@
         <v>3433</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>5290</v>
+        <v>5288</v>
       </c>
       <c r="C578" s="1" t="str">
         <f t="shared" si="13"/>
@@ -47928,7 +48036,7 @@
         <v>3412</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>5291</v>
+        <v>5289</v>
       </c>
       <c r="C579" s="1" t="str">
         <f t="shared" si="13"/>
@@ -47940,7 +48048,7 @@
         <v>3413</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>5292</v>
+        <v>5290</v>
       </c>
       <c r="C580" s="1" t="str">
         <f t="shared" si="13"/>
@@ -47952,7 +48060,7 @@
         <v>3414</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>5293</v>
+        <v>5291</v>
       </c>
       <c r="C581" s="1" t="str">
         <f t="shared" si="13"/>
@@ -47964,7 +48072,7 @@
         <v>4957</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>5294</v>
+        <v>5292</v>
       </c>
       <c r="C582" s="1" t="str">
         <f t="shared" si="13"/>
@@ -47976,7 +48084,7 @@
         <v>4956</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>5243</v>
+        <v>5242</v>
       </c>
       <c r="C583" s="1" t="str">
         <f t="shared" si="13"/>
@@ -47988,7 +48096,7 @@
         <v>3429</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>5295</v>
+        <v>5293</v>
       </c>
       <c r="C584" s="1" t="str">
         <f t="shared" si="13"/>
@@ -48000,7 +48108,7 @@
         <v>4958</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>5296</v>
+        <v>5294</v>
       </c>
       <c r="C585" s="1" t="str">
         <f t="shared" si="13"/>
@@ -48012,7 +48120,7 @@
         <v>4959</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>5297</v>
+        <v>5295</v>
       </c>
       <c r="C586" s="1" t="str">
         <f t="shared" ref="C586:C612" si="14">RIGHT(B586,3)</f>
@@ -48024,7 +48132,7 @@
         <v>3428</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>5298</v>
+        <v>5296</v>
       </c>
       <c r="C587" s="1" t="str">
         <f t="shared" si="14"/>
@@ -48036,7 +48144,7 @@
         <v>3430</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>5299</v>
+        <v>5297</v>
       </c>
       <c r="C588" s="1" t="str">
         <f t="shared" si="14"/>
@@ -48048,7 +48156,7 @@
         <v>4960</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="C589" s="1" t="str">
         <f t="shared" si="14"/>
@@ -48060,7 +48168,7 @@
         <v>4961</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="C590" s="1" t="str">
         <f t="shared" si="14"/>
@@ -48072,7 +48180,7 @@
         <v>4962</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>5244</v>
+        <v>5243</v>
       </c>
       <c r="C591" s="1" t="str">
         <f t="shared" si="14"/>
@@ -48084,7 +48192,7 @@
         <v>4963</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>5302</v>
+        <v>5300</v>
       </c>
       <c r="C592" s="1" t="str">
         <f t="shared" si="14"/>
@@ -48216,7 +48324,7 @@
         <v>4975</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>4976</v>
+        <v>4996</v>
       </c>
       <c r="C603" s="1" t="str">
         <f t="shared" si="14"/>
@@ -48228,7 +48336,7 @@
         <v>3447</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>4977</v>
+        <v>4976</v>
       </c>
       <c r="C604" s="1" t="str">
         <f t="shared" si="14"/>
@@ -48240,7 +48348,7 @@
         <v>3442</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>4978</v>
+        <v>4977</v>
       </c>
       <c r="C605" s="1" t="str">
         <f t="shared" si="14"/>
@@ -48252,7 +48360,7 @@
         <v>3441</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>4979</v>
+        <v>4978</v>
       </c>
       <c r="C606" s="1" t="str">
         <f t="shared" si="14"/>
@@ -48264,7 +48372,7 @@
         <v>3440</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>4980</v>
+        <v>4979</v>
       </c>
       <c r="C607" s="1" t="str">
         <f t="shared" si="14"/>
@@ -48276,7 +48384,7 @@
         <v>3204</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>4981</v>
+        <v>4980</v>
       </c>
       <c r="C608" s="1" t="str">
         <f t="shared" si="14"/>
@@ -48297,10 +48405,10 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
-        <v>5303</v>
+        <v>5301</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>4997</v>
+        <v>4995</v>
       </c>
       <c r="C610" s="1" t="str">
         <f t="shared" si="14"/>
@@ -48309,10 +48417,10 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
-        <v>5304</v>
+        <v>5302</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>4996</v>
+        <v>4993</v>
       </c>
       <c r="C611" s="1" t="str">
         <f t="shared" si="14"/>
@@ -48321,10 +48429,10 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
-        <v>5305</v>
+        <v>5303</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>4994</v>
+        <v>4991</v>
       </c>
       <c r="C612" s="1" t="str">
         <f t="shared" si="14"/>
@@ -48333,10 +48441,10 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
-        <v>5306</v>
+        <v>5304</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>4992</v>
+        <v>4990</v>
       </c>
       <c r="C613" s="1" t="str">
         <f t="shared" ref="C613:C629" si="15">RIGHT(B613,3)</f>
@@ -48345,10 +48453,10 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
-        <v>5307</v>
+        <v>5305</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>4991</v>
+        <v>4989</v>
       </c>
       <c r="C614" s="1" t="str">
         <f t="shared" si="15"/>
@@ -48357,10 +48465,10 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
-        <v>5308</v>
+        <v>5306</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>4990</v>
+        <v>4988</v>
       </c>
       <c r="C615" s="1" t="str">
         <f t="shared" si="15"/>
@@ -48372,7 +48480,7 @@
         <v>3449</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>4989</v>
+        <v>4986</v>
       </c>
       <c r="C616" s="1" t="str">
         <f t="shared" si="15"/>
@@ -48384,7 +48492,7 @@
         <v>3448</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>4987</v>
+        <v>4984</v>
       </c>
       <c r="C617" s="1" t="str">
         <f t="shared" si="15"/>
@@ -48396,7 +48504,7 @@
         <v>3446</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>4985</v>
+        <v>4982</v>
       </c>
       <c r="C618" s="1" t="str">
         <f t="shared" si="15"/>
@@ -48405,10 +48513,10 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
-        <v>4982</v>
+        <v>4981</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>5309</v>
+        <v>5632</v>
       </c>
       <c r="C619" s="1" t="str">
         <f t="shared" si="15"/>
@@ -48417,10 +48525,10 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
-        <v>4984</v>
+        <v>4983</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>5310</v>
+        <v>5654</v>
       </c>
       <c r="C620" s="1" t="str">
         <f t="shared" si="15"/>
@@ -48429,10 +48537,10 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
-        <v>4986</v>
+        <v>4985</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>5311</v>
+        <v>5307</v>
       </c>
       <c r="C621" s="1" t="str">
         <f t="shared" si="15"/>
@@ -48441,10 +48549,10 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
-        <v>4988</v>
+        <v>4987</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>5312</v>
+        <v>5308</v>
       </c>
       <c r="C622" s="1" t="str">
         <f t="shared" si="15"/>
@@ -48456,7 +48564,7 @@
         <v>3445</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>5313</v>
+        <v>5309</v>
       </c>
       <c r="C623" s="1" t="str">
         <f t="shared" si="15"/>
@@ -48468,7 +48576,7 @@
         <v>3444</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>5314</v>
+        <v>5310</v>
       </c>
       <c r="C624" s="1" t="str">
         <f t="shared" si="15"/>
@@ -48480,7 +48588,7 @@
         <v>3443</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>5245</v>
+        <v>5311</v>
       </c>
       <c r="C625" s="1" t="str">
         <f t="shared" si="15"/>
@@ -48489,10 +48597,10 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
-        <v>4993</v>
+        <v>4992</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>5246</v>
+        <v>5312</v>
       </c>
       <c r="C626" s="1" t="str">
         <f t="shared" si="15"/>
@@ -48501,10 +48609,10 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
-        <v>4995</v>
+        <v>4994</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>4983</v>
+        <v>5244</v>
       </c>
       <c r="C627" s="1" t="str">
         <f t="shared" si="15"/>
@@ -48513,25 +48621,49 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
-        <v>4998</v>
+        <v>5633</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>4999</v>
+        <v>5634</v>
       </c>
       <c r="C628" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>tis</v>
+        <v>eff</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
-        <v>3450</v>
+        <v>5635</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>5000</v>
+        <v>5636</v>
       </c>
       <c r="C629" s="1" t="str">
         <f t="shared" si="15"/>
+        <v>eff</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>4997</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>4998</v>
+      </c>
+      <c r="C630" s="1" t="str">
+        <f t="shared" ref="C630:C631" si="16">RIGHT(B630,3)</f>
+        <v>tis</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>4999</v>
+      </c>
+      <c r="C631" s="1" t="str">
+        <f t="shared" si="16"/>
         <v>tis</v>
       </c>
     </row>
@@ -48546,11 +48678,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F845C5-1DFB-4DB9-9EFF-7FD24A274361}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C184"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48571,1524 +48702,1524 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3501</v>
+        <v>3461</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3502</v>
+        <v>3469</v>
       </c>
       <c r="C2" s="3" t="str">
         <f t="shared" ref="C2:C33" si="0">RIGHT(B2,3)</f>
-        <v>are</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3616</v>
+        <v>3462</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3617</v>
+        <v>3470</v>
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>bam</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3653</v>
+        <v>3463</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3654</v>
+        <v>3471</v>
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>bmp</v>
+        <v>cre</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3461</v>
+        <v>3464</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3469</v>
+        <v>3472</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2498</v>
+        <v>3207</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3598</v>
+        <v>3473</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5315</v>
+        <v>3647</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5316</v>
+        <v>3474</v>
       </c>
       <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>spl</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3606</v>
+        <v>5482</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3607</v>
+        <v>3476</v>
       </c>
       <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>tis</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3602</v>
+        <v>3475</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3603</v>
+        <v>3480</v>
       </c>
       <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wed</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1187</v>
+        <v>3477</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3505</v>
+        <v>3630</v>
       </c>
       <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1188</v>
+        <v>3478</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3506</v>
+        <v>3648</v>
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1452</v>
+        <v>3479</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3507</v>
+        <v>5483</v>
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>1453</v>
+        <v>3481</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3508</v>
+        <v>3485</v>
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>3211</v>
+        <v>3482</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3509</v>
+        <v>3487</v>
       </c>
       <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>3213</v>
+        <v>3483</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3511</v>
+        <v>3489</v>
       </c>
       <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>3215</v>
+        <v>3484</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3512</v>
+        <v>3491</v>
       </c>
       <c r="C16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>3486</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="C17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>3510</v>
+        <v>3488</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3633</v>
+        <v>3649</v>
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>3490</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3634</v>
+        <v>5484</v>
       </c>
       <c r="C19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>5497</v>
+        <v>3258</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3513</v>
+        <v>5485</v>
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>5498</v>
+        <v>3492</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3514</v>
+        <v>5486</v>
       </c>
       <c r="C21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>5499</v>
+        <v>3493</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3515</v>
+        <v>5487</v>
       </c>
       <c r="C22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>5500</v>
+        <v>3494</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3516</v>
+        <v>3650</v>
       </c>
       <c r="C23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>5501</v>
+        <v>3495</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3517</v>
+        <v>5488</v>
       </c>
       <c r="C24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>5502</v>
+        <v>3496</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3518</v>
+        <v>5489</v>
       </c>
       <c r="C25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>5503</v>
+        <v>3497</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3635</v>
+        <v>5490</v>
       </c>
       <c r="C26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>5504</v>
+        <v>3498</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3519</v>
+        <v>3651</v>
       </c>
       <c r="C27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>5505</v>
+        <v>3499</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3520</v>
+        <v>5491</v>
       </c>
       <c r="C28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>5506</v>
+        <v>2817</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3655</v>
+        <v>3652</v>
       </c>
       <c r="C29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>5507</v>
+        <v>3500</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3521</v>
+        <v>5492</v>
       </c>
       <c r="C30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>5508</v>
+        <v>3501</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3522</v>
+        <v>3502</v>
       </c>
       <c r="C31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>are</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>5509</v>
+        <v>3503</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5510</v>
+        <v>3504</v>
       </c>
       <c r="C32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>are</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>5511</v>
+        <v>3653</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3523</v>
+        <v>3654</v>
       </c>
       <c r="C33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>bmp</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>5512</v>
+        <v>3596</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3524</v>
+        <v>3594</v>
       </c>
       <c r="C34" s="3" t="str">
         <f t="shared" ref="C34:C65" si="1">RIGHT(B34,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>bmp</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>5513</v>
+        <v>3595</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3656</v>
+        <v>3597</v>
       </c>
       <c r="C35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>bmp</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>5514</v>
+        <v>5313</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3636</v>
+        <v>5314</v>
       </c>
       <c r="C36" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>spl</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>5515</v>
+        <v>5637</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3525</v>
+        <v>5638</v>
       </c>
       <c r="C37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>spl</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>5516</v>
+        <v>1187</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5517</v>
+        <v>3505</v>
       </c>
       <c r="C38" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>5518</v>
+        <v>1188</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3657</v>
+        <v>3506</v>
       </c>
       <c r="C39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>5519</v>
+        <v>1452</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>3526</v>
+        <v>3507</v>
       </c>
       <c r="C40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>5520</v>
+        <v>1453</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3527</v>
+        <v>3508</v>
       </c>
       <c r="C41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>5521</v>
+        <v>3211</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5522</v>
+        <v>3509</v>
       </c>
       <c r="C42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>5523</v>
+        <v>3213</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3528</v>
+        <v>3511</v>
       </c>
       <c r="C43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>5524</v>
+        <v>3215</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3529</v>
+        <v>3512</v>
       </c>
       <c r="C44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>5525</v>
+        <v>40</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>3530</v>
+        <v>3632</v>
       </c>
       <c r="C45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>5526</v>
+        <v>3510</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3531</v>
+        <v>3633</v>
       </c>
       <c r="C46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>5527</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>3532</v>
+        <v>3634</v>
       </c>
       <c r="C47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>5528</v>
+        <v>5493</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3533</v>
+        <v>3513</v>
       </c>
       <c r="C48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>5529</v>
+        <v>5494</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>3534</v>
+        <v>3514</v>
       </c>
       <c r="C49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>5530</v>
+        <v>5495</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3535</v>
+        <v>3515</v>
       </c>
       <c r="C50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>5531</v>
+        <v>5496</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>3536</v>
+        <v>3516</v>
       </c>
       <c r="C51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>5532</v>
+        <v>5497</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3537</v>
+        <v>3517</v>
       </c>
       <c r="C52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>5533</v>
+        <v>5498</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3538</v>
+        <v>3518</v>
       </c>
       <c r="C53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>5534</v>
+        <v>5499</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3539</v>
+        <v>3635</v>
       </c>
       <c r="C54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>5535</v>
+        <v>5500</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>3540</v>
+        <v>3519</v>
       </c>
       <c r="C55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>5536</v>
+        <v>5501</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>3541</v>
+        <v>3520</v>
       </c>
       <c r="C56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>5537</v>
+        <v>5502</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>3542</v>
+        <v>3655</v>
       </c>
       <c r="C57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>5538</v>
+        <v>5503</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>3543</v>
+        <v>3521</v>
       </c>
       <c r="C58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>5539</v>
+        <v>5504</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>3544</v>
+        <v>3522</v>
       </c>
       <c r="C59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>5540</v>
+        <v>5505</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>3637</v>
+        <v>5506</v>
       </c>
       <c r="C60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>5541</v>
+        <v>5507</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>3545</v>
+        <v>3523</v>
       </c>
       <c r="C61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>5542</v>
+        <v>5508</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>3546</v>
+        <v>3524</v>
       </c>
       <c r="C62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>5543</v>
+        <v>5509</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>3658</v>
+        <v>3656</v>
       </c>
       <c r="C63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>3305</v>
+        <v>5510</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>3547</v>
+        <v>3636</v>
       </c>
       <c r="C64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>3306</v>
+        <v>5511</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>3548</v>
+        <v>3525</v>
       </c>
       <c r="C65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>3307</v>
+        <v>5512</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>5545</v>
+        <v>5513</v>
       </c>
       <c r="C66" s="3" t="str">
         <f t="shared" ref="C66:C97" si="2">RIGHT(B66,3)</f>
         <v>wav</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>3308</v>
+        <v>5514</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>3549</v>
+        <v>3657</v>
       </c>
       <c r="C67" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>3309</v>
+        <v>5515</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>3638</v>
+        <v>3526</v>
       </c>
       <c r="C68" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>3310</v>
+        <v>5516</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>3550</v>
+        <v>3527</v>
       </c>
       <c r="C69" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>3311</v>
+        <v>5517</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3551</v>
+        <v>5518</v>
       </c>
       <c r="C70" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>1549</v>
+        <v>5519</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>5544</v>
+        <v>3528</v>
       </c>
       <c r="C71" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>1551</v>
+        <v>5520</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3552</v>
+        <v>3529</v>
       </c>
       <c r="C72" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>1557</v>
+        <v>5521</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>3553</v>
+        <v>3530</v>
       </c>
       <c r="C73" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>1558</v>
+        <v>5522</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>3554</v>
+        <v>3531</v>
       </c>
       <c r="C74" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>1553</v>
+        <v>5523</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>3555</v>
+        <v>3532</v>
       </c>
       <c r="C75" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>1555</v>
+        <v>5524</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>3556</v>
+        <v>3533</v>
       </c>
       <c r="C76" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>2192</v>
+        <v>5525</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>3557</v>
+        <v>3534</v>
       </c>
       <c r="C77" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>2193</v>
+        <v>5526</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>3558</v>
+        <v>3535</v>
       </c>
       <c r="C78" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>3563</v>
+        <v>5527</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>3559</v>
+        <v>3536</v>
       </c>
       <c r="C79" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>3564</v>
+        <v>5528</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>3560</v>
+        <v>3537</v>
       </c>
       <c r="C80" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>3565</v>
+        <v>5529</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>3561</v>
+        <v>3538</v>
       </c>
       <c r="C81" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>3566</v>
+        <v>5530</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>3659</v>
+        <v>3539</v>
       </c>
       <c r="C82" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>3567</v>
+        <v>5531</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>3660</v>
+        <v>3540</v>
       </c>
       <c r="C83" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>3568</v>
+        <v>5532</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>5546</v>
+        <v>3541</v>
       </c>
       <c r="C84" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>3390</v>
+        <v>5533</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>5547</v>
+        <v>3542</v>
       </c>
       <c r="C85" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>3389</v>
+        <v>5534</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>5548</v>
+        <v>3543</v>
       </c>
       <c r="C86" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>3388</v>
+        <v>5535</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>3562</v>
+        <v>3544</v>
       </c>
       <c r="C87" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>3503</v>
+        <v>5536</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>3504</v>
+        <v>3637</v>
       </c>
       <c r="C88" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>are</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>3189</v>
+        <v>5537</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3578</v>
+        <v>3545</v>
       </c>
       <c r="C89" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>3614</v>
+        <v>5538</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>3615</v>
+        <v>3546</v>
       </c>
       <c r="C90" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>bam</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>3462</v>
+        <v>5539</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>3470</v>
+        <v>3658</v>
       </c>
       <c r="C91" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>3201</v>
+        <v>3311</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3641</v>
+        <v>3551</v>
       </c>
       <c r="C92" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>3608</v>
+        <v>3310</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>3609</v>
+        <v>3550</v>
       </c>
       <c r="C93" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>tis</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>3604</v>
+        <v>3309</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>3605</v>
+        <v>3638</v>
       </c>
       <c r="C94" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>wed</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>3569</v>
+        <v>3308</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>3661</v>
+        <v>3549</v>
       </c>
       <c r="C95" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>3570</v>
+        <v>3307</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>3662</v>
+        <v>5541</v>
       </c>
       <c r="C96" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>3571</v>
+        <v>3306</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>5549</v>
+        <v>3548</v>
       </c>
       <c r="C97" s="3" t="str">
         <f t="shared" si="2"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>3572</v>
+        <v>3305</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>5550</v>
+        <v>3547</v>
       </c>
       <c r="C98" s="3" t="str">
         <f t="shared" ref="C98:C129" si="3">RIGHT(B98,3)</f>
         <v>wav</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>3573</v>
+        <v>1549</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>3663</v>
+        <v>5540</v>
       </c>
       <c r="C99" s="3" t="str">
         <f t="shared" si="3"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>3574</v>
+        <v>1551</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>5551</v>
+        <v>3552</v>
       </c>
       <c r="C100" s="3" t="str">
         <f t="shared" si="3"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>3575</v>
+        <v>1557</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>5561</v>
+        <v>3553</v>
       </c>
       <c r="C101" s="3" t="str">
         <f t="shared" si="3"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>3576</v>
+        <v>1558</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>5552</v>
+        <v>3554</v>
       </c>
       <c r="C102" s="3" t="str">
         <f t="shared" si="3"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>3577</v>
+        <v>1553</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>5553</v>
+        <v>3555</v>
       </c>
       <c r="C103" s="3" t="str">
         <f t="shared" si="3"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>2118</v>
+        <v>1555</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>5554</v>
+        <v>3556</v>
       </c>
       <c r="C104" s="3" t="str">
         <f t="shared" si="3"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>2122</v>
+        <v>2192</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>5555</v>
+        <v>3557</v>
       </c>
       <c r="C105" s="3" t="str">
         <f t="shared" si="3"/>
         <v>wav</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>3191</v>
+        <v>2193</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>3579</v>
+        <v>3558</v>
       </c>
       <c r="C106" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>3612</v>
+        <v>3563</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>3613</v>
+        <v>3559</v>
       </c>
       <c r="C107" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>bam</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>3463</v>
+        <v>3564</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>3471</v>
+        <v>3560</v>
       </c>
       <c r="C108" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>2975</v>
+        <v>3565</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>3600</v>
+        <v>3561</v>
       </c>
       <c r="C109" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>3610</v>
+        <v>3566</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>3611</v>
+        <v>3659</v>
       </c>
       <c r="C110" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>bam</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>3464</v>
+        <v>3567</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>3472</v>
+        <v>3660</v>
       </c>
       <c r="C111" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>3672</v>
+        <v>3568</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>5317</v>
+        <v>5542</v>
       </c>
       <c r="C112" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>itm</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>3207</v>
+        <v>3390</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>3473</v>
+        <v>5543</v>
       </c>
       <c r="C113" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>cre</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>3647</v>
+        <v>3389</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>3474</v>
+        <v>5544</v>
       </c>
       <c r="C114" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>5558</v>
+        <v>3388</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>5318</v>
+        <v>3562</v>
       </c>
       <c r="C115" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>itm</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>5486</v>
+        <v>3569</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>3476</v>
+        <v>3661</v>
       </c>
       <c r="C116" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>3599</v>
+        <v>3570</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>3673</v>
+        <v>3662</v>
       </c>
       <c r="C117" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>3601</v>
+        <v>3571</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>5559</v>
+        <v>5545</v>
       </c>
       <c r="C118" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>itm</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>3475</v>
+        <v>3572</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>3480</v>
+        <v>5546</v>
       </c>
       <c r="C119" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>cre</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>3477</v>
+        <v>3573</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>3630</v>
+        <v>3663</v>
       </c>
       <c r="C120" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>3596</v>
+        <v>3574</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>3594</v>
+        <v>5547</v>
       </c>
       <c r="C121" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>bmp</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>3478</v>
+        <v>3575</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>3648</v>
+        <v>5557</v>
       </c>
       <c r="C122" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>3466</v>
+        <v>3576</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>3580</v>
+        <v>5548</v>
       </c>
       <c r="C123" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>3479</v>
+        <v>3577</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>5487</v>
+        <v>5549</v>
       </c>
       <c r="C124" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>3595</v>
+        <v>2118</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>3597</v>
+        <v>5550</v>
       </c>
       <c r="C125" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>bmp</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>3437</v>
+        <v>2122</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>5560</v>
+        <v>5551</v>
       </c>
       <c r="C126" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>3265</v>
+        <v>3189</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>3581</v>
+        <v>3578</v>
       </c>
       <c r="C127" s="3" t="str">
         <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>3235</v>
+        <v>3191</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>3583</v>
+        <v>3579</v>
       </c>
       <c r="C128" s="3" t="str">
         <f t="shared" si="3"/>
@@ -50097,41 +50228,41 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>3481</v>
+        <v>3466</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>3485</v>
+        <v>3580</v>
       </c>
       <c r="C129" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>cre</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>3482</v>
+        <v>3265</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>3487</v>
+        <v>3581</v>
       </c>
       <c r="C130" s="3" t="str">
         <f t="shared" ref="C130:C161" si="4">RIGHT(B130,3)</f>
-        <v>cre</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>3483</v>
+        <v>3235</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>3489</v>
+        <v>3583</v>
       </c>
       <c r="C131" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>3582</v>
       </c>
@@ -50145,22 +50276,22 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>3484</v>
+        <v>3584</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>3491</v>
+        <v>3587</v>
       </c>
       <c r="C133" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="C134" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50169,22 +50300,22 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>3486</v>
+        <v>3664</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>3631</v>
+        <v>3589</v>
       </c>
       <c r="C135" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>3585</v>
+        <v>5552</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>3588</v>
+        <v>3591</v>
       </c>
       <c r="C136" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50193,22 +50324,22 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>3488</v>
+        <v>5553</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>3649</v>
+        <v>3639</v>
       </c>
       <c r="C137" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>3664</v>
+        <v>3592</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>3589</v>
+        <v>3666</v>
       </c>
       <c r="C138" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50217,34 +50348,34 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>3490</v>
+        <v>3590</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>5488</v>
+        <v>3665</v>
       </c>
       <c r="C139" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>5556</v>
+        <v>3031</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>3591</v>
+        <v>5558</v>
       </c>
       <c r="C140" s="3" t="str">
         <f t="shared" si="4"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>5557</v>
+        <v>3277</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>3639</v>
+        <v>3667</v>
       </c>
       <c r="C141" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50253,22 +50384,22 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>3258</v>
+        <v>3276</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>5489</v>
+        <v>3668</v>
       </c>
       <c r="C142" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>3590</v>
+        <v>3003</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>3665</v>
+        <v>3669</v>
       </c>
       <c r="C143" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50277,22 +50408,22 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>3492</v>
+        <v>3593</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>5490</v>
+        <v>3670</v>
       </c>
       <c r="C144" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>3592</v>
+        <v>2744</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>3666</v>
+        <v>3640</v>
       </c>
       <c r="C145" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50301,272 +50432,273 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>3493</v>
+        <v>3007</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>5491</v>
+        <v>3671</v>
       </c>
       <c r="C146" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>3031</v>
+        <v>2498</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>5562</v>
+        <v>3598</v>
       </c>
       <c r="C147" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>baf</v>
+        <v>itm</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>3494</v>
+        <v>3201</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>3650</v>
+        <v>3641</v>
       </c>
       <c r="C148" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>3277</v>
+        <v>2975</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>3667</v>
+        <v>3600</v>
       </c>
       <c r="C149" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>baf</v>
+        <v>itm</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>3495</v>
+        <v>3672</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>5492</v>
+        <v>5315</v>
       </c>
       <c r="C150" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>3276</v>
+        <v>5554</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>3668</v>
+        <v>5316</v>
       </c>
       <c r="C151" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>baf</v>
+        <v>itm</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>3496</v>
+        <v>3599</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>5493</v>
+        <v>3673</v>
       </c>
       <c r="C152" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>cre</v>
+        <v>itm</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>3497</v>
+        <v>3601</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>5494</v>
+        <v>5555</v>
       </c>
       <c r="C153" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>3003</v>
+        <v>3437</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>3669</v>
+        <v>5556</v>
       </c>
       <c r="C154" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>baf</v>
+        <v>itm</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>3498</v>
+        <v>3602</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>3651</v>
+        <v>3603</v>
       </c>
       <c r="C155" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>cre</v>
+        <v>wed</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>3499</v>
+        <v>3604</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>5495</v>
+        <v>3605</v>
       </c>
       <c r="C156" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>wed</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>3593</v>
+        <v>3606</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>3670</v>
+        <v>3607</v>
       </c>
       <c r="C157" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>baf</v>
+        <v>tis</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>2817</v>
+        <v>3608</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>3652</v>
+        <v>3609</v>
       </c>
       <c r="C158" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>cre</v>
+        <v>tis</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>3500</v>
+        <v>3616</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>5496</v>
+        <v>3617</v>
       </c>
       <c r="C159" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>2744</v>
+        <v>3614</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>3640</v>
+        <v>3615</v>
       </c>
       <c r="C160" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>3007</v>
+        <v>3612</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>3671</v>
+        <v>3613</v>
       </c>
       <c r="C161" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>3610</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>3611</v>
+      </c>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C167" s="3"/>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C168" s="3"/>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C169" s="3"/>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C170" s="3"/>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C172" s="3"/>
     </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C176" s="3"/>
     </row>
-    <row r="177" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C179" s="3"/>
     </row>
-    <row r="180" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C181" s="3"/>
     </row>
-    <row r="182" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C182" s="3"/>
     </row>
-    <row r="183" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C183" s="3"/>
     </row>
-    <row r="184" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C184" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C184" xr:uid="{A8F845C5-1DFB-4DB9-9EFF-7FD24A274361}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="cre"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C184">
       <sortCondition ref="B1:B184"/>
     </sortState>
@@ -50681,7 +50813,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50704,10 +50836,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>5000</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5001</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5002</v>
       </c>
       <c r="C2" s="5" t="str">
         <f t="shared" ref="C2:C17" si="0">RIGHT(B2,3)</f>
@@ -50716,10 +50848,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>5002</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5003</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5004</v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50728,10 +50860,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>5004</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>5005</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5006</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50740,10 +50872,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>5006</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>5007</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5008</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50752,10 +50884,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>5008</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>5009</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>5010</v>
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50764,10 +50896,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>5010</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>5011</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>5012</v>
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50776,10 +50908,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>5012</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>5013</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>5014</v>
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50788,10 +50920,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>5014</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>5015</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5016</v>
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50803,7 +50935,7 @@
         <v>1718</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>5017</v>
+        <v>5016</v>
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50815,7 +50947,7 @@
         <v>187</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>5018</v>
+        <v>5017</v>
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50827,7 +50959,7 @@
         <v>188</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>5019</v>
+        <v>5018</v>
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50839,7 +50971,7 @@
         <v>186</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>5020</v>
+        <v>5019</v>
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50851,7 +50983,7 @@
         <v>2103</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>5021</v>
+        <v>5020</v>
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50863,7 +50995,7 @@
         <v>3031</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>5022</v>
+        <v>5021</v>
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50872,10 +51004,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>5022</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>5023</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>5024</v>
       </c>
       <c r="C16" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50884,10 +51016,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>5024</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>5025</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>5026</v>
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50902,10 +51034,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F0131F-33AF-4648-9455-CFE6248322BD}">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113:C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50928,10 +51060,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5600</v>
+        <v>5595</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5330</v>
+        <v>5328</v>
       </c>
       <c r="C2" s="5" t="str">
         <f t="shared" ref="C2:C65" si="0">RIGHT(B2,3)</f>
@@ -50940,10 +51072,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5563</v>
+        <v>5559</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5564</v>
+        <v>5560</v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50952,10 +51084,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5573</v>
+        <v>5569</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5575</v>
+        <v>5571</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50964,10 +51096,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5574</v>
+        <v>5570</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5333</v>
+        <v>5331</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50976,10 +51108,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5329</v>
+        <v>5327</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5601</v>
+        <v>5596</v>
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -50988,10 +51120,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5331</v>
+        <v>5329</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5576</v>
+        <v>5572</v>
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51000,10 +51132,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5332</v>
+        <v>5330</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>5337</v>
+        <v>5335</v>
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51012,10 +51144,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5334</v>
+        <v>5332</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>5602</v>
+        <v>5597</v>
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51024,10 +51156,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>5335</v>
+        <v>5333</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5577</v>
+        <v>5573</v>
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51036,10 +51168,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>5603</v>
+        <v>5598</v>
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51048,10 +51180,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>5338</v>
+        <v>5336</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5343</v>
+        <v>5341</v>
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51060,10 +51192,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>5339</v>
+        <v>5337</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>5345</v>
+        <v>5343</v>
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51072,10 +51204,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>5340</v>
+        <v>5338</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5346</v>
+        <v>5344</v>
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51084,10 +51216,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>5578</v>
+        <v>5574</v>
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51096,10 +51228,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>5342</v>
+        <v>5340</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>5579</v>
+        <v>5575</v>
       </c>
       <c r="C16" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51108,10 +51240,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>5344</v>
+        <v>5342</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>5604</v>
+        <v>5599</v>
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51120,10 +51252,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>5347</v>
+        <v>5345</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>5352</v>
+        <v>5350</v>
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51132,10 +51264,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>5348</v>
+        <v>5346</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5565</v>
+        <v>5561</v>
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51144,10 +51276,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5580</v>
+        <v>5576</v>
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51156,10 +51288,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>5350</v>
+        <v>5348</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5581</v>
+        <v>5577</v>
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51168,10 +51300,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>5351</v>
+        <v>5349</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5605</v>
+        <v>5600</v>
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51180,10 +51312,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>5353</v>
+        <v>5351</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5582</v>
+        <v>5578</v>
       </c>
       <c r="C23" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51192,10 +51324,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>5354</v>
+        <v>5352</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5606</v>
+        <v>5601</v>
       </c>
       <c r="C24" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51204,10 +51336,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>5355</v>
+        <v>5353</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5607</v>
+        <v>5602</v>
       </c>
       <c r="C25" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51216,10 +51348,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>5356</v>
+        <v>5354</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5583</v>
+        <v>5579</v>
       </c>
       <c r="C26" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51228,10 +51360,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>5357</v>
+        <v>5355</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5608</v>
+        <v>5603</v>
       </c>
       <c r="C27" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51240,10 +51372,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>5319</v>
+        <v>5317</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5320</v>
+        <v>5318</v>
       </c>
       <c r="C28" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51252,10 +51384,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>5321</v>
+        <v>5319</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5322</v>
+        <v>5320</v>
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51264,10 +51396,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>5323</v>
+        <v>5321</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5324</v>
+        <v>5322</v>
       </c>
       <c r="C30" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51276,10 +51408,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>5325</v>
+        <v>5323</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5326</v>
+        <v>5324</v>
       </c>
       <c r="C31" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51288,10 +51420,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>5327</v>
+        <v>5325</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5328</v>
+        <v>5326</v>
       </c>
       <c r="C32" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51300,10 +51432,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>5571</v>
+        <v>5567</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>5572</v>
+        <v>5568</v>
       </c>
       <c r="C33" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51312,82 +51444,82 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>5609</v>
+        <v>5639</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>5393</v>
+        <v>5640</v>
       </c>
       <c r="C34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
+        <v>spl</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>5610</v>
+        <v>5641</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5395</v>
+        <v>5642</v>
       </c>
       <c r="C35" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
+        <v>spl</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>5611</v>
+        <v>5643</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5397</v>
+        <v>5644</v>
       </c>
       <c r="C36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
+        <v>spl</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>5612</v>
+        <v>5645</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5613</v>
+        <v>5646</v>
       </c>
       <c r="C37" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
+        <v>spl</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>5392</v>
+        <v>5647</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5399</v>
+        <v>5648</v>
       </c>
       <c r="C38" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
+        <v>spl</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>5394</v>
+        <v>5649</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>5614</v>
+        <v>5650</v>
       </c>
       <c r="C39" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
+        <v>spl</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>5396</v>
+        <v>5604</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>5401</v>
+        <v>5391</v>
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51396,10 +51528,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>5398</v>
+        <v>5605</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>5403</v>
+        <v>5393</v>
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51408,10 +51540,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>5400</v>
+        <v>5606</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5406</v>
+        <v>5395</v>
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51420,10 +51552,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>5402</v>
+        <v>5607</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5409</v>
+        <v>5608</v>
       </c>
       <c r="C43" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51432,10 +51564,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>5404</v>
+        <v>5390</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>5411</v>
+        <v>5397</v>
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51444,10 +51576,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>5405</v>
+        <v>5392</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>5413</v>
+        <v>5609</v>
       </c>
       <c r="C45" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51456,10 +51588,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>5407</v>
+        <v>5394</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>5415</v>
+        <v>5399</v>
       </c>
       <c r="C46" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51468,10 +51600,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>5408</v>
+        <v>5396</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5416</v>
+        <v>5401</v>
       </c>
       <c r="C47" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51480,10 +51612,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>5410</v>
+        <v>5398</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>5417</v>
+        <v>5404</v>
       </c>
       <c r="C48" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51492,10 +51624,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>5412</v>
+        <v>5400</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>5418</v>
+        <v>5407</v>
       </c>
       <c r="C49" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51504,10 +51636,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>5414</v>
+        <v>5402</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>5419</v>
+        <v>5409</v>
       </c>
       <c r="C50" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51516,10 +51648,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>3302</v>
+        <v>5403</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>5420</v>
+        <v>5411</v>
       </c>
       <c r="C51" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51528,10 +51660,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>3303</v>
+        <v>5405</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>5421</v>
+        <v>5413</v>
       </c>
       <c r="C52" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51540,10 +51672,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>3304</v>
+        <v>5406</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>5422</v>
+        <v>5414</v>
       </c>
       <c r="C53" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51552,10 +51684,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>4820</v>
+        <v>5408</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>5423</v>
+        <v>5415</v>
       </c>
       <c r="C54" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51564,10 +51696,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>3373</v>
+        <v>5410</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>5424</v>
+        <v>5416</v>
       </c>
       <c r="C55" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51576,10 +51708,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>3374</v>
+        <v>5412</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>5425</v>
+        <v>5417</v>
       </c>
       <c r="C56" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51588,10 +51720,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>1415</v>
+        <v>3302</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>5426</v>
+        <v>5418</v>
       </c>
       <c r="C57" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51600,10 +51732,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>1416</v>
+        <v>3303</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>5615</v>
+        <v>5419</v>
       </c>
       <c r="C58" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51612,10 +51744,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>3323</v>
+        <v>3304</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>5616</v>
+        <v>5420</v>
       </c>
       <c r="C59" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51624,10 +51756,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>3324</v>
+        <v>4820</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>5617</v>
+        <v>5421</v>
       </c>
       <c r="C60" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51636,10 +51768,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>3325</v>
+        <v>3373</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>5618</v>
+        <v>5422</v>
       </c>
       <c r="C61" s="5" t="str">
         <f t="shared" si="0"/>
@@ -51648,82 +51780,82 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>5619</v>
+        <v>3374</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>5359</v>
+        <v>5423</v>
       </c>
       <c r="C62" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>5358</v>
+        <v>1415</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>5362</v>
+        <v>5424</v>
       </c>
       <c r="C63" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>5360</v>
+        <v>1416</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>5364</v>
+        <v>5610</v>
       </c>
       <c r="C64" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>5361</v>
+        <v>3323</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>5366</v>
+        <v>5611</v>
       </c>
       <c r="C65" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>5363</v>
+        <v>3324</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>5368</v>
+        <v>5612</v>
       </c>
       <c r="C66" s="5" t="str">
-        <f t="shared" ref="C66:C113" si="1">RIGHT(B66,3)</f>
-        <v>baf</v>
+        <f t="shared" ref="C66:C129" si="1">RIGHT(B66,3)</f>
+        <v>wav</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>5365</v>
+        <v>3325</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>5370</v>
+        <v>5613</v>
       </c>
       <c r="C67" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>5367</v>
+        <v>5614</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>5620</v>
+        <v>5357</v>
       </c>
       <c r="C68" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51732,10 +51864,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>5369</v>
+        <v>5356</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>5372</v>
+        <v>5360</v>
       </c>
       <c r="C69" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51744,10 +51876,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>5371</v>
+        <v>5358</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>5621</v>
+        <v>5362</v>
       </c>
       <c r="C70" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51756,10 +51888,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>5373</v>
+        <v>5359</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>5376</v>
+        <v>5364</v>
       </c>
       <c r="C71" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51768,10 +51900,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>5374</v>
+        <v>5361</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>5378</v>
+        <v>5366</v>
       </c>
       <c r="C72" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51780,10 +51912,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>5375</v>
+        <v>5363</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>5385</v>
+        <v>5368</v>
       </c>
       <c r="C73" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51792,10 +51924,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>5377</v>
+        <v>5365</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>5383</v>
+        <v>5615</v>
       </c>
       <c r="C74" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51804,10 +51936,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>5566</v>
+        <v>5367</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>5382</v>
+        <v>5370</v>
       </c>
       <c r="C75" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51816,10 +51948,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>5386</v>
+        <v>5369</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>5381</v>
+        <v>5616</v>
       </c>
       <c r="C76" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51828,10 +51960,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>5567</v>
+        <v>5371</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>5622</v>
+        <v>5374</v>
       </c>
       <c r="C77" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51840,10 +51972,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>5388</v>
+        <v>5372</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>5568</v>
+        <v>5376</v>
       </c>
       <c r="C78" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51852,10 +51984,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>5584</v>
+        <v>5373</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>5623</v>
+        <v>5383</v>
       </c>
       <c r="C79" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51864,10 +51996,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>5585</v>
+        <v>5375</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>5590</v>
+        <v>5381</v>
       </c>
       <c r="C80" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51876,10 +52008,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>5586</v>
+        <v>5562</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>5589</v>
+        <v>5380</v>
       </c>
       <c r="C81" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51888,10 +52020,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>5390</v>
+        <v>5384</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>5624</v>
+        <v>5379</v>
       </c>
       <c r="C82" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51900,10 +52032,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>5389</v>
+        <v>5563</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>5625</v>
+        <v>5617</v>
       </c>
       <c r="C83" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51912,10 +52044,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>5387</v>
+        <v>5386</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>5626</v>
+        <v>5564</v>
       </c>
       <c r="C84" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51924,10 +52056,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>5379</v>
+        <v>5580</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>5627</v>
+        <v>5618</v>
       </c>
       <c r="C85" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51936,10 +52068,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>5380</v>
+        <v>5581</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>5628</v>
+        <v>5586</v>
       </c>
       <c r="C86" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51948,10 +52080,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>3191</v>
+        <v>5582</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>5629</v>
+        <v>5585</v>
       </c>
       <c r="C87" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51960,10 +52092,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>3189</v>
+        <v>5388</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>5587</v>
+        <v>5619</v>
       </c>
       <c r="C88" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51972,10 +52104,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>5384</v>
+        <v>5387</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>5588</v>
+        <v>5620</v>
       </c>
       <c r="C89" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51984,10 +52116,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>5391</v>
+        <v>5385</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>5630</v>
+        <v>5621</v>
       </c>
       <c r="C90" s="5" t="str">
         <f t="shared" si="1"/>
@@ -51996,142 +52128,142 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>5427</v>
+        <v>5377</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>5428</v>
+        <v>5622</v>
       </c>
       <c r="C91" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wed</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>5429</v>
+        <v>5378</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>5430</v>
+        <v>5623</v>
       </c>
       <c r="C92" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wed</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>5431</v>
+        <v>3191</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>5432</v>
+        <v>5624</v>
       </c>
       <c r="C93" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wed</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>5433</v>
+        <v>3189</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>5434</v>
+        <v>5583</v>
       </c>
       <c r="C94" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wed</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>5435</v>
+        <v>5382</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>5436</v>
+        <v>5584</v>
       </c>
       <c r="C95" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wed</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>5437</v>
+        <v>5389</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>5438</v>
+        <v>5625</v>
       </c>
       <c r="C96" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bam</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>5439</v>
+        <v>5425</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>5440</v>
+        <v>5426</v>
       </c>
       <c r="C97" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bam</v>
+        <v>wed</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>5441</v>
+        <v>5427</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>5442</v>
+        <v>5428</v>
       </c>
       <c r="C98" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bam</v>
+        <v>wed</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>5443</v>
+        <v>5429</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>5444</v>
+        <v>5430</v>
       </c>
       <c r="C99" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bam</v>
+        <v>wed</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>5445</v>
+        <v>5431</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>5446</v>
+        <v>5432</v>
       </c>
       <c r="C100" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bam</v>
+        <v>wed</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>5447</v>
+        <v>5433</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>5448</v>
+        <v>5434</v>
       </c>
       <c r="C101" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>bam</v>
+        <v>wed</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>5449</v>
+        <v>5435</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>5450</v>
+        <v>5436</v>
       </c>
       <c r="C102" s="5" t="str">
         <f t="shared" si="1"/>
@@ -52140,10 +52272,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>5451</v>
+        <v>5437</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>5452</v>
+        <v>5438</v>
       </c>
       <c r="C103" s="5" t="str">
         <f t="shared" si="1"/>
@@ -52152,10 +52284,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>5453</v>
+        <v>5439</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>5454</v>
+        <v>5440</v>
       </c>
       <c r="C104" s="5" t="str">
         <f t="shared" si="1"/>
@@ -52164,10 +52296,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>5455</v>
+        <v>5441</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>5456</v>
+        <v>5442</v>
       </c>
       <c r="C105" s="5" t="str">
         <f t="shared" si="1"/>
@@ -52176,10 +52308,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>3446</v>
+        <v>5443</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>5591</v>
+        <v>5444</v>
       </c>
       <c r="C106" s="5" t="str">
         <f t="shared" si="1"/>
@@ -52188,82 +52320,82 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>5457</v>
+        <v>5445</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>5458</v>
+        <v>5446</v>
       </c>
       <c r="C107" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
+        <v>bam</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>5459</v>
+        <v>5447</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>5460</v>
+        <v>5448</v>
       </c>
       <c r="C108" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
+        <v>bam</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>5461</v>
+        <v>5449</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>5462</v>
+        <v>5450</v>
       </c>
       <c r="C109" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
+        <v>bam</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>5463</v>
+        <v>5451</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>5464</v>
+        <v>5651</v>
       </c>
       <c r="C110" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
+        <v>bam</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>5465</v>
+        <v>5452</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>5466</v>
+        <v>5652</v>
       </c>
       <c r="C111" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
+        <v>bam</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>5569</v>
+        <v>3446</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>5468</v>
+        <v>5653</v>
       </c>
       <c r="C112" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
+        <v>bam</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>5592</v>
+        <v>5453</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>5470</v>
+        <v>5454</v>
       </c>
       <c r="C113" s="5" t="str">
         <f t="shared" si="1"/>
@@ -52272,116 +52404,242 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>5593</v>
+        <v>5455</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>5570</v>
-      </c>
-      <c r="C114" s="5"/>
+        <v>5456</v>
+      </c>
+      <c r="C114" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>3423</v>
+        <v>5457</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>5594</v>
-      </c>
-      <c r="C115" s="5"/>
+        <v>5458</v>
+      </c>
+      <c r="C115" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>5469</v>
+        <v>5459</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>5473</v>
+        <v>5460</v>
+      </c>
+      <c r="C116" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>5467</v>
+        <v>5461</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>5595</v>
+        <v>5462</v>
+      </c>
+      <c r="C117" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>5471</v>
+        <v>5565</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>5475</v>
+        <v>5464</v>
+      </c>
+      <c r="C118" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>5472</v>
+        <v>5587</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>5596</v>
+        <v>5466</v>
+      </c>
+      <c r="C119" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>5474</v>
+        <v>5588</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>5597</v>
+        <v>5566</v>
+      </c>
+      <c r="C120" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>3429</v>
+        <v>3423</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>5598</v>
+        <v>5589</v>
+      </c>
+      <c r="C121" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>3431</v>
+        <v>5465</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>5599</v>
+        <v>5469</v>
+      </c>
+      <c r="C122" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>5476</v>
+        <v>5463</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>5477</v>
+        <v>5590</v>
+      </c>
+      <c r="C123" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>5478</v>
+        <v>5467</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>5479</v>
+        <v>5471</v>
+      </c>
+      <c r="C124" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>5480</v>
+        <v>5468</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>5481</v>
+        <v>5591</v>
+      </c>
+      <c r="C125" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>5482</v>
+        <v>5470</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>5483</v>
+        <v>5592</v>
+      </c>
+      <c r="C126" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>5484</v>
+        <v>3429</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>5485</v>
+        <v>5593</v>
+      </c>
+      <c r="C127" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>3431</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>5594</v>
+      </c>
+      <c r="C128" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>5472</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>5473</v>
+      </c>
+      <c r="C129" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>tis</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>5474</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>5475</v>
+      </c>
+      <c r="C130" s="5" t="str">
+        <f t="shared" ref="C130:C133" si="2">RIGHT(B130,3)</f>
+        <v>tis</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>5476</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>5477</v>
+      </c>
+      <c r="C131" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>tis</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>5478</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>5479</v>
+      </c>
+      <c r="C132" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>tis</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>5480</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>5481</v>
+      </c>
+      <c r="C133" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>tis</v>
       </c>
     </row>
   </sheetData>

--- a/EE/generated/referenceTable.xlsx
+++ b/EE/generated/referenceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\generated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74E7FDE-DB2C-4CA2-8295-D0D11C128EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F44D689-5BBB-47FB-AF82-7A8F0982AAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Block A" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Block D'!$A$1:$C$184</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Block E'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Block F'!$A$1:$C$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Block G'!$A$1:$C$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Block G'!$A$1:$C$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48680,7 +48680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F845C5-1DFB-4DB9-9EFF-7FD24A274361}">
   <dimension ref="A1:C184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -51034,10 +51034,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F0131F-33AF-4648-9455-CFE6248322BD}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113:C133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51058,7 +51059,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5595</v>
       </c>
@@ -51070,7 +51071,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5559</v>
       </c>
@@ -51082,7 +51083,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5569</v>
       </c>
@@ -51094,7 +51095,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5570</v>
       </c>
@@ -51106,7 +51107,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5327</v>
       </c>
@@ -51118,7 +51119,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5329</v>
       </c>
@@ -51130,7 +51131,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5330</v>
       </c>
@@ -51142,7 +51143,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5332</v>
       </c>
@@ -51154,7 +51155,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5333</v>
       </c>
@@ -51166,7 +51167,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5334</v>
       </c>
@@ -51178,7 +51179,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5336</v>
       </c>
@@ -51190,7 +51191,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5337</v>
       </c>
@@ -51202,7 +51203,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5338</v>
       </c>
@@ -51214,7 +51215,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5339</v>
       </c>
@@ -51226,7 +51227,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5340</v>
       </c>
@@ -51238,7 +51239,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5342</v>
       </c>
@@ -51250,7 +51251,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5345</v>
       </c>
@@ -51262,7 +51263,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5346</v>
       </c>
@@ -51274,7 +51275,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5347</v>
       </c>
@@ -51286,7 +51287,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5348</v>
       </c>
@@ -51298,7 +51299,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5349</v>
       </c>
@@ -51310,7 +51311,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5351</v>
       </c>
@@ -51322,7 +51323,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>5352</v>
       </c>
@@ -51334,7 +51335,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5353</v>
       </c>
@@ -51346,7 +51347,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5354</v>
       </c>
@@ -51358,7 +51359,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>5355</v>
       </c>
@@ -51430,7 +51431,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5567</v>
       </c>
@@ -51442,7 +51443,7 @@
         <v>spl</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5639</v>
       </c>
@@ -51454,7 +51455,7 @@
         <v>spl</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>5641</v>
       </c>
@@ -51466,7 +51467,7 @@
         <v>spl</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>5643</v>
       </c>
@@ -51478,7 +51479,7 @@
         <v>spl</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5645</v>
       </c>
@@ -51490,7 +51491,7 @@
         <v>spl</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5647</v>
       </c>
@@ -51502,7 +51503,7 @@
         <v>spl</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>5649</v>
       </c>
@@ -51514,7 +51515,7 @@
         <v>spl</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>5604</v>
       </c>
@@ -51526,7 +51527,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>5605</v>
       </c>
@@ -51538,7 +51539,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>5606</v>
       </c>
@@ -51550,7 +51551,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5607</v>
       </c>
@@ -51562,7 +51563,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>5390</v>
       </c>
@@ -51574,7 +51575,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>5392</v>
       </c>
@@ -51586,7 +51587,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>5394</v>
       </c>
@@ -51598,7 +51599,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>5396</v>
       </c>
@@ -51610,7 +51611,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>5398</v>
       </c>
@@ -51622,7 +51623,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>5400</v>
       </c>
@@ -51634,7 +51635,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>5402</v>
       </c>
@@ -51646,7 +51647,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>5403</v>
       </c>
@@ -51658,7 +51659,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>5405</v>
       </c>
@@ -51670,7 +51671,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>5406</v>
       </c>
@@ -51682,7 +51683,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>5408</v>
       </c>
@@ -51694,7 +51695,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>5410</v>
       </c>
@@ -51706,7 +51707,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>5412</v>
       </c>
@@ -51718,7 +51719,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>3302</v>
       </c>
@@ -51730,7 +51731,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>3303</v>
       </c>
@@ -51742,7 +51743,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>3304</v>
       </c>
@@ -51754,7 +51755,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>4820</v>
       </c>
@@ -51766,7 +51767,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>3373</v>
       </c>
@@ -51778,7 +51779,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>3374</v>
       </c>
@@ -51790,7 +51791,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>1415</v>
       </c>
@@ -51802,7 +51803,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>1416</v>
       </c>
@@ -51814,7 +51815,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>3323</v>
       </c>
@@ -51826,7 +51827,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>3324</v>
       </c>
@@ -51838,7 +51839,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>3325</v>
       </c>
@@ -51850,7 +51851,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>5614</v>
       </c>
@@ -51862,7 +51863,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>5356</v>
       </c>
@@ -51874,7 +51875,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>5358</v>
       </c>
@@ -51886,7 +51887,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>5359</v>
       </c>
@@ -51898,7 +51899,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>5361</v>
       </c>
@@ -51910,7 +51911,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>5363</v>
       </c>
@@ -51922,7 +51923,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>5365</v>
       </c>
@@ -51934,7 +51935,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>5367</v>
       </c>
@@ -51946,7 +51947,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>5369</v>
       </c>
@@ -51958,7 +51959,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>5371</v>
       </c>
@@ -51970,7 +51971,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>5372</v>
       </c>
@@ -51982,7 +51983,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>5373</v>
       </c>
@@ -51994,7 +51995,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>5375</v>
       </c>
@@ -52006,7 +52007,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>5562</v>
       </c>
@@ -52018,7 +52019,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>5384</v>
       </c>
@@ -52030,7 +52031,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>5563</v>
       </c>
@@ -52042,7 +52043,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>5386</v>
       </c>
@@ -52054,7 +52055,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>5580</v>
       </c>
@@ -52066,7 +52067,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>5581</v>
       </c>
@@ -52078,7 +52079,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>5582</v>
       </c>
@@ -52090,7 +52091,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>5388</v>
       </c>
@@ -52102,7 +52103,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>5387</v>
       </c>
@@ -52114,7 +52115,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>5385</v>
       </c>
@@ -52126,7 +52127,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>5377</v>
       </c>
@@ -52138,7 +52139,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>5378</v>
       </c>
@@ -52150,7 +52151,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>3191</v>
       </c>
@@ -52162,7 +52163,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>3189</v>
       </c>
@@ -52174,7 +52175,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>5382</v>
       </c>
@@ -52186,7 +52187,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>5389</v>
       </c>
@@ -52198,7 +52199,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>5425</v>
       </c>
@@ -52210,7 +52211,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>5427</v>
       </c>
@@ -52222,7 +52223,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>5429</v>
       </c>
@@ -52234,7 +52235,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>5431</v>
       </c>
@@ -52246,7 +52247,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>5433</v>
       </c>
@@ -52258,7 +52259,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>5435</v>
       </c>
@@ -52270,7 +52271,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>5437</v>
       </c>
@@ -52282,7 +52283,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>5439</v>
       </c>
@@ -52294,7 +52295,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>5441</v>
       </c>
@@ -52306,7 +52307,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>5443</v>
       </c>
@@ -52318,7 +52319,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>5445</v>
       </c>
@@ -52330,7 +52331,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>5447</v>
       </c>
@@ -52342,7 +52343,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>5449</v>
       </c>
@@ -52354,7 +52355,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>5451</v>
       </c>
@@ -52366,7 +52367,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>5452</v>
       </c>
@@ -52378,7 +52379,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>3446</v>
       </c>
@@ -52390,7 +52391,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>5453</v>
       </c>
@@ -52402,7 +52403,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>5455</v>
       </c>
@@ -52414,7 +52415,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>5457</v>
       </c>
@@ -52426,7 +52427,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>5459</v>
       </c>
@@ -52438,7 +52439,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>5461</v>
       </c>
@@ -52450,7 +52451,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>5565</v>
       </c>
@@ -52462,7 +52463,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>5587</v>
       </c>
@@ -52474,7 +52475,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>5588</v>
       </c>
@@ -52486,7 +52487,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>3423</v>
       </c>
@@ -52498,7 +52499,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>5465</v>
       </c>
@@ -52510,7 +52511,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>5463</v>
       </c>
@@ -52522,7 +52523,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>5467</v>
       </c>
@@ -52534,7 +52535,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>5468</v>
       </c>
@@ -52546,7 +52547,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>5470</v>
       </c>
@@ -52558,7 +52559,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>3429</v>
       </c>
@@ -52570,7 +52571,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>3431</v>
       </c>
@@ -52582,7 +52583,7 @@
         <v>itm</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>5472</v>
       </c>
@@ -52594,7 +52595,7 @@
         <v>tis</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>5474</v>
       </c>
@@ -52606,7 +52607,7 @@
         <v>tis</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>5476</v>
       </c>
@@ -52618,7 +52619,7 @@
         <v>tis</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>5478</v>
       </c>
@@ -52630,7 +52631,7 @@
         <v>tis</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>5480</v>
       </c>
@@ -52643,7 +52644,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C115" xr:uid="{90F0131F-33AF-4648-9455-CFE6248322BD}"/>
+  <autoFilter ref="A1:C133" xr:uid="{90F0131F-33AF-4648-9455-CFE6248322BD}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="are"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/EE/generated/referenceTable.xlsx
+++ b/EE/generated/referenceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\generated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5205A45E-063F-4D4E-A22F-0A291E44424D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592FA038-984D-434B-8834-DFAEDFDBDA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="945" windowWidth="10335" windowHeight="9210" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="4" r:id="rId1"/>
@@ -11005,395 +11005,13 @@
   <autoFilter ref="A1:E2576" xr:uid="{E8A4AD6E-EAAC-458B-B718-74D41769F88F}">
     <filterColumn colId="1">
       <filters>
-        <filter val="xac100"/>
-        <filter val="xac10052"/>
-        <filter val="xac10053"/>
-        <filter val="xac10054"/>
-        <filter val="xac10055"/>
-        <filter val="xac10056"/>
-        <filter val="xac10057"/>
-        <filter val="xac10058"/>
-        <filter val="xac10059"/>
-        <filter val="xac10060"/>
-        <filter val="xac10061"/>
-        <filter val="xac10062"/>
-        <filter val="xac10063"/>
-        <filter val="xac101"/>
-        <filter val="xac10107"/>
-        <filter val="xac10108"/>
-        <filter val="xac10109"/>
-        <filter val="xac10110"/>
-        <filter val="xac10111"/>
-        <filter val="xac10112"/>
-        <filter val="xac10113"/>
-        <filter val="xac10114"/>
-        <filter val="xac10115"/>
-        <filter val="xac10116"/>
-        <filter val="xac10117"/>
-        <filter val="xac10118"/>
-        <filter val="xac10119"/>
-        <filter val="xac10120"/>
-        <filter val="xac10121"/>
-        <filter val="xac10122"/>
-        <filter val="xac10123"/>
-        <filter val="xac10124"/>
-        <filter val="xac10125"/>
-        <filter val="xac10126"/>
-        <filter val="xac10128"/>
-        <filter val="xac10129"/>
-        <filter val="xac10130"/>
-        <filter val="xac10131"/>
-        <filter val="xac10132"/>
-        <filter val="xac10134"/>
-        <filter val="xac10135"/>
-        <filter val="xac10136"/>
-        <filter val="xac10137"/>
-        <filter val="xac10141"/>
-        <filter val="xac10142"/>
-        <filter val="xac10143"/>
-        <filter val="xac10144"/>
-        <filter val="xac10145"/>
-        <filter val="xac10146"/>
-        <filter val="xac10147"/>
-        <filter val="xac10154"/>
-        <filter val="xac10156"/>
-        <filter val="xac10157"/>
-        <filter val="xac10158"/>
-        <filter val="xac10159"/>
-        <filter val="xac10161"/>
-        <filter val="xac10162"/>
-        <filter val="xac10168"/>
-        <filter val="xac10169"/>
-        <filter val="xac10170"/>
-        <filter val="xac10172"/>
-        <filter val="xac10173"/>
-        <filter val="xac10174"/>
-        <filter val="xac10177"/>
-        <filter val="xac10178"/>
-        <filter val="xac10179"/>
-        <filter val="xac10180"/>
-        <filter val="xac10182"/>
-        <filter val="xac10183"/>
-        <filter val="xac10184"/>
-        <filter val="xac10185"/>
-        <filter val="xac10187"/>
-        <filter val="xac10188"/>
-        <filter val="xac10189"/>
-        <filter val="xac10190"/>
-        <filter val="xac10191"/>
-        <filter val="xac10192"/>
-        <filter val="xac10193"/>
-        <filter val="xac10194"/>
-        <filter val="xac10195"/>
-        <filter val="xac10198"/>
-        <filter val="xac102"/>
-        <filter val="xac10200"/>
-        <filter val="xac10201"/>
-        <filter val="xac10202"/>
-        <filter val="xac10203"/>
-        <filter val="xac10204"/>
-        <filter val="xac10205"/>
-        <filter val="xac10206"/>
-        <filter val="xac10207"/>
-        <filter val="xac10208"/>
-        <filter val="xac10209"/>
-        <filter val="xac10210"/>
-        <filter val="xac10211"/>
-        <filter val="xac10212"/>
-        <filter val="xac10213"/>
-        <filter val="xac10214"/>
-        <filter val="xac10215"/>
-        <filter val="xac10216"/>
-        <filter val="xac10217"/>
-        <filter val="xac10218"/>
-        <filter val="xac10219"/>
-        <filter val="xac10223"/>
-        <filter val="xac10226"/>
-        <filter val="xac10227"/>
-        <filter val="xac10228"/>
-        <filter val="xac10229"/>
-        <filter val="xac10230"/>
-        <filter val="xac10231"/>
-        <filter val="xac10237"/>
-        <filter val="xac10238"/>
-        <filter val="xac10239"/>
-        <filter val="xac10240"/>
-        <filter val="xac10241"/>
-        <filter val="xac10245"/>
-        <filter val="xac10246"/>
-        <filter val="xac10247"/>
-        <filter val="xac10261"/>
-        <filter val="xac10262"/>
-        <filter val="xac10263"/>
-        <filter val="xac10270"/>
-        <filter val="xac10271"/>
-        <filter val="xac10272"/>
-        <filter val="xac10278"/>
-        <filter val="xac10279"/>
-        <filter val="xac10280"/>
-        <filter val="xac10281"/>
-        <filter val="xac10286"/>
-        <filter val="xac10289"/>
-        <filter val="xac10290"/>
-        <filter val="xac10291"/>
-        <filter val="xac10292"/>
-        <filter val="xac103"/>
-        <filter val="xac10305"/>
-        <filter val="xac10306"/>
-        <filter val="xac10307"/>
-        <filter val="xac10314"/>
-        <filter val="xac10315"/>
-        <filter val="xac10316"/>
-        <filter val="xac10317"/>
-        <filter val="xac10318"/>
-        <filter val="xac10319"/>
-        <filter val="xac10320"/>
-        <filter val="xac10336"/>
-        <filter val="xac10337"/>
-        <filter val="xac10338"/>
-        <filter val="xac10339"/>
-        <filter val="xac10340"/>
-        <filter val="xac10349"/>
-        <filter val="xac10350"/>
-        <filter val="xac10351"/>
-        <filter val="xac10352"/>
-        <filter val="xac10353"/>
-        <filter val="xac10354"/>
-        <filter val="xac10355"/>
-        <filter val="xac10356"/>
-        <filter val="xac10382"/>
-        <filter val="xac10383"/>
-        <filter val="xac10384"/>
-        <filter val="xac10385"/>
-        <filter val="xac10386"/>
-        <filter val="xac10387"/>
-        <filter val="xac10388"/>
-        <filter val="xac104"/>
-        <filter val="xac10403"/>
-        <filter val="xac10404"/>
-        <filter val="xac10405"/>
-        <filter val="xac10406"/>
-        <filter val="xac10407"/>
-        <filter val="xac10408"/>
-        <filter val="xac10409"/>
-        <filter val="xac10410"/>
-        <filter val="xac10411"/>
-        <filter val="xac10412"/>
-        <filter val="xac10413"/>
-        <filter val="xac10446"/>
-        <filter val="xac10447"/>
-        <filter val="xac10448"/>
-        <filter val="xac10450"/>
-        <filter val="xac10451"/>
-        <filter val="xac10472"/>
-        <filter val="xac10473"/>
-        <filter val="xac105"/>
-        <filter val="xac10524"/>
-        <filter val="xac10553"/>
-        <filter val="xac10554"/>
-        <filter val="xac10555"/>
-        <filter val="xac10556"/>
-        <filter val="xac10557"/>
-        <filter val="xac10558"/>
-        <filter val="xac106"/>
-        <filter val="xac107"/>
-        <filter val="xac108"/>
-        <filter val="xac109"/>
-        <filter val="xac110"/>
-        <filter val="xac111"/>
-        <filter val="xac112"/>
-        <filter val="xac113"/>
-        <filter val="xac114"/>
-        <filter val="xac115"/>
-        <filter val="xac116"/>
-        <filter val="xac117"/>
-        <filter val="xac118"/>
-        <filter val="xac119"/>
-        <filter val="xac120"/>
-        <filter val="xac121"/>
-        <filter val="xac122"/>
-        <filter val="xac123"/>
-        <filter val="xac124"/>
-        <filter val="xac125"/>
-        <filter val="xac126"/>
-        <filter val="xac127"/>
-        <filter val="xac128"/>
-        <filter val="xac129"/>
-        <filter val="xac130"/>
-        <filter val="xac131"/>
-        <filter val="xac132"/>
-        <filter val="xac133"/>
-        <filter val="xac134"/>
-        <filter val="xac135"/>
-        <filter val="xac136"/>
-        <filter val="xac137"/>
-        <filter val="xac138"/>
-        <filter val="xac139"/>
-        <filter val="xac140"/>
-        <filter val="xac141"/>
-        <filter val="xac142"/>
-        <filter val="xac143"/>
-        <filter val="xac144"/>
-        <filter val="xac145"/>
-        <filter val="xac146"/>
-        <filter val="xac147"/>
-        <filter val="xac148"/>
-        <filter val="xac149"/>
-        <filter val="xac150"/>
-        <filter val="xac151"/>
-        <filter val="xac152"/>
-        <filter val="xac153"/>
-        <filter val="xac154"/>
-        <filter val="xac155"/>
-        <filter val="xac156"/>
-        <filter val="xac157"/>
-        <filter val="xac158"/>
-        <filter val="xac159"/>
-        <filter val="xac160"/>
-        <filter val="xac161"/>
-        <filter val="xac162"/>
-        <filter val="xac163"/>
-        <filter val="xac164"/>
-        <filter val="xac165"/>
-        <filter val="xac166"/>
-        <filter val="xac167"/>
-        <filter val="xac168"/>
-        <filter val="xac169"/>
-        <filter val="xac170"/>
-        <filter val="xac171"/>
-        <filter val="xac172"/>
-        <filter val="xac173"/>
-        <filter val="xac174"/>
-        <filter val="xac175"/>
-        <filter val="xac176"/>
-        <filter val="xac177"/>
-        <filter val="xac180"/>
-        <filter val="xac182"/>
-        <filter val="xac183"/>
-        <filter val="xac184"/>
-        <filter val="xac186"/>
-        <filter val="xac189"/>
-        <filter val="xac190"/>
-        <filter val="xac192"/>
-        <filter val="xac193"/>
-        <filter val="xac194"/>
-        <filter val="xac195"/>
-        <filter val="xac196"/>
-        <filter val="xac197"/>
-        <filter val="xac198"/>
-        <filter val="xac199"/>
-        <filter val="xac200"/>
-        <filter val="xac201"/>
-        <filter val="xac202"/>
-        <filter val="xac203"/>
-        <filter val="xac204"/>
-        <filter val="xac205"/>
-        <filter val="xac206"/>
-        <filter val="xac207"/>
-        <filter val="xac208"/>
-        <filter val="xac209"/>
-        <filter val="xac210"/>
-        <filter val="xac211"/>
-        <filter val="xac212"/>
-        <filter val="xac213"/>
-        <filter val="xac214"/>
-        <filter val="xac215"/>
-        <filter val="xac216"/>
-        <filter val="xac217"/>
-        <filter val="xac218"/>
-        <filter val="xac219"/>
-        <filter val="xac221"/>
-        <filter val="xac222"/>
-        <filter val="xac223"/>
-        <filter val="xac224"/>
-        <filter val="xac227"/>
-        <filter val="xac228"/>
-        <filter val="xac229"/>
-        <filter val="xac230"/>
-        <filter val="xac231"/>
-        <filter val="xac233"/>
-        <filter val="xac235"/>
-        <filter val="xac236"/>
-        <filter val="xac237"/>
-        <filter val="xac238"/>
-        <filter val="xac240"/>
-        <filter val="xac241"/>
-        <filter val="xac243"/>
-        <filter val="xac246"/>
-        <filter val="xac247"/>
-        <filter val="xac250"/>
-        <filter val="xac251"/>
-        <filter val="xac254"/>
-        <filter val="xac255"/>
-        <filter val="xac256"/>
-        <filter val="xac257"/>
-        <filter val="xac272"/>
-        <filter val="xac297"/>
-        <filter val="xac298"/>
-        <filter val="xac299"/>
-        <filter val="xac300"/>
-        <filter val="xac301"/>
-        <filter val="xac302"/>
-        <filter val="xac308"/>
-        <filter val="xac309"/>
-        <filter val="xac310"/>
-        <filter val="xac320"/>
-        <filter val="xac321"/>
-        <filter val="xac322"/>
-        <filter val="xac324"/>
-        <filter val="xac325"/>
-        <filter val="xac328"/>
-        <filter val="xac357"/>
-        <filter val="xac360"/>
-        <filter val="xac364"/>
-        <filter val="xac385"/>
-        <filter val="xac386"/>
-        <filter val="xac388"/>
-        <filter val="xac404"/>
-        <filter val="xac420"/>
-        <filter val="xac424"/>
-        <filter val="xac428"/>
-        <filter val="xac432"/>
-        <filter val="xac436"/>
-        <filter val="xac440"/>
-        <filter val="xac444"/>
-        <filter val="xac448"/>
-        <filter val="xac449"/>
-        <filter val="xac453"/>
-        <filter val="xac454"/>
-        <filter val="xac456"/>
-        <filter val="xac457"/>
-        <filter val="xac459"/>
-        <filter val="xac461"/>
-        <filter val="xac465"/>
-        <filter val="xac477"/>
-        <filter val="xac500"/>
-        <filter val="xac511"/>
-        <filter val="xac523"/>
-        <filter val="xac530"/>
-        <filter val="xac531"/>
-        <filter val="xac534"/>
-        <filter val="xac566"/>
-        <filter val="xac577"/>
-        <filter val="xac588"/>
-        <filter val="xac607"/>
-        <filter val="xac611"/>
-        <filter val="xac615"/>
-        <filter val="xac618"/>
-        <filter val="xac625"/>
-        <filter val="xac658"/>
-        <filter val="xac659"/>
-        <filter val="xac669"/>
-        <filter val="xac693"/>
-        <filter val="xac705"/>
-        <filter val="xac719"/>
-        <filter val="xacs100"/>
-        <filter val="xacs101"/>
+        <filter val="xae100"/>
+        <filter val="xae101"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="itm"/>
+        <filter val="are"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -11734,8 +11352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB79911A-7560-43EB-97A7-E09735CAF03B}">
   <dimension ref="A1:E2576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1316" workbookViewId="0">
-      <selection activeCell="E1978" sqref="E1978"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1440" sqref="A1:E2576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26887,7 +26505,7 @@
         <v>xae100.tis</v>
       </c>
     </row>
-    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
         <v>1418</v>
       </c>
@@ -27039,7 +26657,7 @@
         <v>xae101.tis</v>
       </c>
     </row>
-    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
         <v>1420</v>
       </c>
@@ -31352,7 +30970,7 @@
         <v>xac357.baf</v>
       </c>
     </row>
-    <row r="1033" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1033" s="1" t="s">
         <v>1558</v>
       </c>
@@ -31561,7 +31179,7 @@
         <v>xag143.baf</v>
       </c>
     </row>
-    <row r="1044" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1044" s="1" t="s">
         <v>1550</v>
       </c>
@@ -31656,7 +31274,7 @@
         <v>xad100.cre</v>
       </c>
     </row>
-    <row r="1049" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1049" s="1" t="s">
         <v>1536</v>
       </c>
@@ -31675,7 +31293,7 @@
         <v>xac101.itm</v>
       </c>
     </row>
-    <row r="1050" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1050" s="1" t="s">
         <v>1543</v>
       </c>
@@ -31694,7 +31312,7 @@
         <v>xac110.itm</v>
       </c>
     </row>
-    <row r="1051" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1051" s="1" t="s">
         <v>3571</v>
       </c>
@@ -31789,7 +31407,7 @@
         <v>xac153.cre</v>
       </c>
     </row>
-    <row r="1056" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1056" s="1" t="s">
         <v>2623</v>
       </c>
@@ -31884,7 +31502,7 @@
         <v>xag165.baf</v>
       </c>
     </row>
-    <row r="1061" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1061" s="1" t="s">
         <v>1568</v>
       </c>
@@ -31941,7 +31559,7 @@
         <v>xad107.itm</v>
       </c>
     </row>
-    <row r="1064" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1064" s="1" t="s">
         <v>1552</v>
       </c>
@@ -31960,7 +31578,7 @@
         <v>xac128.itm</v>
       </c>
     </row>
-    <row r="1065" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1065" s="1" t="s">
         <v>1548</v>
       </c>
@@ -32207,7 +31825,7 @@
         <v>xac109.bam</v>
       </c>
     </row>
-    <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1078" s="1" t="s">
         <v>1483</v>
       </c>
@@ -32245,7 +31863,7 @@
         <v>xad106.itm</v>
       </c>
     </row>
-    <row r="1080" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1080" s="1" t="s">
         <v>1541</v>
       </c>
@@ -34582,7 +34200,7 @@
         <v>xad102.cre</v>
       </c>
     </row>
-    <row r="1203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1203" s="1" t="s">
         <v>1448</v>
       </c>
@@ -34943,7 +34561,7 @@
         <v>xac121.baf</v>
       </c>
     </row>
-    <row r="1222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1222" s="1" t="s">
         <v>1546</v>
       </c>
@@ -34962,7 +34580,7 @@
         <v>xac118.itm</v>
       </c>
     </row>
-    <row r="1223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1223" s="1" t="s">
         <v>1545</v>
       </c>
@@ -35722,7 +35340,7 @@
         <v>xag106.baf</v>
       </c>
     </row>
-    <row r="1263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1263" s="1" t="s">
         <v>1565</v>
       </c>
@@ -35760,7 +35378,7 @@
         <v>xad105.itm</v>
       </c>
     </row>
-    <row r="1265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1265" s="1" t="s">
         <v>1540</v>
       </c>
@@ -35779,7 +35397,7 @@
         <v>xac107.itm</v>
       </c>
     </row>
-    <row r="1266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1266" s="1" t="s">
         <v>1567</v>
       </c>
@@ -36007,7 +35625,7 @@
         <v>xad133.baf</v>
       </c>
     </row>
-    <row r="1278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1278" s="1" t="s">
         <v>1554</v>
       </c>
@@ -36083,7 +35701,7 @@
         <v>xag102.baf</v>
       </c>
     </row>
-    <row r="1282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1282" s="1" t="s">
         <v>1553</v>
       </c>
@@ -36539,7 +36157,7 @@
         <v>xac218.cre</v>
       </c>
     </row>
-    <row r="1306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1306" s="1" t="s">
         <v>1557</v>
       </c>
@@ -36577,7 +36195,7 @@
         <v>xag167.baf</v>
       </c>
     </row>
-    <row r="1308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1308" s="1" t="s">
         <v>1560</v>
       </c>
@@ -36710,7 +36328,7 @@
         <v>xac118.cre</v>
       </c>
     </row>
-    <row r="1315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1315" s="1" t="s">
         <v>1570</v>
       </c>
@@ -36729,7 +36347,7 @@
         <v>xac227.itm</v>
       </c>
     </row>
-    <row r="1316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1316" s="1" t="s">
         <v>1571</v>
       </c>
@@ -36748,7 +36366,7 @@
         <v>xac233.itm</v>
       </c>
     </row>
-    <row r="1317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1317" s="1" t="s">
         <v>1538</v>
       </c>
@@ -36767,7 +36385,7 @@
         <v>xac103.itm</v>
       </c>
     </row>
-    <row r="1318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1318" s="1" t="s">
         <v>1549</v>
       </c>
@@ -36881,7 +36499,7 @@
         <v>xac302.baf</v>
       </c>
     </row>
-    <row r="1324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1324" s="1" t="s">
         <v>1542</v>
       </c>
@@ -37128,7 +36746,7 @@
         <v>xac159.cre</v>
       </c>
     </row>
-    <row r="1337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1337" s="1" t="s">
         <v>2629</v>
       </c>
@@ -37299,7 +36917,7 @@
         <v>xac100.eff</v>
       </c>
     </row>
-    <row r="1346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1346" s="1" t="s">
         <v>1544</v>
       </c>
@@ -37527,7 +37145,7 @@
         <v>xac194.cre</v>
       </c>
     </row>
-    <row r="1358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1358" s="1" t="s">
         <v>2743</v>
       </c>
@@ -38154,7 +37772,7 @@
         <v>xaa731.baf</v>
       </c>
     </row>
-    <row r="1391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1391" s="1" t="s">
         <v>1547</v>
       </c>
@@ -38363,7 +37981,7 @@
         <v>xaa885.cre</v>
       </c>
     </row>
-    <row r="1402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1402" s="1" t="s">
         <v>1559</v>
       </c>
@@ -39085,7 +38703,7 @@
         <v>xaa888.baf</v>
       </c>
     </row>
-    <row r="1440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1440" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1440" s="1" t="s">
         <v>1537</v>
       </c>
@@ -53734,7 +53352,7 @@
         <v>xad113.itm</v>
       </c>
     </row>
-    <row r="2211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2211" s="1" t="s">
         <v>1556</v>
       </c>
@@ -53753,7 +53371,7 @@
         <v>xac132.itm</v>
       </c>
     </row>
-    <row r="2212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2212" s="1" t="s">
         <v>2744</v>
       </c>
@@ -53772,7 +53390,7 @@
         <v>xac176.itm</v>
       </c>
     </row>
-    <row r="2213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2213" s="1" t="s">
         <v>1555</v>
       </c>
@@ -56603,7 +56221,7 @@
         <v>xaa135.dlg</v>
       </c>
     </row>
-    <row r="2362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2362" s="1" t="s">
         <v>1569</v>
       </c>
@@ -57572,7 +57190,7 @@
         <v>xaa101.eff</v>
       </c>
     </row>
-    <row r="2413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2413" s="1" t="s">
         <v>1551</v>
       </c>
@@ -57591,7 +57209,7 @@
         <v>xac127.itm</v>
       </c>
     </row>
-    <row r="2414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2414" s="1" t="s">
         <v>1564</v>
       </c>
@@ -57610,7 +57228,7 @@
         <v>xac156.itm</v>
       </c>
     </row>
-    <row r="2415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2415" s="1" t="s">
         <v>1566</v>
       </c>
@@ -57629,7 +57247,7 @@
         <v>xac180.itm</v>
       </c>
     </row>
-    <row r="2416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2416" s="1" t="s">
         <v>1539</v>
       </c>
@@ -57648,7 +57266,7 @@
         <v>xac106.itm</v>
       </c>
     </row>
-    <row r="2417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2417" s="1" t="s">
         <v>1561</v>
       </c>
@@ -57686,7 +57304,7 @@
         <v>xaa100.itm</v>
       </c>
     </row>
-    <row r="2419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2419" s="1" t="s">
         <v>1562</v>
       </c>
@@ -57705,7 +57323,7 @@
         <v>xac149.itm</v>
       </c>
     </row>
-    <row r="2420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2420" s="1" t="s">
         <v>1563</v>
       </c>
